--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -55951,7 +55951,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5319078</v>
+        <v>5319080</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55963,76 +55963,76 @@
         <v>44786.65625</v>
       </c>
       <c r="F623" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G623" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J623" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K623">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L623">
         <v>3.25</v>
       </c>
       <c r="M623">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N623">
+        <v>2.25</v>
+      </c>
+      <c r="O623">
+        <v>3.1</v>
+      </c>
+      <c r="P623">
         <v>2.8</v>
       </c>
-      <c r="O623">
-        <v>3.2</v>
-      </c>
-      <c r="P623">
-        <v>2.55</v>
-      </c>
       <c r="Q623">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R623">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S623">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T623">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U623">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V623">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W623">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X623">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y623">
         <v>-1</v>
       </c>
       <c r="Z623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA623">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB623">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC623">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -56040,7 +56040,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5319077</v>
+        <v>5319078</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -56052,76 +56052,76 @@
         <v>44786.65625</v>
       </c>
       <c r="F624" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G624" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H624">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I624">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J624" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K624">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L624">
+        <v>3.25</v>
+      </c>
+      <c r="M624">
+        <v>2.2</v>
+      </c>
+      <c r="N624">
+        <v>2.8</v>
+      </c>
+      <c r="O624">
         <v>3.2</v>
       </c>
-      <c r="M624">
-        <v>2.8</v>
-      </c>
-      <c r="N624">
-        <v>2.1</v>
-      </c>
-      <c r="O624">
-        <v>3.1</v>
-      </c>
       <c r="P624">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q624">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R624">
+        <v>2.025</v>
+      </c>
+      <c r="S624">
         <v>1.825</v>
       </c>
-      <c r="S624">
+      <c r="T624">
+        <v>2.5</v>
+      </c>
+      <c r="U624">
         <v>2.025</v>
       </c>
-      <c r="T624">
-        <v>2</v>
-      </c>
-      <c r="U624">
-        <v>1.85</v>
-      </c>
       <c r="V624">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W624">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X624">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y624">
         <v>-1</v>
       </c>
       <c r="Z624">
+        <v>0</v>
+      </c>
+      <c r="AA624">
+        <v>-0</v>
+      </c>
+      <c r="AB624">
+        <v>-1</v>
+      </c>
+      <c r="AC624">
         <v>0.825</v>
-      </c>
-      <c r="AA624">
-        <v>-1</v>
-      </c>
-      <c r="AB624">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC624">
-        <v>-1</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -56129,7 +56129,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>5319080</v>
+        <v>5319077</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56141,58 +56141,58 @@
         <v>44786.65625</v>
       </c>
       <c r="F625" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G625" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I625">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J625" t="s">
         <v>69</v>
       </c>
       <c r="K625">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L625">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M625">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N625">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O625">
         <v>3.1</v>
       </c>
       <c r="P625">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q625">
         <v>-0.25</v>
       </c>
       <c r="R625">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S625">
+        <v>2.025</v>
+      </c>
+      <c r="T625">
+        <v>2</v>
+      </c>
+      <c r="U625">
         <v>1.85</v>
       </c>
-      <c r="T625">
-        <v>2.25</v>
-      </c>
-      <c r="U625">
-        <v>1.925</v>
-      </c>
       <c r="V625">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W625">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X625">
         <v>-1</v>
@@ -56201,16 +56201,16 @@
         <v>-1</v>
       </c>
       <c r="Z625">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA625">
         <v>-1</v>
       </c>
       <c r="AB625">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC625">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -62181,7 +62181,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>5319979</v>
+        <v>5319985</v>
       </c>
       <c r="C693" t="s">
         <v>28</v>
@@ -62193,10 +62193,10 @@
         <v>44842.375</v>
       </c>
       <c r="F693" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G693" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H693">
         <v>1</v>
@@ -62208,19 +62208,19 @@
         <v>68</v>
       </c>
       <c r="K693">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L693">
         <v>3.25</v>
       </c>
       <c r="M693">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N693">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O693">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P693">
         <v>3.4</v>
@@ -62229,19 +62229,19 @@
         <v>-0.25</v>
       </c>
       <c r="R693">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S693">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T693">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U693">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V693">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W693">
         <v>-1</v>
@@ -62256,10 +62256,10 @@
         <v>-1</v>
       </c>
       <c r="AA693">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB693">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC693">
         <v>-1</v>
@@ -62270,7 +62270,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5319985</v>
+        <v>5319984</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62282,73 +62282,73 @@
         <v>44842.375</v>
       </c>
       <c r="F694" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G694" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I694">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J694" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K694">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L694">
         <v>3.25</v>
       </c>
       <c r="M694">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N694">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O694">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P694">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q694">
         <v>-0.25</v>
       </c>
       <c r="R694">
+        <v>1.975</v>
+      </c>
+      <c r="S694">
         <v>1.875</v>
-      </c>
-      <c r="S694">
-        <v>1.975</v>
       </c>
       <c r="T694">
         <v>2.5</v>
       </c>
       <c r="U694">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V694">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W694">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X694">
         <v>-1</v>
       </c>
       <c r="Y694">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z694">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA694">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB694">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC694">
         <v>-1</v>
@@ -62359,7 +62359,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5319984</v>
+        <v>5319980</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62371,76 +62371,76 @@
         <v>44842.375</v>
       </c>
       <c r="F695" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G695" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H695">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K695">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L695">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M695">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N695">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O695">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P695">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q695">
         <v>-0.25</v>
       </c>
       <c r="R695">
+        <v>1.875</v>
+      </c>
+      <c r="S695">
         <v>1.975</v>
       </c>
-      <c r="S695">
-        <v>1.875</v>
-      </c>
       <c r="T695">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U695">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V695">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W695">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X695">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y695">
         <v>-1</v>
       </c>
       <c r="Z695">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA695">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB695">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC695">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62448,7 +62448,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5319980</v>
+        <v>5319979</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62460,76 +62460,76 @@
         <v>44842.375</v>
       </c>
       <c r="F696" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G696" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H696">
         <v>1</v>
       </c>
       <c r="I696">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J696" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K696">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L696">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M696">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N696">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O696">
         <v>3.2</v>
       </c>
       <c r="P696">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q696">
         <v>-0.25</v>
       </c>
       <c r="R696">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S696">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T696">
         <v>2.25</v>
       </c>
       <c r="U696">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V696">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W696">
         <v>-1</v>
       </c>
       <c r="X696">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y696">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z696">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA696">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB696">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC696">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="697" spans="1:29">
@@ -66186,7 +66186,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5320012</v>
+        <v>5319176</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66198,10 +66198,10 @@
         <v>44870.51041666666</v>
       </c>
       <c r="F738" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G738" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H738">
         <v>1</v>
@@ -66213,43 +66213,43 @@
         <v>69</v>
       </c>
       <c r="K738">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="L738">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M738">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N738">
-        <v>1.6</v>
+        <v>2.625</v>
       </c>
       <c r="O738">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P738">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q738">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R738">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S738">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T738">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U738">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V738">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W738">
-        <v>0.6000000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="X738">
         <v>-1</v>
@@ -66258,16 +66258,16 @@
         <v>-1</v>
       </c>
       <c r="Z738">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA738">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB738">
         <v>-1</v>
       </c>
       <c r="AC738">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66275,7 +66275,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5319176</v>
+        <v>5320012</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66287,10 +66287,10 @@
         <v>44870.51041666666</v>
       </c>
       <c r="F739" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G739" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H739">
         <v>1</v>
@@ -66302,43 +66302,43 @@
         <v>69</v>
       </c>
       <c r="K739">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="L739">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M739">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N739">
-        <v>2.625</v>
+        <v>1.6</v>
       </c>
       <c r="O739">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P739">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q739">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R739">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S739">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T739">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U739">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V739">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W739">
-        <v>1.625</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66347,16 +66347,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA739">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB739">
         <v>-1</v>
       </c>
       <c r="AC739">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66631,7 +66631,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>5320018</v>
+        <v>5321351</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -66643,76 +66643,76 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F743" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G743" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I743">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J743" t="s">
         <v>67</v>
       </c>
       <c r="K743">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L743">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M743">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N743">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O743">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P743">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q743">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R743">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S743">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T743">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U743">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V743">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W743">
         <v>-1</v>
       </c>
       <c r="X743">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y743">
         <v>-1</v>
       </c>
       <c r="Z743">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA743">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB743">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC743">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="744" spans="1:29">
@@ -66720,7 +66720,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>5321351</v>
+        <v>5320021</v>
       </c>
       <c r="C744" t="s">
         <v>28</v>
@@ -66732,46 +66732,46 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F744" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G744" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I744">
         <v>2</v>
       </c>
       <c r="J744" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K744">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L744">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M744">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N744">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O744">
         <v>3.1</v>
       </c>
       <c r="P744">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q744">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R744">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S744">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T744">
         <v>2.25</v>
@@ -66786,16 +66786,16 @@
         <v>-1</v>
       </c>
       <c r="X744">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y744">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z744">
         <v>-1</v>
       </c>
       <c r="AA744">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB744">
         <v>1.025</v>
@@ -66809,7 +66809,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>5320021</v>
+        <v>5320019</v>
       </c>
       <c r="C745" t="s">
         <v>28</v>
@@ -66821,10 +66821,10 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F745" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G745" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H745">
         <v>1</v>
@@ -66836,40 +66836,40 @@
         <v>68</v>
       </c>
       <c r="K745">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="L745">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M745">
+        <v>3.1</v>
+      </c>
+      <c r="N745">
+        <v>2.7</v>
+      </c>
+      <c r="O745">
+        <v>3</v>
+      </c>
+      <c r="P745">
         <v>2.75</v>
       </c>
-      <c r="N745">
-        <v>2.6</v>
-      </c>
-      <c r="O745">
-        <v>3.1</v>
-      </c>
-      <c r="P745">
-        <v>2.8</v>
-      </c>
       <c r="Q745">
         <v>0</v>
       </c>
       <c r="R745">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S745">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T745">
         <v>2.25</v>
       </c>
       <c r="U745">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V745">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W745">
         <v>-1</v>
@@ -66878,16 +66878,16 @@
         <v>-1</v>
       </c>
       <c r="Y745">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z745">
         <v>-1</v>
       </c>
       <c r="AA745">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB745">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC745">
         <v>-1</v>
@@ -66898,7 +66898,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>5320019</v>
+        <v>5320017</v>
       </c>
       <c r="C746" t="s">
         <v>28</v>
@@ -66910,73 +66910,73 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F746" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G746" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I746">
         <v>2</v>
       </c>
       <c r="J746" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K746">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="L746">
         <v>3.1</v>
       </c>
       <c r="M746">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N746">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O746">
         <v>3</v>
       </c>
       <c r="P746">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q746">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R746">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S746">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T746">
         <v>2.25</v>
       </c>
       <c r="U746">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V746">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W746">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X746">
         <v>-1</v>
       </c>
       <c r="Y746">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z746">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA746">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB746">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC746">
         <v>-1</v>
@@ -66987,7 +66987,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>5320017</v>
+        <v>5320018</v>
       </c>
       <c r="C747" t="s">
         <v>28</v>
@@ -66999,76 +66999,76 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F747" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G747" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H747">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I747">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J747" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K747">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="L747">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M747">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N747">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O747">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P747">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q747">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R747">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S747">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T747">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U747">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V747">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W747">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X747">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y747">
         <v>-1</v>
       </c>
       <c r="Z747">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA747">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB747">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC747">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="748" spans="1:29">
@@ -67966,7 +67966,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>5320025</v>
+        <v>5321348</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67978,10 +67978,10 @@
         <v>44892.45833333334</v>
       </c>
       <c r="F758" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G758" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H758">
         <v>2</v>
@@ -67993,58 +67993,58 @@
         <v>67</v>
       </c>
       <c r="K758">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L758">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M758">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N758">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O758">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P758">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q758">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R758">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S758">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T758">
         <v>2.25</v>
       </c>
       <c r="U758">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V758">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W758">
         <v>-1</v>
       </c>
       <c r="X758">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y758">
         <v>-1</v>
       </c>
       <c r="Z758">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA758">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB758">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC758">
         <v>-1</v>
@@ -68055,7 +68055,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>5320024</v>
+        <v>5320025</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68067,76 +68067,76 @@
         <v>44892.45833333334</v>
       </c>
       <c r="F759" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G759" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I759">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J759" t="s">
         <v>67</v>
       </c>
       <c r="K759">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L759">
+        <v>3.3</v>
+      </c>
+      <c r="M759">
+        <v>3.8</v>
+      </c>
+      <c r="N759">
+        <v>2</v>
+      </c>
+      <c r="O759">
         <v>3.2</v>
       </c>
-      <c r="M759">
-        <v>2.6</v>
-      </c>
-      <c r="N759">
-        <v>2.875</v>
-      </c>
-      <c r="O759">
-        <v>3.3</v>
-      </c>
       <c r="P759">
+        <v>3.6</v>
+      </c>
+      <c r="Q759">
+        <v>-0.5</v>
+      </c>
+      <c r="R759">
+        <v>2.025</v>
+      </c>
+      <c r="S759">
+        <v>1.825</v>
+      </c>
+      <c r="T759">
         <v>2.25</v>
       </c>
-      <c r="Q759">
-        <v>0.25</v>
-      </c>
-      <c r="R759">
-        <v>1.8</v>
-      </c>
-      <c r="S759">
-        <v>2.05</v>
-      </c>
-      <c r="T759">
-        <v>2.5</v>
-      </c>
       <c r="U759">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V759">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W759">
         <v>-1</v>
       </c>
       <c r="X759">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y759">
         <v>-1</v>
       </c>
       <c r="Z759">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA759">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB759">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC759">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760" spans="1:29">
@@ -68144,7 +68144,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>5321348</v>
+        <v>5320024</v>
       </c>
       <c r="C760" t="s">
         <v>28</v>
@@ -68156,76 +68156,76 @@
         <v>44892.45833333334</v>
       </c>
       <c r="F760" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G760" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J760" t="s">
         <v>67</v>
       </c>
       <c r="K760">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L760">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M760">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N760">
+        <v>2.875</v>
+      </c>
+      <c r="O760">
+        <v>3.3</v>
+      </c>
+      <c r="P760">
+        <v>2.25</v>
+      </c>
+      <c r="Q760">
+        <v>0.25</v>
+      </c>
+      <c r="R760">
+        <v>1.8</v>
+      </c>
+      <c r="S760">
+        <v>2.05</v>
+      </c>
+      <c r="T760">
+        <v>2.5</v>
+      </c>
+      <c r="U760">
+        <v>1.975</v>
+      </c>
+      <c r="V760">
+        <v>1.875</v>
+      </c>
+      <c r="W760">
+        <v>-1</v>
+      </c>
+      <c r="X760">
         <v>2.3</v>
       </c>
-      <c r="O760">
-        <v>3.1</v>
-      </c>
-      <c r="P760">
-        <v>2.9</v>
-      </c>
-      <c r="Q760">
-        <v>-0.25</v>
-      </c>
-      <c r="R760">
-        <v>2.05</v>
-      </c>
-      <c r="S760">
-        <v>1.8</v>
-      </c>
-      <c r="T760">
-        <v>2.25</v>
-      </c>
-      <c r="U760">
-        <v>2.05</v>
-      </c>
-      <c r="V760">
-        <v>1.75</v>
-      </c>
-      <c r="W760">
-        <v>-1</v>
-      </c>
-      <c r="X760">
-        <v>2.1</v>
-      </c>
       <c r="Y760">
         <v>-1</v>
       </c>
       <c r="Z760">
+        <v>0.4</v>
+      </c>
+      <c r="AA760">
         <v>-0.5</v>
       </c>
-      <c r="AA760">
-        <v>0.4</v>
-      </c>
       <c r="AB760">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC760">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="761" spans="1:29">
@@ -69479,7 +69479,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5320036</v>
+        <v>5320042</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69491,10 +69491,10 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F775" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G775" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H775">
         <v>0</v>
@@ -69506,40 +69506,40 @@
         <v>68</v>
       </c>
       <c r="K775">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L775">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M775">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N775">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O775">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P775">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q775">
         <v>-0.25</v>
       </c>
       <c r="R775">
-        <v>2.15</v>
+        <v>2.025</v>
       </c>
       <c r="S775">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T775">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U775">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V775">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W775">
         <v>-1</v>
@@ -69548,16 +69548,16 @@
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z775">
         <v>-1</v>
       </c>
       <c r="AA775">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB775">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
       <c r="AC775">
         <v>-1</v>
@@ -69568,7 +69568,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5320042</v>
+        <v>5320040</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69580,76 +69580,76 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F776" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G776" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H776">
         <v>0</v>
       </c>
       <c r="I776">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J776" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K776">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L776">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M776">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N776">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O776">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P776">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q776">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R776">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S776">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T776">
         <v>2.25</v>
       </c>
       <c r="U776">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V776">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W776">
         <v>-1</v>
       </c>
       <c r="X776">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y776">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z776">
         <v>-1</v>
       </c>
       <c r="AA776">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB776">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC776">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -69657,7 +69657,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5320038</v>
+        <v>5320036</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69669,73 +69669,73 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F777" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G777" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J777" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K777">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L777">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M777">
+        <v>2.8</v>
+      </c>
+      <c r="N777">
+        <v>2.6</v>
+      </c>
+      <c r="O777">
+        <v>2.8</v>
+      </c>
+      <c r="P777">
         <v>3</v>
       </c>
-      <c r="N777">
-        <v>2.45</v>
-      </c>
-      <c r="O777">
-        <v>3.1</v>
-      </c>
-      <c r="P777">
-        <v>2.8</v>
-      </c>
       <c r="Q777">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R777">
-        <v>1.825</v>
+        <v>2.15</v>
       </c>
       <c r="S777">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T777">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U777">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V777">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W777">
         <v>-1</v>
       </c>
       <c r="X777">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y777">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z777">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA777">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB777">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -69746,7 +69746,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5320037</v>
+        <v>5320038</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69758,49 +69758,49 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F778" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G778" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I778">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J778" t="s">
         <v>67</v>
       </c>
       <c r="K778">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L778">
         <v>3.1</v>
       </c>
       <c r="M778">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N778">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O778">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P778">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q778">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R778">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S778">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T778">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U778">
         <v>2.05</v>
@@ -69812,22 +69812,22 @@
         <v>-1</v>
       </c>
       <c r="X778">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y778">
         <v>-1</v>
       </c>
       <c r="Z778">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA778">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB778">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC778">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69835,7 +69835,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5320040</v>
+        <v>5320037</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69847,76 +69847,76 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F779" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G779" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I779">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J779" t="s">
         <v>67</v>
       </c>
       <c r="K779">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L779">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M779">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N779">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O779">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P779">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q779">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R779">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S779">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T779">
         <v>2.25</v>
       </c>
       <c r="U779">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V779">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W779">
         <v>-1</v>
       </c>
       <c r="X779">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y779">
         <v>-1</v>
       </c>
       <c r="Z779">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA779">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB779">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC779">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -71170,7 +71170,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5320057</v>
+        <v>5321342</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71182,55 +71182,55 @@
         <v>44913.41666666666</v>
       </c>
       <c r="F794" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G794" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H794">
         <v>0</v>
       </c>
       <c r="I794">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J794" t="s">
         <v>68</v>
       </c>
       <c r="K794">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L794">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M794">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N794">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O794">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P794">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q794">
         <v>-0.5</v>
       </c>
       <c r="R794">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S794">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T794">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U794">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V794">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W794">
         <v>-1</v>
@@ -71239,19 +71239,19 @@
         <v>-1</v>
       </c>
       <c r="Y794">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z794">
         <v>-1</v>
       </c>
       <c r="AA794">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB794">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC794">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="795" spans="1:29">
@@ -71259,7 +71259,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5321342</v>
+        <v>5320057</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71271,55 +71271,55 @@
         <v>44913.41666666666</v>
       </c>
       <c r="F795" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G795" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H795">
         <v>0</v>
       </c>
       <c r="I795">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J795" t="s">
         <v>68</v>
       </c>
       <c r="K795">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L795">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M795">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N795">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O795">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P795">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q795">
         <v>-0.5</v>
       </c>
       <c r="R795">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S795">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T795">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U795">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V795">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W795">
         <v>-1</v>
@@ -71328,19 +71328,19 @@
         <v>-1</v>
       </c>
       <c r="Y795">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z795">
         <v>-1</v>
       </c>
       <c r="AA795">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB795">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC795">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -72772,7 +72772,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>5320067</v>
+        <v>5320068</v>
       </c>
       <c r="C812" t="s">
         <v>28</v>
@@ -72784,76 +72784,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F812" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G812" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I812">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J812" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K812">
-        <v>1.952</v>
+        <v>1.833</v>
       </c>
       <c r="L812">
         <v>3.4</v>
       </c>
       <c r="M812">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N812">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O812">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P812">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q812">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R812">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S812">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T812">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U812">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V812">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W812">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X812">
         <v>-1</v>
       </c>
       <c r="Y812">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z812">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA812">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB812">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC812">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:29">
@@ -72861,7 +72861,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>5320068</v>
+        <v>5320067</v>
       </c>
       <c r="C813" t="s">
         <v>28</v>
@@ -72873,76 +72873,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F813" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G813" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I813">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J813" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K813">
-        <v>1.833</v>
+        <v>1.952</v>
       </c>
       <c r="L813">
         <v>3.4</v>
       </c>
       <c r="M813">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N813">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O813">
+        <v>3</v>
+      </c>
+      <c r="P813">
         <v>3.6</v>
       </c>
-      <c r="P813">
-        <v>4</v>
-      </c>
       <c r="Q813">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R813">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S813">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T813">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U813">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V813">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W813">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X813">
         <v>-1</v>
       </c>
       <c r="Y813">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z813">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA813">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB813">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC813">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814" spans="1:29">
@@ -73039,7 +73039,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>5320071</v>
+        <v>5320070</v>
       </c>
       <c r="C815" t="s">
         <v>28</v>
@@ -73051,76 +73051,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F815" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G815" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I815">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J815" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K815">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L815">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M815">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N815">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O815">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P815">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q815">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R815">
+        <v>1.95</v>
+      </c>
+      <c r="S815">
         <v>1.9</v>
       </c>
-      <c r="S815">
-        <v>1.95</v>
-      </c>
       <c r="T815">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U815">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V815">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W815">
         <v>-1</v>
       </c>
       <c r="X815">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y815">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z815">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA815">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB815">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC815">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816" spans="1:29">
@@ -73128,7 +73128,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>5320070</v>
+        <v>5320071</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73140,76 +73140,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F816" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G816" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H816">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I816">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J816" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K816">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L816">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M816">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N816">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O816">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P816">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q816">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R816">
+        <v>1.9</v>
+      </c>
+      <c r="S816">
         <v>1.95</v>
       </c>
-      <c r="S816">
-        <v>1.9</v>
-      </c>
       <c r="T816">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U816">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V816">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W816">
         <v>-1</v>
       </c>
       <c r="X816">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y816">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z816">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA816">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB816">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC816">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73840,7 +73840,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>5320075</v>
+        <v>5320072</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73852,76 +73852,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F824" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G824" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J824" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K824">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L824">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M824">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N824">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O824">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P824">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q824">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R824">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S824">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T824">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U824">
+        <v>1.9</v>
+      </c>
+      <c r="V824">
         <v>1.95</v>
       </c>
-      <c r="V824">
-        <v>1.9</v>
-      </c>
       <c r="W824">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X824">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y824">
         <v>-1</v>
       </c>
       <c r="Z824">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA824">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB824">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC824">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -74018,7 +74018,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>5320072</v>
+        <v>5320075</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -74030,76 +74030,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F826" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G826" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I826">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J826" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K826">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L826">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M826">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N826">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O826">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P826">
+        <v>5.5</v>
+      </c>
+      <c r="Q826">
+        <v>-1</v>
+      </c>
+      <c r="R826">
+        <v>2.025</v>
+      </c>
+      <c r="S826">
+        <v>1.825</v>
+      </c>
+      <c r="T826">
         <v>2.5</v>
       </c>
-      <c r="Q826">
-        <v>0</v>
-      </c>
-      <c r="R826">
-        <v>2.1</v>
-      </c>
-      <c r="S826">
-        <v>1.775</v>
-      </c>
-      <c r="T826">
-        <v>2</v>
-      </c>
       <c r="U826">
+        <v>1.95</v>
+      </c>
+      <c r="V826">
         <v>1.9</v>
       </c>
-      <c r="V826">
-        <v>1.95</v>
-      </c>
       <c r="W826">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X826">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y826">
         <v>-1</v>
       </c>
       <c r="Z826">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA826">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB826">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC826">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="827" spans="1:29">
@@ -74641,7 +74641,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>5319186</v>
+        <v>5320080</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74653,76 +74653,76 @@
         <v>44954.41666666666</v>
       </c>
       <c r="F833" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G833" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H833">
         <v>1</v>
       </c>
       <c r="I833">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J833" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K833">
+        <v>2.05</v>
+      </c>
+      <c r="L833">
+        <v>3.2</v>
+      </c>
+      <c r="M833">
         <v>3.4</v>
       </c>
-      <c r="L833">
-        <v>3.25</v>
-      </c>
-      <c r="M833">
-        <v>2.1</v>
-      </c>
       <c r="N833">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="O833">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P833">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q833">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R833">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S833">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T833">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U833">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V833">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W833">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X833">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y833">
         <v>-1</v>
       </c>
       <c r="Z833">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA833">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB833">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC833">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -74730,7 +74730,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>5320080</v>
+        <v>5319186</v>
       </c>
       <c r="C834" t="s">
         <v>28</v>
@@ -74742,76 +74742,76 @@
         <v>44954.41666666666</v>
       </c>
       <c r="F834" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G834" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H834">
         <v>1</v>
       </c>
       <c r="I834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J834" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K834">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L834">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M834">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N834">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O834">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P834">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q834">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R834">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S834">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T834">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U834">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V834">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W834">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X834">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y834">
         <v>-1</v>
       </c>
       <c r="Z834">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA834">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB834">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC834">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="835" spans="1:29">
@@ -75531,7 +75531,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>5321331</v>
+        <v>5320093</v>
       </c>
       <c r="C843" t="s">
         <v>28</v>
@@ -75543,55 +75543,55 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F843" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G843" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I843">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J843" t="s">
         <v>68</v>
       </c>
       <c r="K843">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L843">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M843">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N843">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O843">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P843">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q843">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R843">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S843">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T843">
         <v>2</v>
       </c>
       <c r="U843">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V843">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W843">
         <v>-1</v>
@@ -75600,19 +75600,19 @@
         <v>-1</v>
       </c>
       <c r="Y843">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z843">
         <v>-1</v>
       </c>
       <c r="AA843">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB843">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC843">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="844" spans="1:29">
@@ -75620,7 +75620,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>5320093</v>
+        <v>5320092</v>
       </c>
       <c r="C844" t="s">
         <v>28</v>
@@ -75632,76 +75632,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F844" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G844" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J844" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K844">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L844">
         <v>3.2</v>
       </c>
       <c r="M844">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N844">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O844">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P844">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q844">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R844">
-        <v>2.075</v>
+        <v>2.1</v>
       </c>
       <c r="S844">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T844">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U844">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V844">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W844">
         <v>-1</v>
       </c>
       <c r="X844">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y844">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z844">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA844">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB844">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC844">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="845" spans="1:29">
@@ -75709,7 +75709,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>5320092</v>
+        <v>5321331</v>
       </c>
       <c r="C845" t="s">
         <v>28</v>
@@ -75721,76 +75721,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F845" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G845" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H845">
         <v>0</v>
       </c>
       <c r="I845">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J845" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K845">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L845">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M845">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N845">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O845">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P845">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q845">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R845">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S845">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T845">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U845">
+        <v>1.825</v>
+      </c>
+      <c r="V845">
         <v>2.025</v>
       </c>
-      <c r="V845">
-        <v>1.825</v>
-      </c>
       <c r="W845">
         <v>-1</v>
       </c>
       <c r="X845">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y845">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z845">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA845">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB845">
         <v>-1</v>
       </c>
       <c r="AC845">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="846" spans="1:29">
@@ -77311,7 +77311,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>5320104</v>
+        <v>5319188</v>
       </c>
       <c r="C863" t="s">
         <v>28</v>
@@ -77323,76 +77323,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F863" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G863" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I863">
         <v>1</v>
       </c>
       <c r="J863" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K863">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L863">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M863">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N863">
+        <v>1.85</v>
+      </c>
+      <c r="O863">
         <v>3.4</v>
       </c>
-      <c r="O863">
-        <v>3.1</v>
-      </c>
       <c r="P863">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q863">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R863">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S863">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T863">
         <v>2.25</v>
       </c>
       <c r="U863">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V863">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W863">
         <v>-1</v>
       </c>
       <c r="X863">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y863">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z863">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA863">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB863">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC863">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="864" spans="1:29">
@@ -77400,7 +77400,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>5320103</v>
+        <v>5320104</v>
       </c>
       <c r="C864" t="s">
         <v>28</v>
@@ -77412,10 +77412,10 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F864" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G864" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H864">
         <v>1</v>
@@ -77427,61 +77427,61 @@
         <v>67</v>
       </c>
       <c r="K864">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L864">
         <v>3.2</v>
       </c>
       <c r="M864">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N864">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O864">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P864">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q864">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R864">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S864">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T864">
         <v>2.25</v>
       </c>
       <c r="U864">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V864">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W864">
         <v>-1</v>
       </c>
       <c r="X864">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y864">
         <v>-1</v>
       </c>
       <c r="Z864">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA864">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB864">
         <v>-0.5</v>
       </c>
       <c r="AC864">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="865" spans="1:29">
@@ -77489,7 +77489,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>5319188</v>
+        <v>5320103</v>
       </c>
       <c r="C865" t="s">
         <v>28</v>
@@ -77501,76 +77501,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F865" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G865" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I865">
         <v>1</v>
       </c>
       <c r="J865" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K865">
+        <v>2.8</v>
+      </c>
+      <c r="L865">
+        <v>3.2</v>
+      </c>
+      <c r="M865">
+        <v>2.55</v>
+      </c>
+      <c r="N865">
+        <v>2.8</v>
+      </c>
+      <c r="O865">
+        <v>3.25</v>
+      </c>
+      <c r="P865">
+        <v>2.6</v>
+      </c>
+      <c r="Q865">
+        <v>0</v>
+      </c>
+      <c r="R865">
+        <v>2.05</v>
+      </c>
+      <c r="S865">
         <v>1.8</v>
-      </c>
-      <c r="L865">
-        <v>3.4</v>
-      </c>
-      <c r="M865">
-        <v>4.5</v>
-      </c>
-      <c r="N865">
-        <v>1.85</v>
-      </c>
-      <c r="O865">
-        <v>3.4</v>
-      </c>
-      <c r="P865">
-        <v>4.5</v>
-      </c>
-      <c r="Q865">
-        <v>-0.5</v>
-      </c>
-      <c r="R865">
-        <v>1.9</v>
-      </c>
-      <c r="S865">
-        <v>1.95</v>
       </c>
       <c r="T865">
         <v>2.25</v>
       </c>
       <c r="U865">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V865">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W865">
         <v>-1</v>
       </c>
       <c r="X865">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y865">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z865">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA865">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB865">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC865">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="866" spans="1:29">
@@ -79002,7 +79002,7 @@
         <v>880</v>
       </c>
       <c r="B882">
-        <v>5319190</v>
+        <v>5320120</v>
       </c>
       <c r="C882" t="s">
         <v>28</v>
@@ -79014,76 +79014,76 @@
         <v>44985.6875</v>
       </c>
       <c r="F882" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G882" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H882">
         <v>0</v>
       </c>
       <c r="I882">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J882" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K882">
+        <v>2</v>
+      </c>
+      <c r="L882">
+        <v>3.4</v>
+      </c>
+      <c r="M882">
+        <v>3.6</v>
+      </c>
+      <c r="N882">
         <v>2.15</v>
       </c>
-      <c r="L882">
-        <v>3.2</v>
-      </c>
-      <c r="M882">
+      <c r="O882">
         <v>3.4</v>
       </c>
-      <c r="N882">
-        <v>2</v>
-      </c>
-      <c r="O882">
-        <v>3.2</v>
-      </c>
       <c r="P882">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q882">
+        <v>-0.25</v>
+      </c>
+      <c r="R882">
+        <v>1.875</v>
+      </c>
+      <c r="S882">
+        <v>1.975</v>
+      </c>
+      <c r="T882">
+        <v>2.5</v>
+      </c>
+      <c r="U882">
+        <v>1.95</v>
+      </c>
+      <c r="V882">
+        <v>1.9</v>
+      </c>
+      <c r="W882">
+        <v>-1</v>
+      </c>
+      <c r="X882">
+        <v>2.4</v>
+      </c>
+      <c r="Y882">
+        <v>-1</v>
+      </c>
+      <c r="Z882">
         <v>-0.5</v>
       </c>
-      <c r="R882">
-        <v>2.025</v>
-      </c>
-      <c r="S882">
-        <v>1.825</v>
-      </c>
-      <c r="T882">
-        <v>2.25</v>
-      </c>
-      <c r="U882">
-        <v>1.925</v>
-      </c>
-      <c r="V882">
-        <v>1.925</v>
-      </c>
-      <c r="W882">
-        <v>-1</v>
-      </c>
-      <c r="X882">
-        <v>-1</v>
-      </c>
-      <c r="Y882">
-        <v>3</v>
-      </c>
-      <c r="Z882">
-        <v>-1</v>
-      </c>
       <c r="AA882">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AB882">
         <v>-1</v>
       </c>
       <c r="AC882">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="883" spans="1:29">
@@ -79091,7 +79091,7 @@
         <v>881</v>
       </c>
       <c r="B883">
-        <v>5320120</v>
+        <v>5319190</v>
       </c>
       <c r="C883" t="s">
         <v>28</v>
@@ -79103,76 +79103,76 @@
         <v>44985.6875</v>
       </c>
       <c r="F883" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G883" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H883">
         <v>0</v>
       </c>
       <c r="I883">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J883" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K883">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L883">
+        <v>3.2</v>
+      </c>
+      <c r="M883">
         <v>3.4</v>
       </c>
-      <c r="M883">
-        <v>3.6</v>
-      </c>
       <c r="N883">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O883">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P883">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q883">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R883">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S883">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T883">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U883">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V883">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W883">
         <v>-1</v>
       </c>
       <c r="X883">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y883">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z883">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA883">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AB883">
         <v>-1</v>
       </c>
       <c r="AC883">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="884" spans="1:29">
@@ -80871,7 +80871,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>5320130</v>
+        <v>5321320</v>
       </c>
       <c r="C903" t="s">
         <v>28</v>
@@ -80883,61 +80883,61 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F903" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G903" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I903">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J903" t="s">
         <v>67</v>
       </c>
       <c r="K903">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L903">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M903">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N903">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O903">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P903">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q903">
         <v>-0.5</v>
       </c>
       <c r="R903">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S903">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T903">
         <v>2</v>
       </c>
       <c r="U903">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V903">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W903">
         <v>-1</v>
       </c>
       <c r="X903">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y903">
         <v>-1</v>
@@ -80946,13 +80946,13 @@
         <v>-1</v>
       </c>
       <c r="AA903">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB903">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC903">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="904" spans="1:29">
@@ -81049,7 +81049,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>5320131</v>
+        <v>5320130</v>
       </c>
       <c r="C905" t="s">
         <v>28</v>
@@ -81061,76 +81061,76 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F905" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G905" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I905">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J905" t="s">
         <v>67</v>
       </c>
       <c r="K905">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L905">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M905">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N905">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O905">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P905">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q905">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R905">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S905">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T905">
+        <v>2</v>
+      </c>
+      <c r="U905">
+        <v>1.825</v>
+      </c>
+      <c r="V905">
+        <v>2.025</v>
+      </c>
+      <c r="W905">
+        <v>-1</v>
+      </c>
+      <c r="X905">
         <v>2.25</v>
       </c>
-      <c r="U905">
-        <v>1.95</v>
-      </c>
-      <c r="V905">
-        <v>1.9</v>
-      </c>
-      <c r="W905">
-        <v>-1</v>
-      </c>
-      <c r="X905">
-        <v>2.1</v>
-      </c>
       <c r="Y905">
         <v>-1</v>
       </c>
       <c r="Z905">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA905">
+        <v>0.825</v>
+      </c>
+      <c r="AB905">
+        <v>0</v>
+      </c>
+      <c r="AC905">
         <v>-0</v>
-      </c>
-      <c r="AB905">
-        <v>-1</v>
-      </c>
-      <c r="AC905">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="906" spans="1:29">
@@ -81138,7 +81138,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>5320132</v>
+        <v>5320131</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -81150,76 +81150,76 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F906" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G906" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H906">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I906">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J906" t="s">
         <v>67</v>
       </c>
       <c r="K906">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L906">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M906">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N906">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O906">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P906">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q906">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R906">
+        <v>1.95</v>
+      </c>
+      <c r="S906">
+        <v>1.9</v>
+      </c>
+      <c r="T906">
+        <v>2.25</v>
+      </c>
+      <c r="U906">
+        <v>1.95</v>
+      </c>
+      <c r="V906">
+        <v>1.9</v>
+      </c>
+      <c r="W906">
+        <v>-1</v>
+      </c>
+      <c r="X906">
         <v>2.1</v>
       </c>
-      <c r="S906">
-        <v>1.775</v>
-      </c>
-      <c r="T906">
-        <v>2</v>
-      </c>
-      <c r="U906">
-        <v>1.9</v>
-      </c>
-      <c r="V906">
-        <v>1.95</v>
-      </c>
-      <c r="W906">
-        <v>-1</v>
-      </c>
-      <c r="X906">
-        <v>2</v>
-      </c>
       <c r="Y906">
         <v>-1</v>
       </c>
       <c r="Z906">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA906">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB906">
+        <v>-1</v>
+      </c>
+      <c r="AC906">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC906">
-        <v>-1</v>
       </c>
     </row>
     <row r="907" spans="1:29">
@@ -81227,7 +81227,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5321320</v>
+        <v>5320132</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81239,76 +81239,76 @@
         <v>44996.41666666666</v>
       </c>
       <c r="F907" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G907" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I907">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J907" t="s">
         <v>67</v>
       </c>
       <c r="K907">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L907">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M907">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N907">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O907">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P907">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q907">
+        <v>-0.25</v>
+      </c>
+      <c r="R907">
+        <v>2.1</v>
+      </c>
+      <c r="S907">
+        <v>1.775</v>
+      </c>
+      <c r="T907">
+        <v>2</v>
+      </c>
+      <c r="U907">
+        <v>1.9</v>
+      </c>
+      <c r="V907">
+        <v>1.95</v>
+      </c>
+      <c r="W907">
+        <v>-1</v>
+      </c>
+      <c r="X907">
+        <v>2</v>
+      </c>
+      <c r="Y907">
+        <v>-1</v>
+      </c>
+      <c r="Z907">
         <v>-0.5</v>
       </c>
-      <c r="R907">
-        <v>1.875</v>
-      </c>
-      <c r="S907">
-        <v>1.975</v>
-      </c>
-      <c r="T907">
-        <v>2</v>
-      </c>
-      <c r="U907">
-        <v>1.875</v>
-      </c>
-      <c r="V907">
-        <v>1.975</v>
-      </c>
-      <c r="W907">
-        <v>-1</v>
-      </c>
-      <c r="X907">
-        <v>2.1</v>
-      </c>
-      <c r="Y907">
-        <v>-1</v>
-      </c>
-      <c r="Z907">
-        <v>-1</v>
-      </c>
       <c r="AA907">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB907">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC907">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="908" spans="1:29">
@@ -81405,7 +81405,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>5320135</v>
+        <v>5320136</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81417,10 +81417,10 @@
         <v>44997.51041666666</v>
       </c>
       <c r="F909" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G909" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H909">
         <v>1</v>
@@ -81432,43 +81432,43 @@
         <v>69</v>
       </c>
       <c r="K909">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L909">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M909">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N909">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O909">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P909">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q909">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R909">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S909">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T909">
         <v>2.25</v>
       </c>
       <c r="U909">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V909">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W909">
-        <v>1.45</v>
+        <v>0.571</v>
       </c>
       <c r="X909">
         <v>-1</v>
@@ -81477,16 +81477,16 @@
         <v>-1</v>
       </c>
       <c r="Z909">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA909">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB909">
         <v>-1</v>
       </c>
       <c r="AC909">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:29">
@@ -81494,7 +81494,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>5320136</v>
+        <v>5320135</v>
       </c>
       <c r="C910" t="s">
         <v>28</v>
@@ -81506,10 +81506,10 @@
         <v>44997.51041666666</v>
       </c>
       <c r="F910" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="G910" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H910">
         <v>1</v>
@@ -81521,43 +81521,43 @@
         <v>69</v>
       </c>
       <c r="K910">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L910">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M910">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N910">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="O910">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P910">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q910">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R910">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S910">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T910">
         <v>2.25</v>
       </c>
       <c r="U910">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V910">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W910">
-        <v>0.571</v>
+        <v>1.45</v>
       </c>
       <c r="X910">
         <v>-1</v>
@@ -81566,16 +81566,16 @@
         <v>-1</v>
       </c>
       <c r="Z910">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA910">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB910">
         <v>-1</v>
       </c>
       <c r="AC910">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="911" spans="1:29">
@@ -83096,7 +83096,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>5471442</v>
+        <v>5466911</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83108,70 +83108,70 @@
         <v>45017.46875</v>
       </c>
       <c r="F928" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G928" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I928">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J928" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K928">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L928">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M928">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N928">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O928">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P928">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q928">
+        <v>0.25</v>
+      </c>
+      <c r="R928">
+        <v>1.8</v>
+      </c>
+      <c r="S928">
+        <v>2.05</v>
+      </c>
+      <c r="T928">
+        <v>2</v>
+      </c>
+      <c r="U928">
+        <v>1.875</v>
+      </c>
+      <c r="V928">
+        <v>1.975</v>
+      </c>
+      <c r="W928">
+        <v>-1</v>
+      </c>
+      <c r="X928">
+        <v>2</v>
+      </c>
+      <c r="Y928">
+        <v>-1</v>
+      </c>
+      <c r="Z928">
+        <v>0.4</v>
+      </c>
+      <c r="AA928">
         <v>-0.5</v>
-      </c>
-      <c r="R928">
-        <v>1.975</v>
-      </c>
-      <c r="S928">
-        <v>1.875</v>
-      </c>
-      <c r="T928">
-        <v>2</v>
-      </c>
-      <c r="U928">
-        <v>1.925</v>
-      </c>
-      <c r="V928">
-        <v>1.925</v>
-      </c>
-      <c r="W928">
-        <v>1</v>
-      </c>
-      <c r="X928">
-        <v>-1</v>
-      </c>
-      <c r="Y928">
-        <v>-1</v>
-      </c>
-      <c r="Z928">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA928">
-        <v>-1</v>
       </c>
       <c r="AB928">
         <v>0</v>
@@ -83185,7 +83185,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>5466911</v>
+        <v>5471442</v>
       </c>
       <c r="C929" t="s">
         <v>28</v>
@@ -83197,70 +83197,70 @@
         <v>45017.46875</v>
       </c>
       <c r="F929" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G929" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H929">
+        <v>2</v>
+      </c>
+      <c r="I929">
+        <v>0</v>
+      </c>
+      <c r="J929" t="s">
+        <v>69</v>
+      </c>
+      <c r="K929">
+        <v>1.833</v>
+      </c>
+      <c r="L929">
+        <v>3.5</v>
+      </c>
+      <c r="M929">
+        <v>4.333</v>
+      </c>
+      <c r="N929">
+        <v>2</v>
+      </c>
+      <c r="O929">
+        <v>3.2</v>
+      </c>
+      <c r="P929">
+        <v>4</v>
+      </c>
+      <c r="Q929">
+        <v>-0.5</v>
+      </c>
+      <c r="R929">
+        <v>1.975</v>
+      </c>
+      <c r="S929">
+        <v>1.875</v>
+      </c>
+      <c r="T929">
+        <v>2</v>
+      </c>
+      <c r="U929">
+        <v>1.925</v>
+      </c>
+      <c r="V929">
+        <v>1.925</v>
+      </c>
+      <c r="W929">
         <v>1</v>
       </c>
-      <c r="I929">
-        <v>1</v>
-      </c>
-      <c r="J929" t="s">
-        <v>67</v>
-      </c>
-      <c r="K929">
-        <v>3.4</v>
-      </c>
-      <c r="L929">
-        <v>3.2</v>
-      </c>
-      <c r="M929">
-        <v>2.2</v>
-      </c>
-      <c r="N929">
-        <v>3.3</v>
-      </c>
-      <c r="O929">
-        <v>3</v>
-      </c>
-      <c r="P929">
-        <v>2.4</v>
-      </c>
-      <c r="Q929">
-        <v>0.25</v>
-      </c>
-      <c r="R929">
-        <v>1.8</v>
-      </c>
-      <c r="S929">
-        <v>2.05</v>
-      </c>
-      <c r="T929">
-        <v>2</v>
-      </c>
-      <c r="U929">
-        <v>1.875</v>
-      </c>
-      <c r="V929">
-        <v>1.975</v>
-      </c>
-      <c r="W929">
-        <v>-1</v>
-      </c>
       <c r="X929">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y929">
         <v>-1</v>
       </c>
       <c r="Z929">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA929">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB929">
         <v>0</v>
@@ -83541,7 +83541,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>5506079</v>
+        <v>5506077</v>
       </c>
       <c r="C933" t="s">
         <v>28</v>
@@ -83553,13 +83553,13 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F933" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G933" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I933">
         <v>0</v>
@@ -83568,43 +83568,43 @@
         <v>69</v>
       </c>
       <c r="K933">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L933">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M933">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N933">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="O933">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P933">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q933">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R933">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S933">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T933">
         <v>2.25</v>
       </c>
       <c r="U933">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V933">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W933">
-        <v>1.5</v>
+        <v>0.615</v>
       </c>
       <c r="X933">
         <v>-1</v>
@@ -83613,16 +83613,16 @@
         <v>-1</v>
       </c>
       <c r="Z933">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA933">
         <v>-1</v>
       </c>
       <c r="AB933">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC933">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="934" spans="1:29">
@@ -83630,7 +83630,7 @@
         <v>932</v>
       </c>
       <c r="B934">
-        <v>5506077</v>
+        <v>5500514</v>
       </c>
       <c r="C934" t="s">
         <v>28</v>
@@ -83642,76 +83642,76 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F934" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G934" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J934" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K934">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L934">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M934">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N934">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O934">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P934">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q934">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R934">
+        <v>2.025</v>
+      </c>
+      <c r="S934">
         <v>1.825</v>
-      </c>
-      <c r="S934">
-        <v>2.025</v>
       </c>
       <c r="T934">
         <v>2.25</v>
       </c>
       <c r="U934">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V934">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W934">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X934">
         <v>-1</v>
       </c>
       <c r="Y934">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z934">
+        <v>-1</v>
+      </c>
+      <c r="AA934">
         <v>0.825</v>
       </c>
-      <c r="AA934">
-        <v>-1</v>
-      </c>
       <c r="AB934">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC934">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="935" spans="1:29">
@@ -83719,7 +83719,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>5500514</v>
+        <v>5506079</v>
       </c>
       <c r="C935" t="s">
         <v>28</v>
@@ -83731,76 +83731,76 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F935" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G935" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I935">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J935" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K935">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L935">
         <v>3.2</v>
       </c>
       <c r="M935">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N935">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O935">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P935">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q935">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R935">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S935">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T935">
         <v>2.25</v>
       </c>
       <c r="U935">
+        <v>1.875</v>
+      </c>
+      <c r="V935">
         <v>1.975</v>
       </c>
-      <c r="V935">
-        <v>1.875</v>
-      </c>
       <c r="W935">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X935">
         <v>-1</v>
       </c>
       <c r="Y935">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z935">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA935">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB935">
         <v>-1</v>
       </c>
       <c r="AC935">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="936" spans="1:29">
@@ -84609,7 +84609,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>5545620</v>
+        <v>5545616</v>
       </c>
       <c r="C945" t="s">
         <v>28</v>
@@ -84621,76 +84621,76 @@
         <v>45031.375</v>
       </c>
       <c r="F945" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G945" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I945">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J945" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K945">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="L945">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M945">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N945">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O945">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P945">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q945">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R945">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S945">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T945">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U945">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V945">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W945">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X945">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y945">
         <v>-1</v>
       </c>
       <c r="Z945">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA945">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB945">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC945">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="946" spans="1:29">
@@ -84698,7 +84698,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>5545616</v>
+        <v>5545620</v>
       </c>
       <c r="C946" t="s">
         <v>28</v>
@@ -84710,76 +84710,76 @@
         <v>45031.375</v>
       </c>
       <c r="F946" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G946" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I946">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J946" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K946">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L946">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M946">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N946">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O946">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P946">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q946">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R946">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S946">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T946">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U946">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V946">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W946">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X946">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y946">
         <v>-1</v>
       </c>
       <c r="Z946">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA946">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB946">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC946">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="947" spans="1:29">
@@ -85410,7 +85410,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>5606676</v>
+        <v>5573247</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85422,55 +85422,55 @@
         <v>45038.375</v>
       </c>
       <c r="F954" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G954" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I954">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J954" t="s">
         <v>67</v>
       </c>
       <c r="K954">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L954">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M954">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N954">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O954">
         <v>3.5</v>
       </c>
       <c r="P954">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q954">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R954">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S954">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T954">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U954">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V954">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W954">
         <v>-1</v>
@@ -85485,13 +85485,13 @@
         <v>-1</v>
       </c>
       <c r="AA954">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB954">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC954">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="955" spans="1:29">
@@ -85499,7 +85499,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>5606675</v>
+        <v>5606676</v>
       </c>
       <c r="C955" t="s">
         <v>28</v>
@@ -85511,49 +85511,49 @@
         <v>45038.375</v>
       </c>
       <c r="F955" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G955" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J955" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K955">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L955">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M955">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N955">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O955">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P955">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q955">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R955">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S955">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T955">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U955">
         <v>1.95</v>
@@ -85562,25 +85562,25 @@
         <v>1.9</v>
       </c>
       <c r="W955">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X955">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y955">
         <v>-1</v>
       </c>
       <c r="Z955">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA955">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB955">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC955">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="956" spans="1:29">
@@ -85588,7 +85588,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>5603326</v>
+        <v>5606675</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85600,76 +85600,76 @@
         <v>45038.375</v>
       </c>
       <c r="F956" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G956" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956">
         <v>1</v>
       </c>
       <c r="J956" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K956">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L956">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M956">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N956">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O956">
         <v>3</v>
       </c>
       <c r="P956">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q956">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R956">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S956">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T956">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U956">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V956">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W956">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X956">
         <v>-1</v>
       </c>
       <c r="Y956">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z956">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA956">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB956">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC956">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957" spans="1:29">
@@ -85677,7 +85677,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>5573247</v>
+        <v>5603326</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85689,76 +85689,76 @@
         <v>45038.375</v>
       </c>
       <c r="F957" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G957" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I957">
         <v>1</v>
       </c>
       <c r="J957" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K957">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="L957">
         <v>3.3</v>
       </c>
       <c r="M957">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N957">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O957">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P957">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q957">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R957">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S957">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T957">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U957">
+        <v>2</v>
+      </c>
+      <c r="V957">
         <v>1.85</v>
       </c>
-      <c r="V957">
-        <v>2</v>
-      </c>
       <c r="W957">
         <v>-1</v>
       </c>
       <c r="X957">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y957">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z957">
         <v>-1</v>
       </c>
       <c r="AA957">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB957">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC957">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -86122,7 +86122,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>5607572</v>
+        <v>5607567</v>
       </c>
       <c r="C962" t="s">
         <v>28</v>
@@ -86134,76 +86134,76 @@
         <v>45046.46875</v>
       </c>
       <c r="F962" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G962" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I962">
         <v>1</v>
       </c>
       <c r="J962" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K962">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L962">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M962">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N962">
+        <v>1.727</v>
+      </c>
+      <c r="O962">
+        <v>3.75</v>
+      </c>
+      <c r="P962">
+        <v>4.75</v>
+      </c>
+      <c r="Q962">
+        <v>-0.75</v>
+      </c>
+      <c r="R962">
+        <v>1.925</v>
+      </c>
+      <c r="S962">
+        <v>1.925</v>
+      </c>
+      <c r="T962">
         <v>2.75</v>
       </c>
-      <c r="O962">
-        <v>3.3</v>
-      </c>
-      <c r="P962">
-        <v>2.6</v>
-      </c>
-      <c r="Q962">
-        <v>0</v>
-      </c>
-      <c r="R962">
-        <v>1.95</v>
-      </c>
-      <c r="S962">
-        <v>1.9</v>
-      </c>
-      <c r="T962">
-        <v>2.25</v>
-      </c>
       <c r="U962">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V962">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W962">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X962">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y962">
         <v>-1</v>
       </c>
       <c r="Z962">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA962">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB962">
+        <v>0.5125</v>
+      </c>
+      <c r="AC962">
         <v>-0.5</v>
-      </c>
-      <c r="AC962">
-        <v>0.5</v>
       </c>
     </row>
     <row r="963" spans="1:29">
@@ -86211,7 +86211,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>5607567</v>
+        <v>5607572</v>
       </c>
       <c r="C963" t="s">
         <v>28</v>
@@ -86223,76 +86223,76 @@
         <v>45046.46875</v>
       </c>
       <c r="F963" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G963" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I963">
         <v>1</v>
       </c>
       <c r="J963" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K963">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L963">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M963">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N963">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O963">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P963">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q963">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R963">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S963">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T963">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U963">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V963">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W963">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X963">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y963">
         <v>-1</v>
       </c>
       <c r="Z963">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA963">
+        <v>-0</v>
+      </c>
+      <c r="AB963">
         <v>-0.5</v>
       </c>
-      <c r="AB963">
-        <v>0.5125</v>
-      </c>
       <c r="AC963">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="964" spans="1:29">
@@ -87101,7 +87101,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>5638727</v>
+        <v>5638729</v>
       </c>
       <c r="C973" t="s">
         <v>28</v>
@@ -87113,55 +87113,55 @@
         <v>45052.375</v>
       </c>
       <c r="F973" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G973" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H973">
+        <v>0</v>
+      </c>
+      <c r="I973">
         <v>1</v>
-      </c>
-      <c r="I973">
-        <v>3</v>
       </c>
       <c r="J973" t="s">
         <v>68</v>
       </c>
       <c r="K973">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L973">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M973">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N973">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O973">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P973">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q973">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R973">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S973">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T973">
         <v>2.25</v>
       </c>
       <c r="U973">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V973">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W973">
         <v>-1</v>
@@ -87170,19 +87170,19 @@
         <v>-1</v>
       </c>
       <c r="Y973">
-        <v>2.2</v>
+        <v>3.333</v>
       </c>
       <c r="Z973">
         <v>-1</v>
       </c>
       <c r="AA973">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB973">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC973">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="974" spans="1:29">
@@ -87190,7 +87190,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>5638726</v>
+        <v>5638727</v>
       </c>
       <c r="C974" t="s">
         <v>28</v>
@@ -87202,37 +87202,37 @@
         <v>45052.375</v>
       </c>
       <c r="F974" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G974" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I974">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J974" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K974">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L974">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M974">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N974">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O974">
         <v>3.2</v>
       </c>
       <c r="P974">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q974">
         <v>-0.25</v>
@@ -87247,28 +87247,28 @@
         <v>2.25</v>
       </c>
       <c r="U974">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V974">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W974">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X974">
         <v>-1</v>
       </c>
       <c r="Y974">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z974">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA974">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB974">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC974">
         <v>-1</v>
@@ -87279,7 +87279,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>5634978</v>
+        <v>5638726</v>
       </c>
       <c r="C975" t="s">
         <v>28</v>
@@ -87291,13 +87291,13 @@
         <v>45052.375</v>
       </c>
       <c r="F975" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G975" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H975">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I975">
         <v>1</v>
@@ -87306,43 +87306,43 @@
         <v>69</v>
       </c>
       <c r="K975">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L975">
         <v>3.1</v>
       </c>
       <c r="M975">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N975">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O975">
         <v>3.2</v>
       </c>
       <c r="P975">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q975">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R975">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S975">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T975">
         <v>2.25</v>
       </c>
       <c r="U975">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V975">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W975">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X975">
         <v>-1</v>
@@ -87351,13 +87351,13 @@
         <v>-1</v>
       </c>
       <c r="Z975">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA975">
         <v>-1</v>
       </c>
       <c r="AB975">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC975">
         <v>-1</v>
@@ -87368,7 +87368,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>5638729</v>
+        <v>5634978</v>
       </c>
       <c r="C976" t="s">
         <v>28</v>
@@ -87380,76 +87380,76 @@
         <v>45052.375</v>
       </c>
       <c r="F976" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G976" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I976">
         <v>1</v>
       </c>
       <c r="J976" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K976">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L976">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M976">
+        <v>4.75</v>
+      </c>
+      <c r="N976">
+        <v>2</v>
+      </c>
+      <c r="O976">
+        <v>3.2</v>
+      </c>
+      <c r="P976">
         <v>4</v>
-      </c>
-      <c r="N976">
-        <v>1.95</v>
-      </c>
-      <c r="O976">
-        <v>3.25</v>
-      </c>
-      <c r="P976">
-        <v>4.333</v>
       </c>
       <c r="Q976">
         <v>-0.5</v>
       </c>
       <c r="R976">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S976">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T976">
         <v>2.25</v>
       </c>
       <c r="U976">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V976">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W976">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X976">
         <v>-1</v>
       </c>
       <c r="Y976">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z976">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA976">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB976">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC976">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="977" spans="1:29">
@@ -94844,7 +94844,7 @@
         <v>1058</v>
       </c>
       <c r="B1060">
-        <v>7151376</v>
+        <v>6906655</v>
       </c>
       <c r="C1060" t="s">
         <v>28</v>
@@ -94856,49 +94856,49 @@
         <v>45192.375</v>
       </c>
       <c r="F1060" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G1060" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1060">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1060" t="s">
         <v>67</v>
       </c>
       <c r="K1060">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1060">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M1060">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N1060">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O1060">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P1060">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q1060">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1060">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S1060">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T1060">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1060">
         <v>1.9</v>
@@ -94910,22 +94910,22 @@
         <v>-1</v>
       </c>
       <c r="X1060">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y1060">
         <v>-1</v>
       </c>
       <c r="Z1060">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1060">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB1060">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1060">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1061" spans="1:29">
@@ -94933,7 +94933,7 @@
         <v>1059</v>
       </c>
       <c r="B1061">
-        <v>6906655</v>
+        <v>7151376</v>
       </c>
       <c r="C1061" t="s">
         <v>28</v>
@@ -94945,49 +94945,49 @@
         <v>45192.375</v>
       </c>
       <c r="F1061" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G1061" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1061">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1061" t="s">
         <v>67</v>
       </c>
       <c r="K1061">
+        <v>3.4</v>
+      </c>
+      <c r="L1061">
+        <v>3.1</v>
+      </c>
+      <c r="M1061">
         <v>2.25</v>
       </c>
-      <c r="L1061">
-        <v>3.2</v>
-      </c>
-      <c r="M1061">
-        <v>3.2</v>
-      </c>
       <c r="N1061">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O1061">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P1061">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q1061">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1061">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S1061">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T1061">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1061">
         <v>1.9</v>
@@ -94999,22 +94999,22 @@
         <v>-1</v>
       </c>
       <c r="X1061">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y1061">
         <v>-1</v>
       </c>
       <c r="Z1061">
+        <v>0.45</v>
+      </c>
+      <c r="AA1061">
         <v>-0.5</v>
       </c>
-      <c r="AA1061">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AB1061">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1061">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1062" spans="1:29">
@@ -95111,7 +95111,7 @@
         <v>1061</v>
       </c>
       <c r="B1063">
-        <v>6906450</v>
+        <v>6905856</v>
       </c>
       <c r="C1063" t="s">
         <v>28</v>
@@ -95123,76 +95123,76 @@
         <v>45193.46875</v>
       </c>
       <c r="F1063" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G1063" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1063">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1063" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1063">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L1063">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M1063">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N1063">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O1063">
+        <v>3.1</v>
+      </c>
+      <c r="P1063">
         <v>3.4</v>
       </c>
-      <c r="P1063">
-        <v>4</v>
-      </c>
       <c r="Q1063">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1063">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S1063">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T1063">
         <v>2.25</v>
       </c>
       <c r="U1063">
+        <v>2</v>
+      </c>
+      <c r="V1063">
         <v>1.85</v>
       </c>
-      <c r="V1063">
-        <v>2</v>
-      </c>
       <c r="W1063">
         <v>-1</v>
       </c>
       <c r="X1063">
+        <v>-1</v>
+      </c>
+      <c r="Y1063">
         <v>2.4</v>
       </c>
-      <c r="Y1063">
-        <v>-1</v>
-      </c>
       <c r="Z1063">
         <v>-1</v>
       </c>
       <c r="AA1063">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB1063">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC1063">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1064" spans="1:29">
@@ -95200,7 +95200,7 @@
         <v>1062</v>
       </c>
       <c r="B1064">
-        <v>6905856</v>
+        <v>6906450</v>
       </c>
       <c r="C1064" t="s">
         <v>28</v>
@@ -95212,76 +95212,76 @@
         <v>45193.46875</v>
       </c>
       <c r="F1064" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G1064" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1064">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1064" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1064">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L1064">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M1064">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N1064">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O1064">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P1064">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q1064">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1064">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S1064">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T1064">
         <v>2.25</v>
       </c>
       <c r="U1064">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V1064">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W1064">
         <v>-1</v>
       </c>
       <c r="X1064">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1064">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z1064">
         <v>-1</v>
       </c>
       <c r="AA1064">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1064">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1064">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1065" spans="1:29">
@@ -96001,7 +96001,7 @@
         <v>1071</v>
       </c>
       <c r="B1073">
-        <v>6906658</v>
+        <v>6906449</v>
       </c>
       <c r="C1073" t="s">
         <v>28</v>
@@ -96013,76 +96013,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F1073" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G1073" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1073">
         <v>1</v>
       </c>
       <c r="J1073" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K1073">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L1073">
         <v>3.25</v>
       </c>
       <c r="M1073">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N1073">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O1073">
+        <v>3.1</v>
+      </c>
+      <c r="P1073">
         <v>3.25</v>
       </c>
-      <c r="P1073">
-        <v>4.5</v>
-      </c>
       <c r="Q1073">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1073">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S1073">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T1073">
         <v>2.25</v>
       </c>
       <c r="U1073">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V1073">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W1073">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X1073">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1073">
         <v>-1</v>
       </c>
       <c r="Z1073">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1073">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1073">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1073">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="1074" spans="1:29">
@@ -96090,7 +96090,7 @@
         <v>1072</v>
       </c>
       <c r="B1074">
-        <v>6906449</v>
+        <v>6906658</v>
       </c>
       <c r="C1074" t="s">
         <v>28</v>
@@ -96102,76 +96102,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F1074" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G1074" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1074">
         <v>1</v>
       </c>
       <c r="J1074" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1074">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L1074">
         <v>3.25</v>
       </c>
       <c r="M1074">
+        <v>3.4</v>
+      </c>
+      <c r="N1074">
+        <v>1.909</v>
+      </c>
+      <c r="O1074">
         <v>3.25</v>
       </c>
-      <c r="N1074">
-        <v>2.3</v>
-      </c>
-      <c r="O1074">
-        <v>3.1</v>
-      </c>
       <c r="P1074">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q1074">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1074">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S1074">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T1074">
         <v>2.25</v>
       </c>
       <c r="U1074">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V1074">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W1074">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1074">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1074">
         <v>-1</v>
       </c>
       <c r="Z1074">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1074">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB1074">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1074">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1075" spans="1:29">
@@ -96268,7 +96268,7 @@
         <v>1074</v>
       </c>
       <c r="B1076">
-        <v>7151374</v>
+        <v>6906666</v>
       </c>
       <c r="C1076" t="s">
         <v>28</v>
@@ -96280,76 +96280,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1076" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1076" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1076">
         <v>1</v>
       </c>
       <c r="I1076">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1076" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1076">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L1076">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M1076">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N1076">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O1076">
         <v>3.1</v>
       </c>
       <c r="P1076">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q1076">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1076">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S1076">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T1076">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1076">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V1076">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W1076">
         <v>-1</v>
       </c>
       <c r="X1076">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1076">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z1076">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1076">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB1076">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC1076">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1077" spans="1:29">
@@ -96357,7 +96357,7 @@
         <v>1075</v>
       </c>
       <c r="B1077">
-        <v>6906666</v>
+        <v>7151374</v>
       </c>
       <c r="C1077" t="s">
         <v>28</v>
@@ -96369,76 +96369,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1077" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1077" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1077">
         <v>1</v>
       </c>
       <c r="I1077">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1077" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1077">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L1077">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M1077">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N1077">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O1077">
         <v>3.1</v>
       </c>
       <c r="P1077">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q1077">
+        <v>-0.25</v>
+      </c>
+      <c r="R1077">
+        <v>1.975</v>
+      </c>
+      <c r="S1077">
+        <v>1.875</v>
+      </c>
+      <c r="T1077">
+        <v>2</v>
+      </c>
+      <c r="U1077">
+        <v>1.75</v>
+      </c>
+      <c r="V1077">
+        <v>2.05</v>
+      </c>
+      <c r="W1077">
+        <v>-1</v>
+      </c>
+      <c r="X1077">
+        <v>2.1</v>
+      </c>
+      <c r="Y1077">
+        <v>-1</v>
+      </c>
+      <c r="Z1077">
         <v>-0.5</v>
       </c>
-      <c r="R1077">
-        <v>2.025</v>
-      </c>
-      <c r="S1077">
-        <v>1.825</v>
-      </c>
-      <c r="T1077">
-        <v>2.25</v>
-      </c>
-      <c r="U1077">
-        <v>2.025</v>
-      </c>
-      <c r="V1077">
-        <v>1.825</v>
-      </c>
-      <c r="W1077">
-        <v>-1</v>
-      </c>
-      <c r="X1077">
-        <v>-1</v>
-      </c>
-      <c r="Y1077">
-        <v>3</v>
-      </c>
-      <c r="Z1077">
-        <v>-1</v>
-      </c>
       <c r="AA1077">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB1077">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC1077">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1078" spans="1:29">
@@ -96446,7 +96446,7 @@
         <v>1076</v>
       </c>
       <c r="B1078">
-        <v>6906664</v>
+        <v>6906663</v>
       </c>
       <c r="C1078" t="s">
         <v>28</v>
@@ -96458,49 +96458,49 @@
         <v>45199.375</v>
       </c>
       <c r="F1078" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G1078" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H1078">
         <v>1</v>
       </c>
       <c r="I1078">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1078" t="s">
         <v>68</v>
       </c>
       <c r="K1078">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="L1078">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M1078">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N1078">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O1078">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P1078">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q1078">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1078">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S1078">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T1078">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1078">
         <v>2.05</v>
@@ -96515,13 +96515,13 @@
         <v>-1</v>
       </c>
       <c r="Y1078">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="Z1078">
         <v>-1</v>
       </c>
       <c r="AA1078">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1078">
         <v>1.05</v>
@@ -96535,7 +96535,7 @@
         <v>1077</v>
       </c>
       <c r="B1079">
-        <v>6906663</v>
+        <v>6906664</v>
       </c>
       <c r="C1079" t="s">
         <v>28</v>
@@ -96547,49 +96547,49 @@
         <v>45199.375</v>
       </c>
       <c r="F1079" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G1079" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H1079">
         <v>1</v>
       </c>
       <c r="I1079">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1079" t="s">
         <v>68</v>
       </c>
       <c r="K1079">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="L1079">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M1079">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N1079">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O1079">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P1079">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q1079">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1079">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S1079">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T1079">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1079">
         <v>2.05</v>
@@ -96604,13 +96604,13 @@
         <v>-1</v>
       </c>
       <c r="Y1079">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Z1079">
         <v>-1</v>
       </c>
       <c r="AA1079">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB1079">
         <v>1.05</v>
@@ -97336,7 +97336,7 @@
         <v>1086</v>
       </c>
       <c r="B1088">
-        <v>6906669</v>
+        <v>6906443</v>
       </c>
       <c r="C1088" t="s">
         <v>28</v>
@@ -97348,76 +97348,76 @@
         <v>45206.375</v>
       </c>
       <c r="F1088" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G1088" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1088">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1088" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1088">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L1088">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M1088">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N1088">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O1088">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P1088">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q1088">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R1088">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S1088">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T1088">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1088">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V1088">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W1088">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X1088">
         <v>-1</v>
       </c>
       <c r="Y1088">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z1088">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1088">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1088">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC1088">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1089" spans="1:29">
@@ -97425,7 +97425,7 @@
         <v>1087</v>
       </c>
       <c r="B1089">
-        <v>6906443</v>
+        <v>6906669</v>
       </c>
       <c r="C1089" t="s">
         <v>28</v>
@@ -97437,76 +97437,76 @@
         <v>45206.375</v>
       </c>
       <c r="F1089" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G1089" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H1089">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1089">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1089" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1089">
+        <v>2.3</v>
+      </c>
+      <c r="L1089">
+        <v>3.1</v>
+      </c>
+      <c r="M1089">
+        <v>3.3</v>
+      </c>
+      <c r="N1089">
+        <v>2.7</v>
+      </c>
+      <c r="O1089">
+        <v>3.1</v>
+      </c>
+      <c r="P1089">
+        <v>2.75</v>
+      </c>
+      <c r="Q1089">
+        <v>0</v>
+      </c>
+      <c r="R1089">
+        <v>1.95</v>
+      </c>
+      <c r="S1089">
+        <v>1.9</v>
+      </c>
+      <c r="T1089">
+        <v>2.25</v>
+      </c>
+      <c r="U1089">
+        <v>1.8</v>
+      </c>
+      <c r="V1089">
+        <v>2.05</v>
+      </c>
+      <c r="W1089">
+        <v>-1</v>
+      </c>
+      <c r="X1089">
+        <v>-1</v>
+      </c>
+      <c r="Y1089">
         <v>1.75</v>
       </c>
-      <c r="L1089">
-        <v>3.5</v>
-      </c>
-      <c r="M1089">
-        <v>4.75</v>
-      </c>
-      <c r="N1089">
-        <v>1.85</v>
-      </c>
-      <c r="O1089">
-        <v>3.6</v>
-      </c>
-      <c r="P1089">
-        <v>4.2</v>
-      </c>
-      <c r="Q1089">
+      <c r="Z1089">
+        <v>-1</v>
+      </c>
+      <c r="AA1089">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB1089">
         <v>-0.5</v>
       </c>
-      <c r="R1089">
-        <v>1.85</v>
-      </c>
-      <c r="S1089">
-        <v>2</v>
-      </c>
-      <c r="T1089">
-        <v>2.5</v>
-      </c>
-      <c r="U1089">
-        <v>2</v>
-      </c>
-      <c r="V1089">
-        <v>1.85</v>
-      </c>
-      <c r="W1089">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X1089">
-        <v>-1</v>
-      </c>
-      <c r="Y1089">
-        <v>-1</v>
-      </c>
-      <c r="Z1089">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA1089">
-        <v>-1</v>
-      </c>
-      <c r="AB1089">
-        <v>1</v>
-      </c>
       <c r="AC1089">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="1090" spans="1:29">
@@ -108550,7 +108550,7 @@
         <v>1212</v>
       </c>
       <c r="B1214">
-        <v>6905867</v>
+        <v>6906738</v>
       </c>
       <c r="C1214" t="s">
         <v>28</v>
@@ -108562,73 +108562,73 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F1214" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G1214" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1214" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1214">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L1214">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M1214">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="N1214">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O1214">
         <v>3.1</v>
       </c>
       <c r="P1214">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q1214">
         <v>0</v>
       </c>
       <c r="R1214">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S1214">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T1214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V1214">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W1214">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X1214">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1214">
         <v>-1</v>
       </c>
       <c r="Z1214">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1214">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC1214">
         <v>-1</v>
@@ -108728,7 +108728,7 @@
         <v>1214</v>
       </c>
       <c r="B1216">
-        <v>6906738</v>
+        <v>6905867</v>
       </c>
       <c r="C1216" t="s">
         <v>28</v>
@@ -108740,73 +108740,73 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F1216" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G1216" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H1216">
+        <v>2</v>
+      </c>
+      <c r="I1216">
+        <v>2</v>
+      </c>
+      <c r="J1216" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1216">
+        <v>2.8</v>
+      </c>
+      <c r="L1216">
         <v>3</v>
       </c>
-      <c r="I1216">
-        <v>1</v>
-      </c>
-      <c r="J1216" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1216">
-        <v>2.75</v>
-      </c>
-      <c r="L1216">
-        <v>3.1</v>
-      </c>
       <c r="M1216">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N1216">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O1216">
         <v>3.1</v>
       </c>
       <c r="P1216">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q1216">
         <v>0</v>
       </c>
       <c r="R1216">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S1216">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T1216">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1216">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V1216">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W1216">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X1216">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1216">
         <v>-1</v>
       </c>
       <c r="Z1216">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA1216">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1216">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC1216">
         <v>-1</v>
@@ -109440,7 +109440,7 @@
         <v>1222</v>
       </c>
       <c r="B1224">
-        <v>6906742</v>
+        <v>6906743</v>
       </c>
       <c r="C1224" t="s">
         <v>28</v>
@@ -109452,76 +109452,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1224" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G1224" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1224" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1224">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L1224">
+        <v>3.8</v>
+      </c>
+      <c r="M1224">
+        <v>4.75</v>
+      </c>
+      <c r="N1224">
+        <v>1.571</v>
+      </c>
+      <c r="O1224">
+        <v>4.2</v>
+      </c>
+      <c r="P1224">
+        <v>5.75</v>
+      </c>
+      <c r="Q1224">
+        <v>-1</v>
+      </c>
+      <c r="R1224">
+        <v>2.025</v>
+      </c>
+      <c r="S1224">
+        <v>1.825</v>
+      </c>
+      <c r="T1224">
         <v>3</v>
       </c>
-      <c r="M1224">
-        <v>3</v>
-      </c>
-      <c r="N1224">
-        <v>2.55</v>
-      </c>
-      <c r="O1224">
-        <v>2.9</v>
-      </c>
-      <c r="P1224">
-        <v>3.2</v>
-      </c>
-      <c r="Q1224">
-        <v>-0.25</v>
-      </c>
-      <c r="R1224">
-        <v>2.125</v>
-      </c>
-      <c r="S1224">
-        <v>1.75</v>
-      </c>
-      <c r="T1224">
-        <v>1.75</v>
-      </c>
       <c r="U1224">
+        <v>2.025</v>
+      </c>
+      <c r="V1224">
         <v>1.825</v>
       </c>
-      <c r="V1224">
-        <v>2.025</v>
-      </c>
       <c r="W1224">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X1224">
         <v>-1</v>
       </c>
       <c r="Y1224">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z1224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1224">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB1224">
         <v>-1</v>
       </c>
       <c r="AC1224">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1225" spans="1:29">
@@ -109529,7 +109529,7 @@
         <v>1223</v>
       </c>
       <c r="B1225">
-        <v>6906743</v>
+        <v>6906742</v>
       </c>
       <c r="C1225" t="s">
         <v>28</v>
@@ -109541,76 +109541,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1225" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G1225" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H1225">
+        <v>0</v>
+      </c>
+      <c r="I1225">
         <v>1</v>
       </c>
-      <c r="I1225">
-        <v>0</v>
-      </c>
       <c r="J1225" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1225">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L1225">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M1225">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N1225">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="O1225">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P1225">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q1225">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1225">
+        <v>2.125</v>
+      </c>
+      <c r="S1225">
+        <v>1.75</v>
+      </c>
+      <c r="T1225">
+        <v>1.75</v>
+      </c>
+      <c r="U1225">
+        <v>1.825</v>
+      </c>
+      <c r="V1225">
         <v>2.025</v>
       </c>
-      <c r="S1225">
-        <v>1.825</v>
-      </c>
-      <c r="T1225">
-        <v>3</v>
-      </c>
-      <c r="U1225">
-        <v>2.025</v>
-      </c>
-      <c r="V1225">
-        <v>1.825</v>
-      </c>
       <c r="W1225">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X1225">
         <v>-1</v>
       </c>
       <c r="Y1225">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z1225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1225">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB1225">
         <v>-1</v>
       </c>
       <c r="AC1225">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1226" spans="1:29">
@@ -109618,7 +109618,7 @@
         <v>1224</v>
       </c>
       <c r="B1226">
-        <v>6906740</v>
+        <v>6905868</v>
       </c>
       <c r="C1226" t="s">
         <v>28</v>
@@ -109630,76 +109630,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1226" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1226" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H1226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1226" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1226">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L1226">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M1226">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N1226">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O1226">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P1226">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q1226">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1226">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S1226">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T1226">
         <v>2.25</v>
       </c>
       <c r="U1226">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V1226">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W1226">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X1226">
         <v>-1</v>
       </c>
       <c r="Y1226">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z1226">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1226">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1226">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1227" spans="1:29">
@@ -109707,7 +109707,7 @@
         <v>1225</v>
       </c>
       <c r="B1227">
-        <v>6905868</v>
+        <v>6906740</v>
       </c>
       <c r="C1227" t="s">
         <v>28</v>
@@ -109719,76 +109719,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1227" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1227" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1227" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1227">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L1227">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M1227">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N1227">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="O1227">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P1227">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q1227">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R1227">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S1227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T1227">
         <v>2.25</v>
       </c>
       <c r="U1227">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V1227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W1227">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X1227">
         <v>-1</v>
       </c>
       <c r="Y1227">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z1227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1227">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC1227">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1228" spans="1:29">
@@ -110200,10 +110200,10 @@
         <v>2.25</v>
       </c>
       <c r="U1232">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V1232">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W1232">
         <v>0</v>
@@ -110274,10 +110274,10 @@
         <v>2</v>
       </c>
       <c r="U1233">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V1233">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W1233">
         <v>0</v>
@@ -110792,10 +110792,10 @@
         <v>2.5</v>
       </c>
       <c r="U1240">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V1240">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W1240">
         <v>0</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -196,10 +196,10 @@
     <t>Genoa</t>
   </si>
   <si>
-    <t>Cagliari</t>
+    <t>Sudtirol</t>
   </si>
   <si>
-    <t>Sudtirol</t>
+    <t>Cagliari</t>
   </si>
   <si>
     <t>Sampdoria</t>
@@ -55951,7 +55951,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5319078</v>
+        <v>5319077</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55963,76 +55963,76 @@
         <v>44786.65625</v>
       </c>
       <c r="F623" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G623" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I623">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J623" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K623">
+        <v>2.25</v>
+      </c>
+      <c r="L623">
+        <v>3.2</v>
+      </c>
+      <c r="M623">
         <v>2.8</v>
       </c>
-      <c r="L623">
-        <v>3.25</v>
-      </c>
-      <c r="M623">
-        <v>2.2</v>
-      </c>
       <c r="N623">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O623">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P623">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q623">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R623">
+        <v>1.825</v>
+      </c>
+      <c r="S623">
         <v>2.025</v>
       </c>
-      <c r="S623">
-        <v>1.825</v>
-      </c>
       <c r="T623">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U623">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V623">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W623">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X623">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y623">
         <v>-1</v>
       </c>
       <c r="Z623">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA623">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB623">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC623">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -56040,7 +56040,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5319077</v>
+        <v>5319078</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -56052,76 +56052,76 @@
         <v>44786.65625</v>
       </c>
       <c r="F624" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G624" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H624">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I624">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J624" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K624">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L624">
+        <v>3.25</v>
+      </c>
+      <c r="M624">
+        <v>2.2</v>
+      </c>
+      <c r="N624">
+        <v>2.8</v>
+      </c>
+      <c r="O624">
         <v>3.2</v>
       </c>
-      <c r="M624">
-        <v>2.8</v>
-      </c>
-      <c r="N624">
-        <v>2.1</v>
-      </c>
-      <c r="O624">
-        <v>3.1</v>
-      </c>
       <c r="P624">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q624">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R624">
+        <v>2.025</v>
+      </c>
+      <c r="S624">
         <v>1.825</v>
       </c>
-      <c r="S624">
+      <c r="T624">
+        <v>2.5</v>
+      </c>
+      <c r="U624">
         <v>2.025</v>
       </c>
-      <c r="T624">
-        <v>2</v>
-      </c>
-      <c r="U624">
-        <v>1.85</v>
-      </c>
       <c r="V624">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W624">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X624">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y624">
         <v>-1</v>
       </c>
       <c r="Z624">
+        <v>0</v>
+      </c>
+      <c r="AA624">
+        <v>-0</v>
+      </c>
+      <c r="AB624">
+        <v>-1</v>
+      </c>
+      <c r="AC624">
         <v>0.825</v>
-      </c>
-      <c r="AA624">
-        <v>-1</v>
-      </c>
-      <c r="AB624">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC624">
-        <v>-1</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -56218,7 +56218,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>5319074</v>
+        <v>5319083</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56230,49 +56230,49 @@
         <v>44787.65625</v>
       </c>
       <c r="F626" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G626" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J626" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K626">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L626">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M626">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N626">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O626">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P626">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q626">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R626">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S626">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T626">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U626">
         <v>1.875</v>
@@ -56281,19 +56281,19 @@
         <v>1.975</v>
       </c>
       <c r="W626">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X626">
         <v>-1</v>
       </c>
       <c r="Y626">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z626">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA626">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB626">
         <v>0.875</v>
@@ -56307,7 +56307,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>5319083</v>
+        <v>5319074</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56319,49 +56319,49 @@
         <v>44787.65625</v>
       </c>
       <c r="F627" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G627" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H627">
+        <v>2</v>
+      </c>
+      <c r="I627">
         <v>1</v>
       </c>
-      <c r="I627">
-        <v>2</v>
-      </c>
       <c r="J627" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K627">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L627">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M627">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N627">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O627">
+        <v>3.25</v>
+      </c>
+      <c r="P627">
         <v>3.3</v>
       </c>
-      <c r="P627">
-        <v>1.85</v>
-      </c>
       <c r="Q627">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R627">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S627">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T627">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U627">
         <v>1.875</v>
@@ -56370,19 +56370,19 @@
         <v>1.975</v>
       </c>
       <c r="W627">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X627">
         <v>-1</v>
       </c>
       <c r="Y627">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z627">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA627">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB627">
         <v>0.875</v>
@@ -56396,7 +56396,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5319082</v>
+        <v>5319079</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56408,55 +56408,55 @@
         <v>44787.65625</v>
       </c>
       <c r="F628" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G628" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H628">
+        <v>0</v>
+      </c>
+      <c r="I628">
         <v>1</v>
-      </c>
-      <c r="I628">
-        <v>3</v>
       </c>
       <c r="J628" t="s">
         <v>68</v>
       </c>
       <c r="K628">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L628">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M628">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N628">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O628">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P628">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q628">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R628">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S628">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T628">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U628">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V628">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W628">
         <v>-1</v>
@@ -56465,19 +56465,19 @@
         <v>-1</v>
       </c>
       <c r="Y628">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="Z628">
         <v>-1</v>
       </c>
       <c r="AA628">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB628">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC628">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56485,7 +56485,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5319076</v>
+        <v>5319082</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56497,40 +56497,40 @@
         <v>44787.65625</v>
       </c>
       <c r="F629" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G629" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J629" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K629">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L629">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M629">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N629">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O629">
         <v>3.2</v>
       </c>
       <c r="P629">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q629">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R629">
         <v>1.925</v>
@@ -56539,34 +56539,34 @@
         <v>1.925</v>
       </c>
       <c r="T629">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U629">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V629">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W629">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X629">
         <v>-1</v>
       </c>
       <c r="Y629">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z629">
+        <v>-1</v>
+      </c>
+      <c r="AA629">
         <v>0.925</v>
       </c>
-      <c r="AA629">
-        <v>-1</v>
-      </c>
       <c r="AB629">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC629">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -56574,7 +56574,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>5319079</v>
+        <v>5319075</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56586,10 +56586,10 @@
         <v>44787.65625</v>
       </c>
       <c r="F630" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G630" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H630">
         <v>0</v>
@@ -56601,40 +56601,40 @@
         <v>68</v>
       </c>
       <c r="K630">
+        <v>1.571</v>
+      </c>
+      <c r="L630">
+        <v>3.4</v>
+      </c>
+      <c r="M630">
+        <v>5.5</v>
+      </c>
+      <c r="N630">
+        <v>1.533</v>
+      </c>
+      <c r="O630">
+        <v>3.6</v>
+      </c>
+      <c r="P630">
+        <v>6.5</v>
+      </c>
+      <c r="Q630">
+        <v>-1</v>
+      </c>
+      <c r="R630">
+        <v>1.9</v>
+      </c>
+      <c r="S630">
+        <v>1.95</v>
+      </c>
+      <c r="T630">
         <v>2.5</v>
       </c>
-      <c r="L630">
-        <v>3.2</v>
-      </c>
-      <c r="M630">
-        <v>2.5</v>
-      </c>
-      <c r="N630">
-        <v>2.25</v>
-      </c>
-      <c r="O630">
-        <v>3.1</v>
-      </c>
-      <c r="P630">
-        <v>2.9</v>
-      </c>
-      <c r="Q630">
-        <v>-0.25</v>
-      </c>
-      <c r="R630">
-        <v>1.975</v>
-      </c>
-      <c r="S630">
-        <v>1.875</v>
-      </c>
-      <c r="T630">
-        <v>2.25</v>
-      </c>
       <c r="U630">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V630">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W630">
         <v>-1</v>
@@ -56643,19 +56643,19 @@
         <v>-1</v>
       </c>
       <c r="Y630">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="Z630">
         <v>-1</v>
       </c>
       <c r="AA630">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB630">
         <v>-1</v>
       </c>
       <c r="AC630">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="631" spans="1:29">
@@ -56663,7 +56663,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>5319075</v>
+        <v>5319076</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56675,19 +56675,19 @@
         <v>44787.65625</v>
       </c>
       <c r="F631" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G631" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J631" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K631">
         <v>1.571</v>
@@ -56699,52 +56699,52 @@
         <v>5.5</v>
       </c>
       <c r="N631">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="O631">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P631">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q631">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R631">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S631">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T631">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U631">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V631">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W631">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X631">
         <v>-1</v>
       </c>
       <c r="Y631">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z631">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA631">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB631">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC631">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -56841,7 +56841,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>5321373</v>
+        <v>5319936</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56853,76 +56853,76 @@
         <v>44793.65625</v>
       </c>
       <c r="F633" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G633" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J633" t="s">
         <v>67</v>
       </c>
       <c r="K633">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L633">
+        <v>3.3</v>
+      </c>
+      <c r="M633">
+        <v>3.75</v>
+      </c>
+      <c r="N633">
+        <v>2</v>
+      </c>
+      <c r="O633">
+        <v>3.4</v>
+      </c>
+      <c r="P633">
         <v>3.5</v>
       </c>
-      <c r="M633">
-        <v>4.2</v>
-      </c>
-      <c r="N633">
-        <v>1.6</v>
-      </c>
-      <c r="O633">
-        <v>4</v>
-      </c>
-      <c r="P633">
-        <v>5.75</v>
-      </c>
       <c r="Q633">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R633">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S633">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T633">
         <v>2.5</v>
       </c>
       <c r="U633">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V633">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W633">
         <v>-1</v>
       </c>
       <c r="X633">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y633">
         <v>-1</v>
       </c>
       <c r="Z633">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA633">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
       <c r="AB633">
         <v>-1</v>
       </c>
       <c r="AC633">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -56930,7 +56930,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5319936</v>
+        <v>5321373</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56942,76 +56942,76 @@
         <v>44793.65625</v>
       </c>
       <c r="F634" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G634" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J634" t="s">
         <v>67</v>
       </c>
       <c r="K634">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L634">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M634">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N634">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O634">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P634">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q634">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R634">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S634">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T634">
         <v>2.5</v>
       </c>
       <c r="U634">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V634">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W634">
         <v>-1</v>
       </c>
       <c r="X634">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y634">
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA634">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
       <c r="AB634">
         <v>-1</v>
       </c>
       <c r="AC634">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="635" spans="1:29">
@@ -57108,7 +57108,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>5319942</v>
+        <v>5319939</v>
       </c>
       <c r="C636" t="s">
         <v>28</v>
@@ -57120,58 +57120,58 @@
         <v>44794.65625</v>
       </c>
       <c r="F636" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G636" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H636">
+        <v>2</v>
+      </c>
+      <c r="I636">
         <v>1</v>
-      </c>
-      <c r="I636">
-        <v>0</v>
       </c>
       <c r="J636" t="s">
         <v>69</v>
       </c>
       <c r="K636">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L636">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M636">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N636">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O636">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P636">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q636">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R636">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S636">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T636">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U636">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V636">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W636">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="X636">
         <v>-1</v>
@@ -57180,16 +57180,16 @@
         <v>-1</v>
       </c>
       <c r="Z636">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA636">
         <v>-1</v>
       </c>
       <c r="AB636">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC636">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="637" spans="1:29">
@@ -57197,7 +57197,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>5319939</v>
+        <v>5319940</v>
       </c>
       <c r="C637" t="s">
         <v>28</v>
@@ -57209,58 +57209,58 @@
         <v>44794.65625</v>
       </c>
       <c r="F637" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G637" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J637" t="s">
         <v>69</v>
       </c>
       <c r="K637">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L637">
         <v>3.2</v>
       </c>
       <c r="M637">
+        <v>2.8</v>
+      </c>
+      <c r="N637">
+        <v>2.3</v>
+      </c>
+      <c r="O637">
+        <v>3.25</v>
+      </c>
+      <c r="P637">
         <v>3.1</v>
       </c>
-      <c r="N637">
-        <v>3.3</v>
-      </c>
-      <c r="O637">
-        <v>3.2</v>
-      </c>
-      <c r="P637">
-        <v>2.3</v>
-      </c>
       <c r="Q637">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R637">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S637">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T637">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U637">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V637">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W637">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="X637">
         <v>-1</v>
@@ -57269,13 +57269,13 @@
         <v>-1</v>
       </c>
       <c r="Z637">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA637">
         <v>-1</v>
       </c>
       <c r="AB637">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC637">
         <v>-1</v>
@@ -57286,7 +57286,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>5319940</v>
+        <v>5319942</v>
       </c>
       <c r="C638" t="s">
         <v>28</v>
@@ -57298,13 +57298,13 @@
         <v>44794.65625</v>
       </c>
       <c r="F638" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G638" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H638">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I638">
         <v>0</v>
@@ -57313,43 +57313,43 @@
         <v>69</v>
       </c>
       <c r="K638">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L638">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M638">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N638">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O638">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P638">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q638">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R638">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S638">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T638">
         <v>2.5</v>
       </c>
       <c r="U638">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V638">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W638">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X638">
         <v>-1</v>
@@ -57358,16 +57358,16 @@
         <v>-1</v>
       </c>
       <c r="Z638">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA638">
         <v>-1</v>
       </c>
       <c r="AB638">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC638">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="639" spans="1:29">
@@ -57464,7 +57464,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5319938</v>
+        <v>5321372</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57479,70 +57479,70 @@
         <v>60</v>
       </c>
       <c r="G640" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I640">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J640" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K640">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="L640">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M640">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N640">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O640">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P640">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q640">
         <v>-0.25</v>
       </c>
       <c r="R640">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S640">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T640">
         <v>2.25</v>
       </c>
       <c r="U640">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V640">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W640">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X640">
         <v>-1</v>
       </c>
       <c r="Y640">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z640">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA640">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB640">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC640">
         <v>-1</v>
@@ -57553,7 +57553,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>5321372</v>
+        <v>5319938</v>
       </c>
       <c r="C641" t="s">
         <v>28</v>
@@ -57568,70 +57568,70 @@
         <v>61</v>
       </c>
       <c r="G641" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H641">
+        <v>2</v>
+      </c>
+      <c r="I641">
         <v>1</v>
       </c>
-      <c r="I641">
-        <v>2</v>
-      </c>
       <c r="J641" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K641">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L641">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M641">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N641">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O641">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P641">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q641">
         <v>-0.25</v>
       </c>
       <c r="R641">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S641">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T641">
         <v>2.25</v>
       </c>
       <c r="U641">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V641">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W641">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X641">
         <v>-1</v>
       </c>
       <c r="Y641">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z641">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA641">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB641">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC641">
         <v>-1</v>
@@ -57835,7 +57835,7 @@
         <v>48</v>
       </c>
       <c r="G644" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H644">
         <v>1</v>
@@ -57909,7 +57909,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>5319943</v>
+        <v>5321370</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57921,16 +57921,16 @@
         <v>44801.65625</v>
       </c>
       <c r="F645" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G645" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J645" t="s">
         <v>69</v>
@@ -57939,40 +57939,40 @@
         <v>2.3</v>
       </c>
       <c r="L645">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M645">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N645">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O645">
         <v>3.2</v>
       </c>
       <c r="P645">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q645">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R645">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S645">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T645">
         <v>2.25</v>
       </c>
       <c r="U645">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V645">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W645">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="X645">
         <v>-1</v>
@@ -57981,13 +57981,13 @@
         <v>-1</v>
       </c>
       <c r="Z645">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA645">
         <v>-1</v>
       </c>
       <c r="AB645">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC645">
         <v>-1</v>
@@ -58087,7 +58087,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>5321370</v>
+        <v>5319943</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58099,16 +58099,16 @@
         <v>44801.65625</v>
       </c>
       <c r="F647" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G647" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H647">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J647" t="s">
         <v>69</v>
@@ -58117,40 +58117,40 @@
         <v>2.3</v>
       </c>
       <c r="L647">
+        <v>3.2</v>
+      </c>
+      <c r="M647">
         <v>3.3</v>
       </c>
-      <c r="M647">
-        <v>3.1</v>
-      </c>
       <c r="N647">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O647">
         <v>3.2</v>
       </c>
       <c r="P647">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q647">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R647">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S647">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T647">
         <v>2.25</v>
       </c>
       <c r="U647">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V647">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W647">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="X647">
         <v>-1</v>
@@ -58159,13 +58159,13 @@
         <v>-1</v>
       </c>
       <c r="Z647">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA647">
         <v>-1</v>
       </c>
       <c r="AB647">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC647">
         <v>-1</v>
@@ -58544,7 +58544,7 @@
         <v>44806.64583333334</v>
       </c>
       <c r="F652" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G652" t="s">
         <v>57</v>
@@ -58621,7 +58621,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5319950</v>
+        <v>5319957</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58633,37 +58633,37 @@
         <v>44807.375</v>
       </c>
       <c r="F653" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G653" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H653">
         <v>0</v>
       </c>
       <c r="I653">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J653" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K653">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L653">
+        <v>3.2</v>
+      </c>
+      <c r="M653">
+        <v>2.5</v>
+      </c>
+      <c r="N653">
+        <v>2.4</v>
+      </c>
+      <c r="O653">
         <v>3.25</v>
       </c>
-      <c r="M653">
-        <v>3.2</v>
-      </c>
-      <c r="N653">
-        <v>2.45</v>
-      </c>
-      <c r="O653">
-        <v>3.2</v>
-      </c>
       <c r="P653">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q653">
         <v>-0.25</v>
@@ -58678,31 +58678,31 @@
         <v>2.25</v>
       </c>
       <c r="U653">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V653">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W653">
         <v>-1</v>
       </c>
       <c r="X653">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y653">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z653">
+        <v>-1</v>
+      </c>
+      <c r="AA653">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB653">
         <v>-0.5</v>
       </c>
-      <c r="AA653">
-        <v>0.3875</v>
-      </c>
-      <c r="AB653">
-        <v>-1</v>
-      </c>
       <c r="AC653">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="654" spans="1:29">
@@ -58710,7 +58710,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>5319957</v>
+        <v>5319956</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58722,76 +58722,76 @@
         <v>44807.375</v>
       </c>
       <c r="F654" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G654" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I654">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J654" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K654">
+        <v>1.8</v>
+      </c>
+      <c r="L654">
+        <v>3.6</v>
+      </c>
+      <c r="M654">
+        <v>4.333</v>
+      </c>
+      <c r="N654">
+        <v>1.75</v>
+      </c>
+      <c r="O654">
+        <v>3.75</v>
+      </c>
+      <c r="P654">
+        <v>4.333</v>
+      </c>
+      <c r="Q654">
+        <v>-0.75</v>
+      </c>
+      <c r="R654">
+        <v>2</v>
+      </c>
+      <c r="S654">
+        <v>1.85</v>
+      </c>
+      <c r="T654">
+        <v>2.5</v>
+      </c>
+      <c r="U654">
+        <v>1.925</v>
+      </c>
+      <c r="V654">
+        <v>1.925</v>
+      </c>
+      <c r="W654">
+        <v>-1</v>
+      </c>
+      <c r="X654">
         <v>2.75</v>
       </c>
-      <c r="L654">
-        <v>3.2</v>
-      </c>
-      <c r="M654">
-        <v>2.5</v>
-      </c>
-      <c r="N654">
-        <v>2.4</v>
-      </c>
-      <c r="O654">
-        <v>3.25</v>
-      </c>
-      <c r="P654">
-        <v>2.8</v>
-      </c>
-      <c r="Q654">
-        <v>-0.25</v>
-      </c>
-      <c r="R654">
-        <v>2.1</v>
-      </c>
-      <c r="S654">
-        <v>1.775</v>
-      </c>
-      <c r="T654">
-        <v>2.25</v>
-      </c>
-      <c r="U654">
-        <v>1.8</v>
-      </c>
-      <c r="V654">
-        <v>2.05</v>
-      </c>
-      <c r="W654">
-        <v>-1</v>
-      </c>
-      <c r="X654">
-        <v>-1</v>
-      </c>
       <c r="Y654">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z654">
         <v>-1</v>
       </c>
       <c r="AA654">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB654">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC654">
-        <v>0.5249999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58799,7 +58799,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>5319956</v>
+        <v>5319950</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58811,76 +58811,76 @@
         <v>44807.375</v>
       </c>
       <c r="F655" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G655" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J655" t="s">
         <v>67</v>
       </c>
       <c r="K655">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L655">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M655">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N655">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O655">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P655">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q655">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R655">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S655">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T655">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U655">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V655">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W655">
         <v>-1</v>
       </c>
       <c r="X655">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y655">
         <v>-1</v>
       </c>
       <c r="Z655">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA655">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB655">
         <v>-1</v>
       </c>
       <c r="AC655">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -58888,7 +58888,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>5319951</v>
+        <v>5319952</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58900,73 +58900,73 @@
         <v>44807.375</v>
       </c>
       <c r="F656" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G656" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H656">
         <v>2</v>
       </c>
       <c r="I656">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J656" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K656">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L656">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M656">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N656">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O656">
         <v>3.3</v>
       </c>
       <c r="P656">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q656">
         <v>-0.25</v>
       </c>
       <c r="R656">
+        <v>1.85</v>
+      </c>
+      <c r="S656">
+        <v>2</v>
+      </c>
+      <c r="T656">
+        <v>2.25</v>
+      </c>
+      <c r="U656">
         <v>1.8</v>
       </c>
-      <c r="S656">
+      <c r="V656">
         <v>2.05</v>
       </c>
-      <c r="T656">
-        <v>2.5</v>
-      </c>
-      <c r="U656">
-        <v>1.975</v>
-      </c>
-      <c r="V656">
-        <v>1.875</v>
-      </c>
       <c r="W656">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X656">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y656">
         <v>-1</v>
       </c>
       <c r="Z656">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA656">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB656">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC656">
         <v>-1</v>
@@ -58977,7 +58977,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>5319952</v>
+        <v>5319954</v>
       </c>
       <c r="C657" t="s">
         <v>28</v>
@@ -58989,22 +58989,22 @@
         <v>44807.375</v>
       </c>
       <c r="F657" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G657" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H657">
         <v>2</v>
       </c>
       <c r="I657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J657" t="s">
         <v>69</v>
       </c>
       <c r="K657">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L657">
         <v>3.4</v>
@@ -59013,34 +59013,34 @@
         <v>3.8</v>
       </c>
       <c r="N657">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O657">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P657">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q657">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R657">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S657">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T657">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U657">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V657">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W657">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X657">
         <v>-1</v>
@@ -59049,16 +59049,16 @@
         <v>-1</v>
       </c>
       <c r="Z657">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA657">
         <v>-1</v>
       </c>
       <c r="AB657">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC657">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="658" spans="1:29">
@@ -59066,7 +59066,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5319954</v>
+        <v>5319951</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59078,76 +59078,76 @@
         <v>44807.375</v>
       </c>
       <c r="F658" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G658" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H658">
         <v>2</v>
       </c>
       <c r="I658">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J658" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K658">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L658">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M658">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N658">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O658">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P658">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q658">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R658">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S658">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T658">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U658">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V658">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W658">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X658">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y658">
         <v>-1</v>
       </c>
       <c r="Z658">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA658">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB658">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC658">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="659" spans="1:29">
@@ -59345,7 +59345,7 @@
         <v>44808.46875</v>
       </c>
       <c r="F661" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G661" t="s">
         <v>41</v>
@@ -59704,7 +59704,7 @@
         <v>51</v>
       </c>
       <c r="G665" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H665">
         <v>0</v>
@@ -59793,7 +59793,7 @@
         <v>55</v>
       </c>
       <c r="G666" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H666">
         <v>0</v>
@@ -60490,7 +60490,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>5321364</v>
+        <v>5319971</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
@@ -60502,10 +60502,10 @@
         <v>44821.375</v>
       </c>
       <c r="F674" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G674" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H674">
         <v>1</v>
@@ -60517,25 +60517,25 @@
         <v>67</v>
       </c>
       <c r="K674">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L674">
+        <v>3.3</v>
+      </c>
+      <c r="M674">
+        <v>3.1</v>
+      </c>
+      <c r="N674">
+        <v>2.45</v>
+      </c>
+      <c r="O674">
         <v>3.2</v>
       </c>
-      <c r="M674">
-        <v>2.75</v>
-      </c>
-      <c r="N674">
-        <v>2.1</v>
-      </c>
-      <c r="O674">
-        <v>3.25</v>
-      </c>
       <c r="P674">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q674">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R674">
         <v>1.825</v>
@@ -60547,31 +60547,31 @@
         <v>2.25</v>
       </c>
       <c r="U674">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V674">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W674">
         <v>-1</v>
       </c>
       <c r="X674">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y674">
         <v>-1</v>
       </c>
       <c r="Z674">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA674">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB674">
         <v>-0.5</v>
       </c>
       <c r="AC674">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="675" spans="1:29">
@@ -60579,7 +60579,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>5319969</v>
+        <v>5321364</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60591,76 +60591,76 @@
         <v>44821.375</v>
       </c>
       <c r="F675" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G675" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H675">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I675">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J675" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K675">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L675">
         <v>3.2</v>
       </c>
       <c r="M675">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N675">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O675">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P675">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q675">
         <v>-0.25</v>
       </c>
       <c r="R675">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S675">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T675">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U675">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V675">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W675">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X675">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y675">
         <v>-1</v>
       </c>
       <c r="Z675">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA675">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB675">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC675">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -60668,7 +60668,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5319968</v>
+        <v>5319969</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60680,13 +60680,13 @@
         <v>44821.375</v>
       </c>
       <c r="F676" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G676" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I676">
         <v>0</v>
@@ -60695,43 +60695,43 @@
         <v>69</v>
       </c>
       <c r="K676">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L676">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M676">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N676">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O676">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P676">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q676">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R676">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S676">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T676">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U676">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V676">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W676">
-        <v>0.7270000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="X676">
         <v>-1</v>
@@ -60740,16 +60740,16 @@
         <v>-1</v>
       </c>
       <c r="Z676">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA676">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB676">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC676">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60757,7 +60757,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5319967</v>
+        <v>5319968</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60769,76 +60769,76 @@
         <v>44821.375</v>
       </c>
       <c r="F677" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G677" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H677">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I677">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J677" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K677">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L677">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M677">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N677">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O677">
         <v>3.4</v>
       </c>
       <c r="P677">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q677">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R677">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S677">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T677">
         <v>2.5</v>
       </c>
       <c r="U677">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V677">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W677">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X677">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y677">
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA677">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB677">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC677">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60846,7 +60846,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>5319966</v>
+        <v>5319967</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60858,46 +60858,46 @@
         <v>44821.375</v>
       </c>
       <c r="F678" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G678" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I678">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J678" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K678">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L678">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M678">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N678">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O678">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P678">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q678">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R678">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S678">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T678">
         <v>2.5</v>
@@ -60912,22 +60912,22 @@
         <v>-1</v>
       </c>
       <c r="X678">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y678">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z678">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA678">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB678">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC678">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60935,7 +60935,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5319971</v>
+        <v>5319966</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60947,76 +60947,76 @@
         <v>44821.375</v>
       </c>
       <c r="F679" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G679" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679">
         <v>1</v>
       </c>
       <c r="J679" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K679">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L679">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M679">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N679">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O679">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P679">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q679">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R679">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S679">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T679">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U679">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V679">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W679">
         <v>-1</v>
       </c>
       <c r="X679">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y679">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z679">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA679">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB679">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -61291,7 +61291,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>5319972</v>
+        <v>5319975</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61303,76 +61303,76 @@
         <v>44835.375</v>
       </c>
       <c r="F683" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G683" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H683">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I683">
         <v>2</v>
       </c>
       <c r="J683" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K683">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L683">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M683">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N683">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O683">
+        <v>3.2</v>
+      </c>
+      <c r="P683">
         <v>3.25</v>
       </c>
-      <c r="P683">
-        <v>2.8</v>
-      </c>
       <c r="Q683">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R683">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S683">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T683">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U683">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V683">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W683">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X683">
         <v>-1</v>
       </c>
       <c r="Y683">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z683">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA683">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB683">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC683">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61380,7 +61380,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>5319974</v>
+        <v>5319972</v>
       </c>
       <c r="C684" t="s">
         <v>28</v>
@@ -61392,46 +61392,46 @@
         <v>44835.375</v>
       </c>
       <c r="F684" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G684" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I684">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J684" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K684">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L684">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M684">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N684">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O684">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P684">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q684">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R684">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S684">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T684">
         <v>2.5</v>
@@ -61443,19 +61443,19 @@
         <v>1.8</v>
       </c>
       <c r="W684">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X684">
         <v>-1</v>
       </c>
       <c r="Y684">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z684">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA684">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB684">
         <v>1.05</v>
@@ -61469,7 +61469,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>5319975</v>
+        <v>5319974</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61481,76 +61481,76 @@
         <v>44835.375</v>
       </c>
       <c r="F685" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G685" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I685">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J685" t="s">
         <v>68</v>
       </c>
       <c r="K685">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L685">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M685">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N685">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O685">
+        <v>3.5</v>
+      </c>
+      <c r="P685">
+        <v>4.2</v>
+      </c>
+      <c r="Q685">
+        <v>-0.5</v>
+      </c>
+      <c r="R685">
+        <v>1.875</v>
+      </c>
+      <c r="S685">
+        <v>1.975</v>
+      </c>
+      <c r="T685">
+        <v>2.5</v>
+      </c>
+      <c r="U685">
+        <v>2.05</v>
+      </c>
+      <c r="V685">
+        <v>1.8</v>
+      </c>
+      <c r="W685">
+        <v>-1</v>
+      </c>
+      <c r="X685">
+        <v>-1</v>
+      </c>
+      <c r="Y685">
         <v>3.2</v>
       </c>
-      <c r="P685">
-        <v>3.25</v>
-      </c>
-      <c r="Q685">
-        <v>-0.25</v>
-      </c>
-      <c r="R685">
-        <v>2.05</v>
-      </c>
-      <c r="S685">
-        <v>1.8</v>
-      </c>
-      <c r="T685">
-        <v>2.25</v>
-      </c>
-      <c r="U685">
-        <v>1.9</v>
-      </c>
-      <c r="V685">
-        <v>1.95</v>
-      </c>
-      <c r="W685">
-        <v>-1</v>
-      </c>
-      <c r="X685">
-        <v>-1</v>
-      </c>
-      <c r="Y685">
-        <v>2.25</v>
-      </c>
       <c r="Z685">
         <v>-1</v>
       </c>
       <c r="AA685">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB685">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC685">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -61662,7 +61662,7 @@
         <v>56</v>
       </c>
       <c r="G687" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H687">
         <v>0</v>
@@ -62107,7 +62107,7 @@
         <v>59</v>
       </c>
       <c r="G692" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H692">
         <v>0</v>
@@ -62181,7 +62181,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>5319985</v>
+        <v>5319979</v>
       </c>
       <c r="C693" t="s">
         <v>28</v>
@@ -62193,10 +62193,10 @@
         <v>44842.375</v>
       </c>
       <c r="F693" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G693" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H693">
         <v>1</v>
@@ -62208,19 +62208,19 @@
         <v>68</v>
       </c>
       <c r="K693">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L693">
         <v>3.25</v>
       </c>
       <c r="M693">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N693">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O693">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P693">
         <v>3.4</v>
@@ -62229,19 +62229,19 @@
         <v>-0.25</v>
       </c>
       <c r="R693">
+        <v>1.9</v>
+      </c>
+      <c r="S693">
+        <v>1.95</v>
+      </c>
+      <c r="T693">
+        <v>2.25</v>
+      </c>
+      <c r="U693">
+        <v>1.975</v>
+      </c>
+      <c r="V693">
         <v>1.875</v>
-      </c>
-      <c r="S693">
-        <v>1.975</v>
-      </c>
-      <c r="T693">
-        <v>2.5</v>
-      </c>
-      <c r="U693">
-        <v>2.025</v>
-      </c>
-      <c r="V693">
-        <v>1.825</v>
       </c>
       <c r="W693">
         <v>-1</v>
@@ -62256,10 +62256,10 @@
         <v>-1</v>
       </c>
       <c r="AA693">
+        <v>0.95</v>
+      </c>
+      <c r="AB693">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB693">
-        <v>1.025</v>
       </c>
       <c r="AC693">
         <v>-1</v>
@@ -62270,7 +62270,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5319984</v>
+        <v>5319985</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62282,73 +62282,73 @@
         <v>44842.375</v>
       </c>
       <c r="F694" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G694" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H694">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I694">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J694" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K694">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L694">
         <v>3.25</v>
       </c>
       <c r="M694">
+        <v>2.875</v>
+      </c>
+      <c r="N694">
+        <v>2.2</v>
+      </c>
+      <c r="O694">
+        <v>3.3</v>
+      </c>
+      <c r="P694">
         <v>3.4</v>
-      </c>
-      <c r="N694">
-        <v>2.25</v>
-      </c>
-      <c r="O694">
-        <v>3.4</v>
-      </c>
-      <c r="P694">
-        <v>3.2</v>
       </c>
       <c r="Q694">
         <v>-0.25</v>
       </c>
       <c r="R694">
+        <v>1.875</v>
+      </c>
+      <c r="S694">
         <v>1.975</v>
-      </c>
-      <c r="S694">
-        <v>1.875</v>
       </c>
       <c r="T694">
         <v>2.5</v>
       </c>
       <c r="U694">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V694">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W694">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X694">
         <v>-1</v>
       </c>
       <c r="Y694">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z694">
+        <v>-1</v>
+      </c>
+      <c r="AA694">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA694">
-        <v>-1</v>
-      </c>
       <c r="AB694">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC694">
         <v>-1</v>
@@ -62359,7 +62359,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5319980</v>
+        <v>5319984</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62371,76 +62371,76 @@
         <v>44842.375</v>
       </c>
       <c r="F695" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G695" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J695" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K695">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L695">
+        <v>3.25</v>
+      </c>
+      <c r="M695">
+        <v>3.4</v>
+      </c>
+      <c r="N695">
+        <v>2.25</v>
+      </c>
+      <c r="O695">
+        <v>3.4</v>
+      </c>
+      <c r="P695">
         <v>3.2</v>
-      </c>
-      <c r="M695">
-        <v>3.75</v>
-      </c>
-      <c r="N695">
-        <v>2.2</v>
-      </c>
-      <c r="O695">
-        <v>3.2</v>
-      </c>
-      <c r="P695">
-        <v>3.5</v>
       </c>
       <c r="Q695">
         <v>-0.25</v>
       </c>
       <c r="R695">
+        <v>1.975</v>
+      </c>
+      <c r="S695">
         <v>1.875</v>
       </c>
-      <c r="S695">
-        <v>1.975</v>
-      </c>
       <c r="T695">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U695">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V695">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W695">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X695">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y695">
         <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA695">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB695">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC695">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62448,7 +62448,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5319979</v>
+        <v>5319980</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62460,76 +62460,76 @@
         <v>44842.375</v>
       </c>
       <c r="F696" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G696" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H696">
         <v>1</v>
       </c>
       <c r="I696">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J696" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K696">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L696">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M696">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N696">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O696">
         <v>3.2</v>
       </c>
       <c r="P696">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q696">
         <v>-0.25</v>
       </c>
       <c r="R696">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S696">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T696">
         <v>2.25</v>
       </c>
       <c r="U696">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V696">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W696">
         <v>-1</v>
       </c>
       <c r="X696">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y696">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z696">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA696">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB696">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC696">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="697" spans="1:29">
@@ -62626,7 +62626,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>5319983</v>
+        <v>5319982</v>
       </c>
       <c r="C698" t="s">
         <v>28</v>
@@ -62638,13 +62638,13 @@
         <v>44842.46875</v>
       </c>
       <c r="F698" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G698" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H698">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I698">
         <v>0</v>
@@ -62653,43 +62653,43 @@
         <v>69</v>
       </c>
       <c r="K698">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L698">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M698">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N698">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="O698">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P698">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q698">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R698">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S698">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T698">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U698">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V698">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W698">
-        <v>0.6659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X698">
         <v>-1</v>
@@ -62698,16 +62698,16 @@
         <v>-1</v>
       </c>
       <c r="Z698">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA698">
         <v>-1</v>
       </c>
       <c r="AB698">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC698">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="699" spans="1:29">
@@ -62715,7 +62715,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>5319982</v>
+        <v>5319983</v>
       </c>
       <c r="C699" t="s">
         <v>28</v>
@@ -62727,13 +62727,13 @@
         <v>44842.46875</v>
       </c>
       <c r="F699" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G699" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I699">
         <v>0</v>
@@ -62742,43 +62742,43 @@
         <v>69</v>
       </c>
       <c r="K699">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L699">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M699">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N699">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O699">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P699">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q699">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R699">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S699">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T699">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U699">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V699">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W699">
-        <v>0.615</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X699">
         <v>-1</v>
@@ -62787,16 +62787,16 @@
         <v>-1</v>
       </c>
       <c r="Z699">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA699">
         <v>-1</v>
       </c>
       <c r="AB699">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC699">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="700" spans="1:29">
@@ -62905,7 +62905,7 @@
         <v>44843.46875</v>
       </c>
       <c r="F701" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G701" t="s">
         <v>51</v>
@@ -63350,7 +63350,7 @@
         <v>44849.375</v>
       </c>
       <c r="F706" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G706" t="s">
         <v>38</v>
@@ -63798,7 +63798,7 @@
         <v>52</v>
       </c>
       <c r="G711" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H711">
         <v>1</v>
@@ -64062,7 +64062,7 @@
         <v>44856.375</v>
       </c>
       <c r="F714" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G714" t="s">
         <v>53</v>
@@ -64688,7 +64688,7 @@
         <v>32</v>
       </c>
       <c r="G721" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H721">
         <v>2</v>
@@ -65041,7 +65041,7 @@
         <v>44863.375</v>
       </c>
       <c r="F725" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G725" t="s">
         <v>45</v>
@@ -65133,7 +65133,7 @@
         <v>48</v>
       </c>
       <c r="G726" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H726">
         <v>1</v>
@@ -66020,10 +66020,10 @@
         <v>44870.41666666666</v>
       </c>
       <c r="F736" t="s">
+        <v>60</v>
+      </c>
+      <c r="G736" t="s">
         <v>61</v>
-      </c>
-      <c r="G736" t="s">
-        <v>60</v>
       </c>
       <c r="H736">
         <v>2</v>
@@ -66631,7 +66631,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>5320019</v>
+        <v>5321351</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -66643,73 +66643,73 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F743" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G743" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I743">
         <v>2</v>
       </c>
       <c r="J743" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K743">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L743">
+        <v>3.25</v>
+      </c>
+      <c r="M743">
+        <v>4.333</v>
+      </c>
+      <c r="N743">
+        <v>1.95</v>
+      </c>
+      <c r="O743">
         <v>3.1</v>
       </c>
-      <c r="M743">
-        <v>3.1</v>
-      </c>
-      <c r="N743">
-        <v>2.7</v>
-      </c>
-      <c r="O743">
-        <v>3</v>
-      </c>
       <c r="P743">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q743">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R743">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S743">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T743">
         <v>2.25</v>
       </c>
       <c r="U743">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V743">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W743">
         <v>-1</v>
       </c>
       <c r="X743">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y743">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z743">
         <v>-1</v>
       </c>
       <c r="AA743">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB743">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC743">
         <v>-1</v>
@@ -66720,7 +66720,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>5321351</v>
+        <v>5320021</v>
       </c>
       <c r="C744" t="s">
         <v>28</v>
@@ -66732,46 +66732,46 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F744" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G744" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I744">
         <v>2</v>
       </c>
       <c r="J744" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K744">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L744">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M744">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N744">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O744">
         <v>3.1</v>
       </c>
       <c r="P744">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q744">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R744">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S744">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T744">
         <v>2.25</v>
@@ -66786,16 +66786,16 @@
         <v>-1</v>
       </c>
       <c r="X744">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y744">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z744">
         <v>-1</v>
       </c>
       <c r="AA744">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB744">
         <v>1.025</v>
@@ -66809,7 +66809,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>5320021</v>
+        <v>5320019</v>
       </c>
       <c r="C745" t="s">
         <v>28</v>
@@ -66821,10 +66821,10 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F745" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G745" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H745">
         <v>1</v>
@@ -66836,40 +66836,40 @@
         <v>68</v>
       </c>
       <c r="K745">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="L745">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M745">
+        <v>3.1</v>
+      </c>
+      <c r="N745">
+        <v>2.7</v>
+      </c>
+      <c r="O745">
+        <v>3</v>
+      </c>
+      <c r="P745">
         <v>2.75</v>
       </c>
-      <c r="N745">
-        <v>2.6</v>
-      </c>
-      <c r="O745">
-        <v>3.1</v>
-      </c>
-      <c r="P745">
-        <v>2.8</v>
-      </c>
       <c r="Q745">
         <v>0</v>
       </c>
       <c r="R745">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S745">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T745">
         <v>2.25</v>
       </c>
       <c r="U745">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V745">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W745">
         <v>-1</v>
@@ -66878,16 +66878,16 @@
         <v>-1</v>
       </c>
       <c r="Y745">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z745">
         <v>-1</v>
       </c>
       <c r="AA745">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB745">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC745">
         <v>-1</v>
@@ -66999,7 +66999,7 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F747" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G747" t="s">
         <v>41</v>
@@ -67076,7 +67076,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5320017</v>
+        <v>5319177</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67088,58 +67088,58 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F748" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G748" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H748">
         <v>3</v>
       </c>
       <c r="I748">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J748" t="s">
         <v>69</v>
       </c>
       <c r="K748">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="L748">
         <v>3.1</v>
       </c>
       <c r="M748">
+        <v>4</v>
+      </c>
+      <c r="N748">
         <v>2.2</v>
       </c>
-      <c r="N748">
+      <c r="O748">
         <v>2.9</v>
       </c>
-      <c r="O748">
-        <v>3</v>
-      </c>
       <c r="P748">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q748">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R748">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S748">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T748">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U748">
+        <v>1.825</v>
+      </c>
+      <c r="V748">
         <v>2.025</v>
       </c>
-      <c r="V748">
-        <v>1.825</v>
-      </c>
       <c r="W748">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X748">
         <v>-1</v>
@@ -67148,13 +67148,13 @@
         <v>-1</v>
       </c>
       <c r="Z748">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA748">
         <v>-1</v>
       </c>
       <c r="AB748">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC748">
         <v>-1</v>
@@ -67165,7 +67165,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>5319177</v>
+        <v>5320017</v>
       </c>
       <c r="C749" t="s">
         <v>28</v>
@@ -67177,58 +67177,58 @@
         <v>44877.41666666666</v>
       </c>
       <c r="F749" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G749" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H749">
         <v>3</v>
       </c>
       <c r="I749">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J749" t="s">
         <v>69</v>
       </c>
       <c r="K749">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L749">
         <v>3.1</v>
       </c>
       <c r="M749">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N749">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O749">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P749">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q749">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R749">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S749">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T749">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U749">
+        <v>2.025</v>
+      </c>
+      <c r="V749">
         <v>1.825</v>
       </c>
-      <c r="V749">
-        <v>2.025</v>
-      </c>
       <c r="W749">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X749">
         <v>-1</v>
@@ -67237,13 +67237,13 @@
         <v>-1</v>
       </c>
       <c r="Z749">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA749">
         <v>-1</v>
       </c>
       <c r="AB749">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC749">
         <v>-1</v>
@@ -67978,7 +67978,7 @@
         <v>44892.45833333334</v>
       </c>
       <c r="F758" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G758" t="s">
         <v>32</v>
@@ -68070,7 +68070,7 @@
         <v>33</v>
       </c>
       <c r="G759" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H759">
         <v>2</v>
@@ -68423,7 +68423,7 @@
         <v>44898.58333333334</v>
       </c>
       <c r="F763" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G763" t="s">
         <v>53</v>
@@ -68690,7 +68690,7 @@
         <v>44899.45833333334</v>
       </c>
       <c r="F766" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G766" t="s">
         <v>33</v>
@@ -68945,7 +68945,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>5320030</v>
+        <v>5320029</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68957,55 +68957,55 @@
         <v>44899.45833333334</v>
       </c>
       <c r="F769" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G769" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I769">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J769" t="s">
         <v>67</v>
       </c>
       <c r="K769">
+        <v>1.833</v>
+      </c>
+      <c r="L769">
+        <v>3.4</v>
+      </c>
+      <c r="M769">
+        <v>4</v>
+      </c>
+      <c r="N769">
         <v>2.2</v>
-      </c>
-      <c r="L769">
-        <v>3.2</v>
-      </c>
-      <c r="M769">
-        <v>3.25</v>
-      </c>
-      <c r="N769">
-        <v>2.15</v>
       </c>
       <c r="O769">
         <v>3.2</v>
       </c>
       <c r="P769">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q769">
         <v>-0.25</v>
       </c>
       <c r="R769">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S769">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T769">
         <v>2.25</v>
       </c>
       <c r="U769">
+        <v>1.975</v>
+      </c>
+      <c r="V769">
         <v>1.875</v>
-      </c>
-      <c r="V769">
-        <v>1.975</v>
       </c>
       <c r="W769">
         <v>-1</v>
@@ -69020,13 +69020,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA769">
-        <v>0.45</v>
+        <v>0.4125</v>
       </c>
       <c r="AB769">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC769">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -69034,7 +69034,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>5320029</v>
+        <v>5320030</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69046,55 +69046,55 @@
         <v>44899.45833333334</v>
       </c>
       <c r="F770" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G770" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H770">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J770" t="s">
         <v>67</v>
       </c>
       <c r="K770">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L770">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M770">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N770">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O770">
         <v>3.2</v>
       </c>
       <c r="P770">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q770">
         <v>-0.25</v>
       </c>
       <c r="R770">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S770">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T770">
         <v>2.25</v>
       </c>
       <c r="U770">
+        <v>1.875</v>
+      </c>
+      <c r="V770">
         <v>1.975</v>
-      </c>
-      <c r="V770">
-        <v>1.875</v>
       </c>
       <c r="W770">
         <v>-1</v>
@@ -69109,13 +69109,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA770">
-        <v>0.4125</v>
+        <v>0.45</v>
       </c>
       <c r="AB770">
+        <v>-1</v>
+      </c>
+      <c r="AC770">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC770">
-        <v>-1</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -69227,7 +69227,7 @@
         <v>49</v>
       </c>
       <c r="G772" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H772">
         <v>1</v>
@@ -69494,7 +69494,7 @@
         <v>59</v>
       </c>
       <c r="G775" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H775">
         <v>2</v>
@@ -69568,7 +69568,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5320040</v>
+        <v>5320042</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69580,76 +69580,76 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F776" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G776" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H776">
         <v>0</v>
       </c>
       <c r="I776">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J776" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K776">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L776">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M776">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N776">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O776">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P776">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q776">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R776">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S776">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T776">
         <v>2.25</v>
       </c>
       <c r="U776">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V776">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W776">
         <v>-1</v>
       </c>
       <c r="X776">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y776">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z776">
         <v>-1</v>
       </c>
       <c r="AA776">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB776">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC776">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -69657,7 +69657,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5320042</v>
+        <v>5320038</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69669,73 +69669,73 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F777" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G777" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777">
+        <v>2</v>
+      </c>
+      <c r="J777" t="s">
+        <v>67</v>
+      </c>
+      <c r="K777">
+        <v>2.3</v>
+      </c>
+      <c r="L777">
+        <v>3.1</v>
+      </c>
+      <c r="M777">
         <v>3</v>
       </c>
-      <c r="J777" t="s">
-        <v>68</v>
-      </c>
-      <c r="K777">
-        <v>2.4</v>
-      </c>
-      <c r="L777">
-        <v>3</v>
-      </c>
-      <c r="M777">
-        <v>2.875</v>
-      </c>
       <c r="N777">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O777">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P777">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q777">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R777">
+        <v>1.825</v>
+      </c>
+      <c r="S777">
         <v>2.025</v>
       </c>
-      <c r="S777">
-        <v>1.825</v>
-      </c>
       <c r="T777">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U777">
+        <v>2.05</v>
+      </c>
+      <c r="V777">
+        <v>1.8</v>
+      </c>
+      <c r="W777">
+        <v>-1</v>
+      </c>
+      <c r="X777">
         <v>2.1</v>
       </c>
-      <c r="V777">
-        <v>1.775</v>
-      </c>
-      <c r="W777">
-        <v>-1</v>
-      </c>
-      <c r="X777">
-        <v>-1</v>
-      </c>
       <c r="Y777">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z777">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA777">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB777">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AC777">
         <v>-1</v>
@@ -69746,7 +69746,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5320037</v>
+        <v>5320040</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69758,76 +69758,76 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F778" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G778" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J778" t="s">
         <v>67</v>
       </c>
       <c r="K778">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L778">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M778">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N778">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O778">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P778">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q778">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R778">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S778">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T778">
         <v>2.25</v>
       </c>
       <c r="U778">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V778">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W778">
         <v>-1</v>
       </c>
       <c r="X778">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y778">
         <v>-1</v>
       </c>
       <c r="Z778">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA778">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB778">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC778">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69835,7 +69835,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5320038</v>
+        <v>5320037</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69847,49 +69847,49 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F779" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G779" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J779" t="s">
         <v>67</v>
       </c>
       <c r="K779">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L779">
         <v>3.1</v>
       </c>
       <c r="M779">
+        <v>2.2</v>
+      </c>
+      <c r="N779">
+        <v>2.9</v>
+      </c>
+      <c r="O779">
         <v>3</v>
       </c>
-      <c r="N779">
-        <v>2.45</v>
-      </c>
-      <c r="O779">
-        <v>3.1</v>
-      </c>
       <c r="P779">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q779">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R779">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S779">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T779">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U779">
         <v>2.05</v>
@@ -69901,22 +69901,22 @@
         <v>-1</v>
       </c>
       <c r="X779">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y779">
         <v>-1</v>
       </c>
       <c r="Z779">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA779">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB779">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC779">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -70114,7 +70114,7 @@
         <v>44906.35416666666</v>
       </c>
       <c r="F782" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G782" t="s">
         <v>52</v>
@@ -70648,7 +70648,7 @@
         <v>44906.45833333334</v>
       </c>
       <c r="F788" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G788" t="s">
         <v>49</v>
@@ -71170,7 +71170,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5320057</v>
+        <v>5321342</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71182,55 +71182,55 @@
         <v>44913.41666666666</v>
       </c>
       <c r="F794" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G794" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H794">
         <v>0</v>
       </c>
       <c r="I794">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J794" t="s">
         <v>68</v>
       </c>
       <c r="K794">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L794">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M794">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N794">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O794">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P794">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q794">
         <v>-0.5</v>
       </c>
       <c r="R794">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S794">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T794">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U794">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V794">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W794">
         <v>-1</v>
@@ -71239,19 +71239,19 @@
         <v>-1</v>
       </c>
       <c r="Y794">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z794">
         <v>-1</v>
       </c>
       <c r="AA794">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB794">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC794">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="795" spans="1:29">
@@ -71259,7 +71259,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5321342</v>
+        <v>5320057</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71271,55 +71271,55 @@
         <v>44913.41666666666</v>
       </c>
       <c r="F795" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G795" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H795">
         <v>0</v>
       </c>
       <c r="I795">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J795" t="s">
         <v>68</v>
       </c>
       <c r="K795">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L795">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M795">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N795">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O795">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P795">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q795">
         <v>-0.5</v>
       </c>
       <c r="R795">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S795">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T795">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U795">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V795">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W795">
         <v>-1</v>
@@ -71328,19 +71328,19 @@
         <v>-1</v>
       </c>
       <c r="Y795">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z795">
         <v>-1</v>
       </c>
       <c r="AA795">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB795">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC795">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71630,7 +71630,7 @@
         <v>56</v>
       </c>
       <c r="G799" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H799">
         <v>2</v>
@@ -72250,7 +72250,7 @@
         <v>44921.45833333334</v>
       </c>
       <c r="F806" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G806" t="s">
         <v>57</v>
@@ -72339,7 +72339,7 @@
         <v>44921.45833333334</v>
       </c>
       <c r="F807" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G807" t="s">
         <v>30</v>
@@ -72873,7 +72873,7 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F813" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G813" t="s">
         <v>55</v>
@@ -73039,7 +73039,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>5320071</v>
+        <v>5320070</v>
       </c>
       <c r="C815" t="s">
         <v>28</v>
@@ -73051,76 +73051,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F815" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G815" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I815">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J815" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K815">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L815">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M815">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N815">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O815">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P815">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q815">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R815">
+        <v>1.95</v>
+      </c>
+      <c r="S815">
         <v>1.9</v>
       </c>
-      <c r="S815">
-        <v>1.95</v>
-      </c>
       <c r="T815">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U815">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V815">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W815">
         <v>-1</v>
       </c>
       <c r="X815">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y815">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z815">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA815">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB815">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC815">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816" spans="1:29">
@@ -73128,7 +73128,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>5320070</v>
+        <v>5320071</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73140,76 +73140,76 @@
         <v>44940.41666666666</v>
       </c>
       <c r="F816" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G816" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H816">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I816">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J816" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K816">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L816">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M816">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N816">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O816">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P816">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q816">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R816">
+        <v>1.9</v>
+      </c>
+      <c r="S816">
         <v>1.95</v>
       </c>
-      <c r="S816">
-        <v>1.9</v>
-      </c>
       <c r="T816">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U816">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V816">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W816">
         <v>-1</v>
       </c>
       <c r="X816">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y816">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z816">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA816">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB816">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC816">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73318,7 +73318,7 @@
         <v>44941.41666666666</v>
       </c>
       <c r="F818" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G818" t="s">
         <v>38</v>
@@ -73840,7 +73840,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>5320075</v>
+        <v>5320072</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73852,76 +73852,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F824" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G824" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J824" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K824">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L824">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M824">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N824">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O824">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P824">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q824">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R824">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S824">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T824">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U824">
+        <v>1.9</v>
+      </c>
+      <c r="V824">
         <v>1.95</v>
       </c>
-      <c r="V824">
-        <v>1.9</v>
-      </c>
       <c r="W824">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X824">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y824">
         <v>-1</v>
       </c>
       <c r="Z824">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA824">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB824">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC824">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -74018,7 +74018,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>5320072</v>
+        <v>5320075</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -74030,76 +74030,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F826" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G826" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I826">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J826" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K826">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L826">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M826">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N826">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O826">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P826">
+        <v>5.5</v>
+      </c>
+      <c r="Q826">
+        <v>-1</v>
+      </c>
+      <c r="R826">
+        <v>2.025</v>
+      </c>
+      <c r="S826">
+        <v>1.825</v>
+      </c>
+      <c r="T826">
         <v>2.5</v>
       </c>
-      <c r="Q826">
-        <v>0</v>
-      </c>
-      <c r="R826">
-        <v>2.1</v>
-      </c>
-      <c r="S826">
-        <v>1.775</v>
-      </c>
-      <c r="T826">
-        <v>2</v>
-      </c>
       <c r="U826">
+        <v>1.95</v>
+      </c>
+      <c r="V826">
         <v>1.9</v>
       </c>
-      <c r="V826">
-        <v>1.95</v>
-      </c>
       <c r="W826">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X826">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y826">
         <v>-1</v>
       </c>
       <c r="Z826">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA826">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB826">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC826">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="827" spans="1:29">
@@ -74300,7 +74300,7 @@
         <v>29</v>
       </c>
       <c r="G829" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H829">
         <v>0</v>
@@ -74389,7 +74389,7 @@
         <v>44</v>
       </c>
       <c r="G830" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H830">
         <v>0</v>
@@ -74564,7 +74564,7 @@
         <v>44953.6875</v>
       </c>
       <c r="F832" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G832" t="s">
         <v>48</v>
@@ -74641,7 +74641,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>5319186</v>
+        <v>5320080</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74653,76 +74653,76 @@
         <v>44954.41666666666</v>
       </c>
       <c r="F833" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G833" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H833">
         <v>1</v>
       </c>
       <c r="I833">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J833" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K833">
+        <v>2.05</v>
+      </c>
+      <c r="L833">
+        <v>3.2</v>
+      </c>
+      <c r="M833">
         <v>3.4</v>
       </c>
-      <c r="L833">
-        <v>3.25</v>
-      </c>
-      <c r="M833">
-        <v>2.1</v>
-      </c>
       <c r="N833">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="O833">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P833">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q833">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R833">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S833">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T833">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U833">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V833">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W833">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X833">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y833">
         <v>-1</v>
       </c>
       <c r="Z833">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA833">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB833">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC833">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -74730,7 +74730,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>5320080</v>
+        <v>5319186</v>
       </c>
       <c r="C834" t="s">
         <v>28</v>
@@ -74742,76 +74742,76 @@
         <v>44954.41666666666</v>
       </c>
       <c r="F834" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G834" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H834">
         <v>1</v>
       </c>
       <c r="I834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J834" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K834">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L834">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M834">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N834">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O834">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P834">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q834">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R834">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S834">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T834">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U834">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V834">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W834">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X834">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y834">
         <v>-1</v>
       </c>
       <c r="Z834">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA834">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB834">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC834">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="835" spans="1:29">
@@ -75009,7 +75009,7 @@
         <v>44954.41666666666</v>
       </c>
       <c r="F837" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G837" t="s">
         <v>45</v>
@@ -75457,7 +75457,7 @@
         <v>57</v>
       </c>
       <c r="G842" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H842">
         <v>2</v>
@@ -75546,7 +75546,7 @@
         <v>41</v>
       </c>
       <c r="G843" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H843">
         <v>0</v>
@@ -75798,7 +75798,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>5320087</v>
+        <v>5320086</v>
       </c>
       <c r="C846" t="s">
         <v>28</v>
@@ -75810,73 +75810,73 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F846" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G846" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H846">
         <v>3</v>
       </c>
       <c r="I846">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J846" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K846">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L846">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M846">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N846">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O846">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P846">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q846">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R846">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S846">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T846">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U846">
+        <v>1.8</v>
+      </c>
+      <c r="V846">
         <v>2.05</v>
       </c>
-      <c r="V846">
-        <v>1.8</v>
-      </c>
       <c r="W846">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X846">
         <v>-1</v>
       </c>
       <c r="Y846">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z846">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA846">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB846">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AC846">
         <v>-1</v>
@@ -75887,7 +75887,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>5320086</v>
+        <v>5320087</v>
       </c>
       <c r="C847" t="s">
         <v>28</v>
@@ -75899,73 +75899,73 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F847" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G847" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H847">
         <v>3</v>
       </c>
       <c r="I847">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J847" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K847">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L847">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M847">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N847">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O847">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P847">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q847">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R847">
+        <v>1.9</v>
+      </c>
+      <c r="S847">
+        <v>1.95</v>
+      </c>
+      <c r="T847">
+        <v>2.25</v>
+      </c>
+      <c r="U847">
         <v>2.05</v>
       </c>
-      <c r="S847">
+      <c r="V847">
         <v>1.8</v>
       </c>
-      <c r="T847">
-        <v>1.75</v>
-      </c>
-      <c r="U847">
-        <v>1.8</v>
-      </c>
-      <c r="V847">
-        <v>2.05</v>
-      </c>
       <c r="W847">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X847">
         <v>-1</v>
       </c>
       <c r="Y847">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z847">
+        <v>-1</v>
+      </c>
+      <c r="AA847">
+        <v>0.95</v>
+      </c>
+      <c r="AB847">
         <v>1.05</v>
-      </c>
-      <c r="AA847">
-        <v>-1</v>
-      </c>
-      <c r="AB847">
-        <v>0.8</v>
       </c>
       <c r="AC847">
         <v>-1</v>
@@ -76433,7 +76433,7 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F853" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G853" t="s">
         <v>51</v>
@@ -76789,7 +76789,7 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F857" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G857" t="s">
         <v>55</v>
@@ -77400,7 +77400,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>5320103</v>
+        <v>5319188</v>
       </c>
       <c r="C864" t="s">
         <v>28</v>
@@ -77412,76 +77412,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F864" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G864" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I864">
         <v>1</v>
       </c>
       <c r="J864" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K864">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L864">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M864">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N864">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O864">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P864">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q864">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R864">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S864">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T864">
         <v>2.25</v>
       </c>
       <c r="U864">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V864">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W864">
         <v>-1</v>
       </c>
       <c r="X864">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y864">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z864">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA864">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB864">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC864">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="865" spans="1:29">
@@ -77489,7 +77489,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>5319188</v>
+        <v>5320103</v>
       </c>
       <c r="C865" t="s">
         <v>28</v>
@@ -77501,76 +77501,76 @@
         <v>44975.41666666666</v>
       </c>
       <c r="F865" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G865" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I865">
         <v>1</v>
       </c>
       <c r="J865" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K865">
+        <v>2.8</v>
+      </c>
+      <c r="L865">
+        <v>3.2</v>
+      </c>
+      <c r="M865">
+        <v>2.55</v>
+      </c>
+      <c r="N865">
+        <v>2.8</v>
+      </c>
+      <c r="O865">
+        <v>3.25</v>
+      </c>
+      <c r="P865">
+        <v>2.6</v>
+      </c>
+      <c r="Q865">
+        <v>0</v>
+      </c>
+      <c r="R865">
+        <v>2.05</v>
+      </c>
+      <c r="S865">
         <v>1.8</v>
-      </c>
-      <c r="L865">
-        <v>3.4</v>
-      </c>
-      <c r="M865">
-        <v>4.5</v>
-      </c>
-      <c r="N865">
-        <v>1.85</v>
-      </c>
-      <c r="O865">
-        <v>3.4</v>
-      </c>
-      <c r="P865">
-        <v>4.5</v>
-      </c>
-      <c r="Q865">
-        <v>-0.5</v>
-      </c>
-      <c r="R865">
-        <v>1.9</v>
-      </c>
-      <c r="S865">
-        <v>1.95</v>
       </c>
       <c r="T865">
         <v>2.25</v>
       </c>
       <c r="U865">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V865">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W865">
         <v>-1</v>
       </c>
       <c r="X865">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y865">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z865">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA865">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB865">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC865">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="866" spans="1:29">
@@ -77682,7 +77682,7 @@
         <v>30</v>
       </c>
       <c r="G867" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H867">
         <v>0</v>
@@ -77949,7 +77949,7 @@
         <v>58</v>
       </c>
       <c r="G870" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H870">
         <v>1</v>
@@ -78391,7 +78391,7 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F875" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G875" t="s">
         <v>56</v>
@@ -78572,7 +78572,7 @@
         <v>29</v>
       </c>
       <c r="G877" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H877">
         <v>0</v>
@@ -79284,7 +79284,7 @@
         <v>51</v>
       </c>
       <c r="G885" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H885">
         <v>0</v>
@@ -79548,7 +79548,7 @@
         <v>44986.6875</v>
       </c>
       <c r="F888" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G888" t="s">
         <v>59</v>
@@ -80082,7 +80082,7 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F894" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G894" t="s">
         <v>52</v>
@@ -80619,7 +80619,7 @@
         <v>38</v>
       </c>
       <c r="G900" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H900">
         <v>1</v>
@@ -80794,7 +80794,7 @@
         <v>44995.6875</v>
       </c>
       <c r="F902" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G902" t="s">
         <v>32</v>
@@ -81242,7 +81242,7 @@
         <v>53</v>
       </c>
       <c r="G907" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H907">
         <v>0</v>
@@ -81773,7 +81773,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F913" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G913" t="s">
         <v>48</v>
@@ -82310,7 +82310,7 @@
         <v>45</v>
       </c>
       <c r="G919" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H919">
         <v>0</v>
@@ -82918,7 +82918,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>5500513</v>
+        <v>5471444</v>
       </c>
       <c r="C926" t="s">
         <v>28</v>
@@ -82930,76 +82930,76 @@
         <v>45017.375</v>
       </c>
       <c r="F926" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G926" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H926">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I926">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J926" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K926">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L926">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M926">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="N926">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O926">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P926">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q926">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R926">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S926">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T926">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U926">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V926">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W926">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X926">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y926">
         <v>-1</v>
       </c>
       <c r="Z926">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA926">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB926">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC926">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="927" spans="1:29">
@@ -83007,7 +83007,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>5471444</v>
+        <v>5500513</v>
       </c>
       <c r="C927" t="s">
         <v>28</v>
@@ -83019,76 +83019,76 @@
         <v>45017.375</v>
       </c>
       <c r="F927" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G927" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I927">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J927" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K927">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L927">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M927">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="N927">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O927">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P927">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q927">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R927">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S927">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T927">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U927">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V927">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W927">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X927">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y927">
         <v>-1</v>
       </c>
       <c r="Z927">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA927">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB927">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC927">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="928" spans="1:29">
@@ -83096,7 +83096,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>5466911</v>
+        <v>5471442</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83108,70 +83108,70 @@
         <v>45017.46875</v>
       </c>
       <c r="F928" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G928" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H928">
+        <v>2</v>
+      </c>
+      <c r="I928">
+        <v>0</v>
+      </c>
+      <c r="J928" t="s">
+        <v>69</v>
+      </c>
+      <c r="K928">
+        <v>1.833</v>
+      </c>
+      <c r="L928">
+        <v>3.5</v>
+      </c>
+      <c r="M928">
+        <v>4.333</v>
+      </c>
+      <c r="N928">
+        <v>2</v>
+      </c>
+      <c r="O928">
+        <v>3.2</v>
+      </c>
+      <c r="P928">
+        <v>4</v>
+      </c>
+      <c r="Q928">
+        <v>-0.5</v>
+      </c>
+      <c r="R928">
+        <v>1.975</v>
+      </c>
+      <c r="S928">
+        <v>1.875</v>
+      </c>
+      <c r="T928">
+        <v>2</v>
+      </c>
+      <c r="U928">
+        <v>1.925</v>
+      </c>
+      <c r="V928">
+        <v>1.925</v>
+      </c>
+      <c r="W928">
         <v>1</v>
       </c>
-      <c r="I928">
-        <v>1</v>
-      </c>
-      <c r="J928" t="s">
-        <v>67</v>
-      </c>
-      <c r="K928">
-        <v>3.4</v>
-      </c>
-      <c r="L928">
-        <v>3.2</v>
-      </c>
-      <c r="M928">
-        <v>2.2</v>
-      </c>
-      <c r="N928">
-        <v>3.3</v>
-      </c>
-      <c r="O928">
-        <v>3</v>
-      </c>
-      <c r="P928">
-        <v>2.4</v>
-      </c>
-      <c r="Q928">
-        <v>0.25</v>
-      </c>
-      <c r="R928">
-        <v>1.8</v>
-      </c>
-      <c r="S928">
-        <v>2.05</v>
-      </c>
-      <c r="T928">
-        <v>2</v>
-      </c>
-      <c r="U928">
-        <v>1.875</v>
-      </c>
-      <c r="V928">
-        <v>1.975</v>
-      </c>
-      <c r="W928">
-        <v>-1</v>
-      </c>
       <c r="X928">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y928">
         <v>-1</v>
       </c>
       <c r="Z928">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA928">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB928">
         <v>0</v>
@@ -83185,7 +83185,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>5471442</v>
+        <v>5466911</v>
       </c>
       <c r="C929" t="s">
         <v>28</v>
@@ -83197,70 +83197,70 @@
         <v>45017.46875</v>
       </c>
       <c r="F929" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G929" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I929">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J929" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K929">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L929">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M929">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N929">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O929">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P929">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q929">
+        <v>0.25</v>
+      </c>
+      <c r="R929">
+        <v>1.8</v>
+      </c>
+      <c r="S929">
+        <v>2.05</v>
+      </c>
+      <c r="T929">
+        <v>2</v>
+      </c>
+      <c r="U929">
+        <v>1.875</v>
+      </c>
+      <c r="V929">
+        <v>1.975</v>
+      </c>
+      <c r="W929">
+        <v>-1</v>
+      </c>
+      <c r="X929">
+        <v>2</v>
+      </c>
+      <c r="Y929">
+        <v>-1</v>
+      </c>
+      <c r="Z929">
+        <v>0.4</v>
+      </c>
+      <c r="AA929">
         <v>-0.5</v>
-      </c>
-      <c r="R929">
-        <v>1.975</v>
-      </c>
-      <c r="S929">
-        <v>1.875</v>
-      </c>
-      <c r="T929">
-        <v>2</v>
-      </c>
-      <c r="U929">
-        <v>1.925</v>
-      </c>
-      <c r="V929">
-        <v>1.925</v>
-      </c>
-      <c r="W929">
-        <v>1</v>
-      </c>
-      <c r="X929">
-        <v>-1</v>
-      </c>
-      <c r="Y929">
-        <v>-1</v>
-      </c>
-      <c r="Z929">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA929">
-        <v>-1</v>
       </c>
       <c r="AB929">
         <v>0</v>
@@ -83820,7 +83820,7 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F936" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G936" t="s">
         <v>58</v>
@@ -84179,7 +84179,7 @@
         <v>41</v>
       </c>
       <c r="G940" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H940">
         <v>0</v>
@@ -84535,7 +84535,7 @@
         <v>32</v>
       </c>
       <c r="G944" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H944">
         <v>1</v>
@@ -85066,7 +85066,7 @@
         <v>45031.46875</v>
       </c>
       <c r="F950" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G950" t="s">
         <v>33</v>
@@ -85514,7 +85514,7 @@
         <v>53</v>
       </c>
       <c r="G955" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H955">
         <v>2</v>
@@ -85781,7 +85781,7 @@
         <v>33</v>
       </c>
       <c r="G958" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H958">
         <v>0</v>
@@ -86223,7 +86223,7 @@
         <v>45046.46875</v>
       </c>
       <c r="F963" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G963" t="s">
         <v>49</v>
@@ -86757,7 +86757,7 @@
         <v>45047.41666666666</v>
       </c>
       <c r="F969" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G969" t="s">
         <v>59</v>
@@ -87027,7 +87027,7 @@
         <v>52</v>
       </c>
       <c r="G972" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H972">
         <v>0</v>
@@ -87383,7 +87383,7 @@
         <v>49</v>
       </c>
       <c r="G976" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H976">
         <v>0</v>
@@ -88181,7 +88181,7 @@
         <v>45059.375</v>
       </c>
       <c r="F985" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G985" t="s">
         <v>44</v>
@@ -88359,7 +88359,7 @@
         <v>45059.375</v>
       </c>
       <c r="F987" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G987" t="s">
         <v>56</v>
@@ -89341,7 +89341,7 @@
         <v>30</v>
       </c>
       <c r="G998" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H998">
         <v>0</v>
@@ -89430,7 +89430,7 @@
         <v>57</v>
       </c>
       <c r="G999" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H999">
         <v>2</v>
@@ -89783,7 +89783,7 @@
         <v>45072.64583333334</v>
       </c>
       <c r="F1003" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1003" t="s">
         <v>45</v>
@@ -89872,7 +89872,7 @@
         <v>45073.64583333334</v>
       </c>
       <c r="F1004" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1004" t="s">
         <v>29</v>
@@ -89961,7 +89961,7 @@
         <v>45075.64583333334</v>
       </c>
       <c r="F1005" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1005" t="s">
         <v>58</v>
@@ -90050,7 +90050,7 @@
         <v>45076.64583333334</v>
       </c>
       <c r="F1006" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1006" t="s">
         <v>53</v>
@@ -90231,7 +90231,7 @@
         <v>58</v>
       </c>
       <c r="G1008" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1008">
         <v>1</v>
@@ -90320,7 +90320,7 @@
         <v>53</v>
       </c>
       <c r="G1009" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1009">
         <v>0</v>
@@ -90406,7 +90406,7 @@
         <v>45085.64583333334</v>
       </c>
       <c r="F1010" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1010" t="s">
         <v>58</v>
@@ -90498,7 +90498,7 @@
         <v>58</v>
       </c>
       <c r="G1011" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1011">
         <v>0</v>
@@ -90940,7 +90940,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F1016" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1016" t="s">
         <v>66</v>
@@ -91566,7 +91566,7 @@
         <v>63</v>
       </c>
       <c r="G1023" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1023">
         <v>0</v>
@@ -92987,7 +92987,7 @@
         <v>45171.5625</v>
       </c>
       <c r="F1039" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1039" t="s">
         <v>32</v>
@@ -93791,7 +93791,7 @@
         <v>30</v>
       </c>
       <c r="G1048" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1048">
         <v>2</v>
@@ -94948,7 +94948,7 @@
         <v>49</v>
       </c>
       <c r="G1061" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1061">
         <v>1</v>
@@ -95924,7 +95924,7 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F1072" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1072" t="s">
         <v>57</v>
@@ -96906,7 +96906,7 @@
         <v>56</v>
       </c>
       <c r="G1083" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1083">
         <v>2</v>
@@ -97259,7 +97259,7 @@
         <v>45206.375</v>
       </c>
       <c r="F1087" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1087" t="s">
         <v>64</v>
@@ -98330,7 +98330,7 @@
         <v>37</v>
       </c>
       <c r="G1099" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1099">
         <v>0</v>
@@ -99395,7 +99395,7 @@
         <v>45227.375</v>
       </c>
       <c r="F1111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1111" t="s">
         <v>62</v>
@@ -100644,7 +100644,7 @@
         <v>53</v>
       </c>
       <c r="G1125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1125">
         <v>2</v>
@@ -101353,7 +101353,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F1133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1133" t="s">
         <v>41</v>
@@ -102053,7 +102053,7 @@
         <v>1139</v>
       </c>
       <c r="B1141">
-        <v>6906694</v>
+        <v>6906428</v>
       </c>
       <c r="C1141" t="s">
         <v>28</v>
@@ -102065,73 +102065,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F1141" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G1141" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1141" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1141">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L1141">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M1141">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N1141">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O1141">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P1141">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q1141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1141">
+        <v>2.025</v>
+      </c>
+      <c r="S1141">
         <v>1.825</v>
-      </c>
-      <c r="S1141">
-        <v>2.025</v>
       </c>
       <c r="T1141">
         <v>2.25</v>
       </c>
       <c r="U1141">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V1141">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W1141">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X1141">
         <v>-1</v>
       </c>
       <c r="Y1141">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z1141">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA1141">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1141">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1141">
         <v>-1</v>
@@ -102142,7 +102142,7 @@
         <v>1140</v>
       </c>
       <c r="B1142">
-        <v>6906428</v>
+        <v>6906694</v>
       </c>
       <c r="C1142" t="s">
         <v>28</v>
@@ -102154,73 +102154,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F1142" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G1142" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1142">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L1142">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M1142">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N1142">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O1142">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P1142">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q1142">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1142">
+        <v>1.825</v>
+      </c>
+      <c r="S1142">
         <v>2.025</v>
-      </c>
-      <c r="S1142">
-        <v>1.825</v>
       </c>
       <c r="T1142">
         <v>2.25</v>
       </c>
       <c r="U1142">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V1142">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W1142">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X1142">
         <v>-1</v>
       </c>
       <c r="Y1142">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z1142">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA1142">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB1142">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC1142">
         <v>-1</v>
@@ -102513,7 +102513,7 @@
         <v>44</v>
       </c>
       <c r="G1146" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1146">
         <v>2</v>
@@ -102955,7 +102955,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F1151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1151" t="s">
         <v>38</v>
@@ -103756,7 +103756,7 @@
         <v>45263.51041666666</v>
       </c>
       <c r="F1160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1160" t="s">
         <v>55</v>
@@ -104204,7 +104204,7 @@
         <v>58</v>
       </c>
       <c r="G1165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1165">
         <v>2</v>
@@ -105183,7 +105183,7 @@
         <v>29</v>
       </c>
       <c r="G1176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1176">
         <v>2</v>
@@ -106426,7 +106426,7 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F1190" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1190" t="s">
         <v>34</v>
@@ -106785,7 +106785,7 @@
         <v>65</v>
       </c>
       <c r="G1194" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1194">
         <v>2</v>
@@ -107850,7 +107850,7 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F1206" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1206" t="s">
         <v>63</v>
@@ -108550,7 +108550,7 @@
         <v>1212</v>
       </c>
       <c r="B1214">
-        <v>6906738</v>
+        <v>6906737</v>
       </c>
       <c r="C1214" t="s">
         <v>28</v>
@@ -108562,49 +108562,49 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F1214" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G1214" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H1214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1214">
         <v>1</v>
       </c>
       <c r="J1214" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1214">
+        <v>3</v>
+      </c>
+      <c r="L1214">
+        <v>3.5</v>
+      </c>
+      <c r="M1214">
+        <v>2.25</v>
+      </c>
+      <c r="N1214">
+        <v>3.3</v>
+      </c>
+      <c r="O1214">
+        <v>3.6</v>
+      </c>
+      <c r="P1214">
+        <v>2.1</v>
+      </c>
+      <c r="Q1214">
+        <v>0.25</v>
+      </c>
+      <c r="R1214">
+        <v>2.05</v>
+      </c>
+      <c r="S1214">
+        <v>1.8</v>
+      </c>
+      <c r="T1214">
         <v>2.75</v>
-      </c>
-      <c r="L1214">
-        <v>3.1</v>
-      </c>
-      <c r="M1214">
-        <v>2.6</v>
-      </c>
-      <c r="N1214">
-        <v>2.7</v>
-      </c>
-      <c r="O1214">
-        <v>3.1</v>
-      </c>
-      <c r="P1214">
-        <v>2.8</v>
-      </c>
-      <c r="Q1214">
-        <v>0</v>
-      </c>
-      <c r="R1214">
-        <v>1.9</v>
-      </c>
-      <c r="S1214">
-        <v>1.95</v>
-      </c>
-      <c r="T1214">
-        <v>2.25</v>
       </c>
       <c r="U1214">
         <v>2</v>
@@ -108613,25 +108613,25 @@
         <v>1.85</v>
       </c>
       <c r="W1214">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X1214">
         <v>-1</v>
       </c>
       <c r="Y1214">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z1214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC1214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1215" spans="1:29">
@@ -108639,7 +108639,7 @@
         <v>1213</v>
       </c>
       <c r="B1215">
-        <v>6905867</v>
+        <v>6906738</v>
       </c>
       <c r="C1215" t="s">
         <v>28</v>
@@ -108651,73 +108651,73 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F1215" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G1215" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1215" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1215">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L1215">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M1215">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="N1215">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O1215">
         <v>3.1</v>
       </c>
       <c r="P1215">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q1215">
         <v>0</v>
       </c>
       <c r="R1215">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S1215">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T1215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1215">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V1215">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W1215">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X1215">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1215">
         <v>-1</v>
       </c>
       <c r="Z1215">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1215">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1215">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC1215">
         <v>-1</v>
@@ -108728,7 +108728,7 @@
         <v>1214</v>
       </c>
       <c r="B1216">
-        <v>6906737</v>
+        <v>6905867</v>
       </c>
       <c r="C1216" t="s">
         <v>28</v>
@@ -108740,76 +108740,76 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F1216" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G1216" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1216" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1216">
+        <v>2.8</v>
+      </c>
+      <c r="L1216">
         <v>3</v>
       </c>
-      <c r="L1216">
-        <v>3.5</v>
-      </c>
       <c r="M1216">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="N1216">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O1216">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P1216">
+        <v>2.6</v>
+      </c>
+      <c r="Q1216">
+        <v>0</v>
+      </c>
+      <c r="R1216">
         <v>2.1</v>
       </c>
-      <c r="Q1216">
-        <v>0.25</v>
-      </c>
-      <c r="R1216">
+      <c r="S1216">
+        <v>1.775</v>
+      </c>
+      <c r="T1216">
+        <v>2</v>
+      </c>
+      <c r="U1216">
+        <v>1.8</v>
+      </c>
+      <c r="V1216">
         <v>2.05</v>
       </c>
-      <c r="S1216">
-        <v>1.8</v>
-      </c>
-      <c r="T1216">
-        <v>2.75</v>
-      </c>
-      <c r="U1216">
-        <v>2</v>
-      </c>
-      <c r="V1216">
-        <v>1.85</v>
-      </c>
       <c r="W1216">
         <v>-1</v>
       </c>
       <c r="X1216">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1216">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1216">
+        <v>-0</v>
+      </c>
+      <c r="AB1216">
         <v>0.8</v>
       </c>
-      <c r="AB1216">
-        <v>-1</v>
-      </c>
       <c r="AC1216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1217" spans="1:29">
@@ -108832,7 +108832,7 @@
         <v>38</v>
       </c>
       <c r="G1217" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1217">
         <v>1</v>
@@ -109630,7 +109630,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1226" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1226" t="s">
         <v>30</v>
@@ -110833,7 +110833,7 @@
         <v>32</v>
       </c>
       <c r="G1241" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1241">
         <v>2.25</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -60490,7 +60490,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>5319971</v>
+        <v>5321364</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
@@ -60502,10 +60502,10 @@
         <v>44821.375</v>
       </c>
       <c r="F674" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G674" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H674">
         <v>1</v>
@@ -60517,25 +60517,25 @@
         <v>67</v>
       </c>
       <c r="K674">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L674">
+        <v>3.2</v>
+      </c>
+      <c r="M674">
+        <v>2.75</v>
+      </c>
+      <c r="N674">
+        <v>2.1</v>
+      </c>
+      <c r="O674">
+        <v>3.25</v>
+      </c>
+      <c r="P674">
         <v>3.3</v>
       </c>
-      <c r="M674">
-        <v>3.1</v>
-      </c>
-      <c r="N674">
-        <v>2.45</v>
-      </c>
-      <c r="O674">
-        <v>3.2</v>
-      </c>
-      <c r="P674">
-        <v>2.7</v>
-      </c>
       <c r="Q674">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R674">
         <v>1.825</v>
@@ -60547,31 +60547,31 @@
         <v>2.25</v>
       </c>
       <c r="U674">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V674">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W674">
         <v>-1</v>
       </c>
       <c r="X674">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y674">
         <v>-1</v>
       </c>
       <c r="Z674">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA674">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB674">
         <v>-0.5</v>
       </c>
       <c r="AC674">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="675" spans="1:29">
@@ -60579,7 +60579,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>5321364</v>
+        <v>5319969</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60591,76 +60591,76 @@
         <v>44821.375</v>
       </c>
       <c r="F675" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G675" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J675" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K675">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L675">
         <v>3.2</v>
       </c>
       <c r="M675">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N675">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O675">
+        <v>3.1</v>
+      </c>
+      <c r="P675">
         <v>3.25</v>
-      </c>
-      <c r="P675">
-        <v>3.3</v>
       </c>
       <c r="Q675">
         <v>-0.25</v>
       </c>
       <c r="R675">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S675">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T675">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U675">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V675">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W675">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X675">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y675">
         <v>-1</v>
       </c>
       <c r="Z675">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA675">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB675">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC675">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -60668,7 +60668,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5319969</v>
+        <v>5319968</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60680,13 +60680,13 @@
         <v>44821.375</v>
       </c>
       <c r="F676" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G676" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H676">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I676">
         <v>0</v>
@@ -60695,43 +60695,43 @@
         <v>69</v>
       </c>
       <c r="K676">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L676">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M676">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N676">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O676">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P676">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q676">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R676">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S676">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T676">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U676">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V676">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W676">
-        <v>1.15</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X676">
         <v>-1</v>
@@ -60740,16 +60740,16 @@
         <v>-1</v>
       </c>
       <c r="Z676">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AA676">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB676">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC676">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60757,7 +60757,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5319968</v>
+        <v>5319967</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60769,76 +60769,76 @@
         <v>44821.375</v>
       </c>
       <c r="F677" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G677" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I677">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J677" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K677">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L677">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M677">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N677">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O677">
         <v>3.4</v>
       </c>
       <c r="P677">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q677">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R677">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S677">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T677">
         <v>2.5</v>
       </c>
       <c r="U677">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V677">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W677">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X677">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y677">
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA677">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB677">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC677">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60846,7 +60846,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>5319967</v>
+        <v>5319966</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60858,46 +60858,46 @@
         <v>44821.375</v>
       </c>
       <c r="F678" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G678" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H678">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J678" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K678">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L678">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M678">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N678">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O678">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P678">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q678">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R678">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S678">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T678">
         <v>2.5</v>
@@ -60912,22 +60912,22 @@
         <v>-1</v>
       </c>
       <c r="X678">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y678">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z678">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA678">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB678">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC678">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60935,7 +60935,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5319966</v>
+        <v>5319971</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60947,76 +60947,76 @@
         <v>44821.375</v>
       </c>
       <c r="F679" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G679" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I679">
         <v>1</v>
       </c>
       <c r="J679" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K679">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L679">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M679">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N679">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O679">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P679">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q679">
+        <v>0</v>
+      </c>
+      <c r="R679">
+        <v>1.825</v>
+      </c>
+      <c r="S679">
+        <v>2.025</v>
+      </c>
+      <c r="T679">
+        <v>2.25</v>
+      </c>
+      <c r="U679">
+        <v>1.925</v>
+      </c>
+      <c r="V679">
+        <v>1.925</v>
+      </c>
+      <c r="W679">
+        <v>-1</v>
+      </c>
+      <c r="X679">
+        <v>2.2</v>
+      </c>
+      <c r="Y679">
+        <v>-1</v>
+      </c>
+      <c r="Z679">
+        <v>0</v>
+      </c>
+      <c r="AA679">
+        <v>-0</v>
+      </c>
+      <c r="AB679">
         <v>-0.5</v>
       </c>
-      <c r="R679">
-        <v>1.875</v>
-      </c>
-      <c r="S679">
-        <v>1.975</v>
-      </c>
-      <c r="T679">
-        <v>2.5</v>
-      </c>
-      <c r="U679">
-        <v>1.9</v>
-      </c>
-      <c r="V679">
-        <v>1.95</v>
-      </c>
-      <c r="W679">
-        <v>-1</v>
-      </c>
-      <c r="X679">
-        <v>-1</v>
-      </c>
-      <c r="Y679">
-        <v>2.8</v>
-      </c>
-      <c r="Z679">
-        <v>-1</v>
-      </c>
-      <c r="AA679">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB679">
-        <v>-1</v>
-      </c>
       <c r="AC679">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -69657,7 +69657,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5320038</v>
+        <v>5320037</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69669,49 +69669,49 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F777" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G777" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I777">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J777" t="s">
         <v>67</v>
       </c>
       <c r="K777">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L777">
         <v>3.1</v>
       </c>
       <c r="M777">
+        <v>2.2</v>
+      </c>
+      <c r="N777">
+        <v>2.9</v>
+      </c>
+      <c r="O777">
         <v>3</v>
       </c>
-      <c r="N777">
-        <v>2.45</v>
-      </c>
-      <c r="O777">
-        <v>3.1</v>
-      </c>
       <c r="P777">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q777">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R777">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S777">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T777">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U777">
         <v>2.05</v>
@@ -69723,22 +69723,22 @@
         <v>-1</v>
       </c>
       <c r="X777">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y777">
         <v>-1</v>
       </c>
       <c r="Z777">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA777">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB777">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC777">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="778" spans="1:29">
@@ -69835,7 +69835,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5320037</v>
+        <v>5320038</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69847,49 +69847,49 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F779" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G779" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I779">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J779" t="s">
         <v>67</v>
       </c>
       <c r="K779">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L779">
         <v>3.1</v>
       </c>
       <c r="M779">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N779">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O779">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P779">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q779">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R779">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S779">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T779">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U779">
         <v>2.05</v>
@@ -69901,22 +69901,22 @@
         <v>-1</v>
       </c>
       <c r="X779">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y779">
         <v>-1</v>
       </c>
       <c r="Z779">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA779">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB779">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC779">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -70191,7 +70191,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5320047</v>
+        <v>5321344</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70203,76 +70203,76 @@
         <v>44906.45833333334</v>
       </c>
       <c r="F783" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G783" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H783">
         <v>0</v>
       </c>
       <c r="I783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J783" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K783">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L783">
         <v>3.2</v>
       </c>
       <c r="M783">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N783">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="O783">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P783">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q783">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R783">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S783">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T783">
         <v>2.25</v>
       </c>
       <c r="U783">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V783">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W783">
         <v>-1</v>
       </c>
       <c r="X783">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y783">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z783">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA783">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -70369,7 +70369,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>5320045</v>
+        <v>5320047</v>
       </c>
       <c r="C785" t="s">
         <v>28</v>
@@ -70381,76 +70381,76 @@
         <v>44906.45833333334</v>
       </c>
       <c r="F785" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G785" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H785">
+        <v>0</v>
+      </c>
+      <c r="I785">
         <v>1</v>
       </c>
-      <c r="I785">
-        <v>0</v>
-      </c>
       <c r="J785" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K785">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L785">
         <v>3.2</v>
       </c>
       <c r="M785">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N785">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O785">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P785">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q785">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R785">
+        <v>1.825</v>
+      </c>
+      <c r="S785">
+        <v>2.025</v>
+      </c>
+      <c r="T785">
+        <v>2.25</v>
+      </c>
+      <c r="U785">
+        <v>1.975</v>
+      </c>
+      <c r="V785">
         <v>1.875</v>
       </c>
-      <c r="S785">
-        <v>1.975</v>
-      </c>
-      <c r="T785">
-        <v>2</v>
-      </c>
-      <c r="U785">
-        <v>1.9</v>
-      </c>
-      <c r="V785">
-        <v>1.95</v>
-      </c>
       <c r="W785">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X785">
         <v>-1</v>
       </c>
       <c r="Y785">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z785">
+        <v>-1</v>
+      </c>
+      <c r="AA785">
+        <v>1.025</v>
+      </c>
+      <c r="AB785">
+        <v>-1</v>
+      </c>
+      <c r="AC785">
         <v>0.875</v>
-      </c>
-      <c r="AA785">
-        <v>-1</v>
-      </c>
-      <c r="AB785">
-        <v>-1</v>
-      </c>
-      <c r="AC785">
-        <v>0.95</v>
       </c>
     </row>
     <row r="786" spans="1:29">
@@ -70458,7 +70458,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>5321344</v>
+        <v>5320045</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70470,67 +70470,67 @@
         <v>44906.45833333334</v>
       </c>
       <c r="F786" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G786" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I786">
         <v>0</v>
       </c>
       <c r="J786" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K786">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L786">
         <v>3.2</v>
       </c>
       <c r="M786">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N786">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O786">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P786">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q786">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R786">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S786">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T786">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U786">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V786">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W786">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X786">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y786">
         <v>-1</v>
       </c>
       <c r="Z786">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA786">
         <v>-1</v>
@@ -70539,7 +70539,7 @@
         <v>-1</v>
       </c>
       <c r="AC786">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -71170,7 +71170,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>5321342</v>
+        <v>5320057</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -71182,55 +71182,55 @@
         <v>44913.41666666666</v>
       </c>
       <c r="F794" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G794" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H794">
         <v>0</v>
       </c>
       <c r="I794">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J794" t="s">
         <v>68</v>
       </c>
       <c r="K794">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L794">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M794">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N794">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O794">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P794">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q794">
         <v>-0.5</v>
       </c>
       <c r="R794">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S794">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T794">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U794">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V794">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W794">
         <v>-1</v>
@@ -71239,19 +71239,19 @@
         <v>-1</v>
       </c>
       <c r="Y794">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Z794">
         <v>-1</v>
       </c>
       <c r="AA794">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB794">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC794">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="795" spans="1:29">
@@ -71259,7 +71259,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>5320057</v>
+        <v>5321342</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71271,55 +71271,55 @@
         <v>44913.41666666666</v>
       </c>
       <c r="F795" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G795" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H795">
         <v>0</v>
       </c>
       <c r="I795">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J795" t="s">
         <v>68</v>
       </c>
       <c r="K795">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L795">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M795">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N795">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O795">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P795">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q795">
         <v>-0.5</v>
       </c>
       <c r="R795">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S795">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T795">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U795">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V795">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W795">
         <v>-1</v>
@@ -71328,19 +71328,19 @@
         <v>-1</v>
       </c>
       <c r="Y795">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z795">
         <v>-1</v>
       </c>
       <c r="AA795">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB795">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC795">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71348,7 +71348,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>5319182</v>
+        <v>5320051</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71360,56 +71360,56 @@
         <v>44913.41666666666</v>
       </c>
       <c r="F796" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G796" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I796">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J796" t="s">
         <v>68</v>
       </c>
       <c r="K796">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L796">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M796">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N796">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="O796">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P796">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q796">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R796">
+        <v>1.875</v>
+      </c>
+      <c r="S796">
+        <v>1.975</v>
+      </c>
+      <c r="T796">
+        <v>2</v>
+      </c>
+      <c r="U796">
         <v>1.9</v>
       </c>
-      <c r="S796">
+      <c r="V796">
         <v>1.95</v>
       </c>
-      <c r="T796">
-        <v>2.25</v>
-      </c>
-      <c r="U796">
-        <v>1.825</v>
-      </c>
-      <c r="V796">
-        <v>2.025</v>
-      </c>
       <c r="W796">
         <v>-1</v>
       </c>
@@ -71417,19 +71417,19 @@
         <v>-1</v>
       </c>
       <c r="Y796">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Z796">
         <v>-1</v>
       </c>
       <c r="AA796">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB796">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC796">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71437,7 +71437,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5320051</v>
+        <v>5319182</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71449,55 +71449,55 @@
         <v>44913.41666666666</v>
       </c>
       <c r="F797" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G797" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H797">
+        <v>0</v>
+      </c>
+      <c r="I797">
         <v>1</v>
-      </c>
-      <c r="I797">
-        <v>3</v>
       </c>
       <c r="J797" t="s">
         <v>68</v>
       </c>
       <c r="K797">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L797">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M797">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N797">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="O797">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P797">
+        <v>5.5</v>
+      </c>
+      <c r="Q797">
+        <v>-0.75</v>
+      </c>
+      <c r="R797">
+        <v>1.9</v>
+      </c>
+      <c r="S797">
+        <v>1.95</v>
+      </c>
+      <c r="T797">
         <v>2.25</v>
       </c>
-      <c r="Q797">
-        <v>0.25</v>
-      </c>
-      <c r="R797">
-        <v>1.875</v>
-      </c>
-      <c r="S797">
-        <v>1.975</v>
-      </c>
-      <c r="T797">
-        <v>2</v>
-      </c>
       <c r="U797">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V797">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W797">
         <v>-1</v>
@@ -71506,19 +71506,19 @@
         <v>-1</v>
       </c>
       <c r="Y797">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z797">
         <v>-1</v>
       </c>
       <c r="AA797">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB797">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC797">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71971,7 +71971,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>5320058</v>
+        <v>5320061</v>
       </c>
       <c r="C803" t="s">
         <v>28</v>
@@ -71983,76 +71983,76 @@
         <v>44921.45833333334</v>
       </c>
       <c r="F803" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G803" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J803" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K803">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L803">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M803">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="N803">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O803">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P803">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q803">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R803">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S803">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T803">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U803">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V803">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W803">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X803">
         <v>-1</v>
       </c>
       <c r="Y803">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z803">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA803">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB803">
         <v>-1</v>
       </c>
       <c r="AC803">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="804" spans="1:29">
@@ -72060,7 +72060,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>5320062</v>
+        <v>5320058</v>
       </c>
       <c r="C804" t="s">
         <v>28</v>
@@ -72072,76 +72072,76 @@
         <v>44921.45833333334</v>
       </c>
       <c r="F804" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G804" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J804" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K804">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L804">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M804">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N804">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O804">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P804">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q804">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R804">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S804">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="T804">
         <v>2</v>
       </c>
       <c r="U804">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V804">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W804">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X804">
         <v>-1</v>
       </c>
       <c r="Y804">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z804">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA804">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB804">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC804">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="805" spans="1:29">
@@ -72149,7 +72149,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>5320064</v>
+        <v>5320062</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -72161,76 +72161,76 @@
         <v>44921.45833333334</v>
       </c>
       <c r="F805" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G805" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J805" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K805">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L805">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M805">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N805">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O805">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P805">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q805">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R805">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S805">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T805">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U805">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V805">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W805">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X805">
         <v>-1</v>
       </c>
       <c r="Y805">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z805">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA805">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB805">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC805">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="806" spans="1:29">
@@ -72327,7 +72327,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>5320061</v>
+        <v>5320059</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72339,40 +72339,40 @@
         <v>44921.45833333334</v>
       </c>
       <c r="F807" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G807" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J807" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K807">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L807">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M807">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N807">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O807">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P807">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q807">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R807">
         <v>1.825</v>
@@ -72381,34 +72381,34 @@
         <v>2.025</v>
       </c>
       <c r="T807">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U807">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V807">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W807">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X807">
         <v>-1</v>
       </c>
       <c r="Y807">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z807">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA807">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB807">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC807">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72416,7 +72416,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>5319183</v>
+        <v>5320064</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72428,76 +72428,76 @@
         <v>44921.45833333334</v>
       </c>
       <c r="F808" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G808" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J808" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K808">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L808">
         <v>3.2</v>
       </c>
       <c r="M808">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N808">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O808">
         <v>3</v>
       </c>
       <c r="P808">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q808">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R808">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S808">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T808">
         <v>2.25</v>
       </c>
       <c r="U808">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V808">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W808">
         <v>-1</v>
       </c>
       <c r="X808">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y808">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z808">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA808">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB808">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC808">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -72505,7 +72505,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>5320059</v>
+        <v>5319183</v>
       </c>
       <c r="C809" t="s">
         <v>28</v>
@@ -72517,76 +72517,76 @@
         <v>44921.45833333334</v>
       </c>
       <c r="F809" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G809" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809">
         <v>2</v>
       </c>
       <c r="J809" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K809">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L809">
         <v>3.2</v>
       </c>
       <c r="M809">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N809">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O809">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P809">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q809">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R809">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S809">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T809">
         <v>2.25</v>
       </c>
       <c r="U809">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V809">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W809">
         <v>-1</v>
       </c>
       <c r="X809">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y809">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z809">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA809">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB809">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC809">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="810" spans="1:29">
@@ -74641,7 +74641,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>5320080</v>
+        <v>5319186</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74653,76 +74653,76 @@
         <v>44954.41666666666</v>
       </c>
       <c r="F833" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G833" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H833">
         <v>1</v>
       </c>
       <c r="I833">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J833" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K833">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L833">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M833">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N833">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O833">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P833">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q833">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R833">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S833">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T833">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U833">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V833">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W833">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X833">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y833">
         <v>-1</v>
       </c>
       <c r="Z833">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA833">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB833">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC833">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -74730,7 +74730,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>5319186</v>
+        <v>5320080</v>
       </c>
       <c r="C834" t="s">
         <v>28</v>
@@ -74742,76 +74742,76 @@
         <v>44954.41666666666</v>
       </c>
       <c r="F834" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G834" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H834">
         <v>1</v>
       </c>
       <c r="I834">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J834" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K834">
+        <v>2.05</v>
+      </c>
+      <c r="L834">
+        <v>3.2</v>
+      </c>
+      <c r="M834">
         <v>3.4</v>
       </c>
-      <c r="L834">
-        <v>3.25</v>
-      </c>
-      <c r="M834">
-        <v>2.1</v>
-      </c>
       <c r="N834">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="O834">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P834">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q834">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R834">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S834">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T834">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U834">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V834">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W834">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X834">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y834">
         <v>-1</v>
       </c>
       <c r="Z834">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA834">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB834">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC834">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="835" spans="1:29">
@@ -82918,7 +82918,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>5471444</v>
+        <v>5500513</v>
       </c>
       <c r="C926" t="s">
         <v>28</v>
@@ -82930,76 +82930,76 @@
         <v>45017.375</v>
       </c>
       <c r="F926" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G926" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I926">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J926" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K926">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L926">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M926">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="N926">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O926">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P926">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q926">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R926">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S926">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T926">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U926">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V926">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W926">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X926">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y926">
         <v>-1</v>
       </c>
       <c r="Z926">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA926">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB926">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC926">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="927" spans="1:29">
@@ -83007,7 +83007,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>5500513</v>
+        <v>5471444</v>
       </c>
       <c r="C927" t="s">
         <v>28</v>
@@ -83019,76 +83019,76 @@
         <v>45017.375</v>
       </c>
       <c r="F927" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G927" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H927">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I927">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J927" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K927">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L927">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M927">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="N927">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O927">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P927">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q927">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R927">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S927">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T927">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U927">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V927">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W927">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X927">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y927">
         <v>-1</v>
       </c>
       <c r="Z927">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA927">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB927">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC927">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="928" spans="1:29">
@@ -83096,7 +83096,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>5471442</v>
+        <v>5466911</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83108,70 +83108,70 @@
         <v>45017.46875</v>
       </c>
       <c r="F928" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G928" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I928">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J928" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K928">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L928">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M928">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N928">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O928">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P928">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q928">
+        <v>0.25</v>
+      </c>
+      <c r="R928">
+        <v>1.8</v>
+      </c>
+      <c r="S928">
+        <v>2.05</v>
+      </c>
+      <c r="T928">
+        <v>2</v>
+      </c>
+      <c r="U928">
+        <v>1.875</v>
+      </c>
+      <c r="V928">
+        <v>1.975</v>
+      </c>
+      <c r="W928">
+        <v>-1</v>
+      </c>
+      <c r="X928">
+        <v>2</v>
+      </c>
+      <c r="Y928">
+        <v>-1</v>
+      </c>
+      <c r="Z928">
+        <v>0.4</v>
+      </c>
+      <c r="AA928">
         <v>-0.5</v>
-      </c>
-      <c r="R928">
-        <v>1.975</v>
-      </c>
-      <c r="S928">
-        <v>1.875</v>
-      </c>
-      <c r="T928">
-        <v>2</v>
-      </c>
-      <c r="U928">
-        <v>1.925</v>
-      </c>
-      <c r="V928">
-        <v>1.925</v>
-      </c>
-      <c r="W928">
-        <v>1</v>
-      </c>
-      <c r="X928">
-        <v>-1</v>
-      </c>
-      <c r="Y928">
-        <v>-1</v>
-      </c>
-      <c r="Z928">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA928">
-        <v>-1</v>
       </c>
       <c r="AB928">
         <v>0</v>
@@ -83185,7 +83185,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>5466911</v>
+        <v>5471442</v>
       </c>
       <c r="C929" t="s">
         <v>28</v>
@@ -83197,70 +83197,70 @@
         <v>45017.46875</v>
       </c>
       <c r="F929" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G929" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H929">
+        <v>2</v>
+      </c>
+      <c r="I929">
+        <v>0</v>
+      </c>
+      <c r="J929" t="s">
+        <v>69</v>
+      </c>
+      <c r="K929">
+        <v>1.833</v>
+      </c>
+      <c r="L929">
+        <v>3.5</v>
+      </c>
+      <c r="M929">
+        <v>4.333</v>
+      </c>
+      <c r="N929">
+        <v>2</v>
+      </c>
+      <c r="O929">
+        <v>3.2</v>
+      </c>
+      <c r="P929">
+        <v>4</v>
+      </c>
+      <c r="Q929">
+        <v>-0.5</v>
+      </c>
+      <c r="R929">
+        <v>1.975</v>
+      </c>
+      <c r="S929">
+        <v>1.875</v>
+      </c>
+      <c r="T929">
+        <v>2</v>
+      </c>
+      <c r="U929">
+        <v>1.925</v>
+      </c>
+      <c r="V929">
+        <v>1.925</v>
+      </c>
+      <c r="W929">
         <v>1</v>
       </c>
-      <c r="I929">
-        <v>1</v>
-      </c>
-      <c r="J929" t="s">
-        <v>67</v>
-      </c>
-      <c r="K929">
-        <v>3.4</v>
-      </c>
-      <c r="L929">
-        <v>3.2</v>
-      </c>
-      <c r="M929">
-        <v>2.2</v>
-      </c>
-      <c r="N929">
-        <v>3.3</v>
-      </c>
-      <c r="O929">
-        <v>3</v>
-      </c>
-      <c r="P929">
-        <v>2.4</v>
-      </c>
-      <c r="Q929">
-        <v>0.25</v>
-      </c>
-      <c r="R929">
-        <v>1.8</v>
-      </c>
-      <c r="S929">
-        <v>2.05</v>
-      </c>
-      <c r="T929">
-        <v>2</v>
-      </c>
-      <c r="U929">
-        <v>1.875</v>
-      </c>
-      <c r="V929">
-        <v>1.975</v>
-      </c>
-      <c r="W929">
-        <v>-1</v>
-      </c>
       <c r="X929">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y929">
         <v>-1</v>
       </c>
       <c r="Z929">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA929">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB929">
         <v>0</v>
@@ -84609,7 +84609,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>5545620</v>
+        <v>5545616</v>
       </c>
       <c r="C945" t="s">
         <v>28</v>
@@ -84621,76 +84621,76 @@
         <v>45031.375</v>
       </c>
       <c r="F945" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G945" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I945">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J945" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K945">
-        <v>1.533</v>
+        <v>2.625</v>
       </c>
       <c r="L945">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M945">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N945">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O945">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P945">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q945">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R945">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S945">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T945">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U945">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V945">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W945">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X945">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y945">
         <v>-1</v>
       </c>
       <c r="Z945">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA945">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB945">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC945">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="946" spans="1:29">
@@ -84698,7 +84698,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>5545616</v>
+        <v>5545620</v>
       </c>
       <c r="C946" t="s">
         <v>28</v>
@@ -84710,76 +84710,76 @@
         <v>45031.375</v>
       </c>
       <c r="F946" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G946" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I946">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J946" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K946">
-        <v>2.625</v>
+        <v>1.533</v>
       </c>
       <c r="L946">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M946">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N946">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O946">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P946">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q946">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R946">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S946">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T946">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U946">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V946">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W946">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X946">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y946">
         <v>-1</v>
       </c>
       <c r="Z946">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA946">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB946">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC946">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="947" spans="1:29">
@@ -84787,7 +84787,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>5549987</v>
+        <v>5573241</v>
       </c>
       <c r="C947" t="s">
         <v>28</v>
@@ -84799,10 +84799,10 @@
         <v>45031.375</v>
       </c>
       <c r="F947" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G947" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H947">
         <v>2</v>
@@ -84814,46 +84814,46 @@
         <v>67</v>
       </c>
       <c r="K947">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L947">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M947">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N947">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O947">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P947">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q947">
         <v>-0.25</v>
       </c>
       <c r="R947">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S947">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T947">
         <v>2.25</v>
       </c>
       <c r="U947">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V947">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W947">
         <v>-1</v>
       </c>
       <c r="X947">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y947">
         <v>-1</v>
@@ -84862,10 +84862,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA947">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AB947">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC947">
         <v>-1</v>
@@ -84876,7 +84876,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>5573241</v>
+        <v>5545618</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84888,49 +84888,49 @@
         <v>45031.375</v>
       </c>
       <c r="F948" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G948" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I948">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J948" t="s">
         <v>67</v>
       </c>
       <c r="K948">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="L948">
         <v>3</v>
       </c>
       <c r="M948">
+        <v>2.625</v>
+      </c>
+      <c r="N948">
         <v>3.1</v>
       </c>
-      <c r="N948">
-        <v>2.45</v>
-      </c>
       <c r="O948">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P948">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q948">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R948">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S948">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T948">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U948">
         <v>1.95</v>
@@ -84942,22 +84942,22 @@
         <v>-1</v>
       </c>
       <c r="X948">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Y948">
         <v>-1</v>
       </c>
       <c r="Z948">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA948">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB948">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC948">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="949" spans="1:29">
@@ -84965,7 +84965,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>5545618</v>
+        <v>5549987</v>
       </c>
       <c r="C949" t="s">
         <v>28</v>
@@ -84977,76 +84977,76 @@
         <v>45031.375</v>
       </c>
       <c r="F949" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G949" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I949">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J949" t="s">
         <v>67</v>
       </c>
       <c r="K949">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L949">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M949">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N949">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O949">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P949">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q949">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R949">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S949">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T949">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U949">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V949">
+        <v>1.825</v>
+      </c>
+      <c r="W949">
+        <v>-1</v>
+      </c>
+      <c r="X949">
         <v>1.9</v>
       </c>
-      <c r="W949">
-        <v>-1</v>
-      </c>
-      <c r="X949">
-        <v>1.875</v>
-      </c>
       <c r="Y949">
         <v>-1</v>
       </c>
       <c r="Z949">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA949">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB949">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC949">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="950" spans="1:29">
@@ -86122,7 +86122,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>5607572</v>
+        <v>5607567</v>
       </c>
       <c r="C962" t="s">
         <v>28</v>
@@ -86134,76 +86134,76 @@
         <v>45046.46875</v>
       </c>
       <c r="F962" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G962" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I962">
         <v>1</v>
       </c>
       <c r="J962" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K962">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L962">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M962">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N962">
+        <v>1.727</v>
+      </c>
+      <c r="O962">
+        <v>3.75</v>
+      </c>
+      <c r="P962">
+        <v>4.75</v>
+      </c>
+      <c r="Q962">
+        <v>-0.75</v>
+      </c>
+      <c r="R962">
+        <v>1.925</v>
+      </c>
+      <c r="S962">
+        <v>1.925</v>
+      </c>
+      <c r="T962">
         <v>2.75</v>
       </c>
-      <c r="O962">
-        <v>3.3</v>
-      </c>
-      <c r="P962">
-        <v>2.6</v>
-      </c>
-      <c r="Q962">
-        <v>0</v>
-      </c>
-      <c r="R962">
-        <v>1.95</v>
-      </c>
-      <c r="S962">
-        <v>1.9</v>
-      </c>
-      <c r="T962">
-        <v>2.25</v>
-      </c>
       <c r="U962">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V962">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W962">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X962">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y962">
         <v>-1</v>
       </c>
       <c r="Z962">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA962">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB962">
+        <v>0.5125</v>
+      </c>
+      <c r="AC962">
         <v>-0.5</v>
-      </c>
-      <c r="AC962">
-        <v>0.5</v>
       </c>
     </row>
     <row r="963" spans="1:29">
@@ -86211,7 +86211,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>5607567</v>
+        <v>5607572</v>
       </c>
       <c r="C963" t="s">
         <v>28</v>
@@ -86223,76 +86223,76 @@
         <v>45046.46875</v>
       </c>
       <c r="F963" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G963" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I963">
         <v>1</v>
       </c>
       <c r="J963" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K963">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L963">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M963">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N963">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O963">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P963">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q963">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R963">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S963">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T963">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U963">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V963">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W963">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X963">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y963">
         <v>-1</v>
       </c>
       <c r="Z963">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA963">
+        <v>-0</v>
+      </c>
+      <c r="AB963">
         <v>-0.5</v>
       </c>
-      <c r="AB963">
-        <v>0.5125</v>
-      </c>
       <c r="AC963">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="964" spans="1:29">
@@ -95111,7 +95111,7 @@
         <v>1061</v>
       </c>
       <c r="B1063">
-        <v>6906450</v>
+        <v>6906452</v>
       </c>
       <c r="C1063" t="s">
         <v>28</v>
@@ -95123,76 +95123,76 @@
         <v>45193.46875</v>
       </c>
       <c r="F1063" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G1063" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1063">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1063" t="s">
         <v>67</v>
       </c>
       <c r="K1063">
+        <v>2.2</v>
+      </c>
+      <c r="L1063">
+        <v>3.1</v>
+      </c>
+      <c r="M1063">
+        <v>3.5</v>
+      </c>
+      <c r="N1063">
         <v>2.25</v>
       </c>
-      <c r="L1063">
+      <c r="O1063">
         <v>3.2</v>
       </c>
-      <c r="M1063">
-        <v>3.2</v>
-      </c>
-      <c r="N1063">
-        <v>1.95</v>
-      </c>
-      <c r="O1063">
+      <c r="P1063">
         <v>3.4</v>
       </c>
-      <c r="P1063">
-        <v>4</v>
-      </c>
       <c r="Q1063">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1063">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S1063">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T1063">
         <v>2.25</v>
       </c>
       <c r="U1063">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V1063">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W1063">
         <v>-1</v>
       </c>
       <c r="X1063">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y1063">
         <v>-1</v>
       </c>
       <c r="Z1063">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1063">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1063">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC1063">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1064" spans="1:29">
@@ -95200,7 +95200,7 @@
         <v>1062</v>
       </c>
       <c r="B1064">
-        <v>6905856</v>
+        <v>6906450</v>
       </c>
       <c r="C1064" t="s">
         <v>28</v>
@@ -95212,76 +95212,76 @@
         <v>45193.46875</v>
       </c>
       <c r="F1064" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G1064" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1064">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1064" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1064">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L1064">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M1064">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N1064">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O1064">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P1064">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q1064">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1064">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S1064">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T1064">
         <v>2.25</v>
       </c>
       <c r="U1064">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V1064">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W1064">
         <v>-1</v>
       </c>
       <c r="X1064">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1064">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z1064">
         <v>-1</v>
       </c>
       <c r="AA1064">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1064">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1064">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1065" spans="1:29">
@@ -95289,7 +95289,7 @@
         <v>1063</v>
       </c>
       <c r="B1065">
-        <v>6906452</v>
+        <v>6905856</v>
       </c>
       <c r="C1065" t="s">
         <v>28</v>
@@ -95301,34 +95301,34 @@
         <v>45193.46875</v>
       </c>
       <c r="F1065" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G1065" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1065" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1065">
         <v>2.2</v>
       </c>
       <c r="L1065">
+        <v>3.25</v>
+      </c>
+      <c r="M1065">
+        <v>3.25</v>
+      </c>
+      <c r="N1065">
+        <v>2.3</v>
+      </c>
+      <c r="O1065">
         <v>3.1</v>
-      </c>
-      <c r="M1065">
-        <v>3.5</v>
-      </c>
-      <c r="N1065">
-        <v>2.25</v>
-      </c>
-      <c r="O1065">
-        <v>3.2</v>
       </c>
       <c r="P1065">
         <v>3.4</v>
@@ -95337,37 +95337,37 @@
         <v>-0.25</v>
       </c>
       <c r="R1065">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S1065">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T1065">
         <v>2.25</v>
       </c>
       <c r="U1065">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V1065">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W1065">
         <v>-1</v>
       </c>
       <c r="X1065">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1065">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z1065">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1065">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB1065">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC1065">
         <v>-1</v>
@@ -95556,7 +95556,7 @@
         <v>1066</v>
       </c>
       <c r="B1068">
-        <v>6906656</v>
+        <v>6906660</v>
       </c>
       <c r="C1068" t="s">
         <v>28</v>
@@ -95568,49 +95568,49 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F1068" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G1068" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068">
         <v>0</v>
       </c>
       <c r="J1068" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K1068">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L1068">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M1068">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N1068">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O1068">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P1068">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q1068">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1068">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S1068">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T1068">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1068">
         <v>2</v>
@@ -95619,25 +95619,25 @@
         <v>1.85</v>
       </c>
       <c r="W1068">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X1068">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y1068">
         <v>-1</v>
       </c>
       <c r="Z1068">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1068">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1068">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1068">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1069" spans="1:29">
@@ -95645,7 +95645,7 @@
         <v>1067</v>
       </c>
       <c r="B1069">
-        <v>6906659</v>
+        <v>7151375</v>
       </c>
       <c r="C1069" t="s">
         <v>28</v>
@@ -95657,10 +95657,10 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F1069" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G1069" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1069">
         <v>0</v>
@@ -95672,61 +95672,61 @@
         <v>67</v>
       </c>
       <c r="K1069">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L1069">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M1069">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N1069">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O1069">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P1069">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q1069">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1069">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S1069">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T1069">
         <v>2.25</v>
       </c>
       <c r="U1069">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V1069">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W1069">
         <v>-1</v>
       </c>
       <c r="X1069">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1069">
         <v>-1</v>
       </c>
       <c r="Z1069">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1069">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AB1069">
         <v>-1</v>
       </c>
       <c r="AC1069">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1070" spans="1:29">
@@ -95823,7 +95823,7 @@
         <v>1069</v>
       </c>
       <c r="B1071">
-        <v>7151375</v>
+        <v>6906659</v>
       </c>
       <c r="C1071" t="s">
         <v>28</v>
@@ -95835,10 +95835,10 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F1071" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G1071" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1071">
         <v>0</v>
@@ -95850,61 +95850,61 @@
         <v>67</v>
       </c>
       <c r="K1071">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L1071">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M1071">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N1071">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O1071">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P1071">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q1071">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1071">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S1071">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T1071">
         <v>2.25</v>
       </c>
       <c r="U1071">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V1071">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W1071">
         <v>-1</v>
       </c>
       <c r="X1071">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y1071">
         <v>-1</v>
       </c>
       <c r="Z1071">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1071">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AB1071">
         <v>-1</v>
       </c>
       <c r="AC1071">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1072" spans="1:29">
@@ -95912,7 +95912,7 @@
         <v>1070</v>
       </c>
       <c r="B1072">
-        <v>6906660</v>
+        <v>6906656</v>
       </c>
       <c r="C1072" t="s">
         <v>28</v>
@@ -95924,49 +95924,49 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F1072" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G1072" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072">
         <v>0</v>
       </c>
       <c r="J1072" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1072">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L1072">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M1072">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N1072">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O1072">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P1072">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q1072">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1072">
+        <v>2</v>
+      </c>
+      <c r="S1072">
         <v>1.85</v>
       </c>
-      <c r="S1072">
-        <v>2</v>
-      </c>
       <c r="T1072">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1072">
         <v>2</v>
@@ -95975,25 +95975,25 @@
         <v>1.85</v>
       </c>
       <c r="W1072">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X1072">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y1072">
         <v>-1</v>
       </c>
       <c r="Z1072">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA1072">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1072">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1072">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1073" spans="1:29">
@@ -96001,7 +96001,7 @@
         <v>1071</v>
       </c>
       <c r="B1073">
-        <v>6906658</v>
+        <v>6906449</v>
       </c>
       <c r="C1073" t="s">
         <v>28</v>
@@ -96013,76 +96013,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F1073" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G1073" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1073">
         <v>1</v>
       </c>
       <c r="J1073" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K1073">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L1073">
         <v>3.25</v>
       </c>
       <c r="M1073">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N1073">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O1073">
+        <v>3.1</v>
+      </c>
+      <c r="P1073">
         <v>3.25</v>
       </c>
-      <c r="P1073">
-        <v>4.5</v>
-      </c>
       <c r="Q1073">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1073">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S1073">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T1073">
         <v>2.25</v>
       </c>
       <c r="U1073">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V1073">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W1073">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X1073">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1073">
         <v>-1</v>
       </c>
       <c r="Z1073">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1073">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1073">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1073">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="1074" spans="1:29">
@@ -96090,7 +96090,7 @@
         <v>1072</v>
       </c>
       <c r="B1074">
-        <v>6906449</v>
+        <v>6906658</v>
       </c>
       <c r="C1074" t="s">
         <v>28</v>
@@ -96102,76 +96102,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F1074" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G1074" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1074">
         <v>1</v>
       </c>
       <c r="J1074" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1074">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L1074">
         <v>3.25</v>
       </c>
       <c r="M1074">
+        <v>3.4</v>
+      </c>
+      <c r="N1074">
+        <v>1.909</v>
+      </c>
+      <c r="O1074">
         <v>3.25</v>
       </c>
-      <c r="N1074">
-        <v>2.3</v>
-      </c>
-      <c r="O1074">
-        <v>3.1</v>
-      </c>
       <c r="P1074">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q1074">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1074">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S1074">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T1074">
         <v>2.25</v>
       </c>
       <c r="U1074">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V1074">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W1074">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1074">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1074">
         <v>-1</v>
       </c>
       <c r="Z1074">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1074">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB1074">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1074">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1075" spans="1:29">
@@ -96268,7 +96268,7 @@
         <v>1074</v>
       </c>
       <c r="B1076">
-        <v>7151374</v>
+        <v>6906666</v>
       </c>
       <c r="C1076" t="s">
         <v>28</v>
@@ -96280,76 +96280,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1076" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1076" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1076">
         <v>1</v>
       </c>
       <c r="I1076">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1076" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1076">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L1076">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M1076">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N1076">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O1076">
         <v>3.1</v>
       </c>
       <c r="P1076">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q1076">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1076">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S1076">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T1076">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1076">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V1076">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W1076">
         <v>-1</v>
       </c>
       <c r="X1076">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1076">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z1076">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1076">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB1076">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC1076">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1077" spans="1:29">
@@ -96357,7 +96357,7 @@
         <v>1075</v>
       </c>
       <c r="B1077">
-        <v>6906666</v>
+        <v>7151374</v>
       </c>
       <c r="C1077" t="s">
         <v>28</v>
@@ -96369,76 +96369,76 @@
         <v>45199.375</v>
       </c>
       <c r="F1077" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1077" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1077">
         <v>1</v>
       </c>
       <c r="I1077">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1077" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1077">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L1077">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M1077">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N1077">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O1077">
         <v>3.1</v>
       </c>
       <c r="P1077">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q1077">
+        <v>-0.25</v>
+      </c>
+      <c r="R1077">
+        <v>1.975</v>
+      </c>
+      <c r="S1077">
+        <v>1.875</v>
+      </c>
+      <c r="T1077">
+        <v>2</v>
+      </c>
+      <c r="U1077">
+        <v>1.75</v>
+      </c>
+      <c r="V1077">
+        <v>2.05</v>
+      </c>
+      <c r="W1077">
+        <v>-1</v>
+      </c>
+      <c r="X1077">
+        <v>2.1</v>
+      </c>
+      <c r="Y1077">
+        <v>-1</v>
+      </c>
+      <c r="Z1077">
         <v>-0.5</v>
       </c>
-      <c r="R1077">
-        <v>2.025</v>
-      </c>
-      <c r="S1077">
-        <v>1.825</v>
-      </c>
-      <c r="T1077">
-        <v>2.25</v>
-      </c>
-      <c r="U1077">
-        <v>2.025</v>
-      </c>
-      <c r="V1077">
-        <v>1.825</v>
-      </c>
-      <c r="W1077">
-        <v>-1</v>
-      </c>
-      <c r="X1077">
-        <v>-1</v>
-      </c>
-      <c r="Y1077">
-        <v>3</v>
-      </c>
-      <c r="Z1077">
-        <v>-1</v>
-      </c>
       <c r="AA1077">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB1077">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC1077">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1078" spans="1:29">
@@ -96446,7 +96446,7 @@
         <v>1076</v>
       </c>
       <c r="B1078">
-        <v>6906664</v>
+        <v>6906663</v>
       </c>
       <c r="C1078" t="s">
         <v>28</v>
@@ -96458,49 +96458,49 @@
         <v>45199.375</v>
       </c>
       <c r="F1078" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G1078" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H1078">
         <v>1</v>
       </c>
       <c r="I1078">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1078" t="s">
         <v>68</v>
       </c>
       <c r="K1078">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="L1078">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M1078">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N1078">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O1078">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P1078">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q1078">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1078">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S1078">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T1078">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1078">
         <v>2.05</v>
@@ -96515,13 +96515,13 @@
         <v>-1</v>
       </c>
       <c r="Y1078">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="Z1078">
         <v>-1</v>
       </c>
       <c r="AA1078">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1078">
         <v>1.05</v>
@@ -96535,7 +96535,7 @@
         <v>1077</v>
       </c>
       <c r="B1079">
-        <v>6906663</v>
+        <v>6906664</v>
       </c>
       <c r="C1079" t="s">
         <v>28</v>
@@ -96547,49 +96547,49 @@
         <v>45199.375</v>
       </c>
       <c r="F1079" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G1079" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H1079">
         <v>1</v>
       </c>
       <c r="I1079">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1079" t="s">
         <v>68</v>
       </c>
       <c r="K1079">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="L1079">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M1079">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N1079">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O1079">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P1079">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q1079">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1079">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S1079">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T1079">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1079">
         <v>2.05</v>
@@ -96604,13 +96604,13 @@
         <v>-1</v>
       </c>
       <c r="Y1079">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Z1079">
         <v>-1</v>
       </c>
       <c r="AA1079">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB1079">
         <v>1.05</v>
@@ -97336,7 +97336,7 @@
         <v>1086</v>
       </c>
       <c r="B1088">
-        <v>6906669</v>
+        <v>6906443</v>
       </c>
       <c r="C1088" t="s">
         <v>28</v>
@@ -97348,76 +97348,76 @@
         <v>45206.375</v>
       </c>
       <c r="F1088" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G1088" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1088">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1088" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1088">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L1088">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M1088">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N1088">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O1088">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P1088">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q1088">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R1088">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S1088">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T1088">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1088">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V1088">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W1088">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X1088">
         <v>-1</v>
       </c>
       <c r="Y1088">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z1088">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1088">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1088">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC1088">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1089" spans="1:29">
@@ -97425,7 +97425,7 @@
         <v>1087</v>
       </c>
       <c r="B1089">
-        <v>6906443</v>
+        <v>6906669</v>
       </c>
       <c r="C1089" t="s">
         <v>28</v>
@@ -97437,76 +97437,76 @@
         <v>45206.375</v>
       </c>
       <c r="F1089" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G1089" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H1089">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1089">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1089" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1089">
+        <v>2.3</v>
+      </c>
+      <c r="L1089">
+        <v>3.1</v>
+      </c>
+      <c r="M1089">
+        <v>3.3</v>
+      </c>
+      <c r="N1089">
+        <v>2.7</v>
+      </c>
+      <c r="O1089">
+        <v>3.1</v>
+      </c>
+      <c r="P1089">
+        <v>2.75</v>
+      </c>
+      <c r="Q1089">
+        <v>0</v>
+      </c>
+      <c r="R1089">
+        <v>1.95</v>
+      </c>
+      <c r="S1089">
+        <v>1.9</v>
+      </c>
+      <c r="T1089">
+        <v>2.25</v>
+      </c>
+      <c r="U1089">
+        <v>1.8</v>
+      </c>
+      <c r="V1089">
+        <v>2.05</v>
+      </c>
+      <c r="W1089">
+        <v>-1</v>
+      </c>
+      <c r="X1089">
+        <v>-1</v>
+      </c>
+      <c r="Y1089">
         <v>1.75</v>
       </c>
-      <c r="L1089">
-        <v>3.5</v>
-      </c>
-      <c r="M1089">
-        <v>4.75</v>
-      </c>
-      <c r="N1089">
-        <v>1.85</v>
-      </c>
-      <c r="O1089">
-        <v>3.6</v>
-      </c>
-      <c r="P1089">
-        <v>4.2</v>
-      </c>
-      <c r="Q1089">
+      <c r="Z1089">
+        <v>-1</v>
+      </c>
+      <c r="AA1089">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB1089">
         <v>-0.5</v>
       </c>
-      <c r="R1089">
-        <v>1.85</v>
-      </c>
-      <c r="S1089">
-        <v>2</v>
-      </c>
-      <c r="T1089">
-        <v>2.5</v>
-      </c>
-      <c r="U1089">
-        <v>2</v>
-      </c>
-      <c r="V1089">
-        <v>1.85</v>
-      </c>
-      <c r="W1089">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X1089">
-        <v>-1</v>
-      </c>
-      <c r="Y1089">
-        <v>-1</v>
-      </c>
-      <c r="Z1089">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA1089">
-        <v>-1</v>
-      </c>
-      <c r="AB1089">
-        <v>1</v>
-      </c>
       <c r="AC1089">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="1090" spans="1:29">
@@ -105702,7 +105702,7 @@
         <v>1180</v>
       </c>
       <c r="B1182">
-        <v>6906720</v>
+        <v>6906719</v>
       </c>
       <c r="C1182" t="s">
         <v>28</v>
@@ -105714,58 +105714,58 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F1182" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G1182" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H1182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1182" t="s">
         <v>69</v>
       </c>
       <c r="K1182">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L1182">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M1182">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N1182">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O1182">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P1182">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q1182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R1182">
+        <v>1.875</v>
+      </c>
+      <c r="S1182">
         <v>1.975</v>
       </c>
-      <c r="S1182">
-        <v>1.875</v>
-      </c>
       <c r="T1182">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1182">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V1182">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W1182">
-        <v>0.6000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X1182">
         <v>-1</v>
@@ -105774,13 +105774,13 @@
         <v>-1</v>
       </c>
       <c r="Z1182">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA1182">
         <v>-1</v>
       </c>
       <c r="AB1182">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC1182">
         <v>-1</v>
@@ -105791,7 +105791,7 @@
         <v>1181</v>
       </c>
       <c r="B1183">
-        <v>6906719</v>
+        <v>6906718</v>
       </c>
       <c r="C1183" t="s">
         <v>28</v>
@@ -105803,31 +105803,31 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F1183" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G1183" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H1183">
         <v>4</v>
       </c>
       <c r="I1183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1183" t="s">
         <v>69</v>
       </c>
       <c r="K1183">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L1183">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M1183">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N1183">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O1183">
         <v>3.4</v>
@@ -105839,22 +105839,22 @@
         <v>-0.5</v>
       </c>
       <c r="R1183">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S1183">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T1183">
         <v>2.25</v>
       </c>
       <c r="U1183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V1183">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W1183">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X1183">
         <v>-1</v>
@@ -105863,13 +105863,13 @@
         <v>-1</v>
       </c>
       <c r="Z1183">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA1183">
         <v>-1</v>
       </c>
       <c r="AB1183">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC1183">
         <v>-1</v>
@@ -105880,7 +105880,7 @@
         <v>1182</v>
       </c>
       <c r="B1184">
-        <v>6906417</v>
+        <v>6906720</v>
       </c>
       <c r="C1184" t="s">
         <v>28</v>
@@ -105892,34 +105892,34 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F1184" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G1184" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1184" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1184">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L1184">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M1184">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N1184">
         <v>1.6</v>
       </c>
       <c r="O1184">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P1184">
         <v>5.5</v>
@@ -105928,37 +105928,37 @@
         <v>-1</v>
       </c>
       <c r="R1184">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S1184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T1184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1184">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V1184">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W1184">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X1184">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y1184">
         <v>-1</v>
       </c>
       <c r="Z1184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1184">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB1184">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1184">
         <v>-1</v>
@@ -106058,7 +106058,7 @@
         <v>1184</v>
       </c>
       <c r="B1186">
-        <v>6906718</v>
+        <v>6906417</v>
       </c>
       <c r="C1186" t="s">
         <v>28</v>
@@ -106070,73 +106070,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F1186" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G1186" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1186">
+        <v>2</v>
+      </c>
+      <c r="I1186">
+        <v>2</v>
+      </c>
+      <c r="J1186" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1186">
+        <v>1.533</v>
+      </c>
+      <c r="L1186">
         <v>4</v>
       </c>
-      <c r="I1186">
-        <v>1</v>
-      </c>
-      <c r="J1186" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1186">
-        <v>2.4</v>
-      </c>
-      <c r="L1186">
-        <v>3.1</v>
-      </c>
       <c r="M1186">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N1186">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O1186">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P1186">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q1186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R1186">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S1186">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T1186">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1186">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V1186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W1186">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X1186">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y1186">
         <v>-1</v>
       </c>
       <c r="Z1186">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA1186">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB1186">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC1186">
         <v>-1</v>
@@ -106236,7 +106236,7 @@
         <v>1186</v>
       </c>
       <c r="B1188">
-        <v>6906418</v>
+        <v>6906717</v>
       </c>
       <c r="C1188" t="s">
         <v>28</v>
@@ -106248,76 +106248,76 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F1188" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G1188" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1188">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1188" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1188">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="L1188">
+        <v>3.2</v>
+      </c>
+      <c r="M1188">
+        <v>3.75</v>
+      </c>
+      <c r="N1188">
+        <v>2.15</v>
+      </c>
+      <c r="O1188">
+        <v>2.9</v>
+      </c>
+      <c r="P1188">
         <v>3.8</v>
       </c>
-      <c r="M1188">
-        <v>5.5</v>
-      </c>
-      <c r="N1188">
-        <v>1.65</v>
-      </c>
-      <c r="O1188">
-        <v>3.75</v>
-      </c>
-      <c r="P1188">
-        <v>5.75</v>
-      </c>
       <c r="Q1188">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S1188">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T1188">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1188">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V1188">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W1188">
         <v>-1</v>
       </c>
       <c r="X1188">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y1188">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z1188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1188">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB1188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1188">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1189" spans="1:29">
@@ -106325,7 +106325,7 @@
         <v>1187</v>
       </c>
       <c r="B1189">
-        <v>6906717</v>
+        <v>6906418</v>
       </c>
       <c r="C1189" t="s">
         <v>28</v>
@@ -106337,76 +106337,76 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F1189" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1189" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1189">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1189" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1189">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L1189">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M1189">
+        <v>5.5</v>
+      </c>
+      <c r="N1189">
+        <v>1.65</v>
+      </c>
+      <c r="O1189">
         <v>3.75</v>
       </c>
-      <c r="N1189">
-        <v>2.15</v>
-      </c>
-      <c r="O1189">
-        <v>2.9</v>
-      </c>
       <c r="P1189">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q1189">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S1189">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T1189">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1189">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V1189">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W1189">
         <v>-1</v>
       </c>
       <c r="X1189">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y1189">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z1189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1189">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB1189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1190" spans="1:29">
@@ -108461,7 +108461,7 @@
         <v>1211</v>
       </c>
       <c r="B1213">
-        <v>6906411</v>
+        <v>6906738</v>
       </c>
       <c r="C1213" t="s">
         <v>28</v>
@@ -108473,28 +108473,28 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F1213" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G1213" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H1213">
         <v>3</v>
       </c>
       <c r="I1213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1213" t="s">
         <v>69</v>
       </c>
       <c r="K1213">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L1213">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M1213">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N1213">
         <v>2.7</v>
@@ -108509,10 +108509,10 @@
         <v>0</v>
       </c>
       <c r="R1213">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S1213">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T1213">
         <v>2.25</v>
@@ -108533,7 +108533,7 @@
         <v>-1</v>
       </c>
       <c r="Z1213">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1213">
         <v>-1</v>
@@ -108550,7 +108550,7 @@
         <v>1212</v>
       </c>
       <c r="B1214">
-        <v>6906737</v>
+        <v>6906411</v>
       </c>
       <c r="C1214" t="s">
         <v>28</v>
@@ -108562,49 +108562,49 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F1214" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1214" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1214" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1214">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L1214">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M1214">
+        <v>2.45</v>
+      </c>
+      <c r="N1214">
+        <v>2.7</v>
+      </c>
+      <c r="O1214">
+        <v>3.1</v>
+      </c>
+      <c r="P1214">
+        <v>2.8</v>
+      </c>
+      <c r="Q1214">
+        <v>0</v>
+      </c>
+      <c r="R1214">
+        <v>1.925</v>
+      </c>
+      <c r="S1214">
+        <v>1.925</v>
+      </c>
+      <c r="T1214">
         <v>2.25</v>
-      </c>
-      <c r="N1214">
-        <v>3.3</v>
-      </c>
-      <c r="O1214">
-        <v>3.6</v>
-      </c>
-      <c r="P1214">
-        <v>2.1</v>
-      </c>
-      <c r="Q1214">
-        <v>0.25</v>
-      </c>
-      <c r="R1214">
-        <v>2.05</v>
-      </c>
-      <c r="S1214">
-        <v>1.8</v>
-      </c>
-      <c r="T1214">
-        <v>2.75</v>
       </c>
       <c r="U1214">
         <v>2</v>
@@ -108613,25 +108613,25 @@
         <v>1.85</v>
       </c>
       <c r="W1214">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X1214">
         <v>-1</v>
       </c>
       <c r="Y1214">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1214">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA1214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC1214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1215" spans="1:29">
@@ -108639,7 +108639,7 @@
         <v>1213</v>
       </c>
       <c r="B1215">
-        <v>6906738</v>
+        <v>6905867</v>
       </c>
       <c r="C1215" t="s">
         <v>28</v>
@@ -108651,73 +108651,73 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F1215" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G1215" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H1215">
+        <v>2</v>
+      </c>
+      <c r="I1215">
+        <v>2</v>
+      </c>
+      <c r="J1215" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1215">
+        <v>2.8</v>
+      </c>
+      <c r="L1215">
         <v>3</v>
       </c>
-      <c r="I1215">
-        <v>1</v>
-      </c>
-      <c r="J1215" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1215">
-        <v>2.75</v>
-      </c>
-      <c r="L1215">
-        <v>3.1</v>
-      </c>
       <c r="M1215">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N1215">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O1215">
         <v>3.1</v>
       </c>
       <c r="P1215">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q1215">
         <v>0</v>
       </c>
       <c r="R1215">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S1215">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T1215">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1215">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V1215">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W1215">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X1215">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1215">
         <v>-1</v>
       </c>
       <c r="Z1215">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA1215">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1215">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC1215">
         <v>-1</v>
@@ -108728,7 +108728,7 @@
         <v>1214</v>
       </c>
       <c r="B1216">
-        <v>6905867</v>
+        <v>6906737</v>
       </c>
       <c r="C1216" t="s">
         <v>28</v>
@@ -108740,76 +108740,76 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F1216" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G1216" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1216" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1216">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L1216">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M1216">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="N1216">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O1216">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P1216">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q1216">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R1216">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S1216">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T1216">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U1216">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V1216">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W1216">
         <v>-1</v>
       </c>
       <c r="X1216">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1216">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z1216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1216">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB1216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC1216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1217" spans="1:29">
@@ -108906,7 +108906,7 @@
         <v>1216</v>
       </c>
       <c r="B1218">
-        <v>6906736</v>
+        <v>6906410</v>
       </c>
       <c r="C1218" t="s">
         <v>28</v>
@@ -108918,73 +108918,73 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F1218" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G1218" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H1218">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1218" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1218">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L1218">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M1218">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N1218">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O1218">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P1218">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q1218">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R1218">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S1218">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T1218">
         <v>2.25</v>
       </c>
       <c r="U1218">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V1218">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W1218">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X1218">
         <v>-1</v>
       </c>
       <c r="Y1218">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z1218">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1218">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC1218">
         <v>-1</v>
@@ -108995,7 +108995,7 @@
         <v>1217</v>
       </c>
       <c r="B1219">
-        <v>6906410</v>
+        <v>6906735</v>
       </c>
       <c r="C1219" t="s">
         <v>28</v>
@@ -109007,73 +109007,73 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F1219" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G1219" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I1219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1219" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1219">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L1219">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M1219">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N1219">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O1219">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P1219">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q1219">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R1219">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S1219">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T1219">
         <v>2.25</v>
       </c>
       <c r="U1219">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V1219">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W1219">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X1219">
         <v>-1</v>
       </c>
       <c r="Y1219">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z1219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA1219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1219">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC1219">
         <v>-1</v>
@@ -109084,7 +109084,7 @@
         <v>1218</v>
       </c>
       <c r="B1220">
-        <v>6906735</v>
+        <v>6906736</v>
       </c>
       <c r="C1220" t="s">
         <v>28</v>
@@ -109096,10 +109096,10 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F1220" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G1220" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H1220">
         <v>4</v>
@@ -109111,43 +109111,43 @@
         <v>69</v>
       </c>
       <c r="K1220">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L1220">
         <v>3.25</v>
       </c>
       <c r="M1220">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N1220">
+        <v>2</v>
+      </c>
+      <c r="O1220">
         <v>3.4</v>
       </c>
-      <c r="O1220">
-        <v>3.2</v>
-      </c>
       <c r="P1220">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q1220">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1220">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S1220">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T1220">
         <v>2.25</v>
       </c>
       <c r="U1220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V1220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W1220">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="X1220">
         <v>-1</v>
@@ -109156,13 +109156,13 @@
         <v>-1</v>
       </c>
       <c r="Z1220">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA1220">
         <v>-1</v>
       </c>
       <c r="AB1220">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1220">
         <v>-1</v>
@@ -109440,7 +109440,7 @@
         <v>1222</v>
       </c>
       <c r="B1224">
-        <v>6905868</v>
+        <v>6906743</v>
       </c>
       <c r="C1224" t="s">
         <v>28</v>
@@ -109452,76 +109452,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1224" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G1224" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1224" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1224">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="L1224">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M1224">
         <v>4.75</v>
       </c>
       <c r="N1224">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="O1224">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P1224">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q1224">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R1224">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S1224">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T1224">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U1224">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V1224">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W1224">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X1224">
         <v>-1</v>
       </c>
       <c r="Y1224">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z1224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1224">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB1224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1224">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1225" spans="1:29">
@@ -109529,7 +109529,7 @@
         <v>1223</v>
       </c>
       <c r="B1225">
-        <v>6906743</v>
+        <v>6906742</v>
       </c>
       <c r="C1225" t="s">
         <v>28</v>
@@ -109541,76 +109541,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1225" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G1225" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H1225">
+        <v>0</v>
+      </c>
+      <c r="I1225">
         <v>1</v>
       </c>
-      <c r="I1225">
-        <v>0</v>
-      </c>
       <c r="J1225" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1225">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L1225">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M1225">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N1225">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="O1225">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P1225">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q1225">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1225">
+        <v>2.125</v>
+      </c>
+      <c r="S1225">
+        <v>1.75</v>
+      </c>
+      <c r="T1225">
+        <v>1.75</v>
+      </c>
+      <c r="U1225">
+        <v>1.825</v>
+      </c>
+      <c r="V1225">
         <v>2.025</v>
       </c>
-      <c r="S1225">
-        <v>1.825</v>
-      </c>
-      <c r="T1225">
-        <v>3</v>
-      </c>
-      <c r="U1225">
-        <v>2.025</v>
-      </c>
-      <c r="V1225">
-        <v>1.825</v>
-      </c>
       <c r="W1225">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X1225">
         <v>-1</v>
       </c>
       <c r="Y1225">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z1225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1225">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB1225">
         <v>-1</v>
       </c>
       <c r="AC1225">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1226" spans="1:29">
@@ -109618,7 +109618,7 @@
         <v>1224</v>
       </c>
       <c r="B1226">
-        <v>6906742</v>
+        <v>6906740</v>
       </c>
       <c r="C1226" t="s">
         <v>28</v>
@@ -109630,76 +109630,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1226" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G1226" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1226" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1226">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="L1226">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M1226">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N1226">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O1226">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P1226">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q1226">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1226">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S1226">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T1226">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1226">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V1226">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W1226">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X1226">
         <v>-1</v>
       </c>
       <c r="Y1226">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z1226">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1226">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB1226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1226">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1227" spans="1:29">
@@ -109707,7 +109707,7 @@
         <v>1225</v>
       </c>
       <c r="B1227">
-        <v>6906740</v>
+        <v>6905868</v>
       </c>
       <c r="C1227" t="s">
         <v>28</v>
@@ -109719,76 +109719,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1227" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1227" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H1227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1227" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1227">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L1227">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M1227">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N1227">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O1227">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P1227">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q1227">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1227">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S1227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T1227">
         <v>2.25</v>
       </c>
       <c r="U1227">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V1227">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W1227">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X1227">
         <v>-1</v>
       </c>
       <c r="Y1227">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z1227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1227">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1227">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1228" spans="1:29">
@@ -110300,7 +110300,7 @@
         <v>1232</v>
       </c>
       <c r="B1234">
-        <v>6906403</v>
+        <v>6906747</v>
       </c>
       <c r="C1234" t="s">
         <v>28</v>
@@ -110312,46 +110312,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1234" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G1234" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="K1234">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="L1234">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M1234">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="N1234">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O1234">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P1234">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q1234">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1234">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S1234">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T1234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1234">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V1234">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W1234">
         <v>0</v>
@@ -110374,7 +110374,7 @@
         <v>1233</v>
       </c>
       <c r="B1235">
-        <v>6906745</v>
+        <v>6906748</v>
       </c>
       <c r="C1235" t="s">
         <v>28</v>
@@ -110386,46 +110386,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1235" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G1235" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="K1235">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L1235">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M1235">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N1235">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O1235">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P1235">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q1235">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1235">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S1235">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T1235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1235">
+        <v>2.05</v>
+      </c>
+      <c r="V1235">
         <v>1.8</v>
-      </c>
-      <c r="V1235">
-        <v>2.05</v>
       </c>
       <c r="W1235">
         <v>0</v>
@@ -110448,7 +110448,7 @@
         <v>1234</v>
       </c>
       <c r="B1236">
-        <v>6906747</v>
+        <v>6906403</v>
       </c>
       <c r="C1236" t="s">
         <v>28</v>
@@ -110460,46 +110460,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1236" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G1236" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K1236">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="L1236">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M1236">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N1236">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O1236">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P1236">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q1236">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1236">
+        <v>2.025</v>
+      </c>
+      <c r="S1236">
+        <v>1.825</v>
+      </c>
+      <c r="T1236">
+        <v>2.25</v>
+      </c>
+      <c r="U1236">
+        <v>1.8</v>
+      </c>
+      <c r="V1236">
         <v>2.05</v>
-      </c>
-      <c r="S1236">
-        <v>1.8</v>
-      </c>
-      <c r="T1236">
-        <v>2.5</v>
-      </c>
-      <c r="U1236">
-        <v>1.925</v>
-      </c>
-      <c r="V1236">
-        <v>1.925</v>
       </c>
       <c r="W1236">
         <v>0</v>
@@ -110522,7 +110522,7 @@
         <v>1235</v>
       </c>
       <c r="B1237">
-        <v>6906748</v>
+        <v>6906745</v>
       </c>
       <c r="C1237" t="s">
         <v>28</v>
@@ -110534,46 +110534,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1237" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G1237" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="K1237">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L1237">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M1237">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N1237">
+        <v>2.55</v>
+      </c>
+      <c r="O1237">
+        <v>3.2</v>
+      </c>
+      <c r="P1237">
+        <v>2.7</v>
+      </c>
+      <c r="Q1237">
+        <v>0</v>
+      </c>
+      <c r="R1237">
+        <v>1.825</v>
+      </c>
+      <c r="S1237">
+        <v>2.025</v>
+      </c>
+      <c r="T1237">
+        <v>2</v>
+      </c>
+      <c r="U1237">
+        <v>1.8</v>
+      </c>
+      <c r="V1237">
         <v>2.05</v>
-      </c>
-      <c r="O1237">
-        <v>3.25</v>
-      </c>
-      <c r="P1237">
-        <v>3.5</v>
-      </c>
-      <c r="Q1237">
-        <v>-0.25</v>
-      </c>
-      <c r="R1237">
-        <v>1.85</v>
-      </c>
-      <c r="S1237">
-        <v>2</v>
-      </c>
-      <c r="T1237">
-        <v>2.25</v>
-      </c>
-      <c r="U1237">
-        <v>2.05</v>
-      </c>
-      <c r="V1237">
-        <v>1.8</v>
       </c>
       <c r="W1237">
         <v>0</v>
@@ -110596,7 +110596,7 @@
         <v>1236</v>
       </c>
       <c r="B1238">
-        <v>6906405</v>
+        <v>6905869</v>
       </c>
       <c r="C1238" t="s">
         <v>28</v>
@@ -110608,46 +110608,46 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F1238" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G1238" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K1238">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="L1238">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M1238">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N1238">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="O1238">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1238">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="Q1238">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R1238">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S1238">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T1238">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1238">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V1238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W1238">
         <v>0</v>
@@ -110744,7 +110744,7 @@
         <v>1238</v>
       </c>
       <c r="B1240">
-        <v>6905869</v>
+        <v>6906405</v>
       </c>
       <c r="C1240" t="s">
         <v>28</v>
@@ -110756,46 +110756,46 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F1240" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G1240" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K1240">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="L1240">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M1240">
+        <v>1.615</v>
+      </c>
+      <c r="N1240">
+        <v>4.333</v>
+      </c>
+      <c r="O1240">
+        <v>3.6</v>
+      </c>
+      <c r="P1240">
+        <v>1.727</v>
+      </c>
+      <c r="Q1240">
+        <v>0.75</v>
+      </c>
+      <c r="R1240">
+        <v>1.85</v>
+      </c>
+      <c r="S1240">
+        <v>2</v>
+      </c>
+      <c r="T1240">
         <v>2.5</v>
       </c>
-      <c r="N1240">
-        <v>2.75</v>
-      </c>
-      <c r="O1240">
-        <v>3.2</v>
-      </c>
-      <c r="P1240">
-        <v>2.5</v>
-      </c>
-      <c r="Q1240">
-        <v>0</v>
-      </c>
-      <c r="R1240">
-        <v>2.05</v>
-      </c>
-      <c r="S1240">
-        <v>1.8</v>
-      </c>
-      <c r="T1240">
-        <v>2.25</v>
-      </c>
       <c r="U1240">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V1240">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W1240">
         <v>0</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -55951,7 +55951,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5319080</v>
+        <v>5319077</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55963,58 +55963,58 @@
         <v>44786.65625</v>
       </c>
       <c r="F623" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G623" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I623">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J623" t="s">
         <v>69</v>
       </c>
       <c r="K623">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L623">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M623">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N623">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O623">
         <v>3.1</v>
       </c>
       <c r="P623">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q623">
         <v>-0.25</v>
       </c>
       <c r="R623">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S623">
+        <v>2.025</v>
+      </c>
+      <c r="T623">
+        <v>2</v>
+      </c>
+      <c r="U623">
         <v>1.85</v>
       </c>
-      <c r="T623">
-        <v>2.25</v>
-      </c>
-      <c r="U623">
-        <v>1.925</v>
-      </c>
       <c r="V623">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W623">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X623">
         <v>-1</v>
@@ -56023,16 +56023,16 @@
         <v>-1</v>
       </c>
       <c r="Z623">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA623">
         <v>-1</v>
       </c>
       <c r="AB623">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC623">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -56129,7 +56129,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>5319077</v>
+        <v>5319080</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56141,58 +56141,58 @@
         <v>44786.65625</v>
       </c>
       <c r="F625" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G625" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H625">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I625">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J625" t="s">
         <v>69</v>
       </c>
       <c r="K625">
+        <v>1.909</v>
+      </c>
+      <c r="L625">
+        <v>3.25</v>
+      </c>
+      <c r="M625">
+        <v>3.5</v>
+      </c>
+      <c r="N625">
         <v>2.25</v>
-      </c>
-      <c r="L625">
-        <v>3.2</v>
-      </c>
-      <c r="M625">
-        <v>2.8</v>
-      </c>
-      <c r="N625">
-        <v>2.1</v>
       </c>
       <c r="O625">
         <v>3.1</v>
       </c>
       <c r="P625">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q625">
         <v>-0.25</v>
       </c>
       <c r="R625">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S625">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T625">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U625">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V625">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W625">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X625">
         <v>-1</v>
@@ -56201,16 +56201,16 @@
         <v>-1</v>
       </c>
       <c r="Z625">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA625">
         <v>-1</v>
       </c>
       <c r="AB625">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC625">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -56218,7 +56218,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>5319074</v>
+        <v>5319083</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56230,49 +56230,49 @@
         <v>44787.65625</v>
       </c>
       <c r="F626" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G626" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J626" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K626">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L626">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M626">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N626">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O626">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P626">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q626">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R626">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S626">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T626">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U626">
         <v>1.875</v>
@@ -56281,19 +56281,19 @@
         <v>1.975</v>
       </c>
       <c r="W626">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X626">
         <v>-1</v>
       </c>
       <c r="Y626">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z626">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA626">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB626">
         <v>0.875</v>
@@ -56307,7 +56307,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>5319083</v>
+        <v>5319074</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56319,49 +56319,49 @@
         <v>44787.65625</v>
       </c>
       <c r="F627" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G627" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H627">
+        <v>2</v>
+      </c>
+      <c r="I627">
         <v>1</v>
       </c>
-      <c r="I627">
-        <v>2</v>
-      </c>
       <c r="J627" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K627">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L627">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M627">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N627">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O627">
+        <v>3.25</v>
+      </c>
+      <c r="P627">
         <v>3.3</v>
       </c>
-      <c r="P627">
-        <v>1.85</v>
-      </c>
       <c r="Q627">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R627">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S627">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T627">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U627">
         <v>1.875</v>
@@ -56370,19 +56370,19 @@
         <v>1.975</v>
       </c>
       <c r="W627">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X627">
         <v>-1</v>
       </c>
       <c r="Y627">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z627">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA627">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB627">
         <v>0.875</v>
@@ -56396,7 +56396,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5319082</v>
+        <v>5319079</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56408,55 +56408,55 @@
         <v>44787.65625</v>
       </c>
       <c r="F628" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G628" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H628">
+        <v>0</v>
+      </c>
+      <c r="I628">
         <v>1</v>
-      </c>
-      <c r="I628">
-        <v>3</v>
       </c>
       <c r="J628" t="s">
         <v>68</v>
       </c>
       <c r="K628">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L628">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M628">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N628">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O628">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P628">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q628">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R628">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S628">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T628">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U628">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V628">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W628">
         <v>-1</v>
@@ -56465,19 +56465,19 @@
         <v>-1</v>
       </c>
       <c r="Y628">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="Z628">
         <v>-1</v>
       </c>
       <c r="AA628">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB628">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC628">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56485,7 +56485,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5319076</v>
+        <v>5319082</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56497,40 +56497,40 @@
         <v>44787.65625</v>
       </c>
       <c r="F629" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G629" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J629" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K629">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L629">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M629">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N629">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O629">
         <v>3.2</v>
       </c>
       <c r="P629">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q629">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R629">
         <v>1.925</v>
@@ -56539,34 +56539,34 @@
         <v>1.925</v>
       </c>
       <c r="T629">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U629">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V629">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W629">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X629">
         <v>-1</v>
       </c>
       <c r="Y629">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z629">
+        <v>-1</v>
+      </c>
+      <c r="AA629">
         <v>0.925</v>
       </c>
-      <c r="AA629">
-        <v>-1</v>
-      </c>
       <c r="AB629">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC629">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -56574,7 +56574,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>5319079</v>
+        <v>5319075</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56586,10 +56586,10 @@
         <v>44787.65625</v>
       </c>
       <c r="F630" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G630" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H630">
         <v>0</v>
@@ -56601,40 +56601,40 @@
         <v>68</v>
       </c>
       <c r="K630">
+        <v>1.571</v>
+      </c>
+      <c r="L630">
+        <v>3.4</v>
+      </c>
+      <c r="M630">
+        <v>5.5</v>
+      </c>
+      <c r="N630">
+        <v>1.533</v>
+      </c>
+      <c r="O630">
+        <v>3.6</v>
+      </c>
+      <c r="P630">
+        <v>6.5</v>
+      </c>
+      <c r="Q630">
+        <v>-1</v>
+      </c>
+      <c r="R630">
+        <v>1.9</v>
+      </c>
+      <c r="S630">
+        <v>1.95</v>
+      </c>
+      <c r="T630">
         <v>2.5</v>
       </c>
-      <c r="L630">
-        <v>3.2</v>
-      </c>
-      <c r="M630">
-        <v>2.5</v>
-      </c>
-      <c r="N630">
-        <v>2.25</v>
-      </c>
-      <c r="O630">
-        <v>3.1</v>
-      </c>
-      <c r="P630">
-        <v>2.9</v>
-      </c>
-      <c r="Q630">
-        <v>-0.25</v>
-      </c>
-      <c r="R630">
-        <v>1.975</v>
-      </c>
-      <c r="S630">
-        <v>1.875</v>
-      </c>
-      <c r="T630">
-        <v>2.25</v>
-      </c>
       <c r="U630">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V630">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W630">
         <v>-1</v>
@@ -56643,19 +56643,19 @@
         <v>-1</v>
       </c>
       <c r="Y630">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="Z630">
         <v>-1</v>
       </c>
       <c r="AA630">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB630">
         <v>-1</v>
       </c>
       <c r="AC630">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="631" spans="1:29">
@@ -56663,7 +56663,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>5319075</v>
+        <v>5319076</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56675,19 +56675,19 @@
         <v>44787.65625</v>
       </c>
       <c r="F631" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G631" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J631" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K631">
         <v>1.571</v>
@@ -56699,52 +56699,52 @@
         <v>5.5</v>
       </c>
       <c r="N631">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="O631">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P631">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q631">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R631">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S631">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T631">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U631">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V631">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W631">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X631">
         <v>-1</v>
       </c>
       <c r="Y631">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z631">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA631">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB631">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC631">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -57731,7 +57731,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>5319946</v>
+        <v>5319949</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57743,59 +57743,59 @@
         <v>44800.65625</v>
       </c>
       <c r="F643" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G643" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H643">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I643">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J643" t="s">
         <v>69</v>
       </c>
       <c r="K643">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L643">
         <v>3.2</v>
       </c>
       <c r="M643">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N643">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O643">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P643">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q643">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R643">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S643">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T643">
         <v>2.5</v>
       </c>
       <c r="U643">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V643">
+        <v>1.925</v>
+      </c>
+      <c r="W643">
         <v>1.9</v>
       </c>
-      <c r="W643">
-        <v>1.15</v>
-      </c>
       <c r="X643">
         <v>-1</v>
       </c>
@@ -57803,16 +57803,16 @@
         <v>-1</v>
       </c>
       <c r="Z643">
+        <v>0.8</v>
+      </c>
+      <c r="AA643">
+        <v>-1</v>
+      </c>
+      <c r="AB643">
+        <v>-1</v>
+      </c>
+      <c r="AC643">
         <v>0.925</v>
-      </c>
-      <c r="AA643">
-        <v>-1</v>
-      </c>
-      <c r="AB643">
-        <v>0.95</v>
-      </c>
-      <c r="AC643">
-        <v>-1</v>
       </c>
     </row>
     <row r="644" spans="1:29">
@@ -57820,7 +57820,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>5319949</v>
+        <v>5319946</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -57832,58 +57832,58 @@
         <v>44800.65625</v>
       </c>
       <c r="F644" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G644" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H644">
+        <v>4</v>
+      </c>
+      <c r="I644">
         <v>1</v>
-      </c>
-      <c r="I644">
-        <v>0</v>
       </c>
       <c r="J644" t="s">
         <v>69</v>
       </c>
       <c r="K644">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L644">
         <v>3.2</v>
       </c>
       <c r="M644">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N644">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O644">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P644">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q644">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R644">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S644">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T644">
         <v>2.5</v>
       </c>
       <c r="U644">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V644">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W644">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="X644">
         <v>-1</v>
@@ -57892,16 +57892,16 @@
         <v>-1</v>
       </c>
       <c r="Z644">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA644">
         <v>-1</v>
       </c>
       <c r="AB644">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC644">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="645" spans="1:29">
@@ -60668,7 +60668,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5319968</v>
+        <v>5319971</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60680,76 +60680,76 @@
         <v>44821.375</v>
       </c>
       <c r="F676" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G676" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H676">
         <v>1</v>
       </c>
       <c r="I676">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J676" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K676">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L676">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M676">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N676">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O676">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P676">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q676">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R676">
+        <v>1.825</v>
+      </c>
+      <c r="S676">
         <v>2.025</v>
       </c>
-      <c r="S676">
-        <v>1.825</v>
-      </c>
       <c r="T676">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U676">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V676">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W676">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X676">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y676">
         <v>-1</v>
       </c>
       <c r="Z676">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA676">
+        <v>-0</v>
+      </c>
+      <c r="AB676">
         <v>-0.5</v>
       </c>
-      <c r="AB676">
-        <v>-1</v>
-      </c>
       <c r="AC676">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60757,7 +60757,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5319967</v>
+        <v>5319968</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60769,76 +60769,76 @@
         <v>44821.375</v>
       </c>
       <c r="F677" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G677" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H677">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I677">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J677" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K677">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L677">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M677">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N677">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O677">
         <v>3.4</v>
       </c>
       <c r="P677">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q677">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R677">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S677">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T677">
         <v>2.5</v>
       </c>
       <c r="U677">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V677">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W677">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X677">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y677">
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA677">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB677">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC677">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60846,7 +60846,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>5319966</v>
+        <v>5319967</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60858,46 +60858,46 @@
         <v>44821.375</v>
       </c>
       <c r="F678" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G678" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I678">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J678" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K678">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L678">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M678">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N678">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O678">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P678">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q678">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R678">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S678">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T678">
         <v>2.5</v>
@@ -60912,22 +60912,22 @@
         <v>-1</v>
       </c>
       <c r="X678">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y678">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z678">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA678">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB678">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC678">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60935,7 +60935,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5319971</v>
+        <v>5319966</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60947,76 +60947,76 @@
         <v>44821.375</v>
       </c>
       <c r="F679" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G679" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679">
         <v>1</v>
       </c>
       <c r="J679" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K679">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L679">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M679">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N679">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O679">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P679">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q679">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R679">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S679">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T679">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U679">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V679">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W679">
         <v>-1</v>
       </c>
       <c r="X679">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y679">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z679">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA679">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB679">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -61291,7 +61291,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>5319972</v>
+        <v>5319975</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61303,76 +61303,76 @@
         <v>44835.375</v>
       </c>
       <c r="F683" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G683" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H683">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I683">
         <v>2</v>
       </c>
       <c r="J683" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K683">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L683">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M683">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N683">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O683">
+        <v>3.2</v>
+      </c>
+      <c r="P683">
         <v>3.25</v>
       </c>
-      <c r="P683">
-        <v>2.8</v>
-      </c>
       <c r="Q683">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R683">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S683">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T683">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U683">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V683">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W683">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X683">
         <v>-1</v>
       </c>
       <c r="Y683">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z683">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA683">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB683">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC683">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61380,7 +61380,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>5319974</v>
+        <v>5319972</v>
       </c>
       <c r="C684" t="s">
         <v>28</v>
@@ -61392,46 +61392,46 @@
         <v>44835.375</v>
       </c>
       <c r="F684" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G684" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I684">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J684" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K684">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L684">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M684">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N684">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O684">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P684">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q684">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R684">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S684">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T684">
         <v>2.5</v>
@@ -61443,19 +61443,19 @@
         <v>1.8</v>
       </c>
       <c r="W684">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X684">
         <v>-1</v>
       </c>
       <c r="Y684">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z684">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA684">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB684">
         <v>1.05</v>
@@ -61469,7 +61469,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>5319975</v>
+        <v>5319974</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61481,76 +61481,76 @@
         <v>44835.375</v>
       </c>
       <c r="F685" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G685" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I685">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J685" t="s">
         <v>68</v>
       </c>
       <c r="K685">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L685">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M685">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N685">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O685">
+        <v>3.5</v>
+      </c>
+      <c r="P685">
+        <v>4.2</v>
+      </c>
+      <c r="Q685">
+        <v>-0.5</v>
+      </c>
+      <c r="R685">
+        <v>1.875</v>
+      </c>
+      <c r="S685">
+        <v>1.975</v>
+      </c>
+      <c r="T685">
+        <v>2.5</v>
+      </c>
+      <c r="U685">
+        <v>2.05</v>
+      </c>
+      <c r="V685">
+        <v>1.8</v>
+      </c>
+      <c r="W685">
+        <v>-1</v>
+      </c>
+      <c r="X685">
+        <v>-1</v>
+      </c>
+      <c r="Y685">
         <v>3.2</v>
       </c>
-      <c r="P685">
-        <v>3.25</v>
-      </c>
-      <c r="Q685">
-        <v>-0.25</v>
-      </c>
-      <c r="R685">
-        <v>2.05</v>
-      </c>
-      <c r="S685">
-        <v>1.8</v>
-      </c>
-      <c r="T685">
-        <v>2.25</v>
-      </c>
-      <c r="U685">
-        <v>1.9</v>
-      </c>
-      <c r="V685">
-        <v>1.95</v>
-      </c>
-      <c r="W685">
-        <v>-1</v>
-      </c>
-      <c r="X685">
-        <v>-1</v>
-      </c>
-      <c r="Y685">
-        <v>2.25</v>
-      </c>
       <c r="Z685">
         <v>-1</v>
       </c>
       <c r="AA685">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB685">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC685">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686" spans="1:29">
@@ -63338,7 +63338,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>5319988</v>
+        <v>5319991</v>
       </c>
       <c r="C706" t="s">
         <v>28</v>
@@ -63350,73 +63350,73 @@
         <v>44849.375</v>
       </c>
       <c r="F706" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G706" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I706">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J706" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K706">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L706">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M706">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N706">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O706">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P706">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q706">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R706">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S706">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T706">
         <v>2.25</v>
       </c>
       <c r="U706">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V706">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W706">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X706">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y706">
         <v>-1</v>
       </c>
       <c r="Z706">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA706">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB706">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC706">
         <v>-1</v>
@@ -63427,7 +63427,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>5321359</v>
+        <v>5319988</v>
       </c>
       <c r="C707" t="s">
         <v>28</v>
@@ -63439,73 +63439,73 @@
         <v>44849.375</v>
       </c>
       <c r="F707" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G707" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H707">
+        <v>2</v>
+      </c>
+      <c r="I707">
         <v>1</v>
       </c>
-      <c r="I707">
-        <v>2</v>
-      </c>
       <c r="J707" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K707">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L707">
+        <v>3.5</v>
+      </c>
+      <c r="M707">
         <v>3.6</v>
       </c>
-      <c r="M707">
-        <v>1.7</v>
-      </c>
       <c r="N707">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="O707">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P707">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q707">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R707">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S707">
+        <v>1.825</v>
+      </c>
+      <c r="T707">
+        <v>2.25</v>
+      </c>
+      <c r="U707">
         <v>1.85</v>
       </c>
-      <c r="T707">
-        <v>2.5</v>
-      </c>
-      <c r="U707">
-        <v>1.975</v>
-      </c>
       <c r="V707">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W707">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X707">
         <v>-1</v>
       </c>
       <c r="Y707">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z707">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA707">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB707">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC707">
         <v>-1</v>
@@ -63516,7 +63516,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>5319991</v>
+        <v>5321359</v>
       </c>
       <c r="C708" t="s">
         <v>28</v>
@@ -63528,49 +63528,49 @@
         <v>44849.375</v>
       </c>
       <c r="F708" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G708" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H708">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I708">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J708" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K708">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L708">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M708">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="N708">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O708">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P708">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q708">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R708">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S708">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T708">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U708">
         <v>1.975</v>
@@ -63582,16 +63582,16 @@
         <v>-1</v>
       </c>
       <c r="X708">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y708">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z708">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA708">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB708">
         <v>0.9750000000000001</v>
@@ -67966,7 +67966,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>5320025</v>
+        <v>5321348</v>
       </c>
       <c r="C758" t="s">
         <v>28</v>
@@ -67978,10 +67978,10 @@
         <v>44892.45833333334</v>
       </c>
       <c r="F758" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G758" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H758">
         <v>2</v>
@@ -67993,58 +67993,58 @@
         <v>67</v>
       </c>
       <c r="K758">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L758">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M758">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N758">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O758">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P758">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q758">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R758">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S758">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T758">
         <v>2.25</v>
       </c>
       <c r="U758">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V758">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W758">
         <v>-1</v>
       </c>
       <c r="X758">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y758">
         <v>-1</v>
       </c>
       <c r="Z758">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA758">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB758">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC758">
         <v>-1</v>
@@ -68055,7 +68055,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>5320024</v>
+        <v>5320025</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
@@ -68067,76 +68067,76 @@
         <v>44892.45833333334</v>
       </c>
       <c r="F759" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G759" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I759">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J759" t="s">
         <v>67</v>
       </c>
       <c r="K759">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L759">
+        <v>3.3</v>
+      </c>
+      <c r="M759">
+        <v>3.8</v>
+      </c>
+      <c r="N759">
+        <v>2</v>
+      </c>
+      <c r="O759">
         <v>3.2</v>
       </c>
-      <c r="M759">
-        <v>2.6</v>
-      </c>
-      <c r="N759">
-        <v>2.875</v>
-      </c>
-      <c r="O759">
-        <v>3.3</v>
-      </c>
       <c r="P759">
+        <v>3.6</v>
+      </c>
+      <c r="Q759">
+        <v>-0.5</v>
+      </c>
+      <c r="R759">
+        <v>2.025</v>
+      </c>
+      <c r="S759">
+        <v>1.825</v>
+      </c>
+      <c r="T759">
         <v>2.25</v>
       </c>
-      <c r="Q759">
-        <v>0.25</v>
-      </c>
-      <c r="R759">
-        <v>1.8</v>
-      </c>
-      <c r="S759">
-        <v>2.05</v>
-      </c>
-      <c r="T759">
-        <v>2.5</v>
-      </c>
       <c r="U759">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V759">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W759">
         <v>-1</v>
       </c>
       <c r="X759">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y759">
         <v>-1</v>
       </c>
       <c r="Z759">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA759">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB759">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC759">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760" spans="1:29">
@@ -68144,7 +68144,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>5321348</v>
+        <v>5320024</v>
       </c>
       <c r="C760" t="s">
         <v>28</v>
@@ -68156,76 +68156,76 @@
         <v>44892.45833333334</v>
       </c>
       <c r="F760" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G760" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J760" t="s">
         <v>67</v>
       </c>
       <c r="K760">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L760">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M760">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N760">
+        <v>2.875</v>
+      </c>
+      <c r="O760">
+        <v>3.3</v>
+      </c>
+      <c r="P760">
+        <v>2.25</v>
+      </c>
+      <c r="Q760">
+        <v>0.25</v>
+      </c>
+      <c r="R760">
+        <v>1.8</v>
+      </c>
+      <c r="S760">
+        <v>2.05</v>
+      </c>
+      <c r="T760">
+        <v>2.5</v>
+      </c>
+      <c r="U760">
+        <v>1.975</v>
+      </c>
+      <c r="V760">
+        <v>1.875</v>
+      </c>
+      <c r="W760">
+        <v>-1</v>
+      </c>
+      <c r="X760">
         <v>2.3</v>
       </c>
-      <c r="O760">
-        <v>3.1</v>
-      </c>
-      <c r="P760">
-        <v>2.9</v>
-      </c>
-      <c r="Q760">
-        <v>-0.25</v>
-      </c>
-      <c r="R760">
-        <v>2.05</v>
-      </c>
-      <c r="S760">
-        <v>1.8</v>
-      </c>
-      <c r="T760">
-        <v>2.25</v>
-      </c>
-      <c r="U760">
-        <v>2.05</v>
-      </c>
-      <c r="V760">
-        <v>1.75</v>
-      </c>
-      <c r="W760">
-        <v>-1</v>
-      </c>
-      <c r="X760">
-        <v>2.1</v>
-      </c>
       <c r="Y760">
         <v>-1</v>
       </c>
       <c r="Z760">
+        <v>0.4</v>
+      </c>
+      <c r="AA760">
         <v>-0.5</v>
       </c>
-      <c r="AA760">
-        <v>0.4</v>
-      </c>
       <c r="AB760">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC760">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="761" spans="1:29">
@@ -69390,7 +69390,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>5321345</v>
+        <v>5320036</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69402,76 +69402,76 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F774" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G774" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J774" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K774">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L774">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M774">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N774">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O774">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P774">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q774">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R774">
-        <v>2.025</v>
+        <v>2.15</v>
       </c>
       <c r="S774">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T774">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U774">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V774">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W774">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X774">
         <v>-1</v>
       </c>
       <c r="Y774">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z774">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA774">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB774">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC774">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69479,7 +69479,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5320042</v>
+        <v>5321345</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69491,40 +69491,40 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F775" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G775" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J775" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K775">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L775">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M775">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N775">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O775">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P775">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q775">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R775">
         <v>2.025</v>
@@ -69533,34 +69533,34 @@
         <v>1.825</v>
       </c>
       <c r="T775">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U775">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V775">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W775">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X775">
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z775">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA775">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB775">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC775">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -69568,7 +69568,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5320040</v>
+        <v>5320042</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69580,76 +69580,76 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F776" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G776" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H776">
         <v>0</v>
       </c>
       <c r="I776">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J776" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K776">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L776">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M776">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N776">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O776">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P776">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q776">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R776">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S776">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T776">
         <v>2.25</v>
       </c>
       <c r="U776">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V776">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W776">
         <v>-1</v>
       </c>
       <c r="X776">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y776">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z776">
         <v>-1</v>
       </c>
       <c r="AA776">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB776">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC776">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -69657,7 +69657,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>5320036</v>
+        <v>5320040</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69669,76 +69669,76 @@
         <v>44903.45833333334</v>
       </c>
       <c r="F777" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G777" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H777">
         <v>0</v>
       </c>
       <c r="I777">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J777" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K777">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L777">
         <v>3.2</v>
       </c>
       <c r="M777">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N777">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O777">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P777">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q777">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R777">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S777">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T777">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U777">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V777">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W777">
         <v>-1</v>
       </c>
       <c r="X777">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y777">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z777">
         <v>-1</v>
       </c>
       <c r="AA777">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB777">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC777">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="778" spans="1:29">
@@ -70191,7 +70191,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5320049</v>
+        <v>5320047</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70203,76 +70203,76 @@
         <v>44906.45833333334</v>
       </c>
       <c r="F783" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G783" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I783">
         <v>1</v>
       </c>
       <c r="J783" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K783">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L783">
+        <v>3.2</v>
+      </c>
+      <c r="M783">
+        <v>2.2</v>
+      </c>
+      <c r="N783">
+        <v>2.625</v>
+      </c>
+      <c r="O783">
         <v>3.1</v>
       </c>
-      <c r="M783">
-        <v>3.1</v>
-      </c>
-      <c r="N783">
-        <v>2.45</v>
-      </c>
-      <c r="O783">
-        <v>3</v>
-      </c>
       <c r="P783">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q783">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R783">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S783">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T783">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U783">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V783">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W783">
         <v>-1</v>
       </c>
       <c r="X783">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y783">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z783">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA783">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AB783">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC783">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -70280,7 +70280,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>5320047</v>
+        <v>5320049</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70292,76 +70292,76 @@
         <v>44906.45833333334</v>
       </c>
       <c r="F784" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G784" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I784">
         <v>1</v>
       </c>
       <c r="J784" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K784">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="L784">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M784">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N784">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O784">
+        <v>3</v>
+      </c>
+      <c r="P784">
         <v>3.1</v>
       </c>
-      <c r="P784">
-        <v>2.75</v>
-      </c>
       <c r="Q784">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R784">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S784">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T784">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U784">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V784">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y784">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z784">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA784">
-        <v>1.025</v>
+        <v>0.3625</v>
       </c>
       <c r="AB784">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC784">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -73840,7 +73840,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>5320072</v>
+        <v>5320075</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -73852,76 +73852,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F824" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G824" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I824">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J824" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K824">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L824">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M824">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N824">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O824">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P824">
+        <v>5.5</v>
+      </c>
+      <c r="Q824">
+        <v>-1</v>
+      </c>
+      <c r="R824">
+        <v>2.025</v>
+      </c>
+      <c r="S824">
+        <v>1.825</v>
+      </c>
+      <c r="T824">
         <v>2.5</v>
       </c>
-      <c r="Q824">
-        <v>0</v>
-      </c>
-      <c r="R824">
-        <v>2.1</v>
-      </c>
-      <c r="S824">
-        <v>1.775</v>
-      </c>
-      <c r="T824">
-        <v>2</v>
-      </c>
       <c r="U824">
+        <v>1.95</v>
+      </c>
+      <c r="V824">
         <v>1.9</v>
       </c>
-      <c r="V824">
-        <v>1.95</v>
-      </c>
       <c r="W824">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X824">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y824">
         <v>-1</v>
       </c>
       <c r="Z824">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA824">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB824">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC824">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="825" spans="1:29">
@@ -74018,7 +74018,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>5320075</v>
+        <v>5320072</v>
       </c>
       <c r="C826" t="s">
         <v>28</v>
@@ -74030,76 +74030,76 @@
         <v>44947.41666666666</v>
       </c>
       <c r="F826" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G826" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I826">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J826" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K826">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L826">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M826">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N826">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O826">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P826">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q826">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R826">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S826">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T826">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U826">
+        <v>1.9</v>
+      </c>
+      <c r="V826">
         <v>1.95</v>
       </c>
-      <c r="V826">
-        <v>1.9</v>
-      </c>
       <c r="W826">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X826">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y826">
         <v>-1</v>
       </c>
       <c r="Z826">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA826">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB826">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC826">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="827" spans="1:29">
@@ -75531,7 +75531,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>5320093</v>
+        <v>5321331</v>
       </c>
       <c r="C843" t="s">
         <v>28</v>
@@ -75543,76 +75543,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F843" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G843" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H843">
+        <v>0</v>
+      </c>
+      <c r="I843">
         <v>1</v>
-      </c>
-      <c r="I843">
-        <v>2</v>
       </c>
       <c r="J843" t="s">
         <v>68</v>
       </c>
       <c r="K843">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L843">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M843">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N843">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O843">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P843">
+        <v>4</v>
+      </c>
+      <c r="Q843">
+        <v>-0.5</v>
+      </c>
+      <c r="R843">
+        <v>1.95</v>
+      </c>
+      <c r="S843">
+        <v>1.9</v>
+      </c>
+      <c r="T843">
+        <v>2</v>
+      </c>
+      <c r="U843">
+        <v>1.825</v>
+      </c>
+      <c r="V843">
+        <v>2.025</v>
+      </c>
+      <c r="W843">
+        <v>-1</v>
+      </c>
+      <c r="X843">
+        <v>-1</v>
+      </c>
+      <c r="Y843">
         <v>3</v>
       </c>
-      <c r="Q843">
-        <v>-0.25</v>
-      </c>
-      <c r="R843">
-        <v>2.075</v>
-      </c>
-      <c r="S843">
-        <v>1.725</v>
-      </c>
-      <c r="T843">
-        <v>2</v>
-      </c>
-      <c r="U843">
-        <v>1.875</v>
-      </c>
-      <c r="V843">
-        <v>1.975</v>
-      </c>
-      <c r="W843">
-        <v>-1</v>
-      </c>
-      <c r="X843">
-        <v>-1</v>
-      </c>
-      <c r="Y843">
-        <v>2</v>
-      </c>
       <c r="Z843">
         <v>-1</v>
       </c>
       <c r="AA843">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB843">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC843">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="844" spans="1:29">
@@ -75620,7 +75620,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>5320092</v>
+        <v>5320093</v>
       </c>
       <c r="C844" t="s">
         <v>28</v>
@@ -75632,76 +75632,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F844" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G844" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I844">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J844" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K844">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L844">
         <v>3.2</v>
       </c>
       <c r="M844">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N844">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O844">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P844">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q844">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R844">
-        <v>2.1</v>
+        <v>2.075</v>
       </c>
       <c r="S844">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T844">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U844">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V844">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W844">
         <v>-1</v>
       </c>
       <c r="X844">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y844">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z844">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA844">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB844">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC844">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="845" spans="1:29">
@@ -75709,7 +75709,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>5321331</v>
+        <v>5320092</v>
       </c>
       <c r="C845" t="s">
         <v>28</v>
@@ -75721,76 +75721,76 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F845" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G845" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H845">
         <v>0</v>
       </c>
       <c r="I845">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J845" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K845">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L845">
+        <v>3.2</v>
+      </c>
+      <c r="M845">
+        <v>2.25</v>
+      </c>
+      <c r="N845">
+        <v>2.8</v>
+      </c>
+      <c r="O845">
         <v>3.4</v>
       </c>
-      <c r="M845">
-        <v>4</v>
-      </c>
-      <c r="N845">
-        <v>1.95</v>
-      </c>
-      <c r="O845">
-        <v>3.25</v>
-      </c>
       <c r="P845">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q845">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R845">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S845">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T845">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U845">
+        <v>2.025</v>
+      </c>
+      <c r="V845">
         <v>1.825</v>
       </c>
-      <c r="V845">
-        <v>2.025</v>
-      </c>
       <c r="W845">
         <v>-1</v>
       </c>
       <c r="X845">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y845">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z845">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA845">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB845">
         <v>-1</v>
       </c>
       <c r="AC845">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="846" spans="1:29">
@@ -76688,7 +76688,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>5320100</v>
+        <v>5320099</v>
       </c>
       <c r="C856" t="s">
         <v>28</v>
@@ -76700,76 +76700,76 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F856" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G856" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J856" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K856">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L856">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M856">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N856">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O856">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P856">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q856">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R856">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S856">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T856">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U856">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V856">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W856">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X856">
         <v>-1</v>
       </c>
       <c r="Y856">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z856">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA856">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB856">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC856">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="857" spans="1:29">
@@ -76777,7 +76777,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>5321330</v>
+        <v>5320100</v>
       </c>
       <c r="C857" t="s">
         <v>28</v>
@@ -76789,76 +76789,76 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F857" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G857" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I857">
         <v>1</v>
       </c>
       <c r="J857" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K857">
+        <v>1.95</v>
+      </c>
+      <c r="L857">
+        <v>3.4</v>
+      </c>
+      <c r="M857">
+        <v>3.75</v>
+      </c>
+      <c r="N857">
+        <v>2</v>
+      </c>
+      <c r="O857">
+        <v>3.3</v>
+      </c>
+      <c r="P857">
+        <v>4</v>
+      </c>
+      <c r="Q857">
+        <v>-0.5</v>
+      </c>
+      <c r="R857">
+        <v>2.05</v>
+      </c>
+      <c r="S857">
+        <v>1.8</v>
+      </c>
+      <c r="T857">
         <v>2.25</v>
       </c>
-      <c r="L857">
-        <v>3.3</v>
-      </c>
-      <c r="M857">
-        <v>3.1</v>
-      </c>
-      <c r="N857">
-        <v>3.25</v>
-      </c>
-      <c r="O857">
-        <v>2.875</v>
-      </c>
-      <c r="P857">
-        <v>2.5</v>
-      </c>
-      <c r="Q857">
-        <v>0.25</v>
-      </c>
-      <c r="R857">
-        <v>1.775</v>
-      </c>
-      <c r="S857">
-        <v>2.1</v>
-      </c>
-      <c r="T857">
-        <v>2</v>
-      </c>
       <c r="U857">
+        <v>2</v>
+      </c>
+      <c r="V857">
         <v>1.85</v>
       </c>
-      <c r="V857">
-        <v>2</v>
-      </c>
       <c r="W857">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X857">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y857">
         <v>-1</v>
       </c>
       <c r="Z857">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AA857">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB857">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC857">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="858" spans="1:29">
@@ -76866,7 +76866,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>5320099</v>
+        <v>5321330</v>
       </c>
       <c r="C858" t="s">
         <v>28</v>
@@ -76878,70 +76878,70 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F858" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G858" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I858">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J858" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K858">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L858">
         <v>3.3</v>
       </c>
       <c r="M858">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N858">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="O858">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P858">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q858">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R858">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S858">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T858">
         <v>2</v>
       </c>
       <c r="U858">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V858">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W858">
         <v>-1</v>
       </c>
       <c r="X858">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y858">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z858">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA858">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB858">
         <v>0</v>
@@ -83541,7 +83541,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>5506079</v>
+        <v>5506077</v>
       </c>
       <c r="C933" t="s">
         <v>28</v>
@@ -83553,13 +83553,13 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F933" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G933" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I933">
         <v>0</v>
@@ -83568,43 +83568,43 @@
         <v>69</v>
       </c>
       <c r="K933">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="L933">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M933">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N933">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="O933">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P933">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q933">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R933">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S933">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T933">
         <v>2.25</v>
       </c>
       <c r="U933">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V933">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W933">
-        <v>1.5</v>
+        <v>0.615</v>
       </c>
       <c r="X933">
         <v>-1</v>
@@ -83613,16 +83613,16 @@
         <v>-1</v>
       </c>
       <c r="Z933">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA933">
         <v>-1</v>
       </c>
       <c r="AB933">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC933">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="934" spans="1:29">
@@ -83630,7 +83630,7 @@
         <v>932</v>
       </c>
       <c r="B934">
-        <v>5506077</v>
+        <v>5500514</v>
       </c>
       <c r="C934" t="s">
         <v>28</v>
@@ -83642,76 +83642,76 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F934" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G934" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J934" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K934">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L934">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M934">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N934">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O934">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P934">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q934">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R934">
+        <v>2.025</v>
+      </c>
+      <c r="S934">
         <v>1.825</v>
-      </c>
-      <c r="S934">
-        <v>2.025</v>
       </c>
       <c r="T934">
         <v>2.25</v>
       </c>
       <c r="U934">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V934">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W934">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X934">
         <v>-1</v>
       </c>
       <c r="Y934">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z934">
+        <v>-1</v>
+      </c>
+      <c r="AA934">
         <v>0.825</v>
       </c>
-      <c r="AA934">
-        <v>-1</v>
-      </c>
       <c r="AB934">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC934">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="935" spans="1:29">
@@ -83719,7 +83719,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>5500514</v>
+        <v>5506079</v>
       </c>
       <c r="C935" t="s">
         <v>28</v>
@@ -83731,76 +83731,76 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F935" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G935" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I935">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J935" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K935">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L935">
         <v>3.2</v>
       </c>
       <c r="M935">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N935">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O935">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P935">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q935">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R935">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S935">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T935">
         <v>2.25</v>
       </c>
       <c r="U935">
+        <v>1.875</v>
+      </c>
+      <c r="V935">
         <v>1.975</v>
       </c>
-      <c r="V935">
-        <v>1.875</v>
-      </c>
       <c r="W935">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X935">
         <v>-1</v>
       </c>
       <c r="Y935">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z935">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA935">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB935">
         <v>-1</v>
       </c>
       <c r="AC935">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="936" spans="1:29">
@@ -85410,7 +85410,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>5606676</v>
+        <v>5573247</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85422,55 +85422,55 @@
         <v>45038.375</v>
       </c>
       <c r="F954" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G954" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I954">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J954" t="s">
         <v>67</v>
       </c>
       <c r="K954">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L954">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M954">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N954">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O954">
         <v>3.5</v>
       </c>
       <c r="P954">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q954">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R954">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S954">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T954">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U954">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V954">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W954">
         <v>-1</v>
@@ -85485,13 +85485,13 @@
         <v>-1</v>
       </c>
       <c r="AA954">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB954">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC954">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="955" spans="1:29">
@@ -85499,7 +85499,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>5606675</v>
+        <v>5606676</v>
       </c>
       <c r="C955" t="s">
         <v>28</v>
@@ -85511,49 +85511,49 @@
         <v>45038.375</v>
       </c>
       <c r="F955" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G955" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J955" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K955">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L955">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M955">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N955">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O955">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P955">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q955">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R955">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S955">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T955">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U955">
         <v>1.95</v>
@@ -85562,25 +85562,25 @@
         <v>1.9</v>
       </c>
       <c r="W955">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X955">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y955">
         <v>-1</v>
       </c>
       <c r="Z955">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA955">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB955">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC955">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="956" spans="1:29">
@@ -85588,7 +85588,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>5603326</v>
+        <v>5606675</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85600,76 +85600,76 @@
         <v>45038.375</v>
       </c>
       <c r="F956" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G956" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956">
         <v>1</v>
       </c>
       <c r="J956" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K956">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="L956">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M956">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N956">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="O956">
         <v>3</v>
       </c>
       <c r="P956">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q956">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R956">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S956">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T956">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U956">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V956">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W956">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X956">
         <v>-1</v>
       </c>
       <c r="Y956">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z956">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA956">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB956">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC956">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957" spans="1:29">
@@ -85677,7 +85677,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>5573247</v>
+        <v>5603326</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85689,76 +85689,76 @@
         <v>45038.375</v>
       </c>
       <c r="F957" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G957" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I957">
         <v>1</v>
       </c>
       <c r="J957" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K957">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="L957">
         <v>3.3</v>
       </c>
       <c r="M957">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N957">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O957">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P957">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q957">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R957">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S957">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T957">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U957">
+        <v>2</v>
+      </c>
+      <c r="V957">
         <v>1.85</v>
       </c>
-      <c r="V957">
-        <v>2</v>
-      </c>
       <c r="W957">
         <v>-1</v>
       </c>
       <c r="X957">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y957">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z957">
         <v>-1</v>
       </c>
       <c r="AA957">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB957">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC957">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -95556,7 +95556,7 @@
         <v>1066</v>
       </c>
       <c r="B1068">
-        <v>6906656</v>
+        <v>6906661</v>
       </c>
       <c r="C1068" t="s">
         <v>28</v>
@@ -95568,49 +95568,49 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F1068" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1068" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1068">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1068" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1068">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L1068">
         <v>3.25</v>
       </c>
       <c r="M1068">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N1068">
         <v>2.4</v>
       </c>
       <c r="O1068">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P1068">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q1068">
         <v>-0.25</v>
       </c>
       <c r="R1068">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S1068">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T1068">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1068">
         <v>2</v>
@@ -95619,25 +95619,25 @@
         <v>1.85</v>
       </c>
       <c r="W1068">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X1068">
         <v>-1</v>
       </c>
       <c r="Y1068">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z1068">
+        <v>-1</v>
+      </c>
+      <c r="AA1068">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB1068">
         <v>1</v>
       </c>
-      <c r="AA1068">
-        <v>-1</v>
-      </c>
-      <c r="AB1068">
-        <v>-0.5</v>
-      </c>
       <c r="AC1068">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1069" spans="1:29">
@@ -95645,7 +95645,7 @@
         <v>1067</v>
       </c>
       <c r="B1069">
-        <v>6906659</v>
+        <v>6906656</v>
       </c>
       <c r="C1069" t="s">
         <v>28</v>
@@ -95657,31 +95657,31 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F1069" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1069" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069">
         <v>0</v>
       </c>
       <c r="J1069" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1069">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L1069">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M1069">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N1069">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O1069">
         <v>3.1</v>
@@ -95693,40 +95693,40 @@
         <v>-0.25</v>
       </c>
       <c r="R1069">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S1069">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T1069">
         <v>2.25</v>
       </c>
       <c r="U1069">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V1069">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W1069">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X1069">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1069">
         <v>-1</v>
       </c>
       <c r="Z1069">
+        <v>1</v>
+      </c>
+      <c r="AA1069">
+        <v>-1</v>
+      </c>
+      <c r="AB1069">
         <v>-0.5</v>
       </c>
-      <c r="AA1069">
-        <v>0.4125</v>
-      </c>
-      <c r="AB1069">
-        <v>-1</v>
-      </c>
       <c r="AC1069">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1070" spans="1:29">
@@ -95734,7 +95734,7 @@
         <v>1068</v>
       </c>
       <c r="B1070">
-        <v>6906661</v>
+        <v>6906659</v>
       </c>
       <c r="C1070" t="s">
         <v>28</v>
@@ -95746,76 +95746,76 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F1070" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1070" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1070">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1070" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1070">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L1070">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M1070">
+        <v>2.625</v>
+      </c>
+      <c r="N1070">
+        <v>2.375</v>
+      </c>
+      <c r="O1070">
         <v>3.1</v>
       </c>
-      <c r="N1070">
-        <v>2.4</v>
-      </c>
-      <c r="O1070">
+      <c r="P1070">
         <v>3.2</v>
-      </c>
-      <c r="P1070">
-        <v>3</v>
       </c>
       <c r="Q1070">
         <v>-0.25</v>
       </c>
       <c r="R1070">
+        <v>2.025</v>
+      </c>
+      <c r="S1070">
+        <v>1.825</v>
+      </c>
+      <c r="T1070">
+        <v>2.25</v>
+      </c>
+      <c r="U1070">
+        <v>2.025</v>
+      </c>
+      <c r="V1070">
+        <v>1.825</v>
+      </c>
+      <c r="W1070">
+        <v>-1</v>
+      </c>
+      <c r="X1070">
         <v>2.1</v>
       </c>
-      <c r="S1070">
-        <v>1.775</v>
-      </c>
-      <c r="T1070">
-        <v>2.5</v>
-      </c>
-      <c r="U1070">
-        <v>2</v>
-      </c>
-      <c r="V1070">
-        <v>1.85</v>
-      </c>
-      <c r="W1070">
-        <v>-1</v>
-      </c>
-      <c r="X1070">
-        <v>-1</v>
-      </c>
       <c r="Y1070">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z1070">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1070">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB1070">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC1070">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1071" spans="1:29">
@@ -99650,7 +99650,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>7151371</v>
+        <v>6906437</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99662,10 +99662,10 @@
         <v>45228.51041666666</v>
       </c>
       <c r="F1114" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G1114" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H1114">
         <v>1</v>
@@ -99677,40 +99677,40 @@
         <v>68</v>
       </c>
       <c r="K1114">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L1114">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M1114">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N1114">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O1114">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P1114">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="Q1114">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R1114">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="S1114">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T1114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U1114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V1114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W1114">
         <v>-1</v>
@@ -99719,19 +99719,19 @@
         <v>-1</v>
       </c>
       <c r="Y1114">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="Z1114">
         <v>-1</v>
       </c>
       <c r="AA1114">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AB1114">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC1114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1115" spans="1:29">
@@ -99739,7 +99739,7 @@
         <v>1113</v>
       </c>
       <c r="B1115">
-        <v>6906437</v>
+        <v>7151371</v>
       </c>
       <c r="C1115" t="s">
         <v>28</v>
@@ -99751,10 +99751,10 @@
         <v>45228.51041666666</v>
       </c>
       <c r="F1115" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G1115" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H1115">
         <v>1</v>
@@ -99766,41 +99766,41 @@
         <v>68</v>
       </c>
       <c r="K1115">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L1115">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M1115">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N1115">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="O1115">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P1115">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q1115">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1115">
+        <v>2.125</v>
+      </c>
+      <c r="S1115">
+        <v>1.75</v>
+      </c>
+      <c r="T1115">
+        <v>2</v>
+      </c>
+      <c r="U1115">
         <v>1.975</v>
       </c>
-      <c r="S1115">
+      <c r="V1115">
         <v>1.875</v>
       </c>
-      <c r="T1115">
-        <v>3</v>
-      </c>
-      <c r="U1115">
-        <v>1.95</v>
-      </c>
-      <c r="V1115">
-        <v>1.9</v>
-      </c>
       <c r="W1115">
         <v>-1</v>
       </c>
@@ -99808,19 +99808,19 @@
         <v>-1</v>
       </c>
       <c r="Y1115">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="Z1115">
         <v>-1</v>
       </c>
       <c r="AA1115">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AB1115">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1116" spans="1:29">
@@ -101608,7 +101608,7 @@
         <v>1134</v>
       </c>
       <c r="B1136">
-        <v>7151369</v>
+        <v>6906432</v>
       </c>
       <c r="C1136" t="s">
         <v>28</v>
@@ -101620,73 +101620,73 @@
         <v>45242.51041666666</v>
       </c>
       <c r="F1136" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G1136" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1136" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1136">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L1136">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1136">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="N1136">
         <v>4</v>
       </c>
       <c r="O1136">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P1136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q1136">
         <v>0.5</v>
       </c>
       <c r="R1136">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S1136">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T1136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1136">
+        <v>2</v>
+      </c>
+      <c r="V1136">
         <v>1.85</v>
       </c>
-      <c r="V1136">
-        <v>2</v>
-      </c>
       <c r="W1136">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X1136">
         <v>-1</v>
       </c>
       <c r="Y1136">
+        <v>-1</v>
+      </c>
+      <c r="Z1136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA1136">
+        <v>-1</v>
+      </c>
+      <c r="AB1136">
         <v>1</v>
-      </c>
-      <c r="Z1136">
-        <v>-1</v>
-      </c>
-      <c r="AA1136">
-        <v>1.025</v>
-      </c>
-      <c r="AB1136">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC1136">
         <v>-1</v>
@@ -101697,7 +101697,7 @@
         <v>1135</v>
       </c>
       <c r="B1137">
-        <v>6906691</v>
+        <v>7151369</v>
       </c>
       <c r="C1137" t="s">
         <v>28</v>
@@ -101709,55 +101709,55 @@
         <v>45242.51041666666</v>
       </c>
       <c r="F1137" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G1137" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H1137">
         <v>0</v>
       </c>
       <c r="I1137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1137" t="s">
         <v>68</v>
       </c>
       <c r="K1137">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L1137">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M1137">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N1137">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O1137">
         <v>3.3</v>
       </c>
       <c r="P1137">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q1137">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R1137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S1137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T1137">
         <v>2.25</v>
       </c>
       <c r="U1137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V1137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W1137">
         <v>-1</v>
@@ -101766,19 +101766,19 @@
         <v>-1</v>
       </c>
       <c r="Y1137">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="Z1137">
         <v>-1</v>
       </c>
       <c r="AA1137">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB1137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1138" spans="1:29">
@@ -101786,7 +101786,7 @@
         <v>1136</v>
       </c>
       <c r="B1138">
-        <v>6906692</v>
+        <v>6906691</v>
       </c>
       <c r="C1138" t="s">
         <v>28</v>
@@ -101798,76 +101798,76 @@
         <v>45242.51041666666</v>
       </c>
       <c r="F1138" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G1138" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1138" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1138">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L1138">
+        <v>3.5</v>
+      </c>
+      <c r="M1138">
+        <v>4.5</v>
+      </c>
+      <c r="N1138">
+        <v>1.85</v>
+      </c>
+      <c r="O1138">
         <v>3.3</v>
       </c>
-      <c r="M1138">
-        <v>4</v>
-      </c>
-      <c r="N1138">
-        <v>1.95</v>
-      </c>
-      <c r="O1138">
-        <v>3.4</v>
-      </c>
       <c r="P1138">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q1138">
         <v>-0.5</v>
       </c>
       <c r="R1138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S1138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T1138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1138">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V1138">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W1138">
         <v>-1</v>
       </c>
       <c r="X1138">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y1138">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z1138">
         <v>-1</v>
       </c>
       <c r="AA1138">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB1138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC1138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1139" spans="1:29">
@@ -101875,7 +101875,7 @@
         <v>1137</v>
       </c>
       <c r="B1139">
-        <v>6906432</v>
+        <v>6906692</v>
       </c>
       <c r="C1139" t="s">
         <v>28</v>
@@ -101887,73 +101887,73 @@
         <v>45242.51041666666</v>
       </c>
       <c r="F1139" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1139" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H1139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1139">
         <v>2</v>
       </c>
       <c r="J1139" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K1139">
+        <v>1.95</v>
+      </c>
+      <c r="L1139">
+        <v>3.3</v>
+      </c>
+      <c r="M1139">
+        <v>4</v>
+      </c>
+      <c r="N1139">
+        <v>1.95</v>
+      </c>
+      <c r="O1139">
+        <v>3.4</v>
+      </c>
+      <c r="P1139">
         <v>4.2</v>
       </c>
-      <c r="L1139">
-        <v>3.5</v>
-      </c>
-      <c r="M1139">
+      <c r="Q1139">
+        <v>-0.5</v>
+      </c>
+      <c r="R1139">
+        <v>2</v>
+      </c>
+      <c r="S1139">
         <v>1.85</v>
-      </c>
-      <c r="N1139">
-        <v>4</v>
-      </c>
-      <c r="O1139">
-        <v>3.5</v>
-      </c>
-      <c r="P1139">
-        <v>1.95</v>
-      </c>
-      <c r="Q1139">
-        <v>0.5</v>
-      </c>
-      <c r="R1139">
-        <v>1.9</v>
-      </c>
-      <c r="S1139">
-        <v>1.95</v>
       </c>
       <c r="T1139">
         <v>2.5</v>
       </c>
       <c r="U1139">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V1139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W1139">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X1139">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y1139">
         <v>-1</v>
       </c>
       <c r="Z1139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB1139">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC1139">
         <v>-1</v>
@@ -109440,7 +109440,7 @@
         <v>1222</v>
       </c>
       <c r="B1224">
-        <v>6906742</v>
+        <v>6905868</v>
       </c>
       <c r="C1224" t="s">
         <v>28</v>
@@ -109452,55 +109452,55 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1224" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G1224" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1224">
         <v>0</v>
       </c>
       <c r="I1224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1224" t="s">
         <v>68</v>
       </c>
       <c r="K1224">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="L1224">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M1224">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N1224">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="O1224">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P1224">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q1224">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1224">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S1224">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T1224">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1224">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V1224">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W1224">
         <v>-1</v>
@@ -109509,19 +109509,19 @@
         <v>-1</v>
       </c>
       <c r="Y1224">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Z1224">
         <v>-1</v>
       </c>
       <c r="AA1224">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1224">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="1225" spans="1:29">
@@ -109618,7 +109618,7 @@
         <v>1224</v>
       </c>
       <c r="B1226">
-        <v>6906740</v>
+        <v>6906742</v>
       </c>
       <c r="C1226" t="s">
         <v>28</v>
@@ -109630,76 +109630,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1226" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G1226" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H1226">
+        <v>0</v>
+      </c>
+      <c r="I1226">
+        <v>1</v>
+      </c>
+      <c r="J1226" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1226">
+        <v>2.55</v>
+      </c>
+      <c r="L1226">
         <v>3</v>
       </c>
-      <c r="I1226">
-        <v>0</v>
-      </c>
-      <c r="J1226" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1226">
-        <v>3.1</v>
-      </c>
-      <c r="L1226">
+      <c r="M1226">
+        <v>3</v>
+      </c>
+      <c r="N1226">
+        <v>2.55</v>
+      </c>
+      <c r="O1226">
+        <v>2.9</v>
+      </c>
+      <c r="P1226">
         <v>3.2</v>
       </c>
-      <c r="M1226">
-        <v>2.3</v>
-      </c>
-      <c r="N1226">
-        <v>3.75</v>
-      </c>
-      <c r="O1226">
-        <v>3.4</v>
-      </c>
-      <c r="P1226">
-        <v>2.05</v>
-      </c>
       <c r="Q1226">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1226">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S1226">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T1226">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U1226">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V1226">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W1226">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X1226">
         <v>-1</v>
       </c>
       <c r="Y1226">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z1226">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1226">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB1226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC1226">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1227" spans="1:29">
@@ -109707,7 +109707,7 @@
         <v>1225</v>
       </c>
       <c r="B1227">
-        <v>6905868</v>
+        <v>6906740</v>
       </c>
       <c r="C1227" t="s">
         <v>28</v>
@@ -109719,76 +109719,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F1227" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1227" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1227" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1227">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L1227">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M1227">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N1227">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="O1227">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P1227">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q1227">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R1227">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S1227">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T1227">
         <v>2.25</v>
       </c>
       <c r="U1227">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V1227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W1227">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X1227">
         <v>-1</v>
       </c>
       <c r="Y1227">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z1227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1227">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC1227">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1228" spans="1:29">
@@ -110191,10 +110191,10 @@
         <v>-0.5</v>
       </c>
       <c r="R1232">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S1232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T1232">
         <v>2.25</v>
@@ -110253,31 +110253,31 @@
         <v>2.75</v>
       </c>
       <c r="N1233">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O1233">
         <v>3</v>
       </c>
       <c r="P1233">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q1233">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1233">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="S1233">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T1233">
         <v>2</v>
       </c>
       <c r="U1233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V1233">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W1233">
         <v>0</v>
@@ -110300,7 +110300,7 @@
         <v>1232</v>
       </c>
       <c r="B1234">
-        <v>6906403</v>
+        <v>6906748</v>
       </c>
       <c r="C1234" t="s">
         <v>28</v>
@@ -110312,46 +110312,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1234" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G1234" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K1234">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="L1234">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M1234">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N1234">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O1234">
         <v>3.25</v>
       </c>
       <c r="P1234">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q1234">
         <v>-0.25</v>
       </c>
       <c r="R1234">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S1234">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T1234">
         <v>2.25</v>
       </c>
       <c r="U1234">
+        <v>2.05</v>
+      </c>
+      <c r="V1234">
         <v>1.8</v>
-      </c>
-      <c r="V1234">
-        <v>2.05</v>
       </c>
       <c r="W1234">
         <v>0</v>
@@ -110448,7 +110448,7 @@
         <v>1234</v>
       </c>
       <c r="B1236">
-        <v>6906747</v>
+        <v>6906403</v>
       </c>
       <c r="C1236" t="s">
         <v>28</v>
@@ -110460,46 +110460,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1236" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G1236" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K1236">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="L1236">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M1236">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N1236">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O1236">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P1236">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q1236">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1236">
+        <v>2.025</v>
+      </c>
+      <c r="S1236">
+        <v>1.825</v>
+      </c>
+      <c r="T1236">
+        <v>2.25</v>
+      </c>
+      <c r="U1236">
+        <v>1.8</v>
+      </c>
+      <c r="V1236">
         <v>2.05</v>
-      </c>
-      <c r="S1236">
-        <v>1.8</v>
-      </c>
-      <c r="T1236">
-        <v>2.5</v>
-      </c>
-      <c r="U1236">
-        <v>1.925</v>
-      </c>
-      <c r="V1236">
-        <v>1.925</v>
       </c>
       <c r="W1236">
         <v>0</v>
@@ -110522,7 +110522,7 @@
         <v>1235</v>
       </c>
       <c r="B1237">
-        <v>6906748</v>
+        <v>6906747</v>
       </c>
       <c r="C1237" t="s">
         <v>28</v>
@@ -110534,46 +110534,46 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F1237" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G1237" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="K1237">
+        <v>1.85</v>
+      </c>
+      <c r="L1237">
+        <v>3.5</v>
+      </c>
+      <c r="M1237">
+        <v>3.9</v>
+      </c>
+      <c r="N1237">
         <v>1.95</v>
       </c>
-      <c r="L1237">
-        <v>3.3</v>
-      </c>
-      <c r="M1237">
-        <v>3.75</v>
-      </c>
-      <c r="N1237">
-        <v>2.05</v>
-      </c>
       <c r="O1237">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P1237">
         <v>3.5</v>
       </c>
       <c r="Q1237">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1237">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S1237">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T1237">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1237">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V1237">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W1237">
         <v>0</v>
@@ -110644,10 +110644,10 @@
         <v>2.25</v>
       </c>
       <c r="U1238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V1238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W1238">
         <v>0</v>
@@ -110697,22 +110697,22 @@
         <v>1.615</v>
       </c>
       <c r="N1239">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O1239">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P1239">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q1239">
         <v>0.5</v>
       </c>
       <c r="R1239">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S1239">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T1239">
         <v>2.5</v>
@@ -110857,10 +110857,10 @@
         <v>-0.25</v>
       </c>
       <c r="R1241">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S1241">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T1241">
         <v>2</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -31799,7 +31799,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6906706</v>
+        <v>6906708</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31811,58 +31811,58 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F352" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G352" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
         <v>57</v>
       </c>
       <c r="K352">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L352">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M352">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O352">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P352">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q352">
         <v>-0.5</v>
       </c>
       <c r="R352">
+        <v>2</v>
+      </c>
+      <c r="S352">
+        <v>1.85</v>
+      </c>
+      <c r="T352">
+        <v>2.5</v>
+      </c>
+      <c r="U352">
         <v>1.95</v>
       </c>
-      <c r="S352">
+      <c r="V352">
         <v>1.9</v>
       </c>
-      <c r="T352">
-        <v>1.75</v>
-      </c>
-      <c r="U352">
-        <v>1.825</v>
-      </c>
-      <c r="V352">
-        <v>2.025</v>
-      </c>
       <c r="W352">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31871,16 +31871,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA352">
         <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31888,7 +31888,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6906708</v>
+        <v>6906710</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31900,40 +31900,40 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F353" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G353" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="s">
         <v>57</v>
       </c>
       <c r="K353">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L353">
         <v>3.4</v>
       </c>
       <c r="M353">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N353">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O353">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P353">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q353">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R353">
         <v>2</v>
@@ -31945,13 +31945,13 @@
         <v>2.5</v>
       </c>
       <c r="U353">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V353">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W353">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X353">
         <v>-1</v>
@@ -31960,16 +31960,16 @@
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC353">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31977,7 +31977,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6906710</v>
+        <v>6906422</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31989,55 +31989,55 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F354" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G354" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H354">
         <v>2</v>
       </c>
       <c r="I354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J354" t="s">
         <v>57</v>
       </c>
       <c r="K354">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L354">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M354">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N354">
         <v>1.8</v>
       </c>
       <c r="O354">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P354">
         <v>4.75</v>
       </c>
       <c r="Q354">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S354">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T354">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U354">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V354">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W354">
         <v>0.8</v>
@@ -32049,16 +32049,16 @@
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA354">
+        <v>-1</v>
+      </c>
+      <c r="AB354">
         <v>-0.5</v>
       </c>
-      <c r="AB354">
-        <v>1</v>
-      </c>
       <c r="AC354">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32066,7 +32066,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6906422</v>
+        <v>6906705</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32078,76 +32078,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F355" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G355" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J355" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K355">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="L355">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M355">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N355">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O355">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P355">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q355">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R355">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S355">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T355">
         <v>2.25</v>
       </c>
       <c r="U355">
+        <v>2.05</v>
+      </c>
+      <c r="V355">
         <v>1.8</v>
       </c>
-      <c r="V355">
-        <v>2.05</v>
-      </c>
       <c r="W355">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z355">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB355">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC355">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32155,7 +32155,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6906705</v>
+        <v>6906707</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32167,76 +32167,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F356" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G356" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K356">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L356">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M356">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N356">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O356">
         <v>3</v>
       </c>
       <c r="P356">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q356">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R356">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S356">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T356">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U356">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V356">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W356">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X356">
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA356">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB356">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC356">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32244,7 +32244,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6906707</v>
+        <v>6906706</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32256,49 +32256,49 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F357" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G357" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H357">
         <v>2</v>
       </c>
       <c r="I357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" t="s">
         <v>57</v>
       </c>
       <c r="K357">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L357">
+        <v>3.3</v>
+      </c>
+      <c r="M357">
+        <v>4.5</v>
+      </c>
+      <c r="N357">
+        <v>1.95</v>
+      </c>
+      <c r="O357">
         <v>3.1</v>
       </c>
-      <c r="M357">
-        <v>3.75</v>
-      </c>
-      <c r="N357">
-        <v>2</v>
-      </c>
-      <c r="O357">
-        <v>3</v>
-      </c>
       <c r="P357">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q357">
         <v>-0.5</v>
       </c>
       <c r="R357">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S357">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T357">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U357">
         <v>1.825</v>
@@ -32307,7 +32307,7 @@
         <v>2.025</v>
       </c>
       <c r="W357">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X357">
         <v>-1</v>
@@ -32316,16 +32316,16 @@
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA357">
         <v>-1</v>
       </c>
       <c r="AB357">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC357">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -38296,7 +38296,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>6906747</v>
+        <v>6906748</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38308,76 +38308,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F425" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G425" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425">
         <v>1</v>
       </c>
       <c r="J425" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K425">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="L425">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M425">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N425">
+        <v>2.25</v>
+      </c>
+      <c r="O425">
+        <v>3.2</v>
+      </c>
+      <c r="P425">
+        <v>3.4</v>
+      </c>
+      <c r="Q425">
+        <v>-0.25</v>
+      </c>
+      <c r="R425">
+        <v>1.975</v>
+      </c>
+      <c r="S425">
+        <v>1.875</v>
+      </c>
+      <c r="T425">
+        <v>2</v>
+      </c>
+      <c r="U425">
+        <v>1.75</v>
+      </c>
+      <c r="V425">
         <v>2.05</v>
       </c>
-      <c r="O425">
-        <v>3.5</v>
-      </c>
-      <c r="P425">
-        <v>3.6</v>
-      </c>
-      <c r="Q425">
+      <c r="W425">
+        <v>-1</v>
+      </c>
+      <c r="X425">
+        <v>2.2</v>
+      </c>
+      <c r="Y425">
+        <v>-1</v>
+      </c>
+      <c r="Z425">
         <v>-0.5</v>
       </c>
-      <c r="R425">
-        <v>2</v>
-      </c>
-      <c r="S425">
-        <v>1.85</v>
-      </c>
-      <c r="T425">
-        <v>2.5</v>
-      </c>
-      <c r="U425">
-        <v>1.975</v>
-      </c>
-      <c r="V425">
-        <v>1.875</v>
-      </c>
-      <c r="W425">
-        <v>1.05</v>
-      </c>
-      <c r="X425">
-        <v>-1</v>
-      </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
-      <c r="Z425">
-        <v>1</v>
-      </c>
       <c r="AA425">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB425">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC425">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38385,7 +38385,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>6906748</v>
+        <v>6906747</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38397,76 +38397,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F426" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G426" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426">
         <v>1</v>
       </c>
       <c r="J426" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K426">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L426">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M426">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="N426">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O426">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P426">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q426">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R426">
+        <v>2</v>
+      </c>
+      <c r="S426">
+        <v>1.85</v>
+      </c>
+      <c r="T426">
+        <v>2.5</v>
+      </c>
+      <c r="U426">
         <v>1.975</v>
       </c>
-      <c r="S426">
+      <c r="V426">
         <v>1.875</v>
       </c>
-      <c r="T426">
-        <v>2</v>
-      </c>
-      <c r="U426">
-        <v>1.75</v>
-      </c>
-      <c r="V426">
-        <v>2.05</v>
-      </c>
       <c r="W426">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X426">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y426">
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA426">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB426">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC426">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:29">

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -118,10 +118,10 @@
     <t>Cosenza</t>
   </si>
   <si>
-    <t>Ternana</t>
+    <t>Cremonese</t>
   </si>
   <si>
-    <t>Cremonese</t>
+    <t>Ternana</t>
   </si>
   <si>
     <t>Sudtirol</t>
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6983825</v>
+        <v>6983778</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1269,73 +1269,73 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.9</v>
       </c>
-      <c r="V9">
-        <v>1.95</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y9">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6983778</v>
+        <v>6983825</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1358,73 +1358,73 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
+        <v>1.9</v>
+      </c>
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2334,7 +2334,7 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -2426,7 +2426,7 @@
         <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6906634</v>
+        <v>6906633</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,10 +2512,10 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2530,55 +2530,55 @@
         <v>2.5</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N23">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
+        <v>1.9</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>1.75</v>
       </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>1.9</v>
-      </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6906633</v>
+        <v>6906634</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2601,10 +2601,10 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2619,55 +2619,55 @@
         <v>2.5</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
+        <v>1.75</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>1.9</v>
       </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>1.75</v>
-      </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB24">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6906636</v>
+        <v>6906459</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
+        <v>3.4</v>
+      </c>
+      <c r="L27">
         <v>3.25</v>
       </c>
-      <c r="L27">
-        <v>3.2</v>
-      </c>
       <c r="M27">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N27">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O27">
         <v>3.3</v>
       </c>
       <c r="P27">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6906632</v>
+        <v>6906457</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,34 +2957,34 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N28">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O28">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
         <v>3.1</v>
@@ -2993,40 +2993,40 @@
         <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.825</v>
+      </c>
+      <c r="V28">
         <v>2.025</v>
       </c>
-      <c r="V28">
-        <v>1.825</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6906457</v>
+        <v>6906636</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3046,55 +3046,55 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>1</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>50</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N29">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3103,19 +3103,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AB29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6906459</v>
+        <v>6906632</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,49 +3135,49 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P30">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U30">
         <v>2.025</v>
@@ -3186,25 +3186,25 @@
         <v>1.825</v>
       </c>
       <c r="W30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB30">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6906455</v>
+        <v>6905854</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3669,76 +3669,76 @@
         <v>45172.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L36">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
         <v>3.3</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
+        <v>2.025</v>
+      </c>
+      <c r="V36">
         <v>1.825</v>
       </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6905854</v>
+        <v>6906455</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,76 +3758,76 @@
         <v>45172.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O37">
         <v>3.3</v>
       </c>
       <c r="P37">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
+        <v>1.825</v>
+      </c>
+      <c r="V37">
         <v>2.025</v>
       </c>
-      <c r="V37">
-        <v>1.825</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6906456</v>
+        <v>6906641</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3847,76 +3847,76 @@
         <v>45172.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>2.75</v>
+      </c>
+      <c r="L38">
+        <v>2.9</v>
+      </c>
+      <c r="M38">
+        <v>2.6</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3</v>
       </c>
-      <c r="I38">
-        <v>4</v>
-      </c>
-      <c r="J38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38">
-        <v>2.5</v>
-      </c>
-      <c r="L38">
-        <v>3.1</v>
-      </c>
-      <c r="M38">
-        <v>2.55</v>
-      </c>
-      <c r="N38">
-        <v>3.8</v>
-      </c>
-      <c r="O38">
-        <v>3.3</v>
-      </c>
       <c r="P38">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6906641</v>
+        <v>6906456</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>45172.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4651,7 +4651,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4829,7 +4829,7 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5170,7 +5170,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6906651</v>
+        <v>7151376</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5182,76 +5182,76 @@
         <v>45192.375</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>52</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N53">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P53">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7151376</v>
+        <v>6906651</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5271,76 +5271,76 @@
         <v>45192.375</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>52</v>
       </c>
       <c r="K54">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N54">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="O54">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5449,7 +5449,7 @@
         <v>45192.375</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6906657</v>
+        <v>6906447</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,10 +5894,10 @@
         <v>45195.55208333334</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5909,41 +5909,41 @@
         <v>50</v>
       </c>
       <c r="K61">
+        <v>2.5</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>2.45</v>
+      </c>
+      <c r="O61">
         <v>3.1</v>
       </c>
-      <c r="L61">
+      <c r="P61">
         <v>3.1</v>
       </c>
-      <c r="M61">
-        <v>2.4</v>
-      </c>
-      <c r="N61">
-        <v>3.4</v>
-      </c>
-      <c r="O61">
-        <v>3.2</v>
-      </c>
-      <c r="P61">
-        <v>2.2</v>
-      </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
+        <v>2.025</v>
+      </c>
+      <c r="V61">
         <v>1.825</v>
       </c>
-      <c r="V61">
-        <v>2.025</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
@@ -5951,16 +5951,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6906447</v>
+        <v>6906657</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,10 +5983,10 @@
         <v>45195.55208333334</v>
       </c>
       <c r="F62" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5998,41 +5998,41 @@
         <v>50</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>2.025</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
@@ -6040,16 +6040,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6342,7 +6342,7 @@
         <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6505,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6906658</v>
+        <v>6906448</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6517,58 +6517,58 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>51</v>
       </c>
       <c r="K68">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N68">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O68">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W68">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6577,16 +6577,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6906449</v>
+        <v>6906658</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,76 +6606,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L69">
         <v>3.25</v>
       </c>
       <c r="M69">
+        <v>3.4</v>
+      </c>
+      <c r="N69">
+        <v>1.909</v>
+      </c>
+      <c r="O69">
         <v>3.25</v>
       </c>
-      <c r="N69">
-        <v>2.3</v>
-      </c>
-      <c r="O69">
-        <v>3.1</v>
-      </c>
       <c r="P69">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6906448</v>
+        <v>6906449</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,37 +6695,37 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K70">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N70">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
@@ -6740,31 +6740,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7140,7 +7140,7 @@
         <v>45199.46875</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>45</v>
@@ -7585,7 +7585,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6906443</v>
+        <v>6906670</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7763,76 +7763,76 @@
         <v>45206.375</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K82">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P82">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>1.875</v>
+      </c>
+      <c r="S82">
+        <v>1.975</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>2.025</v>
+      </c>
+      <c r="V82">
+        <v>1.825</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>2.2</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>-0</v>
+      </c>
+      <c r="AB82">
         <v>-0.5</v>
       </c>
-      <c r="R82">
-        <v>1.85</v>
-      </c>
-      <c r="S82">
-        <v>2</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>2</v>
-      </c>
-      <c r="V82">
-        <v>1.85</v>
-      </c>
-      <c r="W82">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>-1</v>
-      </c>
-      <c r="Z82">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>1</v>
-      </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7929,7 +7929,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6906442</v>
+        <v>6906443</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7941,76 +7941,76 @@
         <v>45206.375</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84">
+        <v>1.75</v>
+      </c>
+      <c r="L84">
+        <v>3.5</v>
+      </c>
+      <c r="M84">
+        <v>4.75</v>
+      </c>
+      <c r="N84">
+        <v>1.85</v>
+      </c>
+      <c r="O84">
+        <v>3.6</v>
+      </c>
+      <c r="P84">
+        <v>4.2</v>
+      </c>
+      <c r="Q84">
+        <v>-0.5</v>
+      </c>
+      <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
+        <v>1.85</v>
+      </c>
+      <c r="W84">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>1</v>
       </c>
-      <c r="J84" t="s">
-        <v>50</v>
-      </c>
-      <c r="K84">
-        <v>2.375</v>
-      </c>
-      <c r="L84">
-        <v>3.1</v>
-      </c>
-      <c r="M84">
-        <v>3.1</v>
-      </c>
-      <c r="N84">
-        <v>2.875</v>
-      </c>
-      <c r="O84">
-        <v>3.1</v>
-      </c>
-      <c r="P84">
-        <v>2.6</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>2.05</v>
-      </c>
-      <c r="S84">
-        <v>1.8</v>
-      </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>2.05</v>
-      </c>
-      <c r="V84">
-        <v>1.8</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
-      <c r="Y84">
-        <v>1.6</v>
-      </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
-      <c r="AA84">
-        <v>0.8</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
       <c r="AC84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6906670</v>
+        <v>6906442</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,76 +8030,76 @@
         <v>45206.375</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K85">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N85">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O85">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8300,7 +8300,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8478,7 +8478,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8641,7 +8641,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6906673</v>
+        <v>6906440</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8653,76 +8653,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L92">
         <v>3.2</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O92">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB92">
         <v>-0.5</v>
       </c>
-      <c r="AA92">
-        <v>0.4125</v>
-      </c>
-      <c r="AB92">
-        <v>0</v>
-      </c>
       <c r="AC92">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6906440</v>
+        <v>6906673</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8742,76 +8742,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K93">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
         <v>3.2</v>
       </c>
       <c r="M93">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N93">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P93">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>2.025</v>
+      </c>
+      <c r="S93">
+        <v>1.825</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
+        <v>1.8</v>
+      </c>
+      <c r="V93">
+        <v>2.05</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>2.1</v>
       </c>
-      <c r="S93">
-        <v>1.775</v>
-      </c>
-      <c r="T93">
-        <v>2.25</v>
-      </c>
-      <c r="U93">
-        <v>1.925</v>
-      </c>
-      <c r="V93">
-        <v>1.925</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
       <c r="Y93">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6906676</v>
+        <v>6906674</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8831,76 +8831,76 @@
         <v>45220.375</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K94">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N94">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6906674</v>
+        <v>7151372</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8923,7 +8923,7 @@
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8935,41 +8935,41 @@
         <v>50</v>
       </c>
       <c r="K95">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N95">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
+        <v>1.825</v>
+      </c>
+      <c r="V95">
         <v>2.025</v>
       </c>
-      <c r="V95">
-        <v>1.825</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
@@ -8977,19 +8977,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7151372</v>
+        <v>6906676</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9009,76 +9009,76 @@
         <v>45220.375</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L96">
         <v>3.1</v>
       </c>
       <c r="M96">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N96">
+        <v>2.25</v>
+      </c>
+      <c r="O96">
+        <v>3</v>
+      </c>
+      <c r="P96">
+        <v>3.75</v>
+      </c>
+      <c r="Q96">
+        <v>-0.25</v>
+      </c>
+      <c r="R96">
+        <v>1.9</v>
+      </c>
+      <c r="S96">
         <v>1.95</v>
       </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
-      <c r="P96">
-        <v>4.2</v>
-      </c>
-      <c r="Q96">
-        <v>-0.5</v>
-      </c>
-      <c r="R96">
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
         <v>1.975</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.875</v>
       </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
-        <v>1.825</v>
-      </c>
-      <c r="V96">
-        <v>2.025</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9635,7 +9635,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7151371</v>
+        <v>6906681</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,73 +10255,73 @@
         <v>45228.51041666666</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>1</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K110">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N110">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O110">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S110">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
+        <v>1.875</v>
+      </c>
+      <c r="V110">
         <v>1.975</v>
       </c>
-      <c r="V110">
-        <v>1.875</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6906681</v>
+        <v>7151371</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,73 +10344,73 @@
         <v>45228.51041666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K111">
+        <v>2.7</v>
+      </c>
+      <c r="L111">
+        <v>3.1</v>
+      </c>
+      <c r="M111">
+        <v>2.75</v>
+      </c>
+      <c r="N111">
+        <v>2.5</v>
+      </c>
+      <c r="O111">
+        <v>2.9</v>
+      </c>
+      <c r="P111">
+        <v>3.2</v>
+      </c>
+      <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
+        <v>2.125</v>
+      </c>
+      <c r="S111">
+        <v>1.75</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
+        <v>1.975</v>
+      </c>
+      <c r="V111">
+        <v>1.875</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>2.2</v>
       </c>
-      <c r="L111">
-        <v>3.3</v>
-      </c>
-      <c r="M111">
-        <v>3.25</v>
-      </c>
-      <c r="N111">
-        <v>1.95</v>
-      </c>
-      <c r="O111">
-        <v>3.4</v>
-      </c>
-      <c r="P111">
-        <v>4</v>
-      </c>
-      <c r="Q111">
-        <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>1.95</v>
-      </c>
-      <c r="S111">
-        <v>1.9</v>
-      </c>
-      <c r="T111">
-        <v>2.25</v>
-      </c>
-      <c r="U111">
-        <v>1.875</v>
-      </c>
-      <c r="V111">
-        <v>1.975</v>
-      </c>
-      <c r="W111">
-        <v>0.95</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10700,7 +10700,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>37</v>
@@ -11234,7 +11234,7 @@
         <v>45235.51041666666</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>48</v>
@@ -12127,7 +12127,7 @@
         <v>48</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12305,7 +12305,7 @@
         <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
         <v>49</v>
@@ -12735,7 +12735,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6906694</v>
+        <v>6906428</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12747,73 +12747,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M138">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N138">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
+        <v>2.025</v>
+      </c>
+      <c r="S138">
         <v>1.825</v>
-      </c>
-      <c r="S138">
-        <v>2.025</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA138">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6906695</v>
+        <v>6906694</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,73 +12836,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
         <v>3.1</v>
       </c>
-      <c r="M139">
-        <v>4</v>
-      </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O139">
+        <v>3</v>
+      </c>
+      <c r="P139">
         <v>2.9</v>
       </c>
-      <c r="P139">
-        <v>4</v>
-      </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
+        <v>2.025</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>2.05</v>
+      </c>
+      <c r="V139">
         <v>1.8</v>
       </c>
-      <c r="S139">
-        <v>2.05</v>
-      </c>
-      <c r="T139">
-        <v>1.75</v>
-      </c>
-      <c r="U139">
-        <v>1.85</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB139">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6906697</v>
+        <v>6906695</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,76 +12925,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N140">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
         <v>2.9</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q140">
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
+        <v>2.05</v>
+      </c>
+      <c r="T140">
+        <v>1.75</v>
+      </c>
+      <c r="U140">
         <v>1.85</v>
       </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>2.05</v>
-      </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X140">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6906428</v>
+        <v>6906697</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K141">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N141">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O141">
+        <v>2.9</v>
+      </c>
+      <c r="P141">
         <v>3.6</v>
       </c>
-      <c r="P141">
-        <v>4.75</v>
-      </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AB141">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13192,7 +13192,7 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
         <v>47</v>
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7269065</v>
+        <v>7269066</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>52</v>
       </c>
       <c r="K145">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N145">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7269066</v>
+        <v>7269065</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13459,76 +13459,76 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>52</v>
       </c>
       <c r="K146">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L146">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="M146">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O146">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6906699</v>
+        <v>6906704</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,40 +13637,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
         <v>1</v>
       </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K148">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N148">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O148">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
         <v>1.975</v>
@@ -13679,31 +13679,31 @@
         <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6906704</v>
+        <v>6906702</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K150">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="L150">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M150">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N150">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6906702</v>
+        <v>6906701</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K151">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
         <v>3.3</v>
       </c>
       <c r="M151">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N151">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="O151">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P151">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X151">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6906701</v>
+        <v>6906699</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,73 +13993,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L152">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N152">
         <v>2.25</v>
       </c>
       <c r="O152">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
         <v>1.875</v>
       </c>
-      <c r="S152">
-        <v>1.975</v>
-      </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V152">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
         <v>0.875</v>
       </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
       <c r="AB152">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6906710</v>
+        <v>6906708</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,37 +14441,37 @@
         <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>51</v>
       </c>
       <c r="K157">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L157">
         <v>3.4</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
         <v>2</v>
@@ -14483,13 +14483,13 @@
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14498,16 +14498,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6906707</v>
+        <v>6906710</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,40 +14527,40 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>51</v>
       </c>
       <c r="K158">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
         <v>2</v>
@@ -14569,34 +14569,34 @@
         <v>1.85</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
+        <v>0.8</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.5</v>
+      </c>
+      <c r="AA158">
+        <v>-0.5</v>
+      </c>
+      <c r="AB158">
         <v>1</v>
       </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>1</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0</v>
-      </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6906706</v>
+        <v>6906707</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,49 +14616,49 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>51</v>
       </c>
       <c r="K159">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L159">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M159">
+        <v>3.75</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159">
+        <v>3</v>
+      </c>
+      <c r="P159">
         <v>4.5</v>
-      </c>
-      <c r="N159">
-        <v>1.95</v>
-      </c>
-      <c r="O159">
-        <v>3.1</v>
-      </c>
-      <c r="P159">
-        <v>4.333</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U159">
         <v>1.825</v>
@@ -14667,7 +14667,7 @@
         <v>2.025</v>
       </c>
       <c r="W159">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14676,16 +14676,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6906708</v>
+        <v>6906706</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,58 +14705,58 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
         <v>1</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>51</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M160">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P160">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q160">
         <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14765,16 +14765,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15598,7 +15598,7 @@
         <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15672,7 +15672,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6906716</v>
+        <v>6906419</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15684,55 +15684,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>50</v>
       </c>
       <c r="K171">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N171">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O171">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P171">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R171">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T171">
         <v>2</v>
       </c>
       <c r="U171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15741,16 +15741,16 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>4.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB171">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6906419</v>
+        <v>6906716</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,55 +15773,55 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>50</v>
       </c>
       <c r="K172">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N172">
+        <v>1.75</v>
+      </c>
+      <c r="O172">
         <v>3.3</v>
       </c>
-      <c r="O172">
-        <v>2.9</v>
-      </c>
       <c r="P172">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
+        <v>2.025</v>
+      </c>
+      <c r="S172">
+        <v>1.825</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
         <v>1.85</v>
       </c>
-      <c r="S172">
-        <v>2</v>
-      </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.875</v>
-      </c>
       <c r="V172">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15830,16 +15830,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.45</v>
+        <v>4.25</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB172">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6906711</v>
+        <v>6906714</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,76 +15862,76 @@
         <v>45276.51041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K173">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L173">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
+        <v>4</v>
+      </c>
+      <c r="N173">
+        <v>2.1</v>
+      </c>
+      <c r="O173">
+        <v>3.3</v>
+      </c>
+      <c r="P173">
+        <v>3.6</v>
+      </c>
+      <c r="Q173">
+        <v>-0.25</v>
+      </c>
+      <c r="R173">
+        <v>1.825</v>
+      </c>
+      <c r="S173">
+        <v>2.025</v>
+      </c>
+      <c r="T173">
         <v>2.25</v>
       </c>
-      <c r="N173">
-        <v>3.1</v>
-      </c>
-      <c r="O173">
-        <v>3.4</v>
-      </c>
-      <c r="P173">
-        <v>2.3</v>
-      </c>
-      <c r="Q173">
-        <v>0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.85</v>
-      </c>
-      <c r="S173">
-        <v>2</v>
-      </c>
-      <c r="T173">
-        <v>2.5</v>
-      </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X173">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15939,7 +15939,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6906714</v>
+        <v>6906711</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15951,76 +15951,76 @@
         <v>45276.51041666666</v>
       </c>
       <c r="F174" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K174">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M174">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N174">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
+        <v>1.85</v>
+      </c>
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>2.025</v>
+      </c>
+      <c r="V174">
         <v>1.825</v>
       </c>
-      <c r="S174">
-        <v>2.025</v>
-      </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
-      <c r="V174">
-        <v>1.95</v>
-      </c>
       <c r="W174">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>0.425</v>
+      </c>
+      <c r="AA174">
+        <v>-0.5</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.825</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>49</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6906719</v>
+        <v>6906720</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,58 +16485,58 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F180" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" t="s">
         <v>35</v>
       </c>
-      <c r="G180" t="s">
-        <v>42</v>
-      </c>
       <c r="H180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>51</v>
       </c>
       <c r="K180">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N180">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O180">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R180">
+        <v>1.975</v>
+      </c>
+      <c r="S180">
         <v>1.875</v>
       </c>
-      <c r="S180">
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
         <v>1.975</v>
       </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>1.95</v>
-      </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>0.8500000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16545,13 +16545,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6906720</v>
+        <v>6906719</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,58 +16574,58 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>51</v>
       </c>
       <c r="K181">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N181">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
+        <v>1.875</v>
+      </c>
+      <c r="S181">
         <v>1.975</v>
       </c>
-      <c r="S181">
-        <v>1.875</v>
-      </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
-        <v>0.6000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16634,13 +16634,13 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16740,7 +16740,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6906721</v>
+        <v>6906717</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16752,19 +16752,19 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K183">
         <v>2.05</v>
@@ -16773,55 +16773,55 @@
         <v>3.2</v>
       </c>
       <c r="M183">
+        <v>3.75</v>
+      </c>
+      <c r="N183">
+        <v>2.15</v>
+      </c>
+      <c r="O183">
+        <v>2.9</v>
+      </c>
+      <c r="P183">
         <v>3.8</v>
       </c>
-      <c r="N183">
-        <v>2</v>
-      </c>
-      <c r="O183">
-        <v>3.1</v>
-      </c>
-      <c r="P183">
-        <v>4.2</v>
-      </c>
       <c r="Q183">
+        <v>-0.25</v>
+      </c>
+      <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
+        <v>1.975</v>
+      </c>
+      <c r="T183">
+        <v>2</v>
+      </c>
+      <c r="U183">
+        <v>1.975</v>
+      </c>
+      <c r="V183">
+        <v>1.875</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>1.9</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
         <v>-0.5</v>
       </c>
-      <c r="R183">
-        <v>2.025</v>
-      </c>
-      <c r="S183">
-        <v>1.825</v>
-      </c>
-      <c r="T183">
-        <v>2</v>
-      </c>
-      <c r="U183">
-        <v>1.85</v>
-      </c>
-      <c r="V183">
-        <v>2</v>
-      </c>
-      <c r="W183">
-        <v>1</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
-      <c r="Y183">
-        <v>-1</v>
-      </c>
-      <c r="Z183">
-        <v>1.025</v>
-      </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6906717</v>
+        <v>6906721</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,19 +16841,19 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K184">
         <v>2.05</v>
@@ -16862,55 +16862,55 @@
         <v>3.2</v>
       </c>
       <c r="M184">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N184">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O184">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P184">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
         <v>2</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X184">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA184">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6906416</v>
+        <v>6906723</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,76 +17286,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K189">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
         <v>2.55</v>
       </c>
       <c r="N189">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O189">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P189">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6906724</v>
+        <v>6906416</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,73 +17375,73 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K190">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="L190">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M190">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N190">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="O190">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X190">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17553,7 +17553,7 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G192" t="s">
         <v>44</v>
@@ -17719,7 +17719,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6906723</v>
+        <v>6906724</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17731,76 +17731,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>52</v>
       </c>
       <c r="K194">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L194">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N194">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O194">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P194">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T194">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA194">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17823,7 +17823,7 @@
         <v>47</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>3</v>
@@ -18075,7 +18075,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6906729</v>
+        <v>7151362</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18087,76 +18087,76 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K198">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L198">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M198">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N198">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O198">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P198">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V198">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB198">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC198">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18164,7 +18164,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6906728</v>
+        <v>6906729</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18176,58 +18176,58 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>51</v>
       </c>
       <c r="K199">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L199">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M199">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="N199">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O199">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P199">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18236,16 +18236,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6905866</v>
+        <v>6906728</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,37 +18354,37 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>51</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="N201">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P201">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q201">
         <v>-0.5</v>
@@ -18399,13 +18399,13 @@
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18420,7 +18420,7 @@
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7151362</v>
+        <v>6905866</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,73 +18443,73 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K202">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M202">
+        <v>5</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202">
         <v>3.4</v>
-      </c>
-      <c r="N202">
-        <v>2.2</v>
-      </c>
-      <c r="O202">
-        <v>2.9</v>
       </c>
       <c r="P202">
         <v>3.8</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T202">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18799,7 +18799,7 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6906411</v>
+        <v>6906738</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,28 +18977,28 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>3</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
         <v>51</v>
       </c>
       <c r="K208">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M208">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N208">
         <v>2.7</v>
@@ -19013,10 +19013,10 @@
         <v>0</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
         <v>2.25</v>
@@ -19037,7 +19037,7 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA208">
         <v>-1</v>
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6906738</v>
+        <v>6906411</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,28 +19066,28 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H209">
         <v>3</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>51</v>
       </c>
       <c r="K209">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N209">
         <v>2.7</v>
@@ -19102,10 +19102,10 @@
         <v>0</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T209">
         <v>2.25</v>
@@ -19126,7 +19126,7 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
         <v>-1</v>
@@ -19158,7 +19158,7 @@
         <v>48</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19855,7 +19855,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6906743</v>
+        <v>6906742</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19867,76 +19867,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
         <v>1</v>
       </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
       <c r="J218" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K218">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L218">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M218">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N218">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="O218">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P218">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q218">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
+        <v>2.125</v>
+      </c>
+      <c r="S218">
+        <v>1.75</v>
+      </c>
+      <c r="T218">
+        <v>1.75</v>
+      </c>
+      <c r="U218">
+        <v>1.825</v>
+      </c>
+      <c r="V218">
         <v>2.025</v>
       </c>
-      <c r="S218">
-        <v>1.825</v>
-      </c>
-      <c r="T218">
-        <v>3</v>
-      </c>
-      <c r="U218">
-        <v>2.025</v>
-      </c>
-      <c r="V218">
-        <v>1.825</v>
-      </c>
       <c r="W218">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB218">
         <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19944,7 +19944,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6906742</v>
+        <v>6906743</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19956,76 +19956,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G219" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K219">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L219">
+        <v>3.8</v>
+      </c>
+      <c r="M219">
+        <v>4.75</v>
+      </c>
+      <c r="N219">
+        <v>1.571</v>
+      </c>
+      <c r="O219">
+        <v>4.2</v>
+      </c>
+      <c r="P219">
+        <v>5.75</v>
+      </c>
+      <c r="Q219">
+        <v>-1</v>
+      </c>
+      <c r="R219">
+        <v>2.025</v>
+      </c>
+      <c r="S219">
+        <v>1.825</v>
+      </c>
+      <c r="T219">
         <v>3</v>
       </c>
-      <c r="M219">
-        <v>3</v>
-      </c>
-      <c r="N219">
-        <v>2.55</v>
-      </c>
-      <c r="O219">
-        <v>2.9</v>
-      </c>
-      <c r="P219">
-        <v>3.2</v>
-      </c>
-      <c r="Q219">
-        <v>-0.25</v>
-      </c>
-      <c r="R219">
-        <v>2.125</v>
-      </c>
-      <c r="S219">
-        <v>1.75</v>
-      </c>
-      <c r="T219">
-        <v>1.75</v>
-      </c>
       <c r="U219">
+        <v>2.025</v>
+      </c>
+      <c r="V219">
         <v>1.825</v>
       </c>
-      <c r="V219">
-        <v>2.025</v>
-      </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA219">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20033,7 +20033,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6906740</v>
+        <v>7151360</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20045,13 +20045,13 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -20060,43 +20060,43 @@
         <v>51</v>
       </c>
       <c r="K220">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M220">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N220">
+        <v>1.666</v>
+      </c>
+      <c r="O220">
         <v>3.75</v>
       </c>
-      <c r="O220">
-        <v>3.4</v>
-      </c>
       <c r="P220">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20105,16 +20105,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB220">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20211,7 +20211,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7151360</v>
+        <v>6906740</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20223,13 +20223,13 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G222" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -20238,43 +20238,43 @@
         <v>51</v>
       </c>
       <c r="K222">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L222">
+        <v>3.2</v>
+      </c>
+      <c r="M222">
+        <v>2.3</v>
+      </c>
+      <c r="N222">
         <v>3.75</v>
       </c>
-      <c r="M222">
-        <v>5.5</v>
-      </c>
-      <c r="N222">
-        <v>1.666</v>
-      </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P222">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20283,16 +20283,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -21205,7 +21205,7 @@
         <v>49</v>
       </c>
       <c r="G233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -21291,7 +21291,7 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
         <v>40</v>
@@ -21635,7 +21635,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6906749</v>
+        <v>6906753</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21647,49 +21647,49 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
         <v>50</v>
       </c>
       <c r="K238">
+        <v>3.3</v>
+      </c>
+      <c r="L238">
+        <v>3.2</v>
+      </c>
+      <c r="M238">
+        <v>2.2</v>
+      </c>
+      <c r="N238">
+        <v>3.1</v>
+      </c>
+      <c r="O238">
         <v>3</v>
       </c>
-      <c r="L238">
-        <v>3</v>
-      </c>
-      <c r="M238">
-        <v>2.5</v>
-      </c>
-      <c r="N238">
-        <v>3.6</v>
-      </c>
-      <c r="O238">
-        <v>3.1</v>
-      </c>
       <c r="P238">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U238">
         <v>1.975</v>
@@ -21704,13 +21704,13 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB238">
         <v>0.9750000000000001</v>
@@ -21724,7 +21724,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6906753</v>
+        <v>6906751</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21736,55 +21736,55 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
         <v>50</v>
       </c>
       <c r="K239">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L239">
+        <v>3.25</v>
+      </c>
+      <c r="M239">
+        <v>2.15</v>
+      </c>
+      <c r="N239">
+        <v>3.4</v>
+      </c>
+      <c r="O239">
         <v>3.2</v>
       </c>
-      <c r="M239">
+      <c r="P239">
         <v>2.2</v>
       </c>
-      <c r="N239">
-        <v>3.1</v>
-      </c>
-      <c r="O239">
-        <v>3</v>
-      </c>
-      <c r="P239">
-        <v>2.55</v>
-      </c>
       <c r="Q239">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21793,16 +21793,16 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB239">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21813,7 +21813,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6906751</v>
+        <v>6906750</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21825,46 +21825,46 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H240">
         <v>1</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K240">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L240">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M240">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="N240">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O240">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P240">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T240">
         <v>2.5</v>
@@ -21879,22 +21879,22 @@
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y240">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB240">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21902,7 +21902,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6906750</v>
+        <v>6906749</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21914,76 +21914,76 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K241">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M241">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N241">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="O241">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22359,7 +22359,7 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G246" t="s">
         <v>48</v>
@@ -22451,7 +22451,7 @@
         <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22629,7 +22629,7 @@
         <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22970,7 +22970,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7151357</v>
+        <v>6906399</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22982,61 +22982,61 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F253" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G253" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
         <v>52</v>
       </c>
       <c r="K253">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L253">
         <v>3.2</v>
       </c>
       <c r="M253">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N253">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="O253">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P253">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q253">
         <v>-0.5</v>
       </c>
       <c r="R253">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S253">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T253">
         <v>2</v>
       </c>
       <c r="U253">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V253">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y253">
         <v>-1</v>
@@ -23045,13 +23045,13 @@
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB253">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC253">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23059,7 +23059,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6906399</v>
+        <v>7151357</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23071,61 +23071,61 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F254" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G254" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J254" t="s">
         <v>52</v>
       </c>
       <c r="K254">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L254">
         <v>3.2</v>
       </c>
       <c r="M254">
+        <v>3.8</v>
+      </c>
+      <c r="N254">
+        <v>2.1</v>
+      </c>
+      <c r="O254">
+        <v>3.2</v>
+      </c>
+      <c r="P254">
         <v>4</v>
-      </c>
-      <c r="N254">
-        <v>1.833</v>
-      </c>
-      <c r="O254">
-        <v>3.4</v>
-      </c>
-      <c r="P254">
-        <v>4.5</v>
       </c>
       <c r="Q254">
         <v>-0.5</v>
       </c>
       <c r="R254">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S254">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T254">
         <v>2</v>
       </c>
       <c r="U254">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V254">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W254">
         <v>-1</v>
       </c>
       <c r="X254">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y254">
         <v>-1</v>
@@ -23134,13 +23134,13 @@
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB254">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6906762</v>
+        <v>6906765</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,37 +23516,37 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G259" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K259">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L259">
+        <v>2.8</v>
+      </c>
+      <c r="M259">
         <v>3.1</v>
       </c>
-      <c r="M259">
-        <v>3</v>
-      </c>
       <c r="N259">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O259">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P259">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q259">
         <v>-0.25</v>
@@ -23558,34 +23558,34 @@
         <v>1.75</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U259">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V259">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA259">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23593,7 +23593,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6906765</v>
+        <v>6906761</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23605,49 +23605,49 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G260" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K260">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L260">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M260">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N260">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O260">
+        <v>3.75</v>
+      </c>
+      <c r="P260">
+        <v>4</v>
+      </c>
+      <c r="Q260">
+        <v>-0.5</v>
+      </c>
+      <c r="R260">
+        <v>1.9</v>
+      </c>
+      <c r="S260">
+        <v>1.95</v>
+      </c>
+      <c r="T260">
         <v>2.75</v>
-      </c>
-      <c r="P260">
-        <v>3.25</v>
-      </c>
-      <c r="Q260">
-        <v>-0.25</v>
-      </c>
-      <c r="R260">
-        <v>2.125</v>
-      </c>
-      <c r="S260">
-        <v>1.75</v>
-      </c>
-      <c r="T260">
-        <v>1.75</v>
       </c>
       <c r="U260">
         <v>1.925</v>
@@ -23656,25 +23656,25 @@
         <v>1.925</v>
       </c>
       <c r="W260">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC260">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6906397</v>
+        <v>6906762</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,49 +23694,49 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F261" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G261" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
         <v>1</v>
-      </c>
-      <c r="I261">
-        <v>2</v>
       </c>
       <c r="J261" t="s">
         <v>50</v>
       </c>
       <c r="K261">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M261">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N261">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O261">
+        <v>2.875</v>
+      </c>
+      <c r="P261">
         <v>3.1</v>
-      </c>
-      <c r="P261">
-        <v>3.4</v>
       </c>
       <c r="Q261">
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S261">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T261">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U261">
         <v>2</v>
@@ -23751,19 +23751,19 @@
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
+        <v>0.75</v>
+      </c>
+      <c r="AB261">
+        <v>-1</v>
+      </c>
+      <c r="AC261">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB261">
-        <v>1</v>
-      </c>
-      <c r="AC261">
-        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6906761</v>
+        <v>6906397</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,73 +23783,73 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G262" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262">
         <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K262">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L262">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M262">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N262">
+        <v>2.3</v>
+      </c>
+      <c r="O262">
+        <v>3.1</v>
+      </c>
+      <c r="P262">
+        <v>3.4</v>
+      </c>
+      <c r="Q262">
+        <v>-0.25</v>
+      </c>
+      <c r="R262">
+        <v>2</v>
+      </c>
+      <c r="S262">
         <v>1.85</v>
       </c>
-      <c r="O262">
-        <v>3.75</v>
-      </c>
-      <c r="P262">
-        <v>4</v>
-      </c>
-      <c r="Q262">
-        <v>-0.5</v>
-      </c>
-      <c r="R262">
-        <v>1.9</v>
-      </c>
-      <c r="S262">
-        <v>1.95</v>
-      </c>
       <c r="T262">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V262">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB262">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -24050,7 +24050,7 @@
         <v>45346.51041666666</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G265" t="s">
         <v>49</v>
@@ -24409,7 +24409,7 @@
         <v>39</v>
       </c>
       <c r="G269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -24572,7 +24572,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6906766</v>
+        <v>6906393</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24584,13 +24584,13 @@
         <v>45349.6875</v>
       </c>
       <c r="F271" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G271" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271">
         <v>3</v>
@@ -24599,40 +24599,40 @@
         <v>50</v>
       </c>
       <c r="K271">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L271">
         <v>3.8</v>
       </c>
       <c r="M271">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N271">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O271">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P271">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q271">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
+        <v>1.8</v>
+      </c>
+      <c r="S271">
         <v>2.05</v>
       </c>
-      <c r="S271">
-        <v>1.8</v>
-      </c>
       <c r="T271">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U271">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W271">
         <v>-1</v>
@@ -24641,16 +24641,16 @@
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="Z271">
         <v>-1</v>
       </c>
       <c r="AA271">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB271">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24661,7 +24661,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6906393</v>
+        <v>6906766</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24673,13 +24673,13 @@
         <v>45349.6875</v>
       </c>
       <c r="F272" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
         <v>3</v>
@@ -24688,40 +24688,40 @@
         <v>50</v>
       </c>
       <c r="K272">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L272">
         <v>3.8</v>
       </c>
       <c r="M272">
+        <v>4.5</v>
+      </c>
+      <c r="N272">
+        <v>1.5</v>
+      </c>
+      <c r="O272">
+        <v>4.5</v>
+      </c>
+      <c r="P272">
+        <v>6</v>
+      </c>
+      <c r="Q272">
+        <v>-1.25</v>
+      </c>
+      <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
         <v>1.8</v>
       </c>
-      <c r="N272">
-        <v>3.75</v>
-      </c>
-      <c r="O272">
-        <v>3.4</v>
-      </c>
-      <c r="P272">
-        <v>2.05</v>
-      </c>
-      <c r="Q272">
-        <v>0.5</v>
-      </c>
-      <c r="R272">
-        <v>1.8</v>
-      </c>
-      <c r="S272">
-        <v>2.05</v>
-      </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U272">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V272">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W272">
         <v>-1</v>
@@ -24730,16 +24730,16 @@
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="Z272">
         <v>-1</v>
       </c>
       <c r="AA272">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB272">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -25118,7 +25118,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G277" t="s">
         <v>31</v>
@@ -25373,7 +25373,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6906772</v>
+        <v>6905872</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25385,76 +25385,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F280" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G280" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K280">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L280">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M280">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N280">
         <v>2.3</v>
       </c>
       <c r="O280">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P280">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S280">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T280">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U280">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V280">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X280">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA280">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC280">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25462,7 +25462,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6905872</v>
+        <v>6906774</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,76 +25474,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G281" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281">
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K281">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L281">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M281">
         <v>3.4</v>
       </c>
       <c r="N281">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O281">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P281">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U281">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V281">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W281">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z281">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB281">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6906774</v>
+        <v>6906390</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,55 +25563,55 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F282" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G282" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J282" t="s">
         <v>50</v>
       </c>
       <c r="K282">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L282">
         <v>3.2</v>
       </c>
       <c r="M282">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N282">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O282">
+        <v>3.2</v>
+      </c>
+      <c r="P282">
         <v>2.9</v>
       </c>
-      <c r="P282">
-        <v>3.3</v>
-      </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R282">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S282">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T282">
         <v>2</v>
       </c>
       <c r="U282">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V282">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25620,19 +25620,19 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC282">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6906390</v>
+        <v>6906772</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,76 +25652,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>52</v>
+      </c>
+      <c r="K283">
+        <v>2.4</v>
+      </c>
+      <c r="L283">
         <v>3</v>
       </c>
-      <c r="J283" t="s">
-        <v>50</v>
-      </c>
-      <c r="K283">
-        <v>2.8</v>
-      </c>
-      <c r="L283">
+      <c r="M283">
         <v>3.2</v>
       </c>
-      <c r="M283">
-        <v>2.5</v>
-      </c>
       <c r="N283">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O283">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P283">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q283">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S283">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T283">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U283">
+        <v>1.975</v>
+      </c>
+      <c r="V283">
+        <v>1.875</v>
+      </c>
+      <c r="W283">
+        <v>-1</v>
+      </c>
+      <c r="X283">
         <v>1.75</v>
       </c>
-      <c r="V283">
-        <v>2.05</v>
-      </c>
-      <c r="W283">
-        <v>-1</v>
-      </c>
-      <c r="X283">
-        <v>-1</v>
-      </c>
       <c r="Y283">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA283">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AB283">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25922,7 +25922,7 @@
         <v>42</v>
       </c>
       <c r="G286" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -26364,7 +26364,7 @@
         <v>45360.51041666666</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G291" t="s">
         <v>40</v>
@@ -26545,7 +26545,7 @@
         <v>44</v>
       </c>
       <c r="G293" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -27076,7 +27076,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F299" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G299" t="s">
         <v>33</v>
@@ -27257,7 +27257,7 @@
         <v>36</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H301">
         <v>3</v>
@@ -27509,7 +27509,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7054401</v>
+        <v>6960950</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27521,19 +27521,19 @@
         <v>45367.51041666666</v>
       </c>
       <c r="F304" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G304" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304">
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K304">
         <v>2.4</v>
@@ -27545,52 +27545,52 @@
         <v>3</v>
       </c>
       <c r="N304">
+        <v>2.7</v>
+      </c>
+      <c r="O304">
+        <v>2.8</v>
+      </c>
+      <c r="P304">
         <v>3.1</v>
       </c>
-      <c r="O304">
-        <v>2.9</v>
-      </c>
-      <c r="P304">
-        <v>2.625</v>
-      </c>
       <c r="Q304">
         <v>0</v>
       </c>
       <c r="R304">
-        <v>2.125</v>
+        <v>1.775</v>
       </c>
       <c r="S304">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T304">
         <v>2</v>
       </c>
       <c r="U304">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z304">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
       <c r="AB304">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6960950</v>
+        <v>7054401</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,19 +27610,19 @@
         <v>45367.51041666666</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305">
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K305">
         <v>2.4</v>
@@ -27634,52 +27634,52 @@
         <v>3</v>
       </c>
       <c r="N305">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O305">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P305">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q305">
         <v>0</v>
       </c>
       <c r="R305">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="S305">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T305">
         <v>2</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V305">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y305">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA305">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC305">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27824,10 +27824,10 @@
         <v>2</v>
       </c>
       <c r="U307">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V307">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7093331</v>
+        <v>7093333</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28010,40 +28010,40 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G310" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K310">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L310">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M310">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N310">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P310">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U310">
         <v>1.85</v>
@@ -28220,7 +28220,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7093333</v>
+        <v>7077996</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28232,46 +28232,46 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G313" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K313">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L313">
         <v>3.2</v>
       </c>
       <c r="M313">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O313">
         <v>3.25</v>
       </c>
       <c r="P313">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q313">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R313">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S313">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T313">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U313">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V313">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W313">
         <v>0</v>
@@ -28294,7 +28294,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7077996</v>
+        <v>7093331</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28306,46 +28306,46 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G314" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K314">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L314">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M314">
+        <v>4.5</v>
+      </c>
+      <c r="N314">
+        <v>1.7</v>
+      </c>
+      <c r="O314">
+        <v>3.6</v>
+      </c>
+      <c r="P314">
+        <v>5</v>
+      </c>
+      <c r="Q314">
+        <v>-0.75</v>
+      </c>
+      <c r="R314">
+        <v>1.925</v>
+      </c>
+      <c r="S314">
+        <v>1.925</v>
+      </c>
+      <c r="T314">
         <v>2.5</v>
       </c>
-      <c r="N314">
-        <v>3</v>
-      </c>
-      <c r="O314">
-        <v>3.25</v>
-      </c>
-      <c r="P314">
-        <v>2.3</v>
-      </c>
-      <c r="Q314">
-        <v>0.25</v>
-      </c>
-      <c r="R314">
-        <v>1.8</v>
-      </c>
-      <c r="S314">
-        <v>2.05</v>
-      </c>
-      <c r="T314">
-        <v>2.25</v>
-      </c>
       <c r="U314">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V314">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W314">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>45383.54166666666</v>
       </c>
       <c r="F315" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G315" t="s">
         <v>41</v>
@@ -28407,10 +28407,10 @@
         <v>-1</v>
       </c>
       <c r="R315">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S315">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T315">
         <v>2.5</v>
@@ -28457,7 +28457,7 @@
         <v>39</v>
       </c>
       <c r="G316" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K316">
         <v>1.833</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -136,13 +136,13 @@
     <t>Sampdoria</t>
   </si>
   <si>
-    <t>Como</t>
+    <t>Modena</t>
   </si>
   <si>
     <t>AC Feralpisalo</t>
   </si>
   <si>
-    <t>Modena</t>
+    <t>Como</t>
   </si>
   <si>
     <t>Catanzaro</t>
@@ -1625,7 +1625,7 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6905853</v>
+        <v>6906629</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,76 +1978,76 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
         <v>1.85</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X17">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6906627</v>
+        <v>6906626</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2067,76 +2067,76 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>50</v>
       </c>
       <c r="K18">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O18">
+        <v>3.3</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>-0.5</v>
+      </c>
+      <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
+        <v>1.9</v>
+      </c>
+      <c r="T18">
+        <v>2.25</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
+        <v>1.925</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
         <v>3</v>
       </c>
-      <c r="P18">
-        <v>3.2</v>
-      </c>
-      <c r="Q18">
-        <v>-0.25</v>
-      </c>
-      <c r="R18">
-        <v>2.025</v>
-      </c>
-      <c r="S18">
-        <v>1.825</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.95</v>
-      </c>
-      <c r="V18">
-        <v>1.9</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>2.2</v>
-      </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2156,7 +2156,7 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6906629</v>
+        <v>6906627</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,70 +2245,70 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
+        <v>2.625</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
+        <v>2.625</v>
+      </c>
+      <c r="N20">
+        <v>2.4</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3.2</v>
+      </c>
+      <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>2.025</v>
+      </c>
+      <c r="S20">
+        <v>1.825</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>1.95</v>
+      </c>
+      <c r="V20">
         <v>1.9</v>
       </c>
-      <c r="L20">
-        <v>3.3</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>1.95</v>
-      </c>
-      <c r="O20">
-        <v>3.25</v>
-      </c>
-      <c r="P20">
-        <v>4.2</v>
-      </c>
-      <c r="Q20">
-        <v>-0.5</v>
-      </c>
-      <c r="R20">
-        <v>1.975</v>
-      </c>
-      <c r="S20">
-        <v>1.875</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1.85</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
       <c r="W20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6906626</v>
+        <v>6905853</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,76 +2334,76 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>2.05</v>
+      </c>
+      <c r="L21">
+        <v>3.1</v>
+      </c>
+      <c r="M21">
+        <v>3.6</v>
+      </c>
+      <c r="N21">
+        <v>2.15</v>
+      </c>
+      <c r="O21">
+        <v>3.2</v>
+      </c>
+      <c r="P21">
+        <v>3.5</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>1.85</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>2.2</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>-0.5</v>
+      </c>
+      <c r="AA21">
+        <v>0.5</v>
+      </c>
+      <c r="AB21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>2.2</v>
-      </c>
-      <c r="L21">
-        <v>3.2</v>
-      </c>
-      <c r="M21">
-        <v>3.2</v>
-      </c>
-      <c r="N21">
-        <v>1.95</v>
-      </c>
-      <c r="O21">
-        <v>3.3</v>
-      </c>
-      <c r="P21">
-        <v>4</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.95</v>
-      </c>
-      <c r="S21">
-        <v>1.9</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>3</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
-      <c r="AA21">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2515,7 +2515,7 @@
         <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6906459</v>
+        <v>6906636</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N27">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O27">
         <v>3.3</v>
       </c>
       <c r="P27">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB27">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6906457</v>
+        <v>6906632</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,34 +2957,34 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P28">
         <v>3.1</v>
@@ -2993,40 +2993,40 @@
         <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
+        <v>2.025</v>
+      </c>
+      <c r="V28">
         <v>1.825</v>
       </c>
-      <c r="V28">
-        <v>2.025</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6906636</v>
+        <v>6906457</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3046,76 +3046,76 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>50</v>
       </c>
       <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>3.4</v>
+      </c>
+      <c r="M29">
+        <v>3.75</v>
+      </c>
+      <c r="N29">
+        <v>2.4</v>
+      </c>
+      <c r="O29">
         <v>3.25</v>
       </c>
-      <c r="L29">
-        <v>3.2</v>
-      </c>
-      <c r="M29">
+      <c r="P29">
+        <v>3.1</v>
+      </c>
+      <c r="Q29">
+        <v>-0.25</v>
+      </c>
+      <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
         <v>2.25</v>
       </c>
-      <c r="N29">
-        <v>2.875</v>
-      </c>
-      <c r="O29">
-        <v>3.3</v>
-      </c>
-      <c r="P29">
-        <v>2.45</v>
-      </c>
-      <c r="Q29">
-        <v>0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.775</v>
-      </c>
-      <c r="S29">
+      <c r="U29">
+        <v>1.825</v>
+      </c>
+      <c r="V29">
+        <v>2.025</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
         <v>2.1</v>
       </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.975</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
-        <v>1.45</v>
-      </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6906632</v>
+        <v>6906459</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,49 +3135,49 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
+        <v>2.15</v>
+      </c>
+      <c r="N30">
+        <v>2.8</v>
+      </c>
+      <c r="O30">
         <v>3.3</v>
       </c>
-      <c r="N30">
+      <c r="P30">
+        <v>2.6</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1.975</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
         <v>2.5</v>
-      </c>
-      <c r="O30">
-        <v>2.9</v>
-      </c>
-      <c r="P30">
-        <v>3.1</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
-      <c r="R30">
-        <v>2.125</v>
-      </c>
-      <c r="S30">
-        <v>1.75</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
       </c>
       <c r="U30">
         <v>2.025</v>
@@ -3186,25 +3186,25 @@
         <v>1.825</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X30">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3491,7 +3491,7 @@
         <v>45171.5625</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6905854</v>
+        <v>6906455</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3669,76 +3669,76 @@
         <v>45172.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O36">
         <v>3.3</v>
       </c>
       <c r="P36">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
+        <v>1.825</v>
+      </c>
+      <c r="V36">
         <v>2.025</v>
       </c>
-      <c r="V36">
-        <v>1.825</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y36">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6906455</v>
+        <v>6905854</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,76 +3758,76 @@
         <v>45172.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L37">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O37">
         <v>3.3</v>
       </c>
       <c r="P37">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
+        <v>2.025</v>
+      </c>
+      <c r="V37">
         <v>1.825</v>
       </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4206,7 +4206,7 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4826,7 +4826,7 @@
         <v>45186.46875</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -5093,7 +5093,7 @@
         <v>45192.375</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>49</v>
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6906450</v>
+        <v>6905856</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>45193.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K58">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L58">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O58">
+        <v>3.1</v>
+      </c>
+      <c r="P58">
         <v>3.4</v>
       </c>
-      <c r="P58">
-        <v>4</v>
-      </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
         <v>1.85</v>
       </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
         <v>2.4</v>
       </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6905856</v>
+        <v>6906450</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,76 +5716,76 @@
         <v>45193.46875</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L59">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N59">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y59">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6906447</v>
+        <v>6906657</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,10 +5894,10 @@
         <v>45195.55208333334</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5909,41 +5909,41 @@
         <v>50</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N61">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
+        <v>1.825</v>
+      </c>
+      <c r="V61">
         <v>2.025</v>
       </c>
-      <c r="V61">
-        <v>1.825</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
@@ -5951,16 +5951,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB61">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6906657</v>
+        <v>6906447</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,10 +5983,10 @@
         <v>45195.55208333334</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5998,41 +5998,41 @@
         <v>50</v>
       </c>
       <c r="K62">
+        <v>2.5</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>2.45</v>
+      </c>
+      <c r="O62">
         <v>3.1</v>
       </c>
-      <c r="L62">
+      <c r="P62">
         <v>3.1</v>
       </c>
-      <c r="M62">
-        <v>2.4</v>
-      </c>
-      <c r="N62">
-        <v>3.4</v>
-      </c>
-      <c r="O62">
-        <v>3.2</v>
-      </c>
-      <c r="P62">
-        <v>2.2</v>
-      </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
+        <v>2.025</v>
+      </c>
+      <c r="V62">
         <v>1.825</v>
       </c>
-      <c r="V62">
-        <v>2.025</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
@@ -6040,16 +6040,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6431,7 +6431,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6906448</v>
+        <v>6906658</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6517,58 +6517,58 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
         <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>51</v>
       </c>
       <c r="K68">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6577,16 +6577,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6906658</v>
+        <v>6906449</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,76 +6606,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
         <v>3.25</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N69">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
+        <v>3.1</v>
+      </c>
+      <c r="P69">
         <v>3.25</v>
       </c>
-      <c r="P69">
-        <v>4.5</v>
-      </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6906449</v>
+        <v>6906448</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,37 +6695,37 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
@@ -6740,31 +6740,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6962,7 +6962,7 @@
         <v>45199.375</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
         <v>37</v>
@@ -7321,7 +7321,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6906670</v>
+        <v>6906443</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7763,76 +7763,76 @@
         <v>45206.375</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>51</v>
+      </c>
+      <c r="K82">
+        <v>1.75</v>
+      </c>
+      <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>4.75</v>
+      </c>
+      <c r="N82">
+        <v>1.85</v>
+      </c>
+      <c r="O82">
+        <v>3.6</v>
+      </c>
+      <c r="P82">
+        <v>4.2</v>
+      </c>
+      <c r="Q82">
+        <v>-0.5</v>
+      </c>
+      <c r="R82">
+        <v>1.85</v>
+      </c>
+      <c r="S82">
+        <v>2</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>2</v>
+      </c>
+      <c r="V82">
+        <v>1.85</v>
+      </c>
+      <c r="W82">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82" t="s">
-        <v>52</v>
-      </c>
-      <c r="K82">
-        <v>2.55</v>
-      </c>
-      <c r="L82">
-        <v>3.2</v>
-      </c>
-      <c r="M82">
-        <v>2.75</v>
-      </c>
-      <c r="N82">
-        <v>2.625</v>
-      </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
-      <c r="P82">
-        <v>2.75</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>1.875</v>
-      </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>2.25</v>
-      </c>
-      <c r="U82">
-        <v>2.025</v>
-      </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>2.2</v>
-      </c>
-      <c r="Y82">
-        <v>-1</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>-0</v>
-      </c>
-      <c r="AB82">
-        <v>-0.5</v>
-      </c>
       <c r="AC82">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7852,7 +7852,7 @@
         <v>45206.375</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
         <v>47</v>
@@ -7929,7 +7929,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6906443</v>
+        <v>6906442</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7941,76 +7941,76 @@
         <v>45206.375</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K84">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6906442</v>
+        <v>6906670</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,76 +8030,76 @@
         <v>45206.375</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N85">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P85">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y85">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8475,7 +8475,7 @@
         <v>45207.46875</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -8567,7 +8567,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6906440</v>
+        <v>6906673</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8653,76 +8653,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K92">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
         <v>3.2</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
+        <v>2.025</v>
+      </c>
+      <c r="S92">
+        <v>1.825</v>
+      </c>
+      <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92">
+        <v>1.8</v>
+      </c>
+      <c r="V92">
+        <v>2.05</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
         <v>2.1</v>
       </c>
-      <c r="S92">
-        <v>1.775</v>
-      </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.925</v>
-      </c>
-      <c r="V92">
-        <v>1.925</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
       <c r="Y92">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC92">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6906673</v>
+        <v>6906440</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8742,76 +8742,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L93">
         <v>3.2</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N93">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O93">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P93">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB93">
         <v>-0.5</v>
       </c>
-      <c r="AA93">
-        <v>0.4125</v>
-      </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6906674</v>
+        <v>6906676</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8831,76 +8831,76 @@
         <v>45220.375</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K94">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L94">
+        <v>3.1</v>
+      </c>
+      <c r="M94">
         <v>3.4</v>
       </c>
-      <c r="M94">
-        <v>4.75</v>
-      </c>
       <c r="N94">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O94">
+        <v>3</v>
+      </c>
+      <c r="P94">
         <v>3.75</v>
       </c>
-      <c r="P94">
-        <v>6</v>
-      </c>
       <c r="Q94">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7151372</v>
+        <v>6906674</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8920,10 +8920,10 @@
         <v>45220.375</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8935,41 +8935,41 @@
         <v>50</v>
       </c>
       <c r="K95">
+        <v>1.8</v>
+      </c>
+      <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>4.75</v>
+      </c>
+      <c r="N95">
+        <v>1.6</v>
+      </c>
+      <c r="O95">
+        <v>3.75</v>
+      </c>
+      <c r="P95">
+        <v>6</v>
+      </c>
+      <c r="Q95">
+        <v>-1</v>
+      </c>
+      <c r="R95">
+        <v>2.05</v>
+      </c>
+      <c r="S95">
+        <v>1.75</v>
+      </c>
+      <c r="T95">
         <v>2.5</v>
       </c>
-      <c r="L95">
-        <v>3.1</v>
-      </c>
-      <c r="M95">
-        <v>2.9</v>
-      </c>
-      <c r="N95">
-        <v>1.95</v>
-      </c>
-      <c r="O95">
-        <v>3.3</v>
-      </c>
-      <c r="P95">
-        <v>4.2</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.975</v>
-      </c>
-      <c r="S95">
-        <v>1.875</v>
-      </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
       <c r="U95">
+        <v>2.025</v>
+      </c>
+      <c r="V95">
         <v>1.825</v>
       </c>
-      <c r="V95">
-        <v>2.025</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
@@ -8977,19 +8977,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6906676</v>
+        <v>7151372</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9009,76 +9009,76 @@
         <v>45220.375</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L96">
         <v>3.1</v>
       </c>
       <c r="M96">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N96">
+        <v>1.95</v>
+      </c>
+      <c r="O96">
+        <v>3.3</v>
+      </c>
+      <c r="P96">
+        <v>4.2</v>
+      </c>
+      <c r="Q96">
+        <v>-0.5</v>
+      </c>
+      <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
         <v>2.25</v>
       </c>
-      <c r="O96">
-        <v>3</v>
-      </c>
-      <c r="P96">
-        <v>3.75</v>
-      </c>
-      <c r="Q96">
-        <v>-0.25</v>
-      </c>
-      <c r="R96">
-        <v>1.9</v>
-      </c>
-      <c r="S96">
-        <v>1.95</v>
-      </c>
-      <c r="T96">
-        <v>2</v>
-      </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9546,7 +9546,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9988,7 +9988,7 @@
         <v>45227.375</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
         <v>43</v>
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6906681</v>
+        <v>7151371</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,73 +10255,73 @@
         <v>45228.51041666666</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K110">
+        <v>2.7</v>
+      </c>
+      <c r="L110">
+        <v>3.1</v>
+      </c>
+      <c r="M110">
+        <v>2.75</v>
+      </c>
+      <c r="N110">
+        <v>2.5</v>
+      </c>
+      <c r="O110">
+        <v>2.9</v>
+      </c>
+      <c r="P110">
+        <v>3.2</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>2.125</v>
+      </c>
+      <c r="S110">
+        <v>1.75</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>1.975</v>
+      </c>
+      <c r="V110">
+        <v>1.875</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>2.2</v>
       </c>
-      <c r="L110">
-        <v>3.3</v>
-      </c>
-      <c r="M110">
-        <v>3.25</v>
-      </c>
-      <c r="N110">
-        <v>1.95</v>
-      </c>
-      <c r="O110">
-        <v>3.4</v>
-      </c>
-      <c r="P110">
-        <v>4</v>
-      </c>
-      <c r="Q110">
-        <v>-0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.95</v>
-      </c>
-      <c r="S110">
-        <v>1.9</v>
-      </c>
-      <c r="T110">
-        <v>2.25</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.975</v>
-      </c>
-      <c r="W110">
-        <v>0.95</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7151371</v>
+        <v>6906681</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,73 +10344,73 @@
         <v>45228.51041666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K111">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N111">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O111">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S111">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
+        <v>1.875</v>
+      </c>
+      <c r="V111">
         <v>1.975</v>
       </c>
-      <c r="V111">
-        <v>1.875</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA111">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10881,7 +10881,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10970,7 +10970,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11682,7 +11682,7 @@
         <v>46</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12661,7 +12661,7 @@
         <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12735,7 +12735,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6906428</v>
+        <v>6906694</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12747,73 +12747,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N138">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P138">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R138">
+        <v>1.825</v>
+      </c>
+      <c r="S138">
         <v>2.025</v>
-      </c>
-      <c r="S138">
-        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z138">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6906694</v>
+        <v>6906695</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,73 +12836,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U139">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6906695</v>
+        <v>6906697</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,76 +12925,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O140">
         <v>2.9</v>
       </c>
       <c r="P140">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
         <v>-0.25</v>
       </c>
       <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>1.85</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>2.05</v>
+      </c>
+      <c r="V140">
         <v>1.8</v>
       </c>
-      <c r="S140">
-        <v>2.05</v>
-      </c>
-      <c r="T140">
-        <v>1.75</v>
-      </c>
-      <c r="U140">
-        <v>1.85</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB140">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6906697</v>
+        <v>6906428</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N141">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O141">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
         <v>1.85</v>
       </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
-      <c r="U141">
-        <v>2.05</v>
-      </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X141">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>0.5125</v>
+      </c>
+      <c r="AA141">
         <v>-0.5</v>
       </c>
-      <c r="AA141">
-        <v>0.425</v>
-      </c>
       <c r="AB141">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13459,7 +13459,7 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
         <v>49</v>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6906704</v>
+        <v>6906700</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,76 +13637,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K148">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M148">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N148">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P148">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
         <v>1.975</v>
       </c>
-      <c r="S148">
-        <v>1.875</v>
-      </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6906700</v>
+        <v>6906704</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K149">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="L149">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N149">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="O149">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
+        <v>1.975</v>
+      </c>
+      <c r="S149">
         <v>1.875</v>
       </c>
-      <c r="S149">
-        <v>1.975</v>
-      </c>
       <c r="T149">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC149">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6906701</v>
+        <v>6906699</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,73 +13904,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L151">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N151">
         <v>2.25</v>
       </c>
       <c r="O151">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q151">
         <v>-0.25</v>
       </c>
       <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
         <v>1.875</v>
       </c>
-      <c r="S151">
-        <v>1.975</v>
-      </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V151">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W151">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
         <v>0.875</v>
       </c>
-      <c r="AA151">
-        <v>-1</v>
-      </c>
       <c r="AB151">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6906699</v>
+        <v>6906701</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,73 +13993,73 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
         <v>1</v>
       </c>
-      <c r="I152">
-        <v>3</v>
-      </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N152">
         <v>2.25</v>
       </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
         <v>-0.25</v>
       </c>
       <c r="R152">
+        <v>1.875</v>
+      </c>
+      <c r="S152">
         <v>1.975</v>
       </c>
-      <c r="S152">
-        <v>1.875</v>
-      </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6906425</v>
+        <v>6905862</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45263.51041666666</v>
       </c>
       <c r="F154" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
         <v>1</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K154">
+        <v>2.7</v>
+      </c>
+      <c r="L154">
+        <v>3.1</v>
+      </c>
+      <c r="M154">
+        <v>2.7</v>
+      </c>
+      <c r="N154">
+        <v>3.6</v>
+      </c>
+      <c r="O154">
         <v>2.8</v>
       </c>
-      <c r="L154">
-        <v>3.2</v>
-      </c>
-      <c r="M154">
-        <v>2.5</v>
-      </c>
-      <c r="N154">
-        <v>2.75</v>
-      </c>
-      <c r="O154">
-        <v>3.1</v>
-      </c>
       <c r="P154">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W154">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14248,7 +14248,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6905862</v>
+        <v>6906425</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14260,76 +14260,76 @@
         <v>45263.51041666666</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K155">
+        <v>2.8</v>
+      </c>
+      <c r="L155">
+        <v>3.2</v>
+      </c>
+      <c r="M155">
+        <v>2.5</v>
+      </c>
+      <c r="N155">
+        <v>2.75</v>
+      </c>
+      <c r="O155">
+        <v>3.1</v>
+      </c>
+      <c r="P155">
         <v>2.7</v>
       </c>
-      <c r="L155">
-        <v>3.1</v>
-      </c>
-      <c r="M155">
-        <v>2.7</v>
-      </c>
-      <c r="N155">
-        <v>3.6</v>
-      </c>
-      <c r="O155">
-        <v>2.8</v>
-      </c>
-      <c r="P155">
-        <v>2.375</v>
-      </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
+        <v>2</v>
+      </c>
+      <c r="V155">
+        <v>1.85</v>
+      </c>
+      <c r="W155">
         <v>1.75</v>
       </c>
-      <c r="U155">
-        <v>1.8</v>
-      </c>
-      <c r="V155">
-        <v>2.05</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA155">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6906708</v>
+        <v>6906710</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,40 +14438,40 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
         <v>1</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>51</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
         <v>3.4</v>
       </c>
       <c r="M157">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
         <v>2</v>
@@ -14483,31 +14483,31 @@
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
+        <v>0.8</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.5</v>
+      </c>
+      <c r="AA157">
+        <v>-0.5</v>
+      </c>
+      <c r="AB157">
         <v>1</v>
       </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>1</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6906710</v>
+        <v>6906706</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,10 +14527,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14542,43 +14542,43 @@
         <v>51</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N158">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P158">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14587,13 +14587,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6906707</v>
+        <v>6906708</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,13 +14616,13 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -14631,10 +14631,10 @@
         <v>51</v>
       </c>
       <c r="K159">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
         <v>3.75</v>
@@ -14643,10 +14643,10 @@
         <v>2</v>
       </c>
       <c r="O159">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
@@ -14658,13 +14658,13 @@
         <v>1.85</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
         <v>1</v>
@@ -14682,10 +14682,10 @@
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6906706</v>
+        <v>6906707</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,49 +14705,49 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>2</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>51</v>
       </c>
       <c r="K160">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M160">
+        <v>3.75</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160">
+        <v>3</v>
+      </c>
+      <c r="P160">
         <v>4.5</v>
-      </c>
-      <c r="N160">
-        <v>1.95</v>
-      </c>
-      <c r="O160">
-        <v>3.1</v>
-      </c>
-      <c r="P160">
-        <v>4.333</v>
       </c>
       <c r="Q160">
         <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U160">
         <v>1.825</v>
@@ -14756,7 +14756,7 @@
         <v>2.025</v>
       </c>
       <c r="W160">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14765,16 +14765,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7151366</v>
+        <v>6906709</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,76 +15061,76 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>52</v>
       </c>
       <c r="K164">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O164">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
         <v>1.975</v>
       </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6906709</v>
+        <v>7151366</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,76 +15150,76 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>52</v>
       </c>
       <c r="K165">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N165">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P165">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
         <v>1.875</v>
       </c>
-      <c r="S165">
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
         <v>1.975</v>
       </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
-      <c r="U165">
-        <v>1.95</v>
-      </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15239,10 +15239,10 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F166" t="s">
+        <v>42</v>
+      </c>
+      <c r="G166" t="s">
         <v>40</v>
-      </c>
-      <c r="G166" t="s">
-        <v>42</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15417,7 +15417,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
         <v>38</v>
@@ -15509,7 +15509,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6905864</v>
+        <v>6906718</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,73 +16218,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N177">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O177">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X177">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6906417</v>
+        <v>6905864</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,73 +16307,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
         <v>52</v>
       </c>
       <c r="K178">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N178">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P178">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
+        <v>1.825</v>
+      </c>
+      <c r="S178">
         <v>2.025</v>
       </c>
-      <c r="S178">
-        <v>1.825</v>
-      </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6906718</v>
+        <v>6906417</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,73 +16396,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179" t="s">
+        <v>52</v>
+      </c>
+      <c r="K179">
+        <v>1.533</v>
+      </c>
+      <c r="L179">
         <v>4</v>
       </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
-      <c r="J179" t="s">
-        <v>51</v>
-      </c>
-      <c r="K179">
-        <v>2.4</v>
-      </c>
-      <c r="L179">
-        <v>3.1</v>
-      </c>
       <c r="M179">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N179">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W179">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16577,7 +16577,7 @@
         <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>4</v>
@@ -16740,7 +16740,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6906717</v>
+        <v>6906721</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16752,19 +16752,19 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K183">
         <v>2.05</v>
@@ -16773,55 +16773,55 @@
         <v>3.2</v>
       </c>
       <c r="M183">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N183">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P183">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X183">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA183">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6906721</v>
+        <v>6906717</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,19 +16841,19 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K184">
         <v>2.05</v>
@@ -16862,55 +16862,55 @@
         <v>3.2</v>
       </c>
       <c r="M184">
+        <v>3.75</v>
+      </c>
+      <c r="N184">
+        <v>2.15</v>
+      </c>
+      <c r="O184">
+        <v>2.9</v>
+      </c>
+      <c r="P184">
         <v>3.8</v>
       </c>
-      <c r="N184">
-        <v>2</v>
-      </c>
-      <c r="O184">
-        <v>3.1</v>
-      </c>
-      <c r="P184">
-        <v>4.2</v>
-      </c>
       <c r="Q184">
+        <v>-0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
+        <v>1.875</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>1.9</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
         <v>-0.5</v>
       </c>
-      <c r="R184">
-        <v>2.025</v>
-      </c>
-      <c r="S184">
-        <v>1.825</v>
-      </c>
-      <c r="T184">
-        <v>2</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
-      <c r="V184">
-        <v>2</v>
-      </c>
-      <c r="W184">
-        <v>1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
-      <c r="Z184">
-        <v>1.025</v>
-      </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17200,7 +17200,7 @@
         <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6906723</v>
+        <v>6906416</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,76 +17286,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M189">
         <v>2.55</v>
       </c>
       <c r="N189">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O189">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X189">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6906416</v>
+        <v>7151363</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,76 +17375,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K190">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L190">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N190">
+        <v>3.75</v>
+      </c>
+      <c r="O190">
+        <v>3.3</v>
+      </c>
+      <c r="P190">
+        <v>2.1</v>
+      </c>
+      <c r="Q190">
+        <v>0.5</v>
+      </c>
+      <c r="R190">
+        <v>1.775</v>
+      </c>
+      <c r="S190">
+        <v>2.1</v>
+      </c>
+      <c r="T190">
         <v>2.25</v>
       </c>
-      <c r="O190">
-        <v>3</v>
-      </c>
-      <c r="P190">
-        <v>3.6</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
+      <c r="U190">
         <v>1.9</v>
       </c>
-      <c r="S190">
+      <c r="V190">
         <v>1.95</v>
       </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.875</v>
-      </c>
-      <c r="V190">
-        <v>1.975</v>
-      </c>
       <c r="W190">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17452,7 +17452,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6906726</v>
+        <v>6906724</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17464,76 +17464,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
         <v>52</v>
       </c>
       <c r="K191">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="L191">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N191">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O191">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P191">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC191">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6906727</v>
+        <v>6906726</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,10 +17553,10 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17568,61 +17568,61 @@
         <v>52</v>
       </c>
       <c r="K192">
-        <v>2.35</v>
+        <v>2.375</v>
       </c>
       <c r="L192">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M192">
         <v>3.1</v>
       </c>
       <c r="N192">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O192">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P192">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
         <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V192">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA192">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB192">
         <v>-0.5</v>
       </c>
       <c r="AC192">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7151363</v>
+        <v>6906727</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K193">
+        <v>2.35</v>
+      </c>
+      <c r="L193">
+        <v>3.25</v>
+      </c>
+      <c r="M193">
         <v>3.1</v>
       </c>
-      <c r="L193">
+      <c r="N193">
+        <v>2.2</v>
+      </c>
+      <c r="O193">
         <v>3.1</v>
       </c>
-      <c r="M193">
-        <v>2.45</v>
-      </c>
-      <c r="N193">
-        <v>3.75</v>
-      </c>
-      <c r="O193">
-        <v>3.3</v>
-      </c>
       <c r="P193">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q193">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S193">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T193">
         <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y193">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA193">
-        <v>1.1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB193">
         <v>-0.5</v>
       </c>
       <c r="AC193">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17719,7 +17719,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6906724</v>
+        <v>6906723</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17731,76 +17731,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>52</v>
       </c>
       <c r="K194">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="L194">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N194">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O194">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P194">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q194">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R194">
+        <v>1.925</v>
+      </c>
+      <c r="S194">
+        <v>1.925</v>
+      </c>
+      <c r="T194">
+        <v>1.75</v>
+      </c>
+      <c r="U194">
         <v>1.8</v>
       </c>
-      <c r="S194">
+      <c r="V194">
         <v>2.05</v>
       </c>
-      <c r="T194">
-        <v>2.25</v>
-      </c>
-      <c r="U194">
-        <v>1.85</v>
-      </c>
-      <c r="V194">
-        <v>2</v>
-      </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB194">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18075,7 +18075,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7151362</v>
+        <v>6906733</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18087,46 +18087,46 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K198">
-        <v>2.25</v>
+        <v>1.952</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N198">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O198">
         <v>2.9</v>
       </c>
       <c r="P198">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T198">
         <v>2</v>
@@ -18138,25 +18138,25 @@
         <v>1.85</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6906733</v>
+        <v>7151362</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,46 +18265,46 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K200">
-        <v>1.952</v>
+        <v>2.25</v>
       </c>
       <c r="L200">
+        <v>3.1</v>
+      </c>
+      <c r="M200">
         <v>3.4</v>
       </c>
-      <c r="M200">
-        <v>3.8</v>
-      </c>
       <c r="N200">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O200">
         <v>2.9</v>
       </c>
       <c r="P200">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q200">
         <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S200">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T200">
         <v>2</v>
@@ -18316,25 +18316,25 @@
         <v>1.85</v>
       </c>
       <c r="W200">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z200">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18443,7 +18443,7 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s">
         <v>48</v>
@@ -18609,7 +18609,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6906731</v>
+        <v>6906730</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18621,49 +18621,49 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K204">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L204">
         <v>3.75</v>
       </c>
       <c r="M204">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N204">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="O204">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R204">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
         <v>1.975</v>
@@ -18672,25 +18672,25 @@
         <v>1.875</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X204">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA204">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18698,7 +18698,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6906412</v>
+        <v>6906731</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18710,76 +18710,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H205">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K205">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L205">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="N205">
+        <v>1.65</v>
+      </c>
+      <c r="O205">
+        <v>3.75</v>
+      </c>
+      <c r="P205">
+        <v>5.5</v>
+      </c>
+      <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
         <v>1.85</v>
       </c>
-      <c r="O205">
-        <v>3.4</v>
-      </c>
-      <c r="P205">
-        <v>4.333</v>
-      </c>
-      <c r="Q205">
-        <v>-0.5</v>
-      </c>
-      <c r="R205">
-        <v>1.875</v>
-      </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T205">
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB205">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6906730</v>
+        <v>6906412</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,58 +18799,58 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
       </c>
       <c r="K206">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N206">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O206">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>0.5329999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18859,16 +18859,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA206">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC206">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6905867</v>
+        <v>7151361</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G211" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
         <v>52</v>
       </c>
       <c r="K211">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M211">
-        <v>2.65</v>
+        <v>4</v>
       </c>
       <c r="N211">
+        <v>2.15</v>
+      </c>
+      <c r="O211">
         <v>2.9</v>
       </c>
-      <c r="O211">
-        <v>3.1</v>
-      </c>
       <c r="P211">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U211">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB211">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7151361</v>
+        <v>6905867</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
         <v>52</v>
       </c>
       <c r="K212">
+        <v>2.8</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>2.65</v>
+      </c>
+      <c r="N212">
+        <v>2.9</v>
+      </c>
+      <c r="O212">
+        <v>3.1</v>
+      </c>
+      <c r="P212">
+        <v>2.6</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
         <v>2.1</v>
       </c>
-      <c r="L212">
-        <v>2.9</v>
-      </c>
-      <c r="M212">
-        <v>4</v>
-      </c>
-      <c r="N212">
-        <v>2.15</v>
-      </c>
-      <c r="O212">
-        <v>2.9</v>
-      </c>
-      <c r="P212">
-        <v>4</v>
-      </c>
-      <c r="Q212">
-        <v>-0.25</v>
-      </c>
-      <c r="R212">
-        <v>1.875</v>
-      </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T212">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AC212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19425,7 +19425,7 @@
         <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19855,7 +19855,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6906742</v>
+        <v>6906743</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19867,76 +19867,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K218">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L218">
+        <v>3.8</v>
+      </c>
+      <c r="M218">
+        <v>4.75</v>
+      </c>
+      <c r="N218">
+        <v>1.571</v>
+      </c>
+      <c r="O218">
+        <v>4.2</v>
+      </c>
+      <c r="P218">
+        <v>5.75</v>
+      </c>
+      <c r="Q218">
+        <v>-1</v>
+      </c>
+      <c r="R218">
+        <v>2.025</v>
+      </c>
+      <c r="S218">
+        <v>1.825</v>
+      </c>
+      <c r="T218">
         <v>3</v>
       </c>
-      <c r="M218">
-        <v>3</v>
-      </c>
-      <c r="N218">
-        <v>2.55</v>
-      </c>
-      <c r="O218">
-        <v>2.9</v>
-      </c>
-      <c r="P218">
-        <v>3.2</v>
-      </c>
-      <c r="Q218">
-        <v>-0.25</v>
-      </c>
-      <c r="R218">
-        <v>2.125</v>
-      </c>
-      <c r="S218">
-        <v>1.75</v>
-      </c>
-      <c r="T218">
-        <v>1.75</v>
-      </c>
       <c r="U218">
+        <v>2.025</v>
+      </c>
+      <c r="V218">
         <v>1.825</v>
       </c>
-      <c r="V218">
-        <v>2.025</v>
-      </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA218">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB218">
         <v>-1</v>
       </c>
       <c r="AC218">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19944,7 +19944,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6906743</v>
+        <v>6905868</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19956,76 +19956,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K219">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="L219">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M219">
         <v>4.75</v>
       </c>
       <c r="N219">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O219">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q219">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T219">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W219">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20033,7 +20033,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7151360</v>
+        <v>6906740</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20045,13 +20045,13 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -20060,43 +20060,43 @@
         <v>51</v>
       </c>
       <c r="K220">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
+        <v>2.3</v>
+      </c>
+      <c r="N220">
         <v>3.75</v>
       </c>
-      <c r="M220">
-        <v>5.5</v>
-      </c>
-      <c r="N220">
-        <v>1.666</v>
-      </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S220">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20105,16 +20105,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20122,7 +20122,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6905868</v>
+        <v>6906742</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20134,55 +20134,55 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>50</v>
       </c>
       <c r="K221">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N221">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U221">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20191,19 +20191,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20211,7 +20211,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6906740</v>
+        <v>7151360</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20223,13 +20223,13 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -20238,43 +20238,43 @@
         <v>51</v>
       </c>
       <c r="K222">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
+        <v>1.666</v>
+      </c>
+      <c r="O222">
         <v>3.75</v>
       </c>
-      <c r="O222">
-        <v>3.4</v>
-      </c>
       <c r="P222">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V222">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20283,16 +20283,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -21012,7 +21012,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6906748</v>
+        <v>7151359</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21024,70 +21024,70 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K231">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M231">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N231">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O231">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P231">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="U231">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X231">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA231">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
         <v>0</v>
@@ -21101,7 +21101,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7151359</v>
+        <v>6906748</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21113,70 +21113,70 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K232">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L232">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M232">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N232">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O232">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P232">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
         <v>2</v>
       </c>
       <c r="U232">
+        <v>1.75</v>
+      </c>
+      <c r="V232">
         <v>2.05</v>
       </c>
-      <c r="V232">
-        <v>1.8</v>
-      </c>
       <c r="W232">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB232">
         <v>0</v>
@@ -21294,7 +21294,7 @@
         <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21383,7 +21383,7 @@
         <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21558,7 +21558,7 @@
         <v>45331.6875</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
         <v>29</v>
@@ -21635,7 +21635,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6906753</v>
+        <v>6906749</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21647,49 +21647,49 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>50</v>
       </c>
       <c r="K238">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M238">
+        <v>2.5</v>
+      </c>
+      <c r="N238">
+        <v>3.6</v>
+      </c>
+      <c r="O238">
+        <v>3.1</v>
+      </c>
+      <c r="P238">
         <v>2.2</v>
       </c>
-      <c r="N238">
-        <v>3.1</v>
-      </c>
-      <c r="O238">
-        <v>3</v>
-      </c>
-      <c r="P238">
-        <v>2.55</v>
-      </c>
       <c r="Q238">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
         <v>1.975</v>
@@ -21704,13 +21704,13 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB238">
         <v>0.9750000000000001</v>
@@ -21724,7 +21724,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6906751</v>
+        <v>6906750</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21736,46 +21736,46 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K239">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L239">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M239">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="N239">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T239">
         <v>2.5</v>
@@ -21790,22 +21790,22 @@
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y239">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21813,7 +21813,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6906750</v>
+        <v>6906753</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21825,76 +21825,76 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K240">
+        <v>3.3</v>
+      </c>
+      <c r="L240">
+        <v>3.2</v>
+      </c>
+      <c r="M240">
+        <v>2.2</v>
+      </c>
+      <c r="N240">
+        <v>3.1</v>
+      </c>
+      <c r="O240">
+        <v>3</v>
+      </c>
+      <c r="P240">
+        <v>2.55</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>2.125</v>
+      </c>
+      <c r="S240">
+        <v>1.75</v>
+      </c>
+      <c r="T240">
+        <v>2</v>
+      </c>
+      <c r="U240">
+        <v>1.975</v>
+      </c>
+      <c r="V240">
+        <v>1.875</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>-1</v>
+      </c>
+      <c r="Y240">
         <v>1.55</v>
       </c>
-      <c r="L240">
-        <v>4</v>
-      </c>
-      <c r="M240">
-        <v>6</v>
-      </c>
-      <c r="N240">
-        <v>1.8</v>
-      </c>
-      <c r="O240">
-        <v>3.6</v>
-      </c>
-      <c r="P240">
-        <v>4.75</v>
-      </c>
-      <c r="Q240">
-        <v>-0.5</v>
-      </c>
-      <c r="R240">
-        <v>1.8</v>
-      </c>
-      <c r="S240">
-        <v>2.05</v>
-      </c>
-      <c r="T240">
-        <v>2.5</v>
-      </c>
-      <c r="U240">
-        <v>2</v>
-      </c>
-      <c r="V240">
-        <v>1.85</v>
-      </c>
-      <c r="W240">
-        <v>-1</v>
-      </c>
-      <c r="X240">
-        <v>2.6</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21902,7 +21902,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6906749</v>
+        <v>6906751</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21914,10 +21914,10 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21929,19 +21929,19 @@
         <v>50</v>
       </c>
       <c r="K241">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L241">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M241">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N241">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
         <v>2.2</v>
@@ -21950,19 +21950,19 @@
         <v>0.25</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
+        <v>1.9</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
         <v>1.85</v>
-      </c>
-      <c r="T241">
-        <v>2.25</v>
-      </c>
-      <c r="U241">
-        <v>1.975</v>
-      </c>
-      <c r="V241">
-        <v>1.875</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21977,10 +21977,10 @@
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -22003,7 +22003,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
         <v>33</v>
@@ -23163,7 +23163,7 @@
         <v>47</v>
       </c>
       <c r="G255" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H255">
         <v>3</v>
@@ -23252,7 +23252,7 @@
         <v>37</v>
       </c>
       <c r="G256" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -23961,7 +23961,7 @@
         <v>45346.51041666666</v>
       </c>
       <c r="F264" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
         <v>31</v>
@@ -24139,7 +24139,7 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G266" t="s">
         <v>48</v>
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6906392</v>
+        <v>6906393</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,55 +24406,55 @@
         <v>45349.6875</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G269" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J269" t="s">
         <v>50</v>
       </c>
       <c r="K269">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L269">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M269">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="N269">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O269">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P269">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R269">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S269">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T269">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U269">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V269">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W269">
         <v>-1</v>
@@ -24463,16 +24463,16 @@
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB269">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC269">
         <v>-1</v>
@@ -24483,7 +24483,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6906394</v>
+        <v>6906392</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24495,76 +24495,76 @@
         <v>45349.6875</v>
       </c>
       <c r="F270" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G270" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K270">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L270">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M270">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="N270">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O270">
         <v>3.1</v>
       </c>
       <c r="P270">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q270">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R270">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S270">
+        <v>1.925</v>
+      </c>
+      <c r="T270">
+        <v>2.25</v>
+      </c>
+      <c r="U270">
+        <v>2</v>
+      </c>
+      <c r="V270">
         <v>1.85</v>
       </c>
-      <c r="T270">
-        <v>2</v>
-      </c>
-      <c r="U270">
-        <v>1.775</v>
-      </c>
-      <c r="V270">
-        <v>2.1</v>
-      </c>
       <c r="W270">
+        <v>-1</v>
+      </c>
+      <c r="X270">
+        <v>-1</v>
+      </c>
+      <c r="Y270">
+        <v>1.7</v>
+      </c>
+      <c r="Z270">
+        <v>-1</v>
+      </c>
+      <c r="AA270">
+        <v>0.925</v>
+      </c>
+      <c r="AB270">
         <v>1</v>
       </c>
-      <c r="X270">
-        <v>-1</v>
-      </c>
-      <c r="Y270">
-        <v>-1</v>
-      </c>
-      <c r="Z270">
-        <v>1</v>
-      </c>
-      <c r="AA270">
-        <v>-1</v>
-      </c>
-      <c r="AB270">
-        <v>0</v>
-      </c>
       <c r="AC270">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24572,7 +24572,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6906393</v>
+        <v>6906394</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24584,76 +24584,76 @@
         <v>45349.6875</v>
       </c>
       <c r="F271" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K271">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L271">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M271">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="N271">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O271">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P271">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q271">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R271">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S271">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T271">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U271">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V271">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA271">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24839,7 +24839,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6906770</v>
+        <v>6906768</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24851,76 +24851,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F274" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G274" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274">
         <v>2</v>
       </c>
       <c r="J274" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K274">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L274">
         <v>3.1</v>
       </c>
       <c r="M274">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N274">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O274">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P274">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q274">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R274">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S274">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T274">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U274">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V274">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W274">
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y274">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA274">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB274">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC274">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6906768</v>
+        <v>6906770</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,76 +25029,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F276" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G276" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L276">
         <v>3.1</v>
       </c>
       <c r="M276">
+        <v>4.2</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276">
         <v>3.2</v>
       </c>
-      <c r="N276">
-        <v>2.6</v>
-      </c>
-      <c r="O276">
-        <v>2.9</v>
-      </c>
       <c r="P276">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T276">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB276">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25373,7 +25373,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6905872</v>
+        <v>6906390</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25385,73 +25385,73 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G280" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J280" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K280">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L280">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M280">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N280">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O280">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P280">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q280">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R280">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S280">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T280">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U280">
+        <v>1.75</v>
+      </c>
+      <c r="V280">
         <v>2.05</v>
       </c>
-      <c r="V280">
-        <v>1.8</v>
-      </c>
       <c r="W280">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z280">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB280">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AC280">
         <v>-1</v>
@@ -25462,7 +25462,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6906774</v>
+        <v>6905872</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25474,76 +25474,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F281" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G281" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281">
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K281">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L281">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M281">
         <v>3.4</v>
       </c>
       <c r="N281">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O281">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P281">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q281">
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T281">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V281">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA281">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC281">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6906390</v>
+        <v>6906772</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,76 +25563,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G282" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282" t="s">
+        <v>52</v>
+      </c>
+      <c r="K282">
+        <v>2.4</v>
+      </c>
+      <c r="L282">
         <v>3</v>
       </c>
-      <c r="J282" t="s">
-        <v>50</v>
-      </c>
-      <c r="K282">
-        <v>2.8</v>
-      </c>
-      <c r="L282">
+      <c r="M282">
         <v>3.2</v>
       </c>
-      <c r="M282">
-        <v>2.5</v>
-      </c>
       <c r="N282">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O282">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P282">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q282">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S282">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U282">
+        <v>1.975</v>
+      </c>
+      <c r="V282">
+        <v>1.875</v>
+      </c>
+      <c r="W282">
+        <v>-1</v>
+      </c>
+      <c r="X282">
         <v>1.75</v>
       </c>
-      <c r="V282">
-        <v>2.05</v>
-      </c>
-      <c r="W282">
-        <v>-1</v>
-      </c>
-      <c r="X282">
-        <v>-1</v>
-      </c>
       <c r="Y282">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AB282">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6906772</v>
+        <v>6906774</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,76 +25652,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F283" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K283">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L283">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M283">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N283">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O283">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P283">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q283">
         <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S283">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T283">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V283">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z283">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB283">
         <v>-1</v>
       </c>
       <c r="AC283">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25919,7 +25919,7 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F286" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G286" t="s">
         <v>34</v>
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6906779</v>
+        <v>6906780</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,76 +26097,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G288" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J288" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K288">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L288">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M288">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N288">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O288">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P288">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q288">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R288">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S288">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T288">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U288">
+        <v>2.05</v>
+      </c>
+      <c r="V288">
         <v>1.8</v>
       </c>
-      <c r="V288">
-        <v>2.05</v>
-      </c>
       <c r="W288">
         <v>-1</v>
       </c>
       <c r="X288">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC288">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26174,7 +26174,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6906777</v>
+        <v>6906779</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26186,76 +26186,76 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G289" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K289">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L289">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M289">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N289">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O289">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P289">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q289">
         <v>-0.25</v>
       </c>
       <c r="R289">
+        <v>2.025</v>
+      </c>
+      <c r="S289">
+        <v>1.825</v>
+      </c>
+      <c r="T289">
+        <v>2</v>
+      </c>
+      <c r="U289">
         <v>1.8</v>
       </c>
-      <c r="S289">
+      <c r="V289">
         <v>2.05</v>
       </c>
-      <c r="T289">
-        <v>1.75</v>
-      </c>
-      <c r="U289">
-        <v>1.825</v>
-      </c>
-      <c r="V289">
-        <v>2.025</v>
-      </c>
       <c r="W289">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB289">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26263,7 +26263,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6906780</v>
+        <v>6906777</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,73 +26275,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G290" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H290">
         <v>2</v>
       </c>
       <c r="I290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K290">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L290">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M290">
         <v>4.2</v>
       </c>
       <c r="N290">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O290">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P290">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S290">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T290">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U290">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V290">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA290">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26367,7 +26367,7 @@
         <v>34</v>
       </c>
       <c r="G291" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -26987,7 +26987,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G298" t="s">
         <v>44</v>
@@ -27613,7 +27613,7 @@
         <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -27788,7 +27788,7 @@
         <v>45383.3125</v>
       </c>
       <c r="F307" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G307" t="s">
         <v>30</v>
@@ -27824,10 +27824,10 @@
         <v>2</v>
       </c>
       <c r="U307">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V307">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>2</v>
       </c>
       <c r="U308">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V308">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27951,10 +27951,10 @@
         <v>5.25</v>
       </c>
       <c r="N309">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O309">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P309">
         <v>5.75</v>
@@ -27963,19 +27963,19 @@
         <v>-0.75</v>
       </c>
       <c r="R309">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S309">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U309">
+        <v>1.825</v>
+      </c>
+      <c r="V309">
         <v>2.025</v>
-      </c>
-      <c r="V309">
-        <v>1.825</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -28037,19 +28037,19 @@
         <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S310">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T310">
         <v>2</v>
       </c>
       <c r="U310">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V310">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28120,10 +28120,10 @@
         <v>2.5</v>
       </c>
       <c r="U311">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V311">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G312" t="s">
         <v>36</v>
@@ -28194,10 +28194,10 @@
         <v>2</v>
       </c>
       <c r="U312">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V312">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W312">
         <v>0</v>
@@ -28398,10 +28398,10 @@
         <v>1.533</v>
       </c>
       <c r="O315">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P315">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q315">
         <v>-1</v>
@@ -28481,10 +28481,10 @@
         <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S316">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T316">
         <v>2.5</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -12557,7 +12557,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6906694</v>
+        <v>6906697</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12569,49 +12569,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K136">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L136">
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N136">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P136">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U136">
         <v>2.05</v>
@@ -12623,22 +12623,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y136">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AB136">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6906697</v>
+        <v>6906696</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12658,10 +12658,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12673,61 +12673,61 @@
         <v>52</v>
       </c>
       <c r="K137">
+        <v>1.909</v>
+      </c>
+      <c r="L137">
+        <v>3.3</v>
+      </c>
+      <c r="M137">
+        <v>4.333</v>
+      </c>
+      <c r="N137">
         <v>1.95</v>
       </c>
-      <c r="L137">
-        <v>3.2</v>
-      </c>
-      <c r="M137">
+      <c r="O137">
+        <v>3.3</v>
+      </c>
+      <c r="P137">
         <v>4.2</v>
       </c>
-      <c r="N137">
+      <c r="Q137">
+        <v>-0.5</v>
+      </c>
+      <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
+        <v>1.85</v>
+      </c>
+      <c r="V137">
+        <v>2</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
         <v>2.3</v>
       </c>
-      <c r="O137">
-        <v>2.9</v>
-      </c>
-      <c r="P137">
-        <v>3.6</v>
-      </c>
-      <c r="Q137">
-        <v>-0.25</v>
-      </c>
-      <c r="R137">
-        <v>2</v>
-      </c>
-      <c r="S137">
-        <v>1.85</v>
-      </c>
-      <c r="T137">
-        <v>2</v>
-      </c>
-      <c r="U137">
-        <v>2.05</v>
-      </c>
-      <c r="V137">
-        <v>1.8</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>1.9</v>
-      </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB137">
         <v>-0.5</v>
       </c>
-      <c r="AA137">
-        <v>0.425</v>
-      </c>
-      <c r="AB137">
-        <v>0</v>
-      </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12735,7 +12735,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6906696</v>
+        <v>6906695</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12747,49 +12747,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U138">
         <v>1.85</v>
@@ -12798,25 +12798,25 @@
         <v>2</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6906695</v>
+        <v>6906427</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,58 +12836,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>51</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P139">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12896,16 +12896,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6906427</v>
+        <v>6906428</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,58 +12925,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>51</v>
       </c>
       <c r="K140">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O140">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12985,16 +12985,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
+        <v>0.5125</v>
+      </c>
+      <c r="AA140">
         <v>-0.5</v>
       </c>
-      <c r="AA140">
-        <v>0.4875</v>
-      </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6906428</v>
+        <v>6906694</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,73 +13014,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N141">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
         <v>2.025</v>
-      </c>
-      <c r="S141">
-        <v>1.825</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z141">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB141">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6906704</v>
+        <v>6906699</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,40 +13637,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>3</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
       <c r="J148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K148">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="N148">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P148">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
         <v>1.975</v>
@@ -13679,31 +13679,31 @@
         <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W148">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6906699</v>
+        <v>6906704</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,40 +13993,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="I152">
         <v>1</v>
       </c>
-      <c r="I152">
-        <v>3</v>
-      </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N152">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O152">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R152">
         <v>1.975</v>
@@ -14035,31 +14035,31 @@
         <v>1.875</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6906710</v>
+        <v>6906705</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,73 +14527,73 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N158">
+        <v>2.875</v>
+      </c>
+      <c r="O158">
+        <v>3</v>
+      </c>
+      <c r="P158">
+        <v>2.625</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>1.975</v>
+      </c>
+      <c r="S158">
+        <v>1.875</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
+        <v>2.05</v>
+      </c>
+      <c r="V158">
         <v>1.8</v>
       </c>
-      <c r="O158">
-        <v>3.6</v>
-      </c>
-      <c r="P158">
-        <v>4.75</v>
-      </c>
-      <c r="Q158">
-        <v>-0.75</v>
-      </c>
-      <c r="R158">
-        <v>2</v>
-      </c>
-      <c r="S158">
-        <v>1.85</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>2</v>
-      </c>
-      <c r="V158">
-        <v>1.85</v>
-      </c>
       <c r="W158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z158">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6906705</v>
+        <v>6906710</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,73 +14616,73 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159">
         <v>1</v>
       </c>
-      <c r="I159">
-        <v>2</v>
-      </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L159">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N159">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6906709</v>
+        <v>6905863</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,73 +15150,73 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
+        <v>3.3</v>
+      </c>
+      <c r="M165">
+        <v>3.6</v>
+      </c>
+      <c r="N165">
+        <v>2.2</v>
+      </c>
+      <c r="O165">
+        <v>3.2</v>
+      </c>
+      <c r="P165">
         <v>3.4</v>
       </c>
-      <c r="M165">
-        <v>3.4</v>
-      </c>
-      <c r="N165">
-        <v>1.909</v>
-      </c>
-      <c r="O165">
-        <v>3.6</v>
-      </c>
-      <c r="P165">
-        <v>4</v>
-      </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X165">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6905863</v>
+        <v>6906709</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,73 +15239,73 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K166">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
+        <v>3.4</v>
+      </c>
+      <c r="N166">
+        <v>1.909</v>
+      </c>
+      <c r="O166">
         <v>3.6</v>
       </c>
-      <c r="N166">
-        <v>2.2</v>
-      </c>
-      <c r="O166">
-        <v>3.2</v>
-      </c>
       <c r="P166">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
+        <v>1.875</v>
+      </c>
+      <c r="S166">
+        <v>1.975</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>1.95</v>
+      </c>
+      <c r="V166">
         <v>1.9</v>
       </c>
-      <c r="S166">
-        <v>1.95</v>
-      </c>
-      <c r="T166">
-        <v>2.25</v>
-      </c>
-      <c r="U166">
-        <v>2.05</v>
-      </c>
-      <c r="V166">
-        <v>1.75</v>
-      </c>
       <c r="W166">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7151365</v>
+        <v>6906716</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K168">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L168">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N168">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O168">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>2.125</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>2</v>
       </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z168">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6906716</v>
+        <v>7151365</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,76 +15773,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K172">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M172">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N172">
+        <v>2.55</v>
+      </c>
+      <c r="O172">
+        <v>2.9</v>
+      </c>
+      <c r="P172">
+        <v>3.1</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
         <v>1.75</v>
       </c>
-      <c r="O172">
-        <v>3.3</v>
-      </c>
-      <c r="P172">
-        <v>5.25</v>
-      </c>
-      <c r="Q172">
-        <v>-0.75</v>
-      </c>
-      <c r="R172">
+      <c r="S172">
+        <v>2.125</v>
+      </c>
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
         <v>2.025</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.825</v>
       </c>
-      <c r="T172">
-        <v>2</v>
-      </c>
-      <c r="U172">
-        <v>1.85</v>
-      </c>
-      <c r="V172">
-        <v>2</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6906720</v>
+        <v>6906719</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,58 +16218,58 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
+        <v>1.875</v>
+      </c>
+      <c r="S177">
         <v>1.975</v>
       </c>
-      <c r="S177">
-        <v>1.875</v>
-      </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>0.6000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16278,13 +16278,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6906718</v>
+        <v>6906720</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,13 +16307,13 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16322,43 +16322,43 @@
         <v>51</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L178">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N178">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P178">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.909</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16367,13 +16367,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6906719</v>
+        <v>6905864</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,46 +16396,46 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K179">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N179">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
         <v>2.25</v>
@@ -16447,19 +16447,19 @@
         <v>1.9</v>
       </c>
       <c r="W179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB179">
         <v>0.95</v>
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6905864</v>
+        <v>6906417</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,73 +16485,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>52</v>
       </c>
       <c r="K180">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M180">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N180">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O180">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R180">
+        <v>2.025</v>
+      </c>
+      <c r="S180">
         <v>1.825</v>
       </c>
-      <c r="S180">
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>1.825</v>
+      </c>
+      <c r="V180">
         <v>2.025</v>
       </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>1.95</v>
-      </c>
-      <c r="V180">
-        <v>1.9</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6906417</v>
+        <v>6906718</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,73 +16574,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M181">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X181">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16740,7 +16740,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6906418</v>
+        <v>6906721</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16752,49 +16752,49 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="L183">
+        <v>3.2</v>
+      </c>
+      <c r="M183">
         <v>3.8</v>
       </c>
-      <c r="M183">
-        <v>5.5</v>
-      </c>
       <c r="N183">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P183">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U183">
         <v>1.85</v>
@@ -16803,25 +16803,25 @@
         <v>2</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
         <v>1</v>
-      </c>
-      <c r="AB183">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC183">
-        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6906722</v>
+        <v>6906717</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,76 +16841,76 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K184">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L184">
+        <v>3.2</v>
+      </c>
+      <c r="M184">
+        <v>3.75</v>
+      </c>
+      <c r="N184">
+        <v>2.15</v>
+      </c>
+      <c r="O184">
         <v>2.9</v>
       </c>
-      <c r="M184">
-        <v>3</v>
-      </c>
-      <c r="N184">
-        <v>2.5</v>
-      </c>
-      <c r="O184">
-        <v>2.8</v>
-      </c>
       <c r="P184">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q184">
         <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y184">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AB184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6906721</v>
+        <v>6906722</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16930,76 +16930,76 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185" t="s">
+        <v>50</v>
+      </c>
+      <c r="K185">
+        <v>2.6</v>
+      </c>
+      <c r="L185">
+        <v>2.9</v>
+      </c>
+      <c r="M185">
+        <v>3</v>
+      </c>
+      <c r="N185">
+        <v>2.5</v>
+      </c>
+      <c r="O185">
+        <v>2.8</v>
+      </c>
+      <c r="P185">
+        <v>3.4</v>
+      </c>
+      <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>2.125</v>
+      </c>
+      <c r="S185">
+        <v>1.75</v>
+      </c>
+      <c r="T185">
+        <v>1.75</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
+        <v>1.85</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>2.4</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.75</v>
+      </c>
+      <c r="AB185">
         <v>1</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185" t="s">
-        <v>51</v>
-      </c>
-      <c r="K185">
-        <v>2.05</v>
-      </c>
-      <c r="L185">
-        <v>3.2</v>
-      </c>
-      <c r="M185">
-        <v>3.8</v>
-      </c>
-      <c r="N185">
-        <v>2</v>
-      </c>
-      <c r="O185">
-        <v>3.1</v>
-      </c>
-      <c r="P185">
-        <v>4.2</v>
-      </c>
-      <c r="Q185">
-        <v>-0.5</v>
-      </c>
-      <c r="R185">
-        <v>2.025</v>
-      </c>
-      <c r="S185">
-        <v>1.825</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>1.85</v>
-      </c>
-      <c r="V185">
-        <v>2</v>
-      </c>
-      <c r="W185">
-        <v>1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>-1</v>
-      </c>
-      <c r="Z185">
-        <v>1.025</v>
-      </c>
-      <c r="AA185">
-        <v>-1</v>
-      </c>
-      <c r="AB185">
-        <v>-1</v>
-      </c>
       <c r="AC185">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17007,7 +17007,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6906717</v>
+        <v>6906418</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,76 +17019,76 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K186">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M186">
+        <v>5.5</v>
+      </c>
+      <c r="N186">
+        <v>1.65</v>
+      </c>
+      <c r="O186">
         <v>3.75</v>
       </c>
-      <c r="N186">
-        <v>2.15</v>
-      </c>
-      <c r="O186">
-        <v>2.9</v>
-      </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC186">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7151362</v>
+        <v>6906733</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,46 +18354,46 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K201">
-        <v>2.25</v>
+        <v>1.952</v>
       </c>
       <c r="L201">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N201">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O201">
         <v>2.9</v>
       </c>
       <c r="P201">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T201">
         <v>2</v>
@@ -18405,25 +18405,25 @@
         <v>1.85</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6906733</v>
+        <v>7151362</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,46 +18443,46 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K202">
-        <v>1.952</v>
+        <v>2.25</v>
       </c>
       <c r="L202">
+        <v>3.1</v>
+      </c>
+      <c r="M202">
         <v>3.4</v>
       </c>
-      <c r="M202">
-        <v>3.8</v>
-      </c>
       <c r="N202">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O202">
         <v>2.9</v>
       </c>
       <c r="P202">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q202">
         <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S202">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T202">
         <v>2</v>
@@ -18494,25 +18494,25 @@
         <v>1.85</v>
       </c>
       <c r="W202">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z202">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18609,7 +18609,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6906731</v>
+        <v>6906730</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18621,49 +18621,49 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K204">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L204">
         <v>3.75</v>
       </c>
       <c r="M204">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N204">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="O204">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R204">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
         <v>1.975</v>
@@ -18672,25 +18672,25 @@
         <v>1.875</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X204">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA204">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18698,7 +18698,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6906730</v>
+        <v>6906412</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18710,58 +18710,58 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
         <v>51</v>
       </c>
       <c r="K205">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M205">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N205">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.5329999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18770,16 +18770,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC205">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6906412</v>
+        <v>6906731</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,76 +18799,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H206">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K206">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="N206">
+        <v>1.65</v>
+      </c>
+      <c r="O206">
+        <v>3.75</v>
+      </c>
+      <c r="P206">
+        <v>5.5</v>
+      </c>
+      <c r="Q206">
+        <v>-0.75</v>
+      </c>
+      <c r="R206">
         <v>1.85</v>
       </c>
-      <c r="O206">
-        <v>3.4</v>
-      </c>
-      <c r="P206">
-        <v>4.333</v>
-      </c>
-      <c r="Q206">
-        <v>-0.5</v>
-      </c>
-      <c r="R206">
-        <v>1.875</v>
-      </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB206">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19410,7 +19410,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6906410</v>
+        <v>6906736</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19422,73 +19422,73 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F213" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K213">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N213">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA213">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6906735</v>
+        <v>6906410</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,73 +19511,73 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K214">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M214">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N214">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB214">
         <v>0.925</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>0.875</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6906736</v>
+        <v>6906735</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H215">
         <v>4</v>
@@ -19615,43 +19615,43 @@
         <v>51</v>
       </c>
       <c r="K215">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N215">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P215">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T215">
         <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19660,13 +19660,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19855,7 +19855,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6905868</v>
+        <v>6906742</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19867,55 +19867,55 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
         <v>50</v>
       </c>
       <c r="K218">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L218">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M218">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N218">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P218">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T218">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U218">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W218">
         <v>-1</v>
@@ -19924,19 +19924,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19944,7 +19944,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6906743</v>
+        <v>6906740</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19956,13 +19956,13 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -19971,43 +19971,43 @@
         <v>51</v>
       </c>
       <c r="K219">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L219">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M219">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N219">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="O219">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q219">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>0.571</v>
+        <v>2.75</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20016,16 +20016,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA219">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20033,7 +20033,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6906740</v>
+        <v>6905868</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20045,76 +20045,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K220">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N220">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB220">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20122,7 +20122,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6906742</v>
+        <v>6906743</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20134,76 +20134,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K221">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L221">
+        <v>3.8</v>
+      </c>
+      <c r="M221">
+        <v>4.75</v>
+      </c>
+      <c r="N221">
+        <v>1.571</v>
+      </c>
+      <c r="O221">
+        <v>4.2</v>
+      </c>
+      <c r="P221">
+        <v>5.75</v>
+      </c>
+      <c r="Q221">
+        <v>-1</v>
+      </c>
+      <c r="R221">
+        <v>2.025</v>
+      </c>
+      <c r="S221">
+        <v>1.825</v>
+      </c>
+      <c r="T221">
         <v>3</v>
       </c>
-      <c r="M221">
-        <v>3</v>
-      </c>
-      <c r="N221">
-        <v>2.55</v>
-      </c>
-      <c r="O221">
-        <v>2.9</v>
-      </c>
-      <c r="P221">
-        <v>3.2</v>
-      </c>
-      <c r="Q221">
-        <v>-0.25</v>
-      </c>
-      <c r="R221">
-        <v>2.125</v>
-      </c>
-      <c r="S221">
-        <v>1.75</v>
-      </c>
-      <c r="T221">
-        <v>1.75</v>
-      </c>
       <c r="U221">
+        <v>2.025</v>
+      </c>
+      <c r="V221">
         <v>1.825</v>
       </c>
-      <c r="V221">
-        <v>2.025</v>
-      </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6906762</v>
+        <v>6906761</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,76 +23516,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K259">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="L259">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M259">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N259">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O259">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="P259">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R259">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="S259">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T259">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V259">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y259">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC259">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23593,7 +23593,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6906761</v>
+        <v>6906762</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23605,76 +23605,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G260" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K260">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="L260">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M260">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N260">
+        <v>2.55</v>
+      </c>
+      <c r="O260">
+        <v>2.875</v>
+      </c>
+      <c r="P260">
+        <v>3.1</v>
+      </c>
+      <c r="Q260">
+        <v>-0.25</v>
+      </c>
+      <c r="R260">
+        <v>2.125</v>
+      </c>
+      <c r="S260">
+        <v>1.75</v>
+      </c>
+      <c r="T260">
+        <v>2</v>
+      </c>
+      <c r="U260">
+        <v>2</v>
+      </c>
+      <c r="V260">
         <v>1.85</v>
       </c>
-      <c r="O260">
-        <v>3.75</v>
-      </c>
-      <c r="P260">
-        <v>4</v>
-      </c>
-      <c r="Q260">
-        <v>-0.5</v>
-      </c>
-      <c r="R260">
-        <v>1.9</v>
-      </c>
-      <c r="S260">
-        <v>1.95</v>
-      </c>
-      <c r="T260">
-        <v>2.75</v>
-      </c>
-      <c r="U260">
-        <v>1.925</v>
-      </c>
-      <c r="V260">
-        <v>1.925</v>
-      </c>
       <c r="W260">
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z260">
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB260">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -24572,7 +24572,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6906766</v>
+        <v>6906393</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24584,13 +24584,13 @@
         <v>45349.6875</v>
       </c>
       <c r="F271" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G271" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271">
         <v>3</v>
@@ -24599,40 +24599,40 @@
         <v>50</v>
       </c>
       <c r="K271">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L271">
         <v>3.8</v>
       </c>
       <c r="M271">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N271">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O271">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P271">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q271">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
+        <v>1.8</v>
+      </c>
+      <c r="S271">
         <v>2.05</v>
       </c>
-      <c r="S271">
-        <v>1.8</v>
-      </c>
       <c r="T271">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U271">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V271">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W271">
         <v>-1</v>
@@ -24641,16 +24641,16 @@
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="Z271">
         <v>-1</v>
       </c>
       <c r="AA271">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB271">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24661,7 +24661,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6906393</v>
+        <v>6906766</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24673,13 +24673,13 @@
         <v>45349.6875</v>
       </c>
       <c r="F272" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G272" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
         <v>3</v>
@@ -24688,40 +24688,40 @@
         <v>50</v>
       </c>
       <c r="K272">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L272">
         <v>3.8</v>
       </c>
       <c r="M272">
+        <v>4.5</v>
+      </c>
+      <c r="N272">
+        <v>1.5</v>
+      </c>
+      <c r="O272">
+        <v>4.5</v>
+      </c>
+      <c r="P272">
+        <v>6</v>
+      </c>
+      <c r="Q272">
+        <v>-1.25</v>
+      </c>
+      <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
         <v>1.8</v>
       </c>
-      <c r="N272">
-        <v>3.75</v>
-      </c>
-      <c r="O272">
-        <v>3.4</v>
-      </c>
-      <c r="P272">
-        <v>2.05</v>
-      </c>
-      <c r="Q272">
-        <v>0.5</v>
-      </c>
-      <c r="R272">
-        <v>1.8</v>
-      </c>
-      <c r="S272">
-        <v>2.05</v>
-      </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U272">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V272">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W272">
         <v>-1</v>
@@ -24730,16 +24730,16 @@
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="Z272">
         <v>-1</v>
       </c>
       <c r="AA272">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB272">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -24839,7 +24839,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6906770</v>
+        <v>6906768</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24851,76 +24851,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F274" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G274" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274">
         <v>2</v>
       </c>
       <c r="J274" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K274">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L274">
         <v>3.1</v>
       </c>
       <c r="M274">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N274">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O274">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P274">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q274">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R274">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S274">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T274">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U274">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V274">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W274">
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y274">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA274">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB274">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC274">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6906771</v>
+        <v>6906770</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,76 +24940,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F275" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G275" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K275">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L275">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M275">
         <v>4.2</v>
       </c>
       <c r="N275">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O275">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P275">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q275">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S275">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T275">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U275">
+        <v>1.825</v>
+      </c>
+      <c r="V275">
         <v>2.025</v>
       </c>
-      <c r="V275">
-        <v>1.825</v>
-      </c>
       <c r="W275">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z275">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC275">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6906768</v>
+        <v>6906771</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,76 +25029,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G276" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H276">
         <v>2</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L276">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M276">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N276">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O276">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P276">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R276">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S276">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T276">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X276">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6906772</v>
+        <v>6906773</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,61 +25563,61 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G282" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
         <v>52</v>
       </c>
       <c r="K282">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L282">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M282">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N282">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O282">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P282">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V282">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y282">
         <v>-1</v>
@@ -25626,13 +25626,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>0.425</v>
+        <v>0.5125</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC282">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6906773</v>
+        <v>6906772</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,61 +25652,61 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F283" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G283" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="s">
         <v>52</v>
       </c>
       <c r="K283">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
         <v>3.2</v>
       </c>
-      <c r="M283">
-        <v>3.3</v>
-      </c>
       <c r="N283">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O283">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P283">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q283">
         <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S283">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T283">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U283">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V283">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="Y283">
         <v>-1</v>
@@ -25715,13 +25715,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA283">
-        <v>0.5125</v>
+        <v>0.425</v>
       </c>
       <c r="AB283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -27153,7 +27153,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6906782</v>
+        <v>6906784</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27165,58 +27165,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G300" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
         <v>51</v>
       </c>
       <c r="K300">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L300">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M300">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N300">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O300">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P300">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R300">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S300">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T300">
         <v>2.25</v>
       </c>
       <c r="U300">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V300">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W300">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27225,16 +27225,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27242,7 +27242,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6906784</v>
+        <v>6906782</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27254,58 +27254,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G301" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H301">
+        <v>3</v>
+      </c>
+      <c r="I301">
         <v>1</v>
-      </c>
-      <c r="I301">
-        <v>0</v>
       </c>
       <c r="J301" t="s">
         <v>51</v>
       </c>
       <c r="K301">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L301">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M301">
+        <v>3.5</v>
+      </c>
+      <c r="N301">
+        <v>2.1</v>
+      </c>
+      <c r="O301">
         <v>3</v>
       </c>
-      <c r="N301">
-        <v>2.3</v>
-      </c>
-      <c r="O301">
-        <v>3.1</v>
-      </c>
       <c r="P301">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R301">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S301">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T301">
         <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V301">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W301">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X301">
         <v>-1</v>
@@ -27314,16 +27314,16 @@
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA301">
         <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC301">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7093331</v>
+        <v>7083241</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,76 +28055,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G310" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K310">
         <v>1.8</v>
       </c>
       <c r="L310">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M310">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N310">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O310">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P310">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q310">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S310">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V310">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X310">
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA310">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC310">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28132,7 +28132,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7083241</v>
+        <v>7093331</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28144,76 +28144,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F311" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J311" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K311">
         <v>1.8</v>
       </c>
       <c r="L311">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M311">
+        <v>4.5</v>
+      </c>
+      <c r="N311">
+        <v>1.6</v>
+      </c>
+      <c r="O311">
+        <v>4</v>
+      </c>
+      <c r="P311">
+        <v>5.75</v>
+      </c>
+      <c r="Q311">
+        <v>-1</v>
+      </c>
+      <c r="R311">
+        <v>2.025</v>
+      </c>
+      <c r="S311">
+        <v>1.825</v>
+      </c>
+      <c r="T311">
+        <v>2.75</v>
+      </c>
+      <c r="U311">
+        <v>1.825</v>
+      </c>
+      <c r="V311">
+        <v>2.025</v>
+      </c>
+      <c r="W311">
+        <v>-1</v>
+      </c>
+      <c r="X311">
+        <v>-1</v>
+      </c>
+      <c r="Y311">
         <v>4.75</v>
       </c>
-      <c r="N311">
-        <v>1.65</v>
-      </c>
-      <c r="O311">
-        <v>3.4</v>
-      </c>
-      <c r="P311">
-        <v>6.5</v>
-      </c>
-      <c r="Q311">
-        <v>-0.75</v>
-      </c>
-      <c r="R311">
-        <v>1.875</v>
-      </c>
-      <c r="S311">
-        <v>1.975</v>
-      </c>
-      <c r="T311">
-        <v>2</v>
-      </c>
-      <c r="U311">
-        <v>1.925</v>
-      </c>
-      <c r="V311">
-        <v>1.925</v>
-      </c>
-      <c r="W311">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X311">
-        <v>-1</v>
-      </c>
-      <c r="Y311">
-        <v>-1</v>
-      </c>
       <c r="Z311">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28221,7 +28221,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7093333</v>
+        <v>7097548</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28233,73 +28233,73 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G312" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H312">
         <v>2</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J312" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K312">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L312">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M312">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N312">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O312">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P312">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q312">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R312">
+        <v>2.05</v>
+      </c>
+      <c r="S312">
+        <v>1.8</v>
+      </c>
+      <c r="T312">
+        <v>2.5</v>
+      </c>
+      <c r="U312">
         <v>1.925</v>
       </c>
-      <c r="S312">
+      <c r="V312">
         <v>1.925</v>
       </c>
-      <c r="T312">
-        <v>2</v>
-      </c>
-      <c r="U312">
-        <v>2</v>
-      </c>
-      <c r="V312">
-        <v>1.85</v>
-      </c>
       <c r="W312">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z312">
+        <v>-1</v>
+      </c>
+      <c r="AA312">
+        <v>0.8</v>
+      </c>
+      <c r="AB312">
         <v>0.925</v>
-      </c>
-      <c r="AA312">
-        <v>-1</v>
-      </c>
-      <c r="AB312">
-        <v>1</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28310,7 +28310,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7151351</v>
+        <v>7093333</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28322,73 +28322,73 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G313" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H313">
+        <v>2</v>
+      </c>
+      <c r="I313">
         <v>1</v>
       </c>
-      <c r="I313">
-        <v>2</v>
-      </c>
       <c r="J313" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K313">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L313">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M313">
         <v>3.4</v>
       </c>
       <c r="N313">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O313">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P313">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q313">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R313">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S313">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T313">
         <v>2</v>
       </c>
       <c r="U313">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V313">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W313">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA313">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB313">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC313">
         <v>-1</v>
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7097548</v>
+        <v>7151351</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,55 +28411,55 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G314" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
         <v>50</v>
       </c>
       <c r="K314">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L314">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M314">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N314">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O314">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P314">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q314">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S314">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U314">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V314">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W314">
         <v>-1</v>
@@ -28468,16 +28468,16 @@
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z314">
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB314">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC314">
         <v>-1</v>
@@ -28705,10 +28705,10 @@
         <v>0.25</v>
       </c>
       <c r="R317">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S317">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T317">
         <v>2.25</v>
@@ -28788,10 +28788,10 @@
         <v>2.25</v>
       </c>
       <c r="U318">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V318">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28862,10 +28862,10 @@
         <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V319">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28888,7 +28888,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7151350</v>
+        <v>7129415</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28900,46 +28900,46 @@
         <v>45388.375</v>
       </c>
       <c r="F320" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G320" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K320">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="L320">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M320">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N320">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O320">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P320">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q320">
         <v>0</v>
       </c>
       <c r="R320">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S320">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T320">
         <v>2.25</v>
       </c>
       <c r="U320">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V320">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7129415</v>
+        <v>7151350</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -28974,46 +28974,46 @@
         <v>45388.375</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G321" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K321">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="L321">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M321">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N321">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="O321">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P321">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q321">
         <v>0</v>
       </c>
       <c r="R321">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T321">
         <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V321">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29063,31 +29063,31 @@
         <v>4.75</v>
       </c>
       <c r="N322">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O322">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P322">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q322">
         <v>-0.75</v>
       </c>
       <c r="R322">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S322">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T322">
         <v>2.5</v>
       </c>
       <c r="U322">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V322">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29232,10 +29232,10 @@
         <v>2.25</v>
       </c>
       <c r="U324">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V324">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W324">
         <v>0</v>
@@ -29285,31 +29285,31 @@
         <v>3.6</v>
       </c>
       <c r="N325">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O325">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P325">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q325">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R325">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S325">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T325">
         <v>2.75</v>
       </c>
       <c r="U325">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V325">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29371,19 +29371,19 @@
         <v>0.25</v>
       </c>
       <c r="R326">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S326">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V326">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W326">
         <v>0</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC326"/>
+  <dimension ref="A1:AC327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12557,7 +12557,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6906697</v>
+        <v>6906694</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12569,49 +12569,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K136">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L136">
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O136">
+        <v>3</v>
+      </c>
+      <c r="P136">
         <v>2.9</v>
       </c>
-      <c r="P136">
-        <v>3.6</v>
-      </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
         <v>2.05</v>
@@ -12623,22 +12623,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
         <v>1.9</v>
       </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6906696</v>
+        <v>6906697</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12658,10 +12658,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12673,61 +12673,61 @@
         <v>52</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N137">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O137">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P137">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>2.05</v>
+      </c>
+      <c r="V137">
+        <v>1.8</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>1.9</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>-0.5</v>
       </c>
-      <c r="R137">
-        <v>1.95</v>
-      </c>
-      <c r="S137">
-        <v>1.9</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.85</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>2.3</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12735,7 +12735,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6906695</v>
+        <v>6906696</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12747,49 +12747,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N138">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O138">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
         <v>1.85</v>
@@ -12798,25 +12798,25 @@
         <v>2</v>
       </c>
       <c r="W138">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12824,7 +12824,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6906427</v>
+        <v>6906695</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12836,58 +12836,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
         <v>1</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>51</v>
       </c>
       <c r="K139">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12896,16 +12896,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12913,7 +12913,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6906428</v>
+        <v>6906427</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12925,58 +12925,58 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>51</v>
       </c>
       <c r="K140">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N140">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>0.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12985,16 +12985,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6906694</v>
+        <v>6906428</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,73 +13014,73 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N141">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
+        <v>2.025</v>
+      </c>
+      <c r="S141">
         <v>1.825</v>
-      </c>
-      <c r="S141">
-        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6906699</v>
+        <v>6906704</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,40 +13637,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
         <v>1</v>
       </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K148">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N148">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O148">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
         <v>1.975</v>
@@ -13679,31 +13679,31 @@
         <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6906704</v>
+        <v>6906699</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,40 +13993,40 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>3</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="N152">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P152">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
         <v>1.975</v>
@@ -14035,31 +14035,31 @@
         <v>1.875</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB152">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6906705</v>
+        <v>6906710</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,73 +14527,73 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
         <v>1</v>
       </c>
-      <c r="I158">
-        <v>2</v>
-      </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K158">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6906710</v>
+        <v>6906705</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,73 +14616,73 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K159">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M159">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N159">
+        <v>2.875</v>
+      </c>
+      <c r="O159">
+        <v>3</v>
+      </c>
+      <c r="P159">
+        <v>2.625</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
+        <v>1.875</v>
+      </c>
+      <c r="T159">
+        <v>2.25</v>
+      </c>
+      <c r="U159">
+        <v>2.05</v>
+      </c>
+      <c r="V159">
         <v>1.8</v>
       </c>
-      <c r="O159">
-        <v>3.6</v>
-      </c>
-      <c r="P159">
-        <v>4.75</v>
-      </c>
-      <c r="Q159">
-        <v>-0.75</v>
-      </c>
-      <c r="R159">
-        <v>2</v>
-      </c>
-      <c r="S159">
-        <v>1.85</v>
-      </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>2</v>
-      </c>
-      <c r="V159">
-        <v>1.85</v>
-      </c>
       <c r="W159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z159">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB159">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6905863</v>
+        <v>6906709</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,73 +15150,73 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K165">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L165">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
+        <v>3.4</v>
+      </c>
+      <c r="N165">
+        <v>1.909</v>
+      </c>
+      <c r="O165">
         <v>3.6</v>
       </c>
-      <c r="N165">
-        <v>2.2</v>
-      </c>
-      <c r="O165">
-        <v>3.2</v>
-      </c>
       <c r="P165">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
+        <v>1.975</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
+        <v>1.95</v>
+      </c>
+      <c r="V165">
         <v>1.9</v>
       </c>
-      <c r="S165">
-        <v>1.95</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>2.05</v>
-      </c>
-      <c r="V165">
-        <v>1.75</v>
-      </c>
       <c r="W165">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6906709</v>
+        <v>6905863</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,73 +15239,73 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L166">
+        <v>3.3</v>
+      </c>
+      <c r="M166">
+        <v>3.6</v>
+      </c>
+      <c r="N166">
+        <v>2.2</v>
+      </c>
+      <c r="O166">
+        <v>3.2</v>
+      </c>
+      <c r="P166">
         <v>3.4</v>
       </c>
-      <c r="M166">
-        <v>3.4</v>
-      </c>
-      <c r="N166">
-        <v>1.909</v>
-      </c>
-      <c r="O166">
-        <v>3.6</v>
-      </c>
-      <c r="P166">
-        <v>4</v>
-      </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X166">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6906716</v>
+        <v>7151365</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K168">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M168">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N168">
+        <v>2.55</v>
+      </c>
+      <c r="O168">
+        <v>2.9</v>
+      </c>
+      <c r="P168">
+        <v>3.1</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
         <v>1.75</v>
       </c>
-      <c r="O168">
-        <v>3.3</v>
-      </c>
-      <c r="P168">
-        <v>5.25</v>
-      </c>
-      <c r="Q168">
-        <v>-0.75</v>
-      </c>
-      <c r="R168">
+      <c r="S168">
+        <v>2.125</v>
+      </c>
+      <c r="T168">
+        <v>2</v>
+      </c>
+      <c r="U168">
         <v>2.025</v>
       </c>
-      <c r="S168">
+      <c r="V168">
         <v>1.825</v>
       </c>
-      <c r="T168">
-        <v>2</v>
-      </c>
-      <c r="U168">
-        <v>1.85</v>
-      </c>
-      <c r="V168">
-        <v>2</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7151365</v>
+        <v>6906716</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15773,76 +15773,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L172">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N172">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O172">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P172">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>2.125</v>
+        <v>1.825</v>
       </c>
       <c r="T172">
         <v>2</v>
       </c>
       <c r="U172">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W172">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z172">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6906719</v>
+        <v>6906720</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,58 +16218,58 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N177">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R177">
+        <v>1.975</v>
+      </c>
+      <c r="S177">
         <v>1.875</v>
       </c>
-      <c r="S177">
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
         <v>1.975</v>
       </c>
-      <c r="T177">
-        <v>2.25</v>
-      </c>
-      <c r="U177">
-        <v>1.95</v>
-      </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.8500000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16278,13 +16278,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6906720</v>
+        <v>6906718</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,13 +16307,13 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16322,43 +16322,43 @@
         <v>51</v>
       </c>
       <c r="K178">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M178">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N178">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O178">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>0.6000000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16367,13 +16367,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6905864</v>
+        <v>6906719</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,46 +16396,46 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N179">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P179">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
         <v>2.25</v>
@@ -16447,19 +16447,19 @@
         <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X179">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA179">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
         <v>0.95</v>
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6906417</v>
+        <v>6905864</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,73 +16485,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
         <v>52</v>
       </c>
       <c r="K180">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N180">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P180">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
         <v>2.025</v>
       </c>
-      <c r="S180">
-        <v>1.825</v>
-      </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6906718</v>
+        <v>6906417</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,73 +16574,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181" t="s">
+        <v>52</v>
+      </c>
+      <c r="K181">
+        <v>1.533</v>
+      </c>
+      <c r="L181">
         <v>4</v>
       </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
-      <c r="J181" t="s">
-        <v>51</v>
-      </c>
-      <c r="K181">
-        <v>2.4</v>
-      </c>
-      <c r="L181">
-        <v>3.1</v>
-      </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N181">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16740,7 +16740,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6906721</v>
+        <v>6906418</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16752,49 +16752,49 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K183">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L183">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M183">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="N183">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O183">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
         <v>1.85</v>
@@ -16803,25 +16803,25 @@
         <v>2</v>
       </c>
       <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>4.75</v>
+      </c>
+      <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
         <v>1</v>
       </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
-      <c r="Y183">
-        <v>-1</v>
-      </c>
-      <c r="Z183">
-        <v>1.025</v>
-      </c>
-      <c r="AA183">
-        <v>-1</v>
-      </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC183">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6906717</v>
+        <v>6906722</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16841,76 +16841,76 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K184">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L184">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M184">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N184">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O184">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P184">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q184">
         <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.4875</v>
+        <v>0.75</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6906722</v>
+        <v>6906721</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16930,76 +16930,76 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K185">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L185">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N185">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O185">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P185">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
         <v>1</v>
-      </c>
-      <c r="AC185">
-        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17007,7 +17007,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6906418</v>
+        <v>6906717</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,76 +17019,76 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K186">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="L186">
+        <v>3.2</v>
+      </c>
+      <c r="M186">
+        <v>3.75</v>
+      </c>
+      <c r="N186">
+        <v>2.15</v>
+      </c>
+      <c r="O186">
+        <v>2.9</v>
+      </c>
+      <c r="P186">
         <v>3.8</v>
       </c>
-      <c r="M186">
-        <v>5.5</v>
-      </c>
-      <c r="N186">
-        <v>1.65</v>
-      </c>
-      <c r="O186">
-        <v>3.75</v>
-      </c>
-      <c r="P186">
-        <v>5.75</v>
-      </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y186">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6906733</v>
+        <v>7151362</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,46 +18354,46 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
-        <v>1.952</v>
+        <v>2.25</v>
       </c>
       <c r="L201">
+        <v>3.1</v>
+      </c>
+      <c r="M201">
         <v>3.4</v>
       </c>
-      <c r="M201">
-        <v>3.8</v>
-      </c>
       <c r="N201">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O201">
         <v>2.9</v>
       </c>
       <c r="P201">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S201">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T201">
         <v>2</v>
@@ -18405,25 +18405,25 @@
         <v>1.85</v>
       </c>
       <c r="W201">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z201">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7151362</v>
+        <v>6906733</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,46 +18443,46 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K202">
-        <v>2.25</v>
+        <v>1.952</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N202">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O202">
         <v>2.9</v>
       </c>
       <c r="P202">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q202">
         <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T202">
         <v>2</v>
@@ -18494,25 +18494,25 @@
         <v>1.85</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18609,7 +18609,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6906730</v>
+        <v>6906731</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18621,49 +18621,49 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K204">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L204">
         <v>3.75</v>
       </c>
       <c r="M204">
+        <v>6</v>
+      </c>
+      <c r="N204">
+        <v>1.65</v>
+      </c>
+      <c r="O204">
+        <v>3.75</v>
+      </c>
+      <c r="P204">
         <v>5.5</v>
       </c>
-      <c r="N204">
-        <v>1.533</v>
-      </c>
-      <c r="O204">
-        <v>4</v>
-      </c>
-      <c r="P204">
-        <v>6.5</v>
-      </c>
       <c r="Q204">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
         <v>1.975</v>
@@ -18672,25 +18672,25 @@
         <v>1.875</v>
       </c>
       <c r="W204">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC204">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18698,7 +18698,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6906412</v>
+        <v>6906730</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18710,58 +18710,58 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H205">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>51</v>
       </c>
       <c r="K205">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L205">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N205">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R205">
+        <v>1.925</v>
+      </c>
+      <c r="S205">
+        <v>1.925</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>1.975</v>
+      </c>
+      <c r="V205">
         <v>1.875</v>
       </c>
-      <c r="S205">
-        <v>1.975</v>
-      </c>
-      <c r="T205">
-        <v>2.25</v>
-      </c>
-      <c r="U205">
-        <v>1.9</v>
-      </c>
-      <c r="V205">
-        <v>1.95</v>
-      </c>
       <c r="W205">
-        <v>0.8500000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18770,16 +18770,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>-0</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
         <v>0.875</v>
-      </c>
-      <c r="AA205">
-        <v>-1</v>
-      </c>
-      <c r="AB205">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC205">
-        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6906731</v>
+        <v>6906412</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,76 +18799,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K206">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N206">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X206">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC206">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19410,7 +19410,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6906736</v>
+        <v>6906410</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19422,73 +19422,73 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K213">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M213">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N213">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB213">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6906410</v>
+        <v>6906735</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,73 +19511,73 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F214" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G214" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K214">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N214">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T214">
         <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6906735</v>
+        <v>6906736</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H215">
         <v>4</v>
@@ -19615,43 +19615,43 @@
         <v>51</v>
       </c>
       <c r="K215">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215">
         <v>3.4</v>
       </c>
-      <c r="O215">
-        <v>3.2</v>
-      </c>
       <c r="P215">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S215">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
         <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W215">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19660,13 +19660,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19855,7 +19855,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6906742</v>
+        <v>6905868</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19867,55 +19867,55 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
         <v>50</v>
       </c>
       <c r="K218">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="L218">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N218">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="O218">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T218">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V218">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W218">
         <v>-1</v>
@@ -19924,19 +19924,19 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC218">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19944,7 +19944,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6906740</v>
+        <v>6906743</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19956,13 +19956,13 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -19971,43 +19971,43 @@
         <v>51</v>
       </c>
       <c r="K219">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M219">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N219">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P219">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R219">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U219">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
-        <v>2.75</v>
+        <v>0.571</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20016,16 +20016,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB219">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20033,7 +20033,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6905868</v>
+        <v>6906740</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20045,76 +20045,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K220">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L220">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M220">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N220">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S220">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA220">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC220">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20122,7 +20122,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6906743</v>
+        <v>6906742</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20134,76 +20134,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
         <v>1</v>
       </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
       <c r="J221" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K221">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L221">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N221">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="O221">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P221">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
+        <v>2.125</v>
+      </c>
+      <c r="S221">
+        <v>1.75</v>
+      </c>
+      <c r="T221">
+        <v>1.75</v>
+      </c>
+      <c r="U221">
+        <v>1.825</v>
+      </c>
+      <c r="V221">
         <v>2.025</v>
       </c>
-      <c r="S221">
-        <v>1.825</v>
-      </c>
-      <c r="T221">
-        <v>3</v>
-      </c>
-      <c r="U221">
-        <v>2.025</v>
-      </c>
-      <c r="V221">
-        <v>1.825</v>
-      </c>
       <c r="W221">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6906761</v>
+        <v>6906762</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,76 +23516,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G259" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K259">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="L259">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M259">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N259">
+        <v>2.55</v>
+      </c>
+      <c r="O259">
+        <v>2.875</v>
+      </c>
+      <c r="P259">
+        <v>3.1</v>
+      </c>
+      <c r="Q259">
+        <v>-0.25</v>
+      </c>
+      <c r="R259">
+        <v>2.125</v>
+      </c>
+      <c r="S259">
+        <v>1.75</v>
+      </c>
+      <c r="T259">
+        <v>2</v>
+      </c>
+      <c r="U259">
+        <v>2</v>
+      </c>
+      <c r="V259">
         <v>1.85</v>
       </c>
-      <c r="O259">
-        <v>3.75</v>
-      </c>
-      <c r="P259">
-        <v>4</v>
-      </c>
-      <c r="Q259">
-        <v>-0.5</v>
-      </c>
-      <c r="R259">
-        <v>1.9</v>
-      </c>
-      <c r="S259">
-        <v>1.95</v>
-      </c>
-      <c r="T259">
-        <v>2.75</v>
-      </c>
-      <c r="U259">
-        <v>1.925</v>
-      </c>
-      <c r="V259">
-        <v>1.925</v>
-      </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB259">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23593,7 +23593,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6906762</v>
+        <v>6906761</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23605,76 +23605,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G260" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K260">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="L260">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M260">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N260">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O260">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="P260">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R260">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="S260">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T260">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V260">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W260">
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y260">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC260">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -24572,7 +24572,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6906393</v>
+        <v>6906766</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24584,13 +24584,13 @@
         <v>45349.6875</v>
       </c>
       <c r="F271" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G271" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
         <v>3</v>
@@ -24599,40 +24599,40 @@
         <v>50</v>
       </c>
       <c r="K271">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="L271">
         <v>3.8</v>
       </c>
       <c r="M271">
+        <v>4.5</v>
+      </c>
+      <c r="N271">
+        <v>1.5</v>
+      </c>
+      <c r="O271">
+        <v>4.5</v>
+      </c>
+      <c r="P271">
+        <v>6</v>
+      </c>
+      <c r="Q271">
+        <v>-1.25</v>
+      </c>
+      <c r="R271">
+        <v>2.05</v>
+      </c>
+      <c r="S271">
         <v>1.8</v>
       </c>
-      <c r="N271">
-        <v>3.75</v>
-      </c>
-      <c r="O271">
-        <v>3.4</v>
-      </c>
-      <c r="P271">
-        <v>2.05</v>
-      </c>
-      <c r="Q271">
-        <v>0.5</v>
-      </c>
-      <c r="R271">
-        <v>1.8</v>
-      </c>
-      <c r="S271">
-        <v>2.05</v>
-      </c>
       <c r="T271">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V271">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W271">
         <v>-1</v>
@@ -24641,16 +24641,16 @@
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="Z271">
         <v>-1</v>
       </c>
       <c r="AA271">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB271">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24661,7 +24661,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6906766</v>
+        <v>6906393</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24673,13 +24673,13 @@
         <v>45349.6875</v>
       </c>
       <c r="F272" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G272" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272">
         <v>3</v>
@@ -24688,40 +24688,40 @@
         <v>50</v>
       </c>
       <c r="K272">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L272">
         <v>3.8</v>
       </c>
       <c r="M272">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N272">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="O272">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P272">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q272">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R272">
+        <v>1.8</v>
+      </c>
+      <c r="S272">
         <v>2.05</v>
       </c>
-      <c r="S272">
-        <v>1.8</v>
-      </c>
       <c r="T272">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V272">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W272">
         <v>-1</v>
@@ -24730,16 +24730,16 @@
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="Z272">
         <v>-1</v>
       </c>
       <c r="AA272">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB272">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -24839,7 +24839,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6906768</v>
+        <v>6906770</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24851,76 +24851,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F274" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G274" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274">
         <v>2</v>
       </c>
       <c r="J274" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K274">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L274">
         <v>3.1</v>
       </c>
       <c r="M274">
+        <v>4.2</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274">
         <v>3.2</v>
       </c>
-      <c r="N274">
-        <v>2.6</v>
-      </c>
-      <c r="O274">
-        <v>2.9</v>
-      </c>
       <c r="P274">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q274">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S274">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T274">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U274">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V274">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W274">
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z274">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA274">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB274">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6906770</v>
+        <v>6906771</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,76 +24940,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F275" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K275">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L275">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M275">
         <v>4.2</v>
       </c>
       <c r="N275">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O275">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P275">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q275">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R275">
+        <v>1.9</v>
+      </c>
+      <c r="S275">
+        <v>1.95</v>
+      </c>
+      <c r="T275">
+        <v>2.5</v>
+      </c>
+      <c r="U275">
         <v>2.025</v>
       </c>
-      <c r="S275">
+      <c r="V275">
         <v>1.825</v>
       </c>
-      <c r="T275">
-        <v>2.25</v>
-      </c>
-      <c r="U275">
-        <v>1.825</v>
-      </c>
-      <c r="V275">
-        <v>2.025</v>
-      </c>
       <c r="W275">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X275">
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA275">
+        <v>-1</v>
+      </c>
+      <c r="AB275">
+        <v>-1</v>
+      </c>
+      <c r="AC275">
         <v>0.825</v>
-      </c>
-      <c r="AB275">
-        <v>-0.5</v>
-      </c>
-      <c r="AC275">
-        <v>0.5125</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6906771</v>
+        <v>6906768</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,76 +25029,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F276" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G276" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H276">
         <v>2</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K276">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L276">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M276">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N276">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O276">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P276">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q276">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R276">
+        <v>1.775</v>
+      </c>
+      <c r="S276">
+        <v>2.1</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
+        <v>1.95</v>
+      </c>
+      <c r="V276">
         <v>1.9</v>
       </c>
-      <c r="S276">
-        <v>1.95</v>
-      </c>
-      <c r="T276">
-        <v>2.5</v>
-      </c>
-      <c r="U276">
-        <v>2.025</v>
-      </c>
-      <c r="V276">
-        <v>1.825</v>
-      </c>
       <c r="W276">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC276">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6906773</v>
+        <v>6906772</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,61 +25563,61 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F282" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G282" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
         <v>52</v>
       </c>
       <c r="K282">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L282">
+        <v>3</v>
+      </c>
+      <c r="M282">
         <v>3.2</v>
       </c>
-      <c r="M282">
-        <v>3.3</v>
-      </c>
       <c r="N282">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O282">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P282">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U282">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V282">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W282">
         <v>-1</v>
       </c>
       <c r="X282">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="Y282">
         <v>-1</v>
@@ -25626,13 +25626,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA282">
-        <v>0.5125</v>
+        <v>0.425</v>
       </c>
       <c r="AB282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6906772</v>
+        <v>6906773</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,61 +25652,61 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F283" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G283" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
         <v>52</v>
       </c>
       <c r="K283">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L283">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M283">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N283">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O283">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P283">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q283">
         <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S283">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T283">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V283">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y283">
         <v>-1</v>
@@ -25715,13 +25715,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA283">
-        <v>0.425</v>
+        <v>0.5125</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC283">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -27153,7 +27153,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6906784</v>
+        <v>6906782</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27165,58 +27165,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G300" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H300">
+        <v>3</v>
+      </c>
+      <c r="I300">
         <v>1</v>
-      </c>
-      <c r="I300">
-        <v>0</v>
       </c>
       <c r="J300" t="s">
         <v>51</v>
       </c>
       <c r="K300">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L300">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M300">
+        <v>3.5</v>
+      </c>
+      <c r="N300">
+        <v>2.1</v>
+      </c>
+      <c r="O300">
         <v>3</v>
       </c>
-      <c r="N300">
-        <v>2.3</v>
-      </c>
-      <c r="O300">
-        <v>3.1</v>
-      </c>
       <c r="P300">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S300">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T300">
         <v>2.25</v>
       </c>
       <c r="U300">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V300">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W300">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27225,16 +27225,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC300">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27242,7 +27242,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6906782</v>
+        <v>6906784</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27254,58 +27254,58 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G301" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
         <v>51</v>
       </c>
       <c r="K301">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L301">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N301">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O301">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P301">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q301">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S301">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T301">
         <v>2.25</v>
       </c>
       <c r="U301">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V301">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W301">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X301">
         <v>-1</v>
@@ -27314,16 +27314,16 @@
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA301">
         <v>-1</v>
       </c>
       <c r="AB301">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7083241</v>
+        <v>7093331</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,76 +28055,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G310" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K310">
         <v>1.8</v>
       </c>
       <c r="L310">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M310">
+        <v>4.5</v>
+      </c>
+      <c r="N310">
+        <v>1.6</v>
+      </c>
+      <c r="O310">
+        <v>4</v>
+      </c>
+      <c r="P310">
+        <v>5.75</v>
+      </c>
+      <c r="Q310">
+        <v>-1</v>
+      </c>
+      <c r="R310">
+        <v>2.025</v>
+      </c>
+      <c r="S310">
+        <v>1.825</v>
+      </c>
+      <c r="T310">
+        <v>2.75</v>
+      </c>
+      <c r="U310">
+        <v>1.825</v>
+      </c>
+      <c r="V310">
+        <v>2.025</v>
+      </c>
+      <c r="W310">
+        <v>-1</v>
+      </c>
+      <c r="X310">
+        <v>-1</v>
+      </c>
+      <c r="Y310">
         <v>4.75</v>
       </c>
-      <c r="N310">
-        <v>1.65</v>
-      </c>
-      <c r="O310">
-        <v>3.4</v>
-      </c>
-      <c r="P310">
-        <v>6.5</v>
-      </c>
-      <c r="Q310">
-        <v>-0.75</v>
-      </c>
-      <c r="R310">
-        <v>1.875</v>
-      </c>
-      <c r="S310">
-        <v>1.975</v>
-      </c>
-      <c r="T310">
-        <v>2</v>
-      </c>
-      <c r="U310">
-        <v>1.925</v>
-      </c>
-      <c r="V310">
-        <v>1.925</v>
-      </c>
-      <c r="W310">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X310">
-        <v>-1</v>
-      </c>
-      <c r="Y310">
-        <v>-1</v>
-      </c>
       <c r="Z310">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB310">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28132,7 +28132,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7093331</v>
+        <v>7083241</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28144,76 +28144,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F311" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G311" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K311">
         <v>1.8</v>
       </c>
       <c r="L311">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M311">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N311">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O311">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P311">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q311">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R311">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S311">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T311">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA311">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC311">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28221,7 +28221,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7097548</v>
+        <v>7093333</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28233,73 +28233,73 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G312" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H312">
         <v>2</v>
       </c>
       <c r="I312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K312">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L312">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M312">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N312">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O312">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P312">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q312">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R312">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S312">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T312">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U312">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V312">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W312">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z312">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA312">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB312">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28310,7 +28310,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7093333</v>
+        <v>7151351</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28322,73 +28322,73 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G313" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K313">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L313">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M313">
         <v>3.4</v>
       </c>
       <c r="N313">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O313">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P313">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q313">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S313">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T313">
         <v>2</v>
       </c>
       <c r="U313">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V313">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W313">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z313">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA313">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB313">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC313">
         <v>-1</v>
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7151351</v>
+        <v>7097548</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,55 +28411,55 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G314" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J314" t="s">
         <v>50</v>
       </c>
       <c r="K314">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L314">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M314">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N314">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O314">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P314">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R314">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S314">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T314">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V314">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W314">
         <v>-1</v>
@@ -28468,16 +28468,16 @@
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Z314">
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB314">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC314">
         <v>-1</v>
@@ -28696,28 +28696,28 @@
         <v>3.6</v>
       </c>
       <c r="O317">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P317">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q317">
         <v>0.25</v>
       </c>
       <c r="R317">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S317">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V317">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28767,13 +28767,13 @@
         <v>1.85</v>
       </c>
       <c r="N318">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O318">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P318">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q318">
         <v>0.5</v>
@@ -28785,13 +28785,13 @@
         <v>1.875</v>
       </c>
       <c r="T318">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U318">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V318">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28814,7 +28814,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7128698</v>
+        <v>7129415</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28826,46 +28826,46 @@
         <v>45388.375</v>
       </c>
       <c r="F319" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K319">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L319">
         <v>3.1</v>
       </c>
       <c r="M319">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N319">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O319">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P319">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="Q319">
         <v>0</v>
       </c>
       <c r="R319">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S319">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T319">
         <v>2.25</v>
       </c>
       <c r="U319">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V319">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28888,7 +28888,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7129415</v>
+        <v>7151350</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28900,46 +28900,46 @@
         <v>45388.375</v>
       </c>
       <c r="F320" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G320" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K320">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="L320">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M320">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N320">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O320">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P320">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q320">
         <v>0</v>
       </c>
       <c r="R320">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S320">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T320">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V320">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7151350</v>
+        <v>7077997</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -28974,46 +28974,46 @@
         <v>45388.375</v>
       </c>
       <c r="F321" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G321" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K321">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="L321">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M321">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N321">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O321">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P321">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q321">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S321">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T321">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U321">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V321">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29036,7 +29036,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7077997</v>
+        <v>7128698</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29048,46 +29048,46 @@
         <v>45388.375</v>
       </c>
       <c r="F322" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G322" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K322">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L322">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M322">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N322">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O322">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P322">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q322">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R322">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S322">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T322">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V322">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29110,7 +29110,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7141358</v>
+        <v>7077997</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29119,49 +29119,49 @@
         <v>28</v>
       </c>
       <c r="E323" s="2">
-        <v>45388.46875</v>
+        <v>45388.375</v>
       </c>
       <c r="F323" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G323" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K323">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L323">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M323">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N323">
+        <v>1.666</v>
+      </c>
+      <c r="O323">
+        <v>3.8</v>
+      </c>
+      <c r="P323">
+        <v>5.5</v>
+      </c>
+      <c r="Q323">
+        <v>-0.75</v>
+      </c>
+      <c r="R323">
+        <v>1.85</v>
+      </c>
+      <c r="S323">
+        <v>2</v>
+      </c>
+      <c r="T323">
         <v>2.5</v>
       </c>
-      <c r="O323">
-        <v>3</v>
-      </c>
-      <c r="P323">
-        <v>3.1</v>
-      </c>
-      <c r="Q323">
-        <v>-0.25</v>
-      </c>
-      <c r="R323">
-        <v>2.125</v>
-      </c>
-      <c r="S323">
-        <v>1.75</v>
-      </c>
-      <c r="T323">
-        <v>2</v>
-      </c>
       <c r="U323">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V323">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29184,7 +29184,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7097549</v>
+        <v>7141358</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29196,46 +29196,46 @@
         <v>45388.46875</v>
       </c>
       <c r="F324" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G324" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K324">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L324">
+        <v>3</v>
+      </c>
+      <c r="M324">
         <v>3.2</v>
       </c>
-      <c r="M324">
-        <v>2.625</v>
-      </c>
       <c r="N324">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O324">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P324">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="Q324">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S324">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T324">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V324">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W324">
         <v>0</v>
@@ -29258,7 +29258,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7088816</v>
+        <v>7097549</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29270,31 +29270,31 @@
         <v>45388.46875</v>
       </c>
       <c r="F325" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G325" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K325">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L325">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M325">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N325">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O325">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P325">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R325">
         <v>1.925</v>
@@ -29303,13 +29303,13 @@
         <v>1.925</v>
       </c>
       <c r="T325">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U325">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V325">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7128697</v>
+        <v>7088816</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29341,43 +29341,43 @@
         <v>28</v>
       </c>
       <c r="E326" s="2">
-        <v>45389.46875</v>
+        <v>45388.46875</v>
       </c>
       <c r="F326" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G326" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K326">
+        <v>2</v>
+      </c>
+      <c r="L326">
+        <v>3.5</v>
+      </c>
+      <c r="M326">
+        <v>3.6</v>
+      </c>
+      <c r="N326">
+        <v>2.3</v>
+      </c>
+      <c r="O326">
         <v>3.4</v>
       </c>
-      <c r="L326">
-        <v>3.25</v>
-      </c>
-      <c r="M326">
-        <v>2.15</v>
-      </c>
-      <c r="N326">
-        <v>3.4</v>
-      </c>
-      <c r="O326">
-        <v>3.25</v>
-      </c>
       <c r="P326">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q326">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R326">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S326">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T326">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U326">
         <v>2</v>
@@ -29398,6 +29398,80 @@
         <v>0</v>
       </c>
       <c r="AA326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:27">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>7128697</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45389.46875</v>
+      </c>
+      <c r="F327" t="s">
+        <v>45</v>
+      </c>
+      <c r="G327" t="s">
+        <v>37</v>
+      </c>
+      <c r="K327">
+        <v>3.4</v>
+      </c>
+      <c r="L327">
+        <v>3.25</v>
+      </c>
+      <c r="M327">
+        <v>2.15</v>
+      </c>
+      <c r="N327">
+        <v>3.75</v>
+      </c>
+      <c r="O327">
+        <v>3.3</v>
+      </c>
+      <c r="P327">
+        <v>2.1</v>
+      </c>
+      <c r="Q327">
+        <v>0.25</v>
+      </c>
+      <c r="R327">
+        <v>2</v>
+      </c>
+      <c r="S327">
+        <v>1.85</v>
+      </c>
+      <c r="T327">
+        <v>2.25</v>
+      </c>
+      <c r="U327">
+        <v>2.05</v>
+      </c>
+      <c r="V327">
+        <v>1.8</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Ternana</t>
+    <t>Cremonese</t>
   </si>
   <si>
-    <t>Cremonese</t>
+    <t>Ternana</t>
   </si>
   <si>
     <t>Cosenza</t>
@@ -151,10 +151,10 @@
     <t>Pisa</t>
   </si>
   <si>
-    <t>Ascoli</t>
+    <t>AC Reggiana</t>
   </si>
   <si>
-    <t>AC Reggiana</t>
+    <t>Ascoli</t>
   </si>
   <si>
     <t>Palermo</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC326"/>
+  <dimension ref="A1:AC318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6983825</v>
+        <v>6983778</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1180,73 +1180,73 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
         <v>1.9</v>
       </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y8">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6983778</v>
+        <v>6983825</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1269,73 +1269,73 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>4.1</v>
+        <v>1.909</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
+        <v>1.9</v>
+      </c>
+      <c r="V9">
         <v>1.95</v>
       </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1358,7 +1358,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1536,7 +1536,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6983780</v>
+        <v>6983826</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,13 +1622,13 @@
         <v>45158.64583333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1637,43 +1637,43 @@
         <v>51</v>
       </c>
       <c r="K13">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
+        <v>3.2</v>
+      </c>
+      <c r="M13">
+        <v>3.2</v>
+      </c>
+      <c r="N13">
+        <v>2.15</v>
+      </c>
+      <c r="O13">
+        <v>3.5</v>
+      </c>
+      <c r="P13">
         <v>3.25</v>
       </c>
-      <c r="M13">
-        <v>4.8</v>
-      </c>
-      <c r="N13">
-        <v>1.571</v>
-      </c>
-      <c r="O13">
-        <v>3.6</v>
-      </c>
-      <c r="P13">
-        <v>7</v>
-      </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.571</v>
+        <v>1.15</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1682,16 +1682,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6983826</v>
+        <v>6983780</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,13 +1711,13 @@
         <v>45158.64583333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1726,43 +1726,43 @@
         <v>51</v>
       </c>
       <c r="K14">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="N14">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
+        <v>1.875</v>
+      </c>
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="U14">
         <v>1.85</v>
       </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>1.15</v>
+        <v>0.571</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1771,16 +1771,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2070,7 +2070,7 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2159,7 +2159,7 @@
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2334,7 +2334,7 @@
         <v>45164.64583333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -2426,7 +2426,7 @@
         <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6906634</v>
+        <v>6906633</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,10 +2512,10 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2530,55 +2530,55 @@
         <v>2.5</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N23">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
+        <v>1.9</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>1.75</v>
       </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>1.9</v>
-      </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6906631</v>
+        <v>6906634</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2601,73 +2601,73 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>2.5</v>
+      </c>
+      <c r="L24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>1.909</v>
-      </c>
-      <c r="L24">
-        <v>3.3</v>
-      </c>
       <c r="M24">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
       <c r="P24">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
+        <v>1.8</v>
+      </c>
+      <c r="S24">
         <v>2.05</v>
       </c>
-      <c r="S24">
-        <v>1.8</v>
-      </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
+        <v>1.75</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>1.9</v>
       </c>
-      <c r="W24">
-        <v>1.375</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>1.05</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6906633</v>
+        <v>6906631</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,49 +2779,49 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L26">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M26">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N26">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
         <v>1.95</v>
@@ -2830,19 +2830,19 @@
         <v>1.9</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>0.95</v>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6906636</v>
+        <v>6906459</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
+        <v>3.4</v>
+      </c>
+      <c r="L27">
         <v>3.25</v>
       </c>
-      <c r="L27">
-        <v>3.2</v>
-      </c>
       <c r="M27">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N27">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O27">
         <v>3.3</v>
       </c>
       <c r="P27">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6906457</v>
+        <v>6906632</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,34 +2957,34 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P28">
         <v>3.1</v>
@@ -2993,40 +2993,40 @@
         <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
+        <v>2.025</v>
+      </c>
+      <c r="V28">
         <v>1.825</v>
       </c>
-      <c r="V28">
-        <v>2.025</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6906632</v>
+        <v>6906457</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3046,34 +3046,34 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O29">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
         <v>3.1</v>
@@ -3082,40 +3082,40 @@
         <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S29">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
+        <v>1.825</v>
+      </c>
+      <c r="V29">
         <v>2.025</v>
       </c>
-      <c r="V29">
-        <v>1.825</v>
-      </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6906459</v>
+        <v>6906636</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,76 +3135,76 @@
         <v>45168.64583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
         <v>3.3</v>
       </c>
       <c r="P30">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3227,7 +3227,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3301,7 +3301,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6906639</v>
+        <v>6906637</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3313,76 +3313,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X32">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3390,7 +3390,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6906638</v>
+        <v>6906639</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3402,76 +3402,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L33">
+        <v>3.5</v>
+      </c>
+      <c r="M33">
+        <v>5.25</v>
+      </c>
+      <c r="N33">
+        <v>1.909</v>
+      </c>
+      <c r="O33">
         <v>3.3</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>4.5</v>
       </c>
-      <c r="N33">
-        <v>1.533</v>
-      </c>
-      <c r="O33">
-        <v>3.8</v>
-      </c>
-      <c r="P33">
-        <v>7</v>
-      </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6906637</v>
+        <v>6906638</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3491,13 +3491,13 @@
         <v>45171.5625</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3506,43 +3506,43 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N34">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3551,16 +3551,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6906455</v>
+        <v>6905854</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3669,76 +3669,76 @@
         <v>45172.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L36">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
         <v>3.3</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
+        <v>2.025</v>
+      </c>
+      <c r="V36">
         <v>1.825</v>
       </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6905854</v>
+        <v>6906455</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3758,76 +3758,76 @@
         <v>45172.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O37">
         <v>3.3</v>
       </c>
       <c r="P37">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
+        <v>1.825</v>
+      </c>
+      <c r="V37">
         <v>2.025</v>
       </c>
-      <c r="V37">
-        <v>1.825</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3936,7 +3936,7 @@
         <v>45172.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>30</v>
@@ -4292,7 +4292,7 @@
         <v>45185.375</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -4648,10 +4648,10 @@
         <v>45185.46875</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4829,7 +4829,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5093,7 +5093,7 @@
         <v>45192.375</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5449,10 +5449,10 @@
         <v>45192.375</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5541,7 +5541,7 @@
         <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5897,7 +5897,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6072,10 +6072,10 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6161,7 +6161,7 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
         <v>44</v>
@@ -7054,7 +7054,7 @@
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7140,10 +7140,10 @@
         <v>45199.46875</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -7585,7 +7585,7 @@
         <v>45200.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -7763,7 +7763,7 @@
         <v>45206.375</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
         <v>30</v>
@@ -7929,7 +7929,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6906443</v>
+        <v>6906669</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7941,76 +7941,76 @@
         <v>45206.375</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>50</v>
+      </c>
+      <c r="K84">
+        <v>2.3</v>
+      </c>
+      <c r="L84">
+        <v>3.1</v>
+      </c>
+      <c r="M84">
+        <v>3.3</v>
+      </c>
+      <c r="N84">
+        <v>2.7</v>
+      </c>
+      <c r="O84">
+        <v>3.1</v>
+      </c>
+      <c r="P84">
+        <v>2.75</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>51</v>
-      </c>
-      <c r="K84">
+      <c r="R84">
+        <v>1.95</v>
+      </c>
+      <c r="S84">
+        <v>1.9</v>
+      </c>
+      <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
+        <v>1.8</v>
+      </c>
+      <c r="V84">
+        <v>2.05</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
         <v>1.75</v>
       </c>
-      <c r="L84">
-        <v>3.5</v>
-      </c>
-      <c r="M84">
-        <v>4.75</v>
-      </c>
-      <c r="N84">
-        <v>1.85</v>
-      </c>
-      <c r="O84">
-        <v>3.6</v>
-      </c>
-      <c r="P84">
-        <v>4.2</v>
-      </c>
-      <c r="Q84">
+      <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB84">
         <v>-0.5</v>
       </c>
-      <c r="R84">
-        <v>1.85</v>
-      </c>
-      <c r="S84">
-        <v>2</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
-      <c r="W84">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
-      <c r="Y84">
-        <v>-1</v>
-      </c>
-      <c r="Z84">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
-      <c r="AB84">
-        <v>1</v>
-      </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6906669</v>
+        <v>6906443</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8030,76 +8030,76 @@
         <v>45206.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="N85">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC85">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8122,7 +8122,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8297,7 +8297,7 @@
         <v>45206.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8389,7 +8389,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8653,7 +8653,7 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8831,7 +8831,7 @@
         <v>45220.375</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8923,7 +8923,7 @@
         <v>49</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>45221.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
         <v>38</v>
@@ -9635,7 +9635,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>45227.46875</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10436,7 +10436,7 @@
         <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10700,7 +10700,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
         <v>38</v>
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6906435</v>
+        <v>6906684</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
+        <v>1.95</v>
+      </c>
+      <c r="L117">
+        <v>3.25</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117">
         <v>2.1</v>
       </c>
-      <c r="L117">
-        <v>3.3</v>
-      </c>
-      <c r="M117">
-        <v>3.5</v>
-      </c>
-      <c r="N117">
-        <v>2.3</v>
-      </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6906684</v>
+        <v>6906435</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,76 +10967,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N118">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O118">
+        <v>3.3</v>
+      </c>
+      <c r="P118">
         <v>3.1</v>
-      </c>
-      <c r="P118">
-        <v>4</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S118">
+        <v>1.85</v>
+      </c>
+      <c r="T118">
+        <v>2.25</v>
+      </c>
+      <c r="U118">
+        <v>1.825</v>
+      </c>
+      <c r="V118">
+        <v>2.025</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
         <v>2.1</v>
       </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
-      <c r="U118">
-        <v>1.9</v>
-      </c>
-      <c r="V118">
-        <v>1.95</v>
-      </c>
-      <c r="W118">
-        <v>1.1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
       <c r="Z118">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11234,7 +11234,7 @@
         <v>45235.51041666666</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
         <v>48</v>
@@ -11323,7 +11323,7 @@
         <v>45235.51041666666</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
         <v>49</v>
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6906690</v>
+        <v>6905861</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,76 +11679,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="L126">
+        <v>3.2</v>
+      </c>
+      <c r="M126">
+        <v>2.875</v>
+      </c>
+      <c r="N126">
         <v>3.1</v>
-      </c>
-      <c r="M126">
-        <v>2.3</v>
-      </c>
-      <c r="N126">
-        <v>3.2</v>
       </c>
       <c r="O126">
         <v>3</v>
       </c>
       <c r="P126">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R126">
+        <v>2.125</v>
+      </c>
+      <c r="S126">
+        <v>1.75</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>2.1</v>
+      </c>
+      <c r="V126">
         <v>1.775</v>
       </c>
-      <c r="S126">
-        <v>2.1</v>
-      </c>
-      <c r="T126">
-        <v>2</v>
-      </c>
-      <c r="U126">
-        <v>1.9</v>
-      </c>
-      <c r="V126">
-        <v>1.95</v>
-      </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z126">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6905861</v>
+        <v>6906689</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,76 +11768,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F127" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" t="s">
         <v>45</v>
       </c>
-      <c r="G127" t="s">
-        <v>41</v>
-      </c>
       <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
         <v>0</v>
       </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N127">
+        <v>2.4</v>
+      </c>
+      <c r="O127">
+        <v>3.3</v>
+      </c>
+      <c r="P127">
         <v>3.1</v>
       </c>
-      <c r="O127">
-        <v>3</v>
-      </c>
-      <c r="P127">
-        <v>2.5</v>
-      </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA127">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6906689</v>
+        <v>6906690</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K128">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M128">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N128">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12127,7 +12127,7 @@
         <v>48</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12216,7 +12216,7 @@
         <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6906696</v>
+        <v>6906695</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12569,49 +12569,49 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M136">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N136">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
         <v>1.85</v>
@@ -12620,25 +12620,25 @@
         <v>2</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X136">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC136">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6906695</v>
+        <v>6906697</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12658,76 +12658,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O137">
         <v>2.9</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
         <v>-0.25</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>2.05</v>
+      </c>
+      <c r="V137">
         <v>1.8</v>
       </c>
-      <c r="S137">
-        <v>2.05</v>
-      </c>
-      <c r="T137">
-        <v>1.75</v>
-      </c>
-      <c r="U137">
-        <v>1.85</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
       <c r="W137">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12735,7 +12735,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6906697</v>
+        <v>6906696</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12747,10 +12747,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12762,61 +12762,61 @@
         <v>52</v>
       </c>
       <c r="K138">
+        <v>1.909</v>
+      </c>
+      <c r="L138">
+        <v>3.3</v>
+      </c>
+      <c r="M138">
+        <v>4.333</v>
+      </c>
+      <c r="N138">
         <v>1.95</v>
       </c>
-      <c r="L138">
-        <v>3.2</v>
-      </c>
-      <c r="M138">
+      <c r="O138">
+        <v>3.3</v>
+      </c>
+      <c r="P138">
         <v>4.2</v>
       </c>
-      <c r="N138">
+      <c r="Q138">
+        <v>-0.5</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
+        <v>1.85</v>
+      </c>
+      <c r="V138">
+        <v>2</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>2.3</v>
       </c>
-      <c r="O138">
-        <v>2.9</v>
-      </c>
-      <c r="P138">
-        <v>3.6</v>
-      </c>
-      <c r="Q138">
-        <v>-0.25</v>
-      </c>
-      <c r="R138">
-        <v>2</v>
-      </c>
-      <c r="S138">
-        <v>1.85</v>
-      </c>
-      <c r="T138">
-        <v>2</v>
-      </c>
-      <c r="U138">
-        <v>2.05</v>
-      </c>
-      <c r="V138">
-        <v>1.8</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>1.9</v>
-      </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB138">
         <v>-0.5</v>
       </c>
-      <c r="AA138">
-        <v>0.425</v>
-      </c>
-      <c r="AB138">
-        <v>0</v>
-      </c>
       <c r="AC138">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13014,7 +13014,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
         <v>49</v>
@@ -13192,7 +13192,7 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
         <v>47</v>
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7269065</v>
+        <v>7269066</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>52</v>
       </c>
       <c r="K145">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N145">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7269066</v>
+        <v>7269065</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13459,76 +13459,76 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>52</v>
       </c>
       <c r="K146">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L146">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="M146">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O146">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6906699</v>
+        <v>6906702</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G149" t="s">
         <v>33</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L149">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M149">
+        <v>2.2</v>
+      </c>
+      <c r="N149">
         <v>3.25</v>
       </c>
-      <c r="N149">
-        <v>2.25</v>
-      </c>
       <c r="O149">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y149">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6906702</v>
+        <v>6906699</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>34</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K150">
+        <v>2.25</v>
+      </c>
+      <c r="L150">
+        <v>3.2</v>
+      </c>
+      <c r="M150">
         <v>3.25</v>
       </c>
-      <c r="L150">
+      <c r="N150">
+        <v>2.25</v>
+      </c>
+      <c r="O150">
         <v>3.3</v>
       </c>
-      <c r="M150">
-        <v>2.2</v>
-      </c>
-      <c r="N150">
-        <v>3.25</v>
-      </c>
-      <c r="O150">
-        <v>3.4</v>
-      </c>
       <c r="P150">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
         <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z150">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13907,7 +13907,7 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13996,7 +13996,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14438,7 +14438,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
         <v>38</v>
@@ -14705,7 +14705,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
         <v>48</v>
@@ -14883,7 +14883,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>42</v>
@@ -15150,7 +15150,7 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
         <v>29</v>
@@ -15405,7 +15405,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7151365</v>
+        <v>6906716</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15417,76 +15417,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K168">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L168">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N168">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O168">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>2.125</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
         <v>2</v>
       </c>
       <c r="U168">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z168">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6906716</v>
+        <v>7151365</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15506,76 +15506,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K169">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N169">
+        <v>2.55</v>
+      </c>
+      <c r="O169">
+        <v>2.9</v>
+      </c>
+      <c r="P169">
+        <v>3.1</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
         <v>1.75</v>
       </c>
-      <c r="O169">
-        <v>3.3</v>
-      </c>
-      <c r="P169">
-        <v>5.25</v>
-      </c>
-      <c r="Q169">
-        <v>-0.75</v>
-      </c>
-      <c r="R169">
+      <c r="S169">
+        <v>2.125</v>
+      </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
+      <c r="U169">
         <v>2.025</v>
       </c>
-      <c r="S169">
+      <c r="V169">
         <v>1.825</v>
       </c>
-      <c r="T169">
-        <v>2</v>
-      </c>
-      <c r="U169">
-        <v>1.85</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15595,7 +15595,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G170" t="s">
         <v>39</v>
@@ -15687,7 +15687,7 @@
         <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15862,7 +15862,7 @@
         <v>45276.51041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
         <v>43</v>
@@ -15939,7 +15939,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6906714</v>
+        <v>6906711</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15951,76 +15951,76 @@
         <v>45276.51041666666</v>
       </c>
       <c r="F174" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K174">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M174">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N174">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
+        <v>1.85</v>
+      </c>
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>2.025</v>
+      </c>
+      <c r="V174">
         <v>1.825</v>
       </c>
-      <c r="S174">
-        <v>2.025</v>
-      </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
-      <c r="V174">
-        <v>1.95</v>
-      </c>
       <c r="W174">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>0.425</v>
+      </c>
+      <c r="AA174">
+        <v>-0.5</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.825</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6906711</v>
+        <v>6906714</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,76 +16040,76 @@
         <v>45276.51041666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L175">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M175">
+        <v>4</v>
+      </c>
+      <c r="N175">
+        <v>2.1</v>
+      </c>
+      <c r="O175">
+        <v>3.3</v>
+      </c>
+      <c r="P175">
+        <v>3.6</v>
+      </c>
+      <c r="Q175">
+        <v>-0.25</v>
+      </c>
+      <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
+        <v>2.025</v>
+      </c>
+      <c r="T175">
         <v>2.25</v>
       </c>
-      <c r="N175">
-        <v>3.1</v>
-      </c>
-      <c r="O175">
-        <v>3.4</v>
-      </c>
-      <c r="P175">
-        <v>2.3</v>
-      </c>
-      <c r="Q175">
-        <v>0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.85</v>
-      </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>2.5</v>
-      </c>
       <c r="U175">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X175">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC175">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16132,7 +16132,7 @@
         <v>49</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6906718</v>
+        <v>6906719</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,31 +16218,31 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H177">
         <v>4</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>51</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O177">
         <v>3.4</v>
@@ -16254,22 +16254,22 @@
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
         <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16278,13 +16278,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6906719</v>
+        <v>6906720</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,58 +16396,58 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F179" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" t="s">
         <v>34</v>
       </c>
-      <c r="G179" t="s">
-        <v>40</v>
-      </c>
       <c r="H179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
       </c>
       <c r="K179">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R179">
+        <v>1.975</v>
+      </c>
+      <c r="S179">
         <v>1.875</v>
       </c>
-      <c r="S179">
+      <c r="T179">
+        <v>2.75</v>
+      </c>
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.95</v>
-      </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>0.8500000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16456,13 +16456,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16473,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6906720</v>
+        <v>6906718</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16485,13 +16485,13 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -16500,43 +16500,43 @@
         <v>51</v>
       </c>
       <c r="K180">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P180">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>0.6000000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16545,13 +16545,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16844,7 +16844,7 @@
         <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17022,7 +17022,7 @@
         <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17108,7 +17108,7 @@
         <v>45286.35416666666</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G187" t="s">
         <v>43</v>
@@ -17185,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6906727</v>
+        <v>6906724</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17197,76 +17197,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>52</v>
       </c>
       <c r="K188">
-        <v>2.35</v>
+        <v>4.333</v>
       </c>
       <c r="L188">
+        <v>3.4</v>
+      </c>
+      <c r="M188">
+        <v>1.909</v>
+      </c>
+      <c r="N188">
+        <v>4</v>
+      </c>
+      <c r="O188">
         <v>3.25</v>
       </c>
-      <c r="M188">
-        <v>3.1</v>
-      </c>
-      <c r="N188">
-        <v>2.2</v>
-      </c>
-      <c r="O188">
-        <v>3.1</v>
-      </c>
       <c r="P188">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA188">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC188">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7151363</v>
+        <v>6905865</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,13 +17286,13 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>2</v>
@@ -17301,40 +17301,40 @@
         <v>50</v>
       </c>
       <c r="K189">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L189">
         <v>3.1</v>
       </c>
       <c r="M189">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N189">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P189">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17343,19 +17343,19 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC189">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6906724</v>
+        <v>7151363</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,76 +17375,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K190">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="L190">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="N190">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O190">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q190">
         <v>0.5</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S190">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17452,7 +17452,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6905865</v>
+        <v>6906727</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17464,76 +17464,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K191">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="L191">
+        <v>3.25</v>
+      </c>
+      <c r="M191">
         <v>3.1</v>
       </c>
-      <c r="M191">
-        <v>2.6</v>
-      </c>
       <c r="N191">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O191">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P191">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
+        <v>1.925</v>
+      </c>
+      <c r="S191">
+        <v>1.925</v>
+      </c>
+      <c r="T191">
+        <v>2.25</v>
+      </c>
+      <c r="U191">
+        <v>1.875</v>
+      </c>
+      <c r="V191">
         <v>1.975</v>
       </c>
-      <c r="S191">
-        <v>1.875</v>
-      </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.85</v>
-      </c>
-      <c r="V191">
-        <v>2</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y191">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA191">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB191">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17642,7 +17642,7 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G193" t="s">
         <v>37</v>
@@ -17823,7 +17823,7 @@
         <v>47</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>3</v>
@@ -18268,7 +18268,7 @@
         <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -18535,7 +18535,7 @@
         <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18624,7 +18624,7 @@
         <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18799,7 +18799,7 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>35</v>
@@ -18977,7 +18977,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G208" t="s">
         <v>41</v>
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7151361</v>
+        <v>6906737</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,76 +19066,76 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K209">
+        <v>3</v>
+      </c>
+      <c r="L209">
+        <v>3.5</v>
+      </c>
+      <c r="M209">
+        <v>2.25</v>
+      </c>
+      <c r="N209">
+        <v>3.3</v>
+      </c>
+      <c r="O209">
+        <v>3.6</v>
+      </c>
+      <c r="P209">
         <v>2.1</v>
       </c>
-      <c r="L209">
-        <v>2.9</v>
-      </c>
-      <c r="M209">
-        <v>4</v>
-      </c>
-      <c r="N209">
-        <v>2.15</v>
-      </c>
-      <c r="O209">
-        <v>2.9</v>
-      </c>
-      <c r="P209">
-        <v>4</v>
-      </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T209">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19155,7 +19155,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>37</v>
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6906737</v>
+        <v>7151361</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G211" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K211">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L211">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M211">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N211">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="O211">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P211">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y211">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC211">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19689,7 +19689,7 @@
         <v>45312.51041666666</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -20048,7 +20048,7 @@
         <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20134,7 +20134,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
         <v>29</v>
@@ -20226,7 +20226,7 @@
         <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20315,7 +20315,7 @@
         <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -20846,7 +20846,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G229" t="s">
         <v>42</v>
@@ -21202,7 +21202,7 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
         <v>41</v>
@@ -21294,7 +21294,7 @@
         <v>49</v>
       </c>
       <c r="G234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21469,7 +21469,7 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
         <v>36</v>
@@ -21635,7 +21635,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6906752</v>
+        <v>6906753</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21647,76 +21647,76 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K238">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="L238">
         <v>3.2</v>
       </c>
       <c r="M238">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N238">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O238">
         <v>3</v>
       </c>
       <c r="P238">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R238">
+        <v>2.125</v>
+      </c>
+      <c r="S238">
+        <v>1.75</v>
+      </c>
+      <c r="T238">
+        <v>2</v>
+      </c>
+      <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
         <v>1.875</v>
       </c>
-      <c r="S238">
-        <v>1.975</v>
-      </c>
-      <c r="T238">
-        <v>2</v>
-      </c>
-      <c r="U238">
-        <v>2</v>
-      </c>
-      <c r="V238">
-        <v>1.85</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.4875</v>
+        <v>0.75</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21724,7 +21724,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6906751</v>
+        <v>6906752</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21736,49 +21736,49 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K239">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L239">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M239">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N239">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U239">
         <v>2</v>
@@ -21790,22 +21790,22 @@
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y239">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21813,7 +21813,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6906750</v>
+        <v>6906751</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21825,46 +21825,46 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H240">
         <v>1</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K240">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M240">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="N240">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O240">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P240">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
@@ -21879,22 +21879,22 @@
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21902,7 +21902,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6906749</v>
+        <v>6906750</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21914,76 +21914,76 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H241">
         <v>1</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K241">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M241">
+        <v>6</v>
+      </c>
+      <c r="N241">
+        <v>1.8</v>
+      </c>
+      <c r="O241">
+        <v>3.6</v>
+      </c>
+      <c r="P241">
+        <v>4.75</v>
+      </c>
+      <c r="Q241">
+        <v>-0.5</v>
+      </c>
+      <c r="R241">
+        <v>1.8</v>
+      </c>
+      <c r="S241">
+        <v>2.05</v>
+      </c>
+      <c r="T241">
         <v>2.5</v>
       </c>
-      <c r="N241">
-        <v>3.6</v>
-      </c>
-      <c r="O241">
-        <v>3.1</v>
-      </c>
-      <c r="P241">
-        <v>2.2</v>
-      </c>
-      <c r="Q241">
-        <v>0.25</v>
-      </c>
-      <c r="R241">
-        <v>2</v>
-      </c>
-      <c r="S241">
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
         <v>1.85</v>
       </c>
-      <c r="T241">
-        <v>2.25</v>
-      </c>
-      <c r="U241">
-        <v>1.975</v>
-      </c>
-      <c r="V241">
-        <v>1.875</v>
-      </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y241">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
+        <v>1.05</v>
+      </c>
+      <c r="AB241">
+        <v>-1</v>
+      </c>
+      <c r="AC241">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB241">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC241">
-        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21991,7 +21991,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6906753</v>
+        <v>6906749</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22003,49 +22003,49 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
         <v>50</v>
       </c>
       <c r="K242">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L242">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M242">
+        <v>2.5</v>
+      </c>
+      <c r="N242">
+        <v>3.6</v>
+      </c>
+      <c r="O242">
+        <v>3.1</v>
+      </c>
+      <c r="P242">
         <v>2.2</v>
       </c>
-      <c r="N242">
-        <v>3.1</v>
-      </c>
-      <c r="O242">
-        <v>3</v>
-      </c>
-      <c r="P242">
-        <v>2.55</v>
-      </c>
       <c r="Q242">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S242">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T242">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
         <v>1.975</v>
@@ -22060,13 +22060,13 @@
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB242">
         <v>0.9750000000000001</v>
@@ -22095,7 +22095,7 @@
         <v>43</v>
       </c>
       <c r="G243" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H243">
         <v>3</v>
@@ -22359,7 +22359,7 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G246" t="s">
         <v>48</v>
@@ -22448,10 +22448,10 @@
         <v>45338.6875</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22626,10 +22626,10 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>29</v>
       </c>
       <c r="G258" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -23608,7 +23608,7 @@
         <v>42</v>
       </c>
       <c r="G260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F261" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G261" t="s">
         <v>47</v>
@@ -23860,7 +23860,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6906395</v>
+        <v>6906764</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23872,76 +23872,76 @@
         <v>45346.51041666666</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G263" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263" t="s">
+        <v>50</v>
+      </c>
+      <c r="K263">
+        <v>2.7</v>
+      </c>
+      <c r="L263">
+        <v>3.2</v>
+      </c>
+      <c r="M263">
+        <v>2.6</v>
+      </c>
+      <c r="N263">
+        <v>2.75</v>
+      </c>
+      <c r="O263">
+        <v>3</v>
+      </c>
+      <c r="P263">
+        <v>2.875</v>
+      </c>
+      <c r="Q263">
         <v>0</v>
       </c>
-      <c r="I263">
-        <v>0</v>
-      </c>
-      <c r="J263" t="s">
-        <v>52</v>
-      </c>
-      <c r="K263">
-        <v>2</v>
-      </c>
-      <c r="L263">
-        <v>3.4</v>
-      </c>
-      <c r="M263">
-        <v>3.75</v>
-      </c>
-      <c r="N263">
-        <v>1.95</v>
-      </c>
-      <c r="O263">
-        <v>3.4</v>
-      </c>
-      <c r="P263">
-        <v>4</v>
-      </c>
-      <c r="Q263">
-        <v>-0.5</v>
-      </c>
       <c r="R263">
+        <v>1.875</v>
+      </c>
+      <c r="S263">
         <v>1.975</v>
       </c>
-      <c r="S263">
+      <c r="T263">
+        <v>2</v>
+      </c>
+      <c r="U263">
+        <v>1.8</v>
+      </c>
+      <c r="V263">
+        <v>2.05</v>
+      </c>
+      <c r="W263">
+        <v>-1</v>
+      </c>
+      <c r="X263">
+        <v>-1</v>
+      </c>
+      <c r="Y263">
         <v>1.875</v>
       </c>
-      <c r="T263">
-        <v>2.5</v>
-      </c>
-      <c r="U263">
-        <v>1.825</v>
-      </c>
-      <c r="V263">
-        <v>2.025</v>
-      </c>
-      <c r="W263">
-        <v>-1</v>
-      </c>
-      <c r="X263">
-        <v>2.4</v>
-      </c>
-      <c r="Y263">
-        <v>-1</v>
-      </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC263">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23949,7 +23949,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6906764</v>
+        <v>6905871</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23961,76 +23961,76 @@
         <v>45346.51041666666</v>
       </c>
       <c r="F264" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G264" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H264">
         <v>1</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K264">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L264">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M264">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N264">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O264">
+        <v>3.1</v>
+      </c>
+      <c r="P264">
         <v>3</v>
-      </c>
-      <c r="P264">
-        <v>2.875</v>
       </c>
       <c r="Q264">
         <v>0</v>
       </c>
       <c r="R264">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S264">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="T264">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U264">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y264">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA264">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB264">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24038,7 +24038,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6905871</v>
+        <v>6906395</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24050,76 +24050,76 @@
         <v>45346.51041666666</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G265" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>52</v>
       </c>
       <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>3.4</v>
+      </c>
+      <c r="M265">
+        <v>3.75</v>
+      </c>
+      <c r="N265">
+        <v>1.95</v>
+      </c>
+      <c r="O265">
+        <v>3.4</v>
+      </c>
+      <c r="P265">
+        <v>4</v>
+      </c>
+      <c r="Q265">
+        <v>-0.5</v>
+      </c>
+      <c r="R265">
+        <v>1.975</v>
+      </c>
+      <c r="S265">
+        <v>1.875</v>
+      </c>
+      <c r="T265">
         <v>2.5</v>
       </c>
-      <c r="L265">
-        <v>3.1</v>
-      </c>
-      <c r="M265">
-        <v>2.9</v>
-      </c>
-      <c r="N265">
-        <v>2.5</v>
-      </c>
-      <c r="O265">
-        <v>3.1</v>
-      </c>
-      <c r="P265">
-        <v>3</v>
-      </c>
-      <c r="Q265">
-        <v>0</v>
-      </c>
-      <c r="R265">
-        <v>1.75</v>
-      </c>
-      <c r="S265">
-        <v>2.125</v>
-      </c>
-      <c r="T265">
-        <v>2.25</v>
-      </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V265">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24228,7 +24228,7 @@
         <v>45349.59375</v>
       </c>
       <c r="F267" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G267" t="s">
         <v>29</v>
@@ -24317,7 +24317,7 @@
         <v>45349.59375</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G268" t="s">
         <v>36</v>
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6906766</v>
+        <v>6906767</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,76 +24406,76 @@
         <v>45349.6875</v>
       </c>
       <c r="F269" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K269">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L269">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M269">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N269">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O269">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P269">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q269">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R269">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S269">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T269">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U269">
+        <v>1.825</v>
+      </c>
+      <c r="V269">
         <v>2.025</v>
       </c>
-      <c r="V269">
-        <v>1.825</v>
-      </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y269">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB269">
+        <v>-1</v>
+      </c>
+      <c r="AC269">
         <v>1.025</v>
-      </c>
-      <c r="AC269">
-        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24483,7 +24483,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6906394</v>
+        <v>6906766</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24495,76 +24495,76 @@
         <v>45349.6875</v>
       </c>
       <c r="F270" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G270" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H270">
         <v>2</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J270" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K270">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L270">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M270">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N270">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O270">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P270">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q270">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R270">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S270">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U270">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V270">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W270">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z270">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB270">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC270">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24572,7 +24572,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6906767</v>
+        <v>6906394</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24584,76 +24584,76 @@
         <v>45349.6875</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G271" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K271">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L271">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M271">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N271">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O271">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P271">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q271">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R271">
+        <v>2</v>
+      </c>
+      <c r="S271">
         <v>1.85</v>
       </c>
-      <c r="S271">
-        <v>2</v>
-      </c>
       <c r="T271">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U271">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V271">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X271">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA271">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC271">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24765,7 +24765,7 @@
         <v>39</v>
       </c>
       <c r="G273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -24839,7 +24839,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6906770</v>
+        <v>6906768</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24851,76 +24851,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F274" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G274" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274">
         <v>2</v>
       </c>
       <c r="J274" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K274">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L274">
         <v>3.1</v>
       </c>
       <c r="M274">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N274">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O274">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P274">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q274">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R274">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S274">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T274">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U274">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V274">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W274">
         <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y274">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA274">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB274">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC274">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6906768</v>
+        <v>6906770</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,76 +25029,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F276" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G276" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L276">
         <v>3.1</v>
       </c>
       <c r="M276">
+        <v>4.2</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276">
         <v>3.2</v>
       </c>
-      <c r="N276">
-        <v>2.6</v>
-      </c>
-      <c r="O276">
-        <v>2.9</v>
-      </c>
       <c r="P276">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T276">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB276">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25296,7 +25296,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G279" t="s">
         <v>31</v>
@@ -25373,7 +25373,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6905872</v>
+        <v>6906772</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25385,76 +25385,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G280" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K280">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L280">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M280">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N280">
         <v>2.3</v>
       </c>
       <c r="O280">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P280">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
+        <v>2</v>
+      </c>
+      <c r="S280">
+        <v>1.85</v>
+      </c>
+      <c r="T280">
+        <v>1.75</v>
+      </c>
+      <c r="U280">
         <v>1.975</v>
       </c>
-      <c r="S280">
+      <c r="V280">
         <v>1.875</v>
       </c>
-      <c r="T280">
-        <v>2.5</v>
-      </c>
-      <c r="U280">
-        <v>2.05</v>
-      </c>
-      <c r="V280">
-        <v>1.8</v>
-      </c>
       <c r="W280">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB280">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6906772</v>
+        <v>6905872</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,76 +25563,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G282" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L282">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M282">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N282">
         <v>2.3</v>
       </c>
       <c r="O282">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P282">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S282">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T282">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V282">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W282">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X282">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA282">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC282">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6906773</v>
+        <v>6906390</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,52 +25652,52 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F283" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G283" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K283">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L283">
         <v>3.2</v>
       </c>
       <c r="M283">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N283">
+        <v>2.5</v>
+      </c>
+      <c r="O283">
+        <v>3.2</v>
+      </c>
+      <c r="P283">
+        <v>2.9</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>1.775</v>
+      </c>
+      <c r="S283">
         <v>2.1</v>
       </c>
-      <c r="O283">
-        <v>3.3</v>
-      </c>
-      <c r="P283">
-        <v>3.6</v>
-      </c>
-      <c r="Q283">
-        <v>-0.25</v>
-      </c>
-      <c r="R283">
-        <v>1.825</v>
-      </c>
-      <c r="S283">
-        <v>2.025</v>
-      </c>
       <c r="T283">
         <v>2</v>
       </c>
       <c r="U283">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V283">
         <v>2.05</v>
@@ -25706,22 +25706,22 @@
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z283">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.5125</v>
+        <v>1.1</v>
       </c>
       <c r="AB283">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC283">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25729,7 +25729,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6906774</v>
+        <v>6906773</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25741,76 +25741,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F284" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G284" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284">
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L284">
         <v>3.2</v>
       </c>
       <c r="M284">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N284">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O284">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P284">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q284">
         <v>-0.25</v>
       </c>
       <c r="R284">
+        <v>1.825</v>
+      </c>
+      <c r="S284">
         <v>2.025</v>
       </c>
-      <c r="S284">
-        <v>1.825</v>
-      </c>
       <c r="T284">
         <v>2</v>
       </c>
       <c r="U284">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V284">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y284">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA284">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC284">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25818,7 +25818,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6906390</v>
+        <v>6906774</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25830,56 +25830,56 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F285" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G285" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
         <v>50</v>
       </c>
       <c r="K285">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L285">
         <v>3.2</v>
       </c>
       <c r="M285">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N285">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O285">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P285">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q285">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R285">
+        <v>2.025</v>
+      </c>
+      <c r="S285">
+        <v>1.825</v>
+      </c>
+      <c r="T285">
+        <v>2</v>
+      </c>
+      <c r="U285">
         <v>1.775</v>
       </c>
-      <c r="S285">
+      <c r="V285">
         <v>2.1</v>
       </c>
-      <c r="T285">
-        <v>2</v>
-      </c>
-      <c r="U285">
-        <v>1.75</v>
-      </c>
-      <c r="V285">
-        <v>2.05</v>
-      </c>
       <c r="W285">
         <v>-1</v>
       </c>
@@ -25887,19 +25887,19 @@
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
+        <v>0.825</v>
+      </c>
+      <c r="AB285">
+        <v>-1</v>
+      </c>
+      <c r="AC285">
         <v>1.1</v>
-      </c>
-      <c r="AB285">
-        <v>0.75</v>
-      </c>
-      <c r="AC285">
-        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25922,7 +25922,7 @@
         <v>40</v>
       </c>
       <c r="G286" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -26364,7 +26364,7 @@
         <v>45360.51041666666</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G291" t="s">
         <v>41</v>
@@ -26456,7 +26456,7 @@
         <v>43</v>
       </c>
       <c r="G292" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -26545,7 +26545,7 @@
         <v>44</v>
       </c>
       <c r="G293" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -26812,7 +26812,7 @@
         <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H296">
         <v>2</v>
@@ -27254,7 +27254,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G301" t="s">
         <v>35</v>
@@ -27346,7 +27346,7 @@
         <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H302">
         <v>3</v>
@@ -27432,7 +27432,7 @@
         <v>45367.51041666666</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G303" t="s">
         <v>48</v>
@@ -27699,7 +27699,7 @@
         <v>45368.51041666666</v>
       </c>
       <c r="F306" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G306" t="s">
         <v>49</v>
@@ -27865,7 +27865,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7088815</v>
+        <v>7097548</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27877,73 +27877,73 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G308" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I308">
         <v>3</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K308">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L308">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M308">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N308">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O308">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P308">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R308">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S308">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T308">
         <v>2.5</v>
       </c>
       <c r="U308">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V308">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W308">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X308">
         <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z308">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB308">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -27954,7 +27954,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7093333</v>
+        <v>7077996</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27966,49 +27966,49 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G309" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K309">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L309">
         <v>3.2</v>
       </c>
       <c r="M309">
+        <v>2.5</v>
+      </c>
+      <c r="N309">
         <v>3.4</v>
       </c>
-      <c r="N309">
-        <v>1.95</v>
-      </c>
       <c r="O309">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P309">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q309">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R309">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S309">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T309">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U309">
         <v>2</v>
@@ -28017,25 +28017,25 @@
         <v>1.85</v>
       </c>
       <c r="W309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X309">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB309">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7097548</v>
+        <v>7093333</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,7 +28055,7 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G310" t="s">
         <v>46</v>
@@ -28064,64 +28064,64 @@
         <v>2</v>
       </c>
       <c r="I310">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K310">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L310">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M310">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N310">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O310">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P310">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S310">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U310">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V310">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X310">
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA310">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28132,7 +28132,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7093331</v>
+        <v>7088815</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28144,76 +28144,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F311" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G311" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J311" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K311">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L311">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M311">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N311">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O311">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P311">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q311">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S311">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T311">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA311">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC311">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28221,7 +28221,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7077996</v>
+        <v>7093331</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28233,76 +28233,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K312">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L312">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M312">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N312">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="O312">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P312">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q312">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R312">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S312">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T312">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U312">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V312">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W312">
         <v>-1</v>
       </c>
       <c r="X312">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z312">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB312">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC312">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28310,7 +28310,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7083241</v>
+        <v>7151351</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28322,76 +28322,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K313">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L313">
+        <v>3.1</v>
+      </c>
+      <c r="M313">
         <v>3.4</v>
       </c>
-      <c r="M313">
-        <v>4.75</v>
-      </c>
       <c r="N313">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O313">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P313">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q313">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S313">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T313">
         <v>2</v>
       </c>
       <c r="U313">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V313">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="W313">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z313">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA313">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB313">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC313">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28399,7 +28399,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7151351</v>
+        <v>7083241</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28411,76 +28411,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G314" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K314">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L314">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M314">
+        <v>4.75</v>
+      </c>
+      <c r="N314">
+        <v>1.65</v>
+      </c>
+      <c r="O314">
         <v>3.4</v>
       </c>
-      <c r="N314">
-        <v>2.4</v>
-      </c>
-      <c r="O314">
-        <v>3.1</v>
-      </c>
       <c r="P314">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R314">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S314">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T314">
         <v>2</v>
       </c>
       <c r="U314">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V314">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA314">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28500,7 +28500,7 @@
         <v>45383.54166666666</v>
       </c>
       <c r="F315" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G315" t="s">
         <v>42</v>
@@ -28592,7 +28592,7 @@
         <v>39</v>
       </c>
       <c r="G316" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H316">
         <v>4</v>
@@ -28681,7 +28681,7 @@
         <v>30</v>
       </c>
       <c r="G317" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -28755,7 +28755,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7128698</v>
+        <v>7128697</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28764,49 +28764,49 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45388.375</v>
+        <v>45389.46875</v>
       </c>
       <c r="F318" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G318" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K318">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L318">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M318">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N318">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P318">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R318">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S318">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T318">
         <v>2.25</v>
       </c>
       <c r="U318">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V318">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28821,598 +28821,6 @@
         <v>0</v>
       </c>
       <c r="AA318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:29">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>7077997</v>
-      </c>
-      <c r="C319" t="s">
-        <v>28</v>
-      </c>
-      <c r="D319" t="s">
-        <v>28</v>
-      </c>
-      <c r="E319" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F319" t="s">
-        <v>48</v>
-      </c>
-      <c r="G319" t="s">
-        <v>49</v>
-      </c>
-      <c r="K319">
-        <v>1.7</v>
-      </c>
-      <c r="L319">
-        <v>3.75</v>
-      </c>
-      <c r="M319">
-        <v>4.75</v>
-      </c>
-      <c r="N319">
-        <v>1.666</v>
-      </c>
-      <c r="O319">
-        <v>3.8</v>
-      </c>
-      <c r="P319">
-        <v>5.5</v>
-      </c>
-      <c r="Q319">
-        <v>-0.75</v>
-      </c>
-      <c r="R319">
-        <v>1.8</v>
-      </c>
-      <c r="S319">
-        <v>2.05</v>
-      </c>
-      <c r="T319">
-        <v>2.5</v>
-      </c>
-      <c r="U319">
-        <v>1.925</v>
-      </c>
-      <c r="V319">
-        <v>1.925</v>
-      </c>
-      <c r="W319">
-        <v>0</v>
-      </c>
-      <c r="X319">
-        <v>0</v>
-      </c>
-      <c r="Y319">
-        <v>0</v>
-      </c>
-      <c r="Z319">
-        <v>0</v>
-      </c>
-      <c r="AA319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:29">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>7097029</v>
-      </c>
-      <c r="C320" t="s">
-        <v>28</v>
-      </c>
-      <c r="D320" t="s">
-        <v>28</v>
-      </c>
-      <c r="E320" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F320" t="s">
-        <v>36</v>
-      </c>
-      <c r="G320" t="s">
-        <v>31</v>
-      </c>
-      <c r="K320">
-        <v>4.333</v>
-      </c>
-      <c r="L320">
-        <v>3.4</v>
-      </c>
-      <c r="M320">
-        <v>1.85</v>
-      </c>
-      <c r="N320">
-        <v>4.5</v>
-      </c>
-      <c r="O320">
-        <v>3.3</v>
-      </c>
-      <c r="P320">
-        <v>1.909</v>
-      </c>
-      <c r="Q320">
-        <v>0.5</v>
-      </c>
-      <c r="R320">
-        <v>1.975</v>
-      </c>
-      <c r="S320">
-        <v>1.875</v>
-      </c>
-      <c r="T320">
-        <v>2.25</v>
-      </c>
-      <c r="U320">
-        <v>2.05</v>
-      </c>
-      <c r="V320">
-        <v>1.8</v>
-      </c>
-      <c r="W320">
-        <v>0</v>
-      </c>
-      <c r="X320">
-        <v>0</v>
-      </c>
-      <c r="Y320">
-        <v>0</v>
-      </c>
-      <c r="Z320">
-        <v>0</v>
-      </c>
-      <c r="AA320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>7129415</v>
-      </c>
-      <c r="C321" t="s">
-        <v>28</v>
-      </c>
-      <c r="D321" t="s">
-        <v>28</v>
-      </c>
-      <c r="E321" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F321" t="s">
-        <v>33</v>
-      </c>
-      <c r="G321" t="s">
-        <v>40</v>
-      </c>
-      <c r="K321">
-        <v>2.875</v>
-      </c>
-      <c r="L321">
-        <v>3.1</v>
-      </c>
-      <c r="M321">
-        <v>2.55</v>
-      </c>
-      <c r="N321">
-        <v>2.8</v>
-      </c>
-      <c r="O321">
-        <v>3.2</v>
-      </c>
-      <c r="P321">
-        <v>2.6</v>
-      </c>
-      <c r="Q321">
-        <v>0</v>
-      </c>
-      <c r="R321">
-        <v>2.025</v>
-      </c>
-      <c r="S321">
-        <v>1.825</v>
-      </c>
-      <c r="T321">
-        <v>2.25</v>
-      </c>
-      <c r="U321">
-        <v>1.85</v>
-      </c>
-      <c r="V321">
-        <v>2</v>
-      </c>
-      <c r="W321">
-        <v>0</v>
-      </c>
-      <c r="X321">
-        <v>0</v>
-      </c>
-      <c r="Y321">
-        <v>0</v>
-      </c>
-      <c r="Z321">
-        <v>0</v>
-      </c>
-      <c r="AA321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>7151350</v>
-      </c>
-      <c r="C322" t="s">
-        <v>28</v>
-      </c>
-      <c r="D322" t="s">
-        <v>28</v>
-      </c>
-      <c r="E322" s="2">
-        <v>45388.375</v>
-      </c>
-      <c r="F322" t="s">
-        <v>29</v>
-      </c>
-      <c r="G322" t="s">
-        <v>44</v>
-      </c>
-      <c r="K322">
-        <v>2.625</v>
-      </c>
-      <c r="L322">
-        <v>3.25</v>
-      </c>
-      <c r="M322">
-        <v>2.7</v>
-      </c>
-      <c r="N322">
-        <v>2.7</v>
-      </c>
-      <c r="O322">
-        <v>3</v>
-      </c>
-      <c r="P322">
-        <v>2.9</v>
-      </c>
-      <c r="Q322">
-        <v>0</v>
-      </c>
-      <c r="R322">
-        <v>1.9</v>
-      </c>
-      <c r="S322">
-        <v>1.95</v>
-      </c>
-      <c r="T322">
-        <v>2.25</v>
-      </c>
-      <c r="U322">
-        <v>2.1</v>
-      </c>
-      <c r="V322">
-        <v>1.775</v>
-      </c>
-      <c r="W322">
-        <v>0</v>
-      </c>
-      <c r="X322">
-        <v>0</v>
-      </c>
-      <c r="Y322">
-        <v>0</v>
-      </c>
-      <c r="Z322">
-        <v>0</v>
-      </c>
-      <c r="AA322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>7141358</v>
-      </c>
-      <c r="C323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E323" s="2">
-        <v>45388.46875</v>
-      </c>
-      <c r="F323" t="s">
-        <v>46</v>
-      </c>
-      <c r="G323" t="s">
-        <v>37</v>
-      </c>
-      <c r="K323">
-        <v>2.4</v>
-      </c>
-      <c r="L323">
-        <v>3</v>
-      </c>
-      <c r="M323">
-        <v>3.2</v>
-      </c>
-      <c r="N323">
-        <v>2.4</v>
-      </c>
-      <c r="O323">
-        <v>2.9</v>
-      </c>
-      <c r="P323">
-        <v>3.25</v>
-      </c>
-      <c r="Q323">
-        <v>-0.25</v>
-      </c>
-      <c r="R323">
-        <v>2.05</v>
-      </c>
-      <c r="S323">
-        <v>1.8</v>
-      </c>
-      <c r="T323">
-        <v>2</v>
-      </c>
-      <c r="U323">
-        <v>1.85</v>
-      </c>
-      <c r="V323">
-        <v>2</v>
-      </c>
-      <c r="W323">
-        <v>0</v>
-      </c>
-      <c r="X323">
-        <v>0</v>
-      </c>
-      <c r="Y323">
-        <v>0</v>
-      </c>
-      <c r="Z323">
-        <v>0</v>
-      </c>
-      <c r="AA323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>7097549</v>
-      </c>
-      <c r="C324" t="s">
-        <v>28</v>
-      </c>
-      <c r="D324" t="s">
-        <v>28</v>
-      </c>
-      <c r="E324" s="2">
-        <v>45388.46875</v>
-      </c>
-      <c r="F324" t="s">
-        <v>43</v>
-      </c>
-      <c r="G324" t="s">
-        <v>41</v>
-      </c>
-      <c r="K324">
-        <v>2.7</v>
-      </c>
-      <c r="L324">
-        <v>3.2</v>
-      </c>
-      <c r="M324">
-        <v>2.625</v>
-      </c>
-      <c r="N324">
-        <v>2.7</v>
-      </c>
-      <c r="O324">
-        <v>3.2</v>
-      </c>
-      <c r="P324">
-        <v>2.75</v>
-      </c>
-      <c r="Q324">
-        <v>0</v>
-      </c>
-      <c r="R324">
-        <v>1.95</v>
-      </c>
-      <c r="S324">
-        <v>1.9</v>
-      </c>
-      <c r="T324">
-        <v>2.5</v>
-      </c>
-      <c r="U324">
-        <v>1.975</v>
-      </c>
-      <c r="V324">
-        <v>1.875</v>
-      </c>
-      <c r="W324">
-        <v>0</v>
-      </c>
-      <c r="X324">
-        <v>0</v>
-      </c>
-      <c r="Y324">
-        <v>0</v>
-      </c>
-      <c r="Z324">
-        <v>0</v>
-      </c>
-      <c r="AA324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:27">
-      <c r="A325" s="1">
-        <v>323</v>
-      </c>
-      <c r="B325">
-        <v>7088816</v>
-      </c>
-      <c r="C325" t="s">
-        <v>28</v>
-      </c>
-      <c r="D325" t="s">
-        <v>28</v>
-      </c>
-      <c r="E325" s="2">
-        <v>45388.46875</v>
-      </c>
-      <c r="F325" t="s">
-        <v>47</v>
-      </c>
-      <c r="G325" t="s">
-        <v>39</v>
-      </c>
-      <c r="K325">
-        <v>2</v>
-      </c>
-      <c r="L325">
-        <v>3.5</v>
-      </c>
-      <c r="M325">
-        <v>3.6</v>
-      </c>
-      <c r="N325">
-        <v>2.3</v>
-      </c>
-      <c r="O325">
-        <v>3.4</v>
-      </c>
-      <c r="P325">
-        <v>3.1</v>
-      </c>
-      <c r="Q325">
-        <v>-0.25</v>
-      </c>
-      <c r="R325">
-        <v>2.025</v>
-      </c>
-      <c r="S325">
-        <v>1.825</v>
-      </c>
-      <c r="T325">
-        <v>2.75</v>
-      </c>
-      <c r="U325">
-        <v>2</v>
-      </c>
-      <c r="V325">
-        <v>1.85</v>
-      </c>
-      <c r="W325">
-        <v>0</v>
-      </c>
-      <c r="X325">
-        <v>0</v>
-      </c>
-      <c r="Y325">
-        <v>0</v>
-      </c>
-      <c r="Z325">
-        <v>0</v>
-      </c>
-      <c r="AA325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:27">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="B326">
-        <v>7128697</v>
-      </c>
-      <c r="C326" t="s">
-        <v>28</v>
-      </c>
-      <c r="D326" t="s">
-        <v>28</v>
-      </c>
-      <c r="E326" s="2">
-        <v>45389.46875</v>
-      </c>
-      <c r="F326" t="s">
-        <v>45</v>
-      </c>
-      <c r="G326" t="s">
-        <v>38</v>
-      </c>
-      <c r="K326">
-        <v>3.4</v>
-      </c>
-      <c r="L326">
-        <v>3.25</v>
-      </c>
-      <c r="M326">
-        <v>2.15</v>
-      </c>
-      <c r="N326">
-        <v>3.75</v>
-      </c>
-      <c r="O326">
-        <v>3.3</v>
-      </c>
-      <c r="P326">
-        <v>2.1</v>
-      </c>
-      <c r="Q326">
-        <v>0.25</v>
-      </c>
-      <c r="R326">
-        <v>2.025</v>
-      </c>
-      <c r="S326">
-        <v>1.825</v>
-      </c>
-      <c r="T326">
-        <v>2.25</v>
-      </c>
-      <c r="U326">
-        <v>2.05</v>
-      </c>
-      <c r="V326">
-        <v>1.8</v>
-      </c>
-      <c r="W326">
-        <v>0</v>
-      </c>
-      <c r="X326">
-        <v>0</v>
-      </c>
-      <c r="Y326">
-        <v>0</v>
-      </c>
-      <c r="Z326">
-        <v>0</v>
-      </c>
-      <c r="AA326">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7167430</v>
+        <v>7168365</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,73 +4737,73 @@
         <v>45186.46875</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O48">
+        <v>3.25</v>
+      </c>
+      <c r="P48">
         <v>3.2</v>
-      </c>
-      <c r="P48">
-        <v>3.6</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
+        <v>2.05</v>
+      </c>
+      <c r="S48">
+        <v>1.8</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
+        <v>2.025</v>
+      </c>
+      <c r="V48">
         <v>1.825</v>
       </c>
-      <c r="S48">
-        <v>2.025</v>
-      </c>
-      <c r="T48">
-        <v>2.25</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>2</v>
-      </c>
       <c r="W48">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4814,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7168365</v>
+        <v>7167430</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4826,73 +4826,73 @@
         <v>45186.46875</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L49">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M49">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N49">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -5882,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6906657</v>
+        <v>6906447</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5894,10 +5894,10 @@
         <v>45195.55208333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5909,41 +5909,41 @@
         <v>50</v>
       </c>
       <c r="K61">
+        <v>2.5</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>2.45</v>
+      </c>
+      <c r="O61">
         <v>3.1</v>
       </c>
-      <c r="L61">
+      <c r="P61">
         <v>3.1</v>
       </c>
-      <c r="M61">
-        <v>2.4</v>
-      </c>
-      <c r="N61">
-        <v>3.4</v>
-      </c>
-      <c r="O61">
-        <v>3.2</v>
-      </c>
-      <c r="P61">
-        <v>2.2</v>
-      </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
+        <v>2.025</v>
+      </c>
+      <c r="V61">
         <v>1.825</v>
       </c>
-      <c r="V61">
-        <v>2.025</v>
-      </c>
       <c r="W61">
         <v>-1</v>
       </c>
@@ -5951,16 +5951,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5971,7 +5971,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6906447</v>
+        <v>6906657</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5983,10 +5983,10 @@
         <v>45195.55208333334</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5998,41 +5998,41 @@
         <v>50</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
+        <v>1.825</v>
+      </c>
+      <c r="V62">
         <v>2.025</v>
       </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
@@ -6040,16 +6040,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB62">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6505,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6906449</v>
+        <v>6906658</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6517,76 +6517,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L68">
         <v>3.25</v>
       </c>
       <c r="M68">
+        <v>3.4</v>
+      </c>
+      <c r="N68">
+        <v>1.909</v>
+      </c>
+      <c r="O68">
         <v>3.25</v>
       </c>
-      <c r="N68">
-        <v>2.3</v>
-      </c>
-      <c r="O68">
-        <v>3.1</v>
-      </c>
       <c r="P68">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X68">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6906658</v>
+        <v>6906449</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6606,76 +6606,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K69">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
         <v>3.25</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N69">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
+        <v>3.1</v>
+      </c>
+      <c r="P69">
         <v>3.25</v>
       </c>
-      <c r="P69">
-        <v>4.5</v>
-      </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6906663</v>
+        <v>7151374</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6784,76 +6784,76 @@
         <v>45199.375</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K71">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="L71">
         <v>3.2</v>
       </c>
       <c r="M71">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O71">
         <v>3.1</v>
       </c>
       <c r="P71">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
+        <v>1.75</v>
+      </c>
+      <c r="V71">
         <v>2.05</v>
       </c>
-      <c r="V71">
-        <v>1.8</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y71">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB71">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6906664</v>
+        <v>6906666</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6873,73 +6873,73 @@
         <v>45199.375</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>50</v>
       </c>
       <c r="K72">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
+        <v>4.333</v>
+      </c>
+      <c r="N72">
+        <v>2.05</v>
+      </c>
+      <c r="O72">
+        <v>3.1</v>
+      </c>
+      <c r="P72">
+        <v>4</v>
+      </c>
+      <c r="Q72">
+        <v>-0.5</v>
+      </c>
+      <c r="R72">
+        <v>2.025</v>
+      </c>
+      <c r="S72">
+        <v>1.825</v>
+      </c>
+      <c r="T72">
+        <v>2.25</v>
+      </c>
+      <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
+        <v>1.825</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>3</v>
       </c>
-      <c r="N72">
-        <v>2.375</v>
-      </c>
-      <c r="O72">
-        <v>3.25</v>
-      </c>
-      <c r="P72">
-        <v>3</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>2.05</v>
-      </c>
-      <c r="S72">
-        <v>1.8</v>
-      </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>2.05</v>
-      </c>
-      <c r="V72">
-        <v>1.8</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>2</v>
-      </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6950,7 +6950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7151374</v>
+        <v>6906664</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6962,76 +6962,76 @@
         <v>45199.375</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K73">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N73">
         <v>2.375</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q73">
         <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V73">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7039,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6906666</v>
+        <v>6906663</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7051,10 +7051,10 @@
         <v>45199.375</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7066,40 +7066,40 @@
         <v>50</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O74">
         <v>3.1</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7108,16 +7108,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6906689</v>
+        <v>6906693</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,76 +11679,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N126">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P126">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC126">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6906693</v>
+        <v>6905861</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,25 +11768,25 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>1</v>
-      </c>
-      <c r="I127">
-        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>50</v>
       </c>
       <c r="K127">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
         <v>2.875</v>
@@ -11795,22 +11795,22 @@
         <v>3.1</v>
       </c>
       <c r="O127">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P127">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q127">
         <v>0</v>
       </c>
       <c r="R127">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S127">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
         <v>2.1</v>
@@ -11825,19 +11825,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
+        <v>0.75</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB127">
-        <v>1.1</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6905861</v>
+        <v>6906689</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K128">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N128">
+        <v>2.4</v>
+      </c>
+      <c r="O128">
+        <v>3.3</v>
+      </c>
+      <c r="P128">
         <v>3.1</v>
       </c>
-      <c r="O128">
-        <v>3</v>
-      </c>
-      <c r="P128">
-        <v>2.5</v>
-      </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7269065</v>
+        <v>7269066</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>52</v>
       </c>
       <c r="K145">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N145">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7269066</v>
+        <v>7269065</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13459,76 +13459,76 @@
         <v>45258.60416666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>52</v>
       </c>
       <c r="K146">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L146">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="M146">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="O146">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6906706</v>
+        <v>6906708</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,58 +14438,58 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>51</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L157">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>1.85</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
         <v>1.95</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.9</v>
       </c>
-      <c r="T157">
-        <v>1.75</v>
-      </c>
-      <c r="U157">
-        <v>1.825</v>
-      </c>
-      <c r="V157">
-        <v>2.025</v>
-      </c>
       <c r="W157">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14498,16 +14498,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6906708</v>
+        <v>6906707</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,13 +14527,13 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -14542,10 +14542,10 @@
         <v>51</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
         <v>3.75</v>
@@ -14554,10 +14554,10 @@
         <v>2</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q158">
         <v>-0.5</v>
@@ -14569,13 +14569,13 @@
         <v>1.85</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
         <v>1</v>
@@ -14593,10 +14593,10 @@
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14604,7 +14604,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6906707</v>
+        <v>6906422</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14616,10 +14616,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14631,43 +14631,43 @@
         <v>51</v>
       </c>
       <c r="K159">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14676,16 +14676,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6906422</v>
+        <v>6906705</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,76 +14705,76 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K160">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M160">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N160">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P160">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
         <v>2.25</v>
       </c>
       <c r="U160">
+        <v>2.05</v>
+      </c>
+      <c r="V160">
         <v>1.8</v>
       </c>
-      <c r="V160">
-        <v>2.05</v>
-      </c>
       <c r="W160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB160">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC160">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6906705</v>
+        <v>6906706</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,73 +14794,73 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>2</v>
-      </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K161">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L161">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M161">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N161">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P161">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T161">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U161">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -15049,7 +15049,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6905863</v>
+        <v>7151366</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15061,76 +15061,76 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O164">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U164">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6906709</v>
+        <v>6905863</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15150,73 +15150,73 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
+        <v>3.3</v>
+      </c>
+      <c r="M165">
+        <v>3.6</v>
+      </c>
+      <c r="N165">
+        <v>2.2</v>
+      </c>
+      <c r="O165">
+        <v>3.2</v>
+      </c>
+      <c r="P165">
         <v>3.4</v>
       </c>
-      <c r="M165">
-        <v>3.4</v>
-      </c>
-      <c r="N165">
-        <v>1.909</v>
-      </c>
-      <c r="O165">
-        <v>3.6</v>
-      </c>
-      <c r="P165">
-        <v>4</v>
-      </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X165">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7151366</v>
+        <v>6906709</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15239,76 +15239,76 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
         <v>52</v>
       </c>
       <c r="K166">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L166">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N166">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O166">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
+        <v>1.875</v>
+      </c>
+      <c r="S166">
         <v>1.975</v>
       </c>
-      <c r="S166">
-        <v>1.875</v>
-      </c>
       <c r="T166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6906421</v>
+        <v>6906711</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15862,76 +15862,76 @@
         <v>45276.51041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K173">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="L173">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M173">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N173">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O173">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
+        <v>2</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>2.025</v>
+      </c>
+      <c r="V173">
         <v>1.825</v>
       </c>
-      <c r="S173">
-        <v>2.025</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.825</v>
-      </c>
-      <c r="V173">
-        <v>2.025</v>
-      </c>
       <c r="W173">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
+        <v>0.425</v>
+      </c>
+      <c r="AA173">
+        <v>-0.5</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.825</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
-      <c r="AC173">
-        <v>1.025</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15939,7 +15939,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6906711</v>
+        <v>6906714</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15951,76 +15951,76 @@
         <v>45276.51041666666</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K174">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L174">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
+        <v>4</v>
+      </c>
+      <c r="N174">
+        <v>2.1</v>
+      </c>
+      <c r="O174">
+        <v>3.3</v>
+      </c>
+      <c r="P174">
+        <v>3.6</v>
+      </c>
+      <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>1.825</v>
+      </c>
+      <c r="S174">
+        <v>2.025</v>
+      </c>
+      <c r="T174">
         <v>2.25</v>
       </c>
-      <c r="N174">
-        <v>3.1</v>
-      </c>
-      <c r="O174">
-        <v>3.4</v>
-      </c>
-      <c r="P174">
-        <v>2.3</v>
-      </c>
-      <c r="Q174">
-        <v>0.25</v>
-      </c>
-      <c r="R174">
-        <v>1.85</v>
-      </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X174">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16028,7 +16028,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6906714</v>
+        <v>6906421</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16040,40 +16040,40 @@
         <v>45276.51041666666</v>
       </c>
       <c r="F175" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M175">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N175">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R175">
         <v>1.825</v>
@@ -16082,16 +16082,16 @@
         <v>2.025</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W175">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16106,10 +16106,10 @@
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17185,7 +17185,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6906726</v>
+        <v>6906723</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17197,34 +17197,34 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>52</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="L188">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M188">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P188">
         <v>2.875</v>
@@ -17233,25 +17233,25 @@
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
         <v>2.05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
         <v>1.8</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2</v>
       </c>
       <c r="Y188">
         <v>-1</v>
@@ -17263,10 +17263,10 @@
         <v>-0</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17274,7 +17274,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6906723</v>
+        <v>6906726</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17286,34 +17286,34 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L189">
+        <v>3.2</v>
+      </c>
+      <c r="M189">
         <v>3.1</v>
       </c>
-      <c r="M189">
-        <v>2.55</v>
-      </c>
       <c r="N189">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O189">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P189">
         <v>2.875</v>
@@ -17322,25 +17322,25 @@
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
+        <v>2.05</v>
+      </c>
+      <c r="V189">
         <v>1.8</v>
       </c>
-      <c r="V189">
-        <v>2.05</v>
-      </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y189">
         <v>-1</v>
@@ -17352,10 +17352,10 @@
         <v>-0</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6906416</v>
+        <v>6905865</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,73 +17375,73 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K190">
+        <v>2.9</v>
+      </c>
+      <c r="L190">
+        <v>3.1</v>
+      </c>
+      <c r="M190">
+        <v>2.6</v>
+      </c>
+      <c r="N190">
         <v>2.875</v>
       </c>
-      <c r="L190">
-        <v>3.25</v>
-      </c>
-      <c r="M190">
-        <v>2.55</v>
-      </c>
-      <c r="N190">
-        <v>2.25</v>
-      </c>
       <c r="O190">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P190">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
         <v>2</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17719,7 +17719,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6905865</v>
+        <v>6906416</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17731,73 +17731,73 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G194" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
         <v>1</v>
       </c>
-      <c r="I194">
-        <v>2</v>
-      </c>
       <c r="J194" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K194">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L194">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M194">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N194">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O194">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P194">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
+        <v>1.9</v>
+      </c>
+      <c r="S194">
+        <v>1.95</v>
+      </c>
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
+        <v>1.875</v>
+      </c>
+      <c r="V194">
         <v>1.975</v>
       </c>
-      <c r="S194">
-        <v>1.875</v>
-      </c>
-      <c r="T194">
-        <v>2</v>
-      </c>
-      <c r="U194">
-        <v>1.85</v>
-      </c>
-      <c r="V194">
-        <v>2</v>
-      </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
         <v>0.875</v>
-      </c>
-      <c r="AB194">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -19410,7 +19410,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6906410</v>
+        <v>6906735</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19422,73 +19422,73 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K213">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N213">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P213">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA213">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6906735</v>
+        <v>6906410</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,73 +19511,73 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K214">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M214">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N214">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB214">
         <v>0.925</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>0.875</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6906392</v>
+        <v>6906766</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,55 +24406,55 @@
         <v>45349.6875</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J269" t="s">
         <v>50</v>
       </c>
       <c r="K269">
+        <v>1.727</v>
+      </c>
+      <c r="L269">
+        <v>3.8</v>
+      </c>
+      <c r="M269">
+        <v>4.5</v>
+      </c>
+      <c r="N269">
+        <v>1.5</v>
+      </c>
+      <c r="O269">
+        <v>4.5</v>
+      </c>
+      <c r="P269">
+        <v>6</v>
+      </c>
+      <c r="Q269">
+        <v>-1.25</v>
+      </c>
+      <c r="R269">
+        <v>2.05</v>
+      </c>
+      <c r="S269">
+        <v>1.8</v>
+      </c>
+      <c r="T269">
         <v>3</v>
       </c>
-      <c r="L269">
-        <v>3.3</v>
-      </c>
-      <c r="M269">
-        <v>2.35</v>
-      </c>
-      <c r="N269">
-        <v>2.8</v>
-      </c>
-      <c r="O269">
-        <v>3.1</v>
-      </c>
-      <c r="P269">
-        <v>2.7</v>
-      </c>
-      <c r="Q269">
-        <v>0</v>
-      </c>
-      <c r="R269">
-        <v>1.925</v>
-      </c>
-      <c r="S269">
-        <v>1.925</v>
-      </c>
-      <c r="T269">
-        <v>2.25</v>
-      </c>
       <c r="U269">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V269">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W269">
         <v>-1</v>
@@ -24463,16 +24463,16 @@
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB269">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC269">
         <v>-1</v>
@@ -24483,7 +24483,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6906766</v>
+        <v>6906767</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24495,76 +24495,76 @@
         <v>45349.6875</v>
       </c>
       <c r="F270" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G270" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K270">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L270">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M270">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N270">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O270">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P270">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q270">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R270">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S270">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T270">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
+        <v>1.825</v>
+      </c>
+      <c r="V270">
         <v>2.025</v>
       </c>
-      <c r="V270">
-        <v>1.825</v>
-      </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y270">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
         <v>-1</v>
       </c>
       <c r="AA270">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB270">
+        <v>-1</v>
+      </c>
+      <c r="AC270">
         <v>1.025</v>
-      </c>
-      <c r="AC270">
-        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24750,7 +24750,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6906767</v>
+        <v>6906392</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24762,76 +24762,76 @@
         <v>45349.6875</v>
       </c>
       <c r="F273" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H273">
         <v>1</v>
       </c>
       <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273" t="s">
+        <v>50</v>
+      </c>
+      <c r="K273">
+        <v>3</v>
+      </c>
+      <c r="L273">
+        <v>3.3</v>
+      </c>
+      <c r="M273">
+        <v>2.35</v>
+      </c>
+      <c r="N273">
+        <v>2.8</v>
+      </c>
+      <c r="O273">
+        <v>3.1</v>
+      </c>
+      <c r="P273">
+        <v>2.7</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>1.925</v>
+      </c>
+      <c r="S273">
+        <v>1.925</v>
+      </c>
+      <c r="T273">
+        <v>2.25</v>
+      </c>
+      <c r="U273">
+        <v>2</v>
+      </c>
+      <c r="V273">
+        <v>1.85</v>
+      </c>
+      <c r="W273">
+        <v>-1</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
+        <v>1.7</v>
+      </c>
+      <c r="Z273">
+        <v>-1</v>
+      </c>
+      <c r="AA273">
+        <v>0.925</v>
+      </c>
+      <c r="AB273">
         <v>1</v>
       </c>
-      <c r="J273" t="s">
-        <v>52</v>
-      </c>
-      <c r="K273">
-        <v>1.65</v>
-      </c>
-      <c r="L273">
-        <v>3.6</v>
-      </c>
-      <c r="M273">
-        <v>5.5</v>
-      </c>
-      <c r="N273">
-        <v>1.666</v>
-      </c>
-      <c r="O273">
-        <v>3.75</v>
-      </c>
-      <c r="P273">
-        <v>5</v>
-      </c>
-      <c r="Q273">
-        <v>-0.75</v>
-      </c>
-      <c r="R273">
-        <v>1.85</v>
-      </c>
-      <c r="S273">
-        <v>2</v>
-      </c>
-      <c r="T273">
-        <v>2.5</v>
-      </c>
-      <c r="U273">
-        <v>1.825</v>
-      </c>
-      <c r="V273">
-        <v>2.025</v>
-      </c>
-      <c r="W273">
-        <v>-1</v>
-      </c>
-      <c r="X273">
-        <v>2.75</v>
-      </c>
-      <c r="Y273">
-        <v>-1</v>
-      </c>
-      <c r="Z273">
-        <v>-1</v>
-      </c>
-      <c r="AA273">
-        <v>1</v>
-      </c>
-      <c r="AB273">
-        <v>-1</v>
-      </c>
       <c r="AC273">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6906770</v>
+        <v>6906768</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,76 +24940,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F275" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G275" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275">
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K275">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L275">
         <v>3.1</v>
       </c>
       <c r="M275">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N275">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O275">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P275">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q275">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S275">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U275">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V275">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y275">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA275">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB275">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC275">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6906768</v>
+        <v>6906770</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,76 +25029,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G276" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L276">
         <v>3.1</v>
       </c>
       <c r="M276">
+        <v>4.2</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276">
         <v>3.2</v>
       </c>
-      <c r="N276">
-        <v>2.6</v>
-      </c>
-      <c r="O276">
-        <v>2.9</v>
-      </c>
       <c r="P276">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T276">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB276">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25106,7 +25106,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6906776</v>
+        <v>7151354</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25118,73 +25118,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G277" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277" t="s">
+        <v>51</v>
+      </c>
+      <c r="K277">
+        <v>2.8</v>
+      </c>
+      <c r="L277">
+        <v>3.1</v>
+      </c>
+      <c r="M277">
+        <v>2.6</v>
+      </c>
+      <c r="N277">
         <v>3</v>
       </c>
-      <c r="J277" t="s">
-        <v>50</v>
-      </c>
-      <c r="K277">
-        <v>4</v>
-      </c>
-      <c r="L277">
-        <v>3.6</v>
-      </c>
-      <c r="M277">
+      <c r="O277">
+        <v>3.2</v>
+      </c>
+      <c r="P277">
+        <v>2.5</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>2.1</v>
+      </c>
+      <c r="S277">
+        <v>1.775</v>
+      </c>
+      <c r="T277">
+        <v>2.25</v>
+      </c>
+      <c r="U277">
         <v>1.85</v>
       </c>
-      <c r="N277">
-        <v>3.25</v>
-      </c>
-      <c r="O277">
-        <v>3.5</v>
-      </c>
-      <c r="P277">
-        <v>2.15</v>
-      </c>
-      <c r="Q277">
-        <v>0.25</v>
-      </c>
-      <c r="R277">
-        <v>1.975</v>
-      </c>
-      <c r="S277">
-        <v>1.875</v>
-      </c>
-      <c r="T277">
-        <v>2.5</v>
-      </c>
-      <c r="U277">
-        <v>1.975</v>
-      </c>
       <c r="V277">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA277">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC277">
         <v>-1</v>
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7151354</v>
+        <v>6906776</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,73 +25207,73 @@
         <v>45353.41666666666</v>
       </c>
       <c r="F278" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G278" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>3</v>
+      </c>
+      <c r="J278" t="s">
+        <v>50</v>
+      </c>
+      <c r="K278">
         <v>4</v>
       </c>
-      <c r="I278">
-        <v>2</v>
-      </c>
-      <c r="J278" t="s">
-        <v>51</v>
-      </c>
-      <c r="K278">
-        <v>2.8</v>
-      </c>
       <c r="L278">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M278">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="N278">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O278">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P278">
+        <v>2.15</v>
+      </c>
+      <c r="Q278">
+        <v>0.25</v>
+      </c>
+      <c r="R278">
+        <v>1.975</v>
+      </c>
+      <c r="S278">
+        <v>1.875</v>
+      </c>
+      <c r="T278">
         <v>2.5</v>
       </c>
-      <c r="Q278">
-        <v>0</v>
-      </c>
-      <c r="R278">
-        <v>2.1</v>
-      </c>
-      <c r="S278">
-        <v>1.775</v>
-      </c>
-      <c r="T278">
-        <v>2.25</v>
-      </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V278">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W278">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z278">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB278">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -26441,7 +26441,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6905873</v>
+        <v>6906388</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26453,76 +26453,76 @@
         <v>45360.51041666666</v>
       </c>
       <c r="F292" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G292" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292">
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K292">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L292">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M292">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N292">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O292">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P292">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q292">
         <v>-0.5</v>
       </c>
       <c r="R292">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S292">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T292">
         <v>2.25</v>
       </c>
       <c r="U292">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V292">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W292">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z292">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB292">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26530,7 +26530,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6906388</v>
+        <v>6905873</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26542,76 +26542,76 @@
         <v>45360.51041666666</v>
       </c>
       <c r="F293" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G293" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293">
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K293">
+        <v>2</v>
+      </c>
+      <c r="L293">
+        <v>3.3</v>
+      </c>
+      <c r="M293">
+        <v>3.75</v>
+      </c>
+      <c r="N293">
         <v>2.05</v>
       </c>
-      <c r="L293">
-        <v>3.2</v>
-      </c>
-      <c r="M293">
-        <v>4</v>
-      </c>
-      <c r="N293">
-        <v>1.95</v>
-      </c>
       <c r="O293">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P293">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q293">
         <v>-0.5</v>
       </c>
       <c r="R293">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S293">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T293">
         <v>2.25</v>
       </c>
       <c r="U293">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA293">
+        <v>-1</v>
+      </c>
+      <c r="AB293">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB293">
-        <v>-1</v>
-      </c>
       <c r="AC293">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -28844,7 +28844,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7151350</v>
+        <v>7077997</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28856,76 +28856,76 @@
         <v>45388.375</v>
       </c>
       <c r="F319" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G319" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I319">
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K319">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="L319">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M319">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N319">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O319">
+        <v>4</v>
+      </c>
+      <c r="P319">
+        <v>6</v>
+      </c>
+      <c r="Q319">
+        <v>-1</v>
+      </c>
+      <c r="R319">
+        <v>2.025</v>
+      </c>
+      <c r="S319">
+        <v>1.825</v>
+      </c>
+      <c r="T319">
+        <v>2.5</v>
+      </c>
+      <c r="U319">
+        <v>1.925</v>
+      </c>
+      <c r="V319">
+        <v>1.925</v>
+      </c>
+      <c r="W319">
+        <v>-1</v>
+      </c>
+      <c r="X319">
         <v>3</v>
       </c>
-      <c r="P319">
-        <v>2.9</v>
-      </c>
-      <c r="Q319">
-        <v>0</v>
-      </c>
-      <c r="R319">
-        <v>1.875</v>
-      </c>
-      <c r="S319">
-        <v>1.975</v>
-      </c>
-      <c r="T319">
-        <v>2.25</v>
-      </c>
-      <c r="U319">
-        <v>2.05</v>
-      </c>
-      <c r="V319">
-        <v>1.8</v>
-      </c>
-      <c r="W319">
-        <v>1.7</v>
-      </c>
-      <c r="X319">
-        <v>-1</v>
-      </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB319">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28933,7 +28933,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7077997</v>
+        <v>7151350</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28945,76 +28945,76 @@
         <v>45388.375</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G320" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I320">
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K320">
+        <v>2.625</v>
+      </c>
+      <c r="L320">
+        <v>3.25</v>
+      </c>
+      <c r="M320">
+        <v>2.7</v>
+      </c>
+      <c r="N320">
+        <v>2.7</v>
+      </c>
+      <c r="O320">
+        <v>3</v>
+      </c>
+      <c r="P320">
+        <v>2.9</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>1.875</v>
+      </c>
+      <c r="S320">
+        <v>1.975</v>
+      </c>
+      <c r="T320">
+        <v>2.25</v>
+      </c>
+      <c r="U320">
+        <v>2.05</v>
+      </c>
+      <c r="V320">
+        <v>1.8</v>
+      </c>
+      <c r="W320">
         <v>1.7</v>
       </c>
-      <c r="L320">
-        <v>3.75</v>
-      </c>
-      <c r="M320">
-        <v>4.75</v>
-      </c>
-      <c r="N320">
-        <v>1.6</v>
-      </c>
-      <c r="O320">
-        <v>4</v>
-      </c>
-      <c r="P320">
-        <v>6</v>
-      </c>
-      <c r="Q320">
-        <v>-1</v>
-      </c>
-      <c r="R320">
-        <v>2.025</v>
-      </c>
-      <c r="S320">
-        <v>1.825</v>
-      </c>
-      <c r="T320">
-        <v>2.5</v>
-      </c>
-      <c r="U320">
-        <v>1.925</v>
-      </c>
-      <c r="V320">
-        <v>1.925</v>
-      </c>
-      <c r="W320">
-        <v>-1</v>
-      </c>
       <c r="X320">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA320">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC320">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29589,7 +29589,7 @@
         <v>3.2</v>
       </c>
       <c r="P327">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q327">
         <v>-0.25</v>
@@ -29657,31 +29657,31 @@
         <v>6</v>
       </c>
       <c r="N328">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O328">
         <v>4</v>
       </c>
       <c r="P328">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q328">
         <v>-1</v>
       </c>
       <c r="R328">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S328">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T328">
         <v>2.75</v>
       </c>
       <c r="U328">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V328">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29731,7 +29731,7 @@
         <v>5.25</v>
       </c>
       <c r="N329">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O329">
         <v>3.4</v>
@@ -29743,10 +29743,10 @@
         <v>-0.5</v>
       </c>
       <c r="R329">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S329">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T329">
         <v>2.25</v>
@@ -29811,7 +29811,7 @@
         <v>2.875</v>
       </c>
       <c r="P330">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q330">
         <v>-0.25</v>
@@ -29882,7 +29882,7 @@
         <v>1.95</v>
       </c>
       <c r="O331">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P331">
         <v>4.2</v>
@@ -29953,31 +29953,31 @@
         <v>4.75</v>
       </c>
       <c r="N332">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O332">
         <v>3.5</v>
       </c>
       <c r="P332">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q332">
         <v>-0.75</v>
       </c>
       <c r="R332">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S332">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V332">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7158903</v>
+        <v>7141356</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30012,37 +30012,37 @@
         <v>45395.46875</v>
       </c>
       <c r="F333" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G333" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K333">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L333">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M333">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N333">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O333">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P333">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q333">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R333">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S333">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T333">
         <v>2.5</v>
@@ -30074,7 +30074,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7141356</v>
+        <v>7083243</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30086,40 +30086,40 @@
         <v>45395.46875</v>
       </c>
       <c r="F334" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G334" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K334">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L334">
+        <v>2.875</v>
+      </c>
+      <c r="M334">
+        <v>2.7</v>
+      </c>
+      <c r="N334">
+        <v>2.8</v>
+      </c>
+      <c r="O334">
         <v>3</v>
       </c>
-      <c r="M334">
-        <v>2.4</v>
-      </c>
-      <c r="N334">
-        <v>2.9</v>
-      </c>
-      <c r="O334">
-        <v>2.9</v>
-      </c>
       <c r="P334">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q334">
         <v>0</v>
       </c>
       <c r="R334">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S334">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T334">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
         <v>1.925</v>
@@ -30148,7 +30148,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7083243</v>
+        <v>7158903</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30160,46 +30160,46 @@
         <v>45395.46875</v>
       </c>
       <c r="F335" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G335" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K335">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L335">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M335">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N335">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O335">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P335">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R335">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S335">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T335">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U335">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V335">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W335">
         <v>0</v>
@@ -30249,22 +30249,22 @@
         <v>5</v>
       </c>
       <c r="N336">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O336">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P336">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q336">
         <v>-0.75</v>
       </c>
       <c r="R336">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S336">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T336">
         <v>2.5</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -136,10 +136,10 @@
     <t>Sampdoria</t>
   </si>
   <si>
-    <t>AC Feralpisalo</t>
+    <t>Modena</t>
   </si>
   <si>
-    <t>Modena</t>
+    <t>AC Feralpisalo</t>
   </si>
   <si>
     <t>Como</t>
@@ -151,10 +151,10 @@
     <t>AC Reggiana</t>
   </si>
   <si>
-    <t>Pisa</t>
+    <t>Ascoli</t>
   </si>
   <si>
-    <t>Ascoli</t>
+    <t>Pisa</t>
   </si>
   <si>
     <t>Palermo</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC346"/>
+  <dimension ref="A1:AC338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1269,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1625,7 +1625,7 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6906627</v>
+        <v>6906628</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,73 +2159,73 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>2.625</v>
+        <v>1.9</v>
       </c>
       <c r="L19">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6906628</v>
+        <v>6906627</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2248,73 +2248,73 @@
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>2.625</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
+        <v>2.625</v>
+      </c>
+      <c r="N20">
+        <v>2.4</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3.2</v>
+      </c>
+      <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>2.025</v>
+      </c>
+      <c r="S20">
+        <v>1.825</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>1.95</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>2.2</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.825</v>
+      </c>
+      <c r="AB20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20">
-        <v>1.9</v>
-      </c>
-      <c r="L20">
-        <v>3.2</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>1.833</v>
-      </c>
-      <c r="O20">
-        <v>3.5</v>
-      </c>
-      <c r="P20">
-        <v>4.5</v>
-      </c>
-      <c r="Q20">
-        <v>-0.5</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2.05</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
-      <c r="W20">
-        <v>0.833</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>0.8</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6906635</v>
+        <v>6906633</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,56 +2512,56 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="N23">
+        <v>2.625</v>
+      </c>
+      <c r="O23">
         <v>3.1</v>
       </c>
-      <c r="O23">
-        <v>3.25</v>
-      </c>
       <c r="P23">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
+        <v>1.95</v>
+      </c>
+      <c r="V23">
         <v>1.9</v>
       </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
@@ -2569,16 +2569,16 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2589,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6906634</v>
+        <v>6906635</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2601,55 +2601,55 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>50</v>
       </c>
       <c r="K24">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N24">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2658,16 +2658,16 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2690,10 +2690,10 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2767,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6906633</v>
+        <v>6906634</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2779,10 +2779,10 @@
         <v>45167.64583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2797,55 +2797,55 @@
         <v>2.5</v>
       </c>
       <c r="L26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V26">
+        <v>1.75</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
         <v>1.9</v>
       </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>1.75</v>
-      </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3227,7 +3227,7 @@
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3313,10 +3313,10 @@
         <v>45171.5625</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3405,7 +3405,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7167427</v>
+        <v>7167429</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,73 +4206,73 @@
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42">
+        <v>2.1</v>
+      </c>
+      <c r="L42">
+        <v>3.1</v>
+      </c>
+      <c r="M42">
+        <v>3.4</v>
+      </c>
+      <c r="N42">
+        <v>2.25</v>
+      </c>
+      <c r="O42">
+        <v>2.9</v>
+      </c>
+      <c r="P42">
+        <v>3.8</v>
+      </c>
+      <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.9</v>
+      </c>
+      <c r="S42">
+        <v>1.95</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>1.975</v>
+      </c>
+      <c r="V42">
+        <v>1.875</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>1.9</v>
+      </c>
+      <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
+        <v>0.475</v>
+      </c>
+      <c r="AB42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
-      <c r="L42">
-        <v>3.2</v>
-      </c>
-      <c r="M42">
-        <v>2.25</v>
-      </c>
-      <c r="N42">
-        <v>3.2</v>
-      </c>
-      <c r="O42">
-        <v>3.2</v>
-      </c>
-      <c r="P42">
-        <v>2.375</v>
-      </c>
-      <c r="Q42">
-        <v>0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.85</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="T42">
-        <v>2.25</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
-      <c r="V42">
-        <v>1.925</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>1.375</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
-      </c>
-      <c r="AB42">
-        <v>-1</v>
-      </c>
       <c r="AC42">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4280,7 +4280,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7167429</v>
+        <v>7168363</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,10 +4292,10 @@
         <v>45185.375</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4307,55 +4307,55 @@
         <v>52</v>
       </c>
       <c r="K43">
+        <v>3.3</v>
+      </c>
+      <c r="L43">
+        <v>3.2</v>
+      </c>
+      <c r="M43">
         <v>2.1</v>
       </c>
-      <c r="L43">
-        <v>3.1</v>
-      </c>
-      <c r="M43">
-        <v>3.4</v>
-      </c>
       <c r="N43">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O43">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
         <v>1.9</v>
       </c>
-      <c r="S43">
-        <v>1.95</v>
-      </c>
       <c r="T43">
         <v>2</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.475</v>
+      </c>
+      <c r="AA43">
         <v>-0.5</v>
-      </c>
-      <c r="AA43">
-        <v>0.475</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7168363</v>
+        <v>7167427</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4381,28 +4381,28 @@
         <v>45185.375</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <v>3.2</v>
       </c>
       <c r="M44">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
         <v>3.2</v>
@@ -4417,40 +4417,40 @@
         <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z44">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -5182,10 +5182,10 @@
         <v>45192.375</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6906655</v>
+        <v>6906451</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5271,76 +5271,76 @@
         <v>45192.375</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>52</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.5249999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6906451</v>
+        <v>6906651</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5360,16 +5360,16 @@
         <v>45192.375</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>52</v>
@@ -5378,37 +5378,37 @@
         <v>1.727</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N55">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O55">
         <v>4</v>
       </c>
       <c r="P55">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="Q55">
         <v>-1</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5423,13 +5423,13 @@
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6906651</v>
+        <v>6906655</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5449,76 +5449,76 @@
         <v>45192.375</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>52</v>
       </c>
       <c r="K56">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N56">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P56">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S56">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6906450</v>
+        <v>6906452</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>45193.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>52</v>
       </c>
       <c r="K58">
+        <v>2.2</v>
+      </c>
+      <c r="L58">
+        <v>3.1</v>
+      </c>
+      <c r="M58">
+        <v>3.5</v>
+      </c>
+      <c r="N58">
         <v>2.25</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>3.2</v>
       </c>
-      <c r="M58">
-        <v>3.2</v>
-      </c>
-      <c r="N58">
-        <v>1.95</v>
-      </c>
-      <c r="O58">
+      <c r="P58">
         <v>3.4</v>
       </c>
-      <c r="P58">
-        <v>4</v>
-      </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6906452</v>
+        <v>6906450</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,76 +5716,76 @@
         <v>45193.46875</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L59">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N59">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB59">
         <v>-0.5</v>
       </c>
-      <c r="AA59">
-        <v>0.4625</v>
-      </c>
-      <c r="AB59">
-        <v>1.05</v>
-      </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5986,7 +5986,7 @@
         <v>48</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6060,7 +6060,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6906656</v>
+        <v>7151375</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6072,76 +6072,76 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K63">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6906661</v>
+        <v>6906659</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6161,76 +6161,76 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K64">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
+        <v>2.625</v>
+      </c>
+      <c r="N64">
+        <v>2.375</v>
+      </c>
+      <c r="O64">
         <v>3.1</v>
       </c>
-      <c r="N64">
-        <v>2.4</v>
-      </c>
-      <c r="O64">
+      <c r="P64">
         <v>3.2</v>
-      </c>
-      <c r="P64">
-        <v>3</v>
       </c>
       <c r="Q64">
         <v>-0.25</v>
       </c>
       <c r="R64">
+        <v>2.025</v>
+      </c>
+      <c r="S64">
+        <v>1.825</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
+        <v>2.025</v>
+      </c>
+      <c r="V64">
+        <v>1.825</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
         <v>2.1</v>
       </c>
-      <c r="S64">
-        <v>1.775</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>2</v>
-      </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
       <c r="Y64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6238,7 +6238,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6906660</v>
+        <v>6906661</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6250,49 +6250,49 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K65">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O65">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P65">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
         <v>2</v>
@@ -6304,22 +6304,22 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6327,7 +6327,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7151375</v>
+        <v>6906660</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6339,10 +6339,10 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6354,61 +6354,61 @@
         <v>52</v>
       </c>
       <c r="K66">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N66">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P66">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6416,7 +6416,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6906659</v>
+        <v>6906656</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6428,31 +6428,31 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K67">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L67">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M67">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O67">
         <v>3.1</v>
@@ -6464,40 +6464,40 @@
         <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
         <v>2.25</v>
       </c>
       <c r="U67">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X67">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>-1</v>
+      </c>
+      <c r="AB67">
         <v>-0.5</v>
       </c>
-      <c r="AA67">
-        <v>0.4125</v>
-      </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6906448</v>
+        <v>6906658</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6517,58 +6517,58 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>51</v>
       </c>
       <c r="K68">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6577,16 +6577,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6906658</v>
+        <v>6906448</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6695,58 +6695,58 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>51</v>
       </c>
       <c r="K70">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N70">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O70">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T70">
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6755,16 +6755,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6784,7 +6784,7 @@
         <v>45199.375</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6873,7 +6873,7 @@
         <v>45199.375</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
         <v>38</v>
@@ -6962,7 +6962,7 @@
         <v>45199.375</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
         <v>49</v>
@@ -7054,7 +7054,7 @@
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7941,7 +7941,7 @@
         <v>45206.375</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
         <v>47</v>
@@ -8107,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6906668</v>
+        <v>6906444</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8119,76 +8119,76 @@
         <v>45206.46875</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>52</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L86">
+        <v>3.1</v>
+      </c>
+      <c r="M86">
+        <v>2.8</v>
+      </c>
+      <c r="N86">
+        <v>2.6</v>
+      </c>
+      <c r="O86">
         <v>3.2</v>
       </c>
-      <c r="M86">
-        <v>3.6</v>
-      </c>
-      <c r="N86">
+      <c r="P86">
+        <v>2.8</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>1.85</v>
+      </c>
+      <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
         <v>2.25</v>
       </c>
-      <c r="O86">
-        <v>3.1</v>
-      </c>
-      <c r="P86">
-        <v>3.5</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
       <c r="U86">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>-0</v>
+      </c>
+      <c r="AB86">
         <v>-0.5</v>
       </c>
-      <c r="AA86">
-        <v>0.4625</v>
-      </c>
-      <c r="AB86">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6906672</v>
+        <v>6906668</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8208,73 +8208,73 @@
         <v>45206.46875</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
         <v>3.2</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O87">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W87">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB87">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6906444</v>
+        <v>6906672</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8297,31 +8297,31 @@
         <v>45206.46875</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K88">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O88">
         <v>3.2</v>
@@ -8339,34 +8339,34 @@
         <v>2</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC88">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8478,7 +8478,7 @@
         <v>49</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8656,7 +8656,7 @@
         <v>48</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8920,7 +8920,7 @@
         <v>45220.375</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
@@ -9012,7 +9012,7 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9101,7 +9101,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9457,7 +9457,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         <v>45223.5625</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G102" t="s">
         <v>48</v>
@@ -9899,7 +9899,7 @@
         <v>45227.375</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
         <v>44</v>
@@ -10077,7 +10077,7 @@
         <v>45227.46875</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10258,7 +10258,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10433,7 +10433,7 @@
         <v>45228.51041666666</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6906688</v>
+        <v>6906685</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,76 +10611,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N114">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="O114">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y114">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC114">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10703,7 +10703,7 @@
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10878,7 +10878,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
         <v>42</v>
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6906685</v>
+        <v>6906688</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,76 +10967,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N118">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11682,7 +11682,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11768,7 +11768,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -11946,7 +11946,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G129" t="s">
         <v>42</v>
@@ -12035,7 +12035,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12572,7 +12572,7 @@
         <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12646,7 +12646,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6906427</v>
+        <v>6906694</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12658,76 +12658,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137" t="s">
+        <v>50</v>
+      </c>
+      <c r="K137">
+        <v>2.3</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>3.1</v>
+      </c>
+      <c r="N137">
+        <v>2.625</v>
+      </c>
+      <c r="O137">
+        <v>3</v>
+      </c>
+      <c r="P137">
+        <v>2.9</v>
+      </c>
+      <c r="Q137">
         <v>0</v>
       </c>
-      <c r="J137" t="s">
-        <v>51</v>
-      </c>
-      <c r="K137">
-        <v>1.444</v>
-      </c>
-      <c r="L137">
-        <v>4.2</v>
-      </c>
-      <c r="M137">
-        <v>7.5</v>
-      </c>
-      <c r="N137">
-        <v>1.4</v>
-      </c>
-      <c r="O137">
-        <v>4.333</v>
-      </c>
-      <c r="P137">
-        <v>8</v>
-      </c>
-      <c r="Q137">
-        <v>-1.25</v>
-      </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
+        <v>2.05</v>
+      </c>
+      <c r="V137">
+        <v>1.8</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
         <v>1.9</v>
       </c>
-      <c r="V137">
-        <v>1.95</v>
-      </c>
-      <c r="W137">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12735,7 +12735,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6906694</v>
+        <v>6906427</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12747,76 +12747,76 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>0</v>
       </c>
-      <c r="I138">
+      <c r="J138" t="s">
+        <v>51</v>
+      </c>
+      <c r="K138">
+        <v>1.444</v>
+      </c>
+      <c r="L138">
+        <v>4.2</v>
+      </c>
+      <c r="M138">
+        <v>7.5</v>
+      </c>
+      <c r="N138">
+        <v>1.4</v>
+      </c>
+      <c r="O138">
+        <v>4.333</v>
+      </c>
+      <c r="P138">
+        <v>8</v>
+      </c>
+      <c r="Q138">
+        <v>-1.25</v>
+      </c>
+      <c r="R138">
+        <v>1.875</v>
+      </c>
+      <c r="S138">
+        <v>1.975</v>
+      </c>
+      <c r="T138">
         <v>3</v>
       </c>
-      <c r="J138" t="s">
-        <v>50</v>
-      </c>
-      <c r="K138">
-        <v>2.3</v>
-      </c>
-      <c r="L138">
-        <v>3.2</v>
-      </c>
-      <c r="M138">
-        <v>3.1</v>
-      </c>
-      <c r="N138">
-        <v>2.625</v>
-      </c>
-      <c r="O138">
-        <v>3</v>
-      </c>
-      <c r="P138">
-        <v>2.9</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>1.825</v>
-      </c>
-      <c r="S138">
-        <v>2.025</v>
-      </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
       <c r="U138">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12839,7 +12839,7 @@
         <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12928,7 +12928,7 @@
         <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13103,7 +13103,7 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6906700</v>
+        <v>6906699</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,55 +13637,55 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L148">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
+        <v>3.25</v>
+      </c>
+      <c r="N148">
+        <v>2.25</v>
+      </c>
+      <c r="O148">
+        <v>3.3</v>
+      </c>
+      <c r="P148">
+        <v>3.2</v>
+      </c>
+      <c r="Q148">
+        <v>-0.25</v>
+      </c>
+      <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
+        <v>1.875</v>
+      </c>
+      <c r="T148">
         <v>2.5</v>
       </c>
-      <c r="N148">
-        <v>3.3</v>
-      </c>
-      <c r="O148">
-        <v>3</v>
-      </c>
-      <c r="P148">
-        <v>2.375</v>
-      </c>
-      <c r="Q148">
-        <v>0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.875</v>
-      </c>
-      <c r="S148">
-        <v>1.975</v>
-      </c>
-      <c r="T148">
-        <v>2</v>
-      </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13694,19 +13694,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.375</v>
+        <v>2.2</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC148">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6906699</v>
+        <v>6906700</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,55 +13726,55 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L149">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M149">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N149">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="O149">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
+        <v>1.875</v>
+      </c>
+      <c r="S149">
         <v>1.975</v>
       </c>
-      <c r="S149">
-        <v>1.875</v>
-      </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U149">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13783,19 +13783,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.2</v>
+        <v>1.375</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB149">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13815,7 +13815,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13907,7 +13907,7 @@
         <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -13993,7 +13993,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
         <v>44</v>
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7151367</v>
+        <v>6906425</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45263.51041666666</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>51</v>
       </c>
       <c r="K154">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L154">
         <v>3.2</v>
       </c>
       <c r="M154">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N154">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O154">
         <v>3.1</v>
       </c>
       <c r="P154">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14248,7 +14248,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6906425</v>
+        <v>7151367</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14260,58 +14260,58 @@
         <v>45263.51041666666</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>51</v>
       </c>
       <c r="K155">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L155">
         <v>3.2</v>
       </c>
       <c r="M155">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N155">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O155">
         <v>3.1</v>
       </c>
       <c r="P155">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W155">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14320,16 +14320,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14530,7 +14530,7 @@
         <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14794,7 +14794,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G161" t="s">
         <v>49</v>
@@ -14975,7 +14975,7 @@
         <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15494,7 +15494,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6906712</v>
+        <v>6906713</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15509,73 +15509,73 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
+        <v>52</v>
+      </c>
+      <c r="K169">
+        <v>2.2</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>3.2</v>
+      </c>
+      <c r="N169">
+        <v>2.2</v>
+      </c>
+      <c r="O169">
+        <v>3</v>
+      </c>
+      <c r="P169">
+        <v>3.6</v>
+      </c>
+      <c r="Q169">
+        <v>-0.25</v>
+      </c>
+      <c r="R169">
+        <v>1.925</v>
+      </c>
+      <c r="S169">
+        <v>1.925</v>
+      </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
+      <c r="U169">
+        <v>2.05</v>
+      </c>
+      <c r="V169">
+        <v>1.8</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>2</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>-0.5</v>
+      </c>
+      <c r="AA169">
+        <v>0.4625</v>
+      </c>
+      <c r="AB169">
         <v>0</v>
       </c>
-      <c r="J169" t="s">
-        <v>51</v>
-      </c>
-      <c r="K169">
-        <v>4.75</v>
-      </c>
-      <c r="L169">
-        <v>3.6</v>
-      </c>
-      <c r="M169">
-        <v>1.65</v>
-      </c>
-      <c r="N169">
-        <v>4.2</v>
-      </c>
-      <c r="O169">
-        <v>3.5</v>
-      </c>
-      <c r="P169">
-        <v>1.85</v>
-      </c>
-      <c r="Q169">
-        <v>0.5</v>
-      </c>
-      <c r="R169">
-        <v>2</v>
-      </c>
-      <c r="S169">
-        <v>1.85</v>
-      </c>
-      <c r="T169">
-        <v>2.5</v>
-      </c>
-      <c r="U169">
-        <v>1.925</v>
-      </c>
-      <c r="V169">
-        <v>1.925</v>
-      </c>
-      <c r="W169">
-        <v>3.2</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>1</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6906713</v>
+        <v>6906712</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,73 +15598,73 @@
         <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
+        <v>1.65</v>
+      </c>
+      <c r="N170">
+        <v>4.2</v>
+      </c>
+      <c r="O170">
+        <v>3.5</v>
+      </c>
+      <c r="P170">
+        <v>1.85</v>
+      </c>
+      <c r="Q170">
+        <v>0.5</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
+        <v>1.925</v>
+      </c>
+      <c r="V170">
+        <v>1.925</v>
+      </c>
+      <c r="W170">
         <v>3.2</v>
       </c>
-      <c r="N170">
-        <v>2.2</v>
-      </c>
-      <c r="O170">
-        <v>3</v>
-      </c>
-      <c r="P170">
-        <v>3.6</v>
-      </c>
-      <c r="Q170">
-        <v>-0.25</v>
-      </c>
-      <c r="R170">
-        <v>1.925</v>
-      </c>
-      <c r="S170">
-        <v>1.925</v>
-      </c>
-      <c r="T170">
-        <v>2</v>
-      </c>
-      <c r="U170">
-        <v>2.05</v>
-      </c>
-      <c r="V170">
-        <v>1.8</v>
-      </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
       <c r="X170">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA170">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15865,7 +15865,7 @@
         <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -16040,7 +16040,7 @@
         <v>45276.51041666666</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
         <v>43</v>
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6906718</v>
+        <v>6906720</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,13 +16218,13 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -16233,43 +16233,43 @@
         <v>51</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N177">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.909</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16278,13 +16278,13 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6906720</v>
+        <v>6905864</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16307,73 +16307,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H178">
         <v>3</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K178">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L178">
+        <v>3.2</v>
+      </c>
+      <c r="M178">
+        <v>3.2</v>
+      </c>
+      <c r="N178">
+        <v>2.15</v>
+      </c>
+      <c r="O178">
+        <v>3.25</v>
+      </c>
+      <c r="P178">
         <v>3.75</v>
       </c>
-      <c r="M178">
-        <v>4.75</v>
-      </c>
-      <c r="N178">
-        <v>1.6</v>
-      </c>
-      <c r="O178">
-        <v>4.2</v>
-      </c>
-      <c r="P178">
-        <v>5.5</v>
-      </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16384,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6905864</v>
+        <v>6906417</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16396,73 +16396,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
         <v>52</v>
       </c>
       <c r="K179">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N179">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="O179">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R179">
+        <v>2.025</v>
+      </c>
+      <c r="S179">
         <v>1.825</v>
       </c>
-      <c r="S179">
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.95</v>
-      </c>
-      <c r="V179">
-        <v>1.9</v>
-      </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16488,7 +16488,7 @@
         <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -16562,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6906417</v>
+        <v>6906718</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16574,73 +16574,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K181">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M181">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X181">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16755,7 +16755,7 @@
         <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -17019,10 +17019,10 @@
         <v>45283.51041666666</v>
       </c>
       <c r="F186" t="s">
+        <v>46</v>
+      </c>
+      <c r="G186" t="s">
         <v>45</v>
-      </c>
-      <c r="G186" t="s">
-        <v>46</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17363,7 +17363,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6906416</v>
+        <v>6906723</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17375,76 +17375,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K190">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L190">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
         <v>2.55</v>
       </c>
       <c r="N190">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O190">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P190">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W190">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17464,7 +17464,7 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
         <v>38</v>
@@ -17630,7 +17630,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6906723</v>
+        <v>6906416</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17642,76 +17642,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K193">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L193">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
         <v>2.55</v>
       </c>
       <c r="N193">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O193">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P193">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X193">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC193">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17734,7 +17734,7 @@
         <v>49</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -18087,7 +18087,7 @@
         <v>45304.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18179,7 +18179,7 @@
         <v>36</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18532,7 +18532,7 @@
         <v>45304.51041666666</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G203" t="s">
         <v>44</v>
@@ -18802,7 +18802,7 @@
         <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6905867</v>
+        <v>6906411</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,73 +18977,73 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K208">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="N208">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O208">
         <v>3.1</v>
       </c>
       <c r="P208">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q208">
         <v>0</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X208">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6906411</v>
+        <v>6906738</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,28 +19066,28 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H209">
         <v>3</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>51</v>
       </c>
       <c r="K209">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N209">
         <v>2.7</v>
@@ -19102,10 +19102,10 @@
         <v>0</v>
       </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
         <v>2.25</v>
@@ -19126,7 +19126,7 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA209">
         <v>-1</v>
@@ -19143,7 +19143,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6906738</v>
+        <v>6905867</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19155,73 +19155,73 @@
         <v>45311.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>52</v>
+      </c>
+      <c r="K210">
+        <v>2.8</v>
+      </c>
+      <c r="L210">
         <v>3</v>
       </c>
-      <c r="I210">
-        <v>1</v>
-      </c>
-      <c r="J210" t="s">
-        <v>51</v>
-      </c>
-      <c r="K210">
-        <v>2.75</v>
-      </c>
-      <c r="L210">
-        <v>3.1</v>
-      </c>
       <c r="M210">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N210">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O210">
         <v>3.1</v>
       </c>
       <c r="P210">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q210">
         <v>0</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W210">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19425,7 +19425,7 @@
         <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19514,7 +19514,7 @@
         <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19689,7 +19689,7 @@
         <v>45312.51041666666</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19855,7 +19855,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6906740</v>
+        <v>6906742</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19867,76 +19867,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>50</v>
+      </c>
+      <c r="K218">
+        <v>2.55</v>
+      </c>
+      <c r="L218">
         <v>3</v>
       </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218" t="s">
-        <v>51</v>
-      </c>
-      <c r="K218">
-        <v>3.1</v>
-      </c>
-      <c r="L218">
+      <c r="M218">
+        <v>3</v>
+      </c>
+      <c r="N218">
+        <v>2.55</v>
+      </c>
+      <c r="O218">
+        <v>2.9</v>
+      </c>
+      <c r="P218">
         <v>3.2</v>
       </c>
-      <c r="M218">
-        <v>2.3</v>
-      </c>
-      <c r="N218">
-        <v>3.75</v>
-      </c>
-      <c r="O218">
-        <v>3.4</v>
-      </c>
-      <c r="P218">
-        <v>2.05</v>
-      </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S218">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T218">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U218">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W218">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z218">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19944,7 +19944,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6906742</v>
+        <v>6906740</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19956,76 +19956,76 @@
         <v>45318.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H219">
+        <v>3</v>
+      </c>
+      <c r="I219">
         <v>0</v>
       </c>
-      <c r="I219">
-        <v>1</v>
-      </c>
       <c r="J219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K219">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="L219">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N219">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O219">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA219">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC219">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20048,7 +20048,7 @@
         <v>42</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6906739</v>
+        <v>6906406</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,49 +20312,49 @@
         <v>45318.51041666666</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K223">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L223">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M223">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N223">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O223">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
         <v>1.925</v>
@@ -20363,25 +20363,25 @@
         <v>1.925</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA223">
+        <v>-1</v>
+      </c>
+      <c r="AB223">
         <v>0.925</v>
       </c>
-      <c r="AB223">
-        <v>0</v>
-      </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6906406</v>
+        <v>6906739</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20401,49 +20401,49 @@
         <v>45318.51041666666</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M224">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N224">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P224">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S224">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U224">
         <v>1.925</v>
@@ -20452,25 +20452,25 @@
         <v>1.925</v>
       </c>
       <c r="W224">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z224">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB224">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20490,7 +20490,7 @@
         <v>45318.51041666666</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G225" t="s">
         <v>49</v>
@@ -20745,7 +20745,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6906748</v>
+        <v>6906403</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20757,10 +20757,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20772,19 +20772,19 @@
         <v>52</v>
       </c>
       <c r="K228">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="L228">
+        <v>3.25</v>
+      </c>
+      <c r="M228">
+        <v>2.875</v>
+      </c>
+      <c r="N228">
+        <v>2.15</v>
+      </c>
+      <c r="O228">
         <v>3.3</v>
-      </c>
-      <c r="M228">
-        <v>3.75</v>
-      </c>
-      <c r="N228">
-        <v>2.25</v>
-      </c>
-      <c r="O228">
-        <v>3.2</v>
       </c>
       <c r="P228">
         <v>3.4</v>
@@ -20793,16 +20793,16 @@
         <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
         <v>2.05</v>
@@ -20811,7 +20811,7 @@
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y228">
         <v>-1</v>
@@ -20820,13 +20820,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="AB228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC228">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20834,7 +20834,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6906403</v>
+        <v>6906745</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20846,10 +20846,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20861,61 +20861,61 @@
         <v>52</v>
       </c>
       <c r="K229">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P229">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
+        <v>1.75</v>
+      </c>
+      <c r="S229">
+        <v>2.125</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
         <v>1.85</v>
       </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>2.25</v>
-      </c>
-      <c r="U229">
-        <v>1.8</v>
-      </c>
       <c r="V229">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC229">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6906745</v>
+        <v>6906747</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20935,76 +20935,76 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K230">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="N230">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O230">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X230">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21012,7 +21012,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6906747</v>
+        <v>7151359</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21024,59 +21024,59 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>2</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>51</v>
       </c>
       <c r="K231">
+        <v>2.5</v>
+      </c>
+      <c r="L231">
+        <v>3.1</v>
+      </c>
+      <c r="M231">
+        <v>2.75</v>
+      </c>
+      <c r="N231">
+        <v>3.5</v>
+      </c>
+      <c r="O231">
+        <v>2.9</v>
+      </c>
+      <c r="P231">
+        <v>2.3</v>
+      </c>
+      <c r="Q231">
+        <v>0.25</v>
+      </c>
+      <c r="R231">
         <v>1.85</v>
       </c>
-      <c r="L231">
-        <v>3.5</v>
-      </c>
-      <c r="M231">
-        <v>3.9</v>
-      </c>
-      <c r="N231">
+      <c r="S231">
+        <v>2</v>
+      </c>
+      <c r="T231">
+        <v>2</v>
+      </c>
+      <c r="U231">
         <v>2.05</v>
       </c>
-      <c r="O231">
-        <v>3.5</v>
-      </c>
-      <c r="P231">
-        <v>3.6</v>
-      </c>
-      <c r="Q231">
-        <v>-0.5</v>
-      </c>
-      <c r="R231">
-        <v>2</v>
-      </c>
-      <c r="S231">
-        <v>1.85</v>
-      </c>
-      <c r="T231">
+      <c r="V231">
+        <v>1.8</v>
+      </c>
+      <c r="W231">
         <v>2.5</v>
       </c>
-      <c r="U231">
-        <v>1.975</v>
-      </c>
-      <c r="V231">
-        <v>1.875</v>
-      </c>
-      <c r="W231">
-        <v>1.05</v>
-      </c>
       <c r="X231">
         <v>-1</v>
       </c>
@@ -21084,16 +21084,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21101,7 +21101,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7151359</v>
+        <v>6906748</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21113,70 +21113,70 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K232">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L232">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M232">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N232">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O232">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P232">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T232">
         <v>2</v>
       </c>
       <c r="U232">
+        <v>1.75</v>
+      </c>
+      <c r="V232">
         <v>2.05</v>
       </c>
-      <c r="V232">
-        <v>1.8</v>
-      </c>
       <c r="W232">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB232">
         <v>0</v>
@@ -21294,7 +21294,7 @@
         <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21469,7 +21469,7 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G236" t="s">
         <v>36</v>
@@ -21736,7 +21736,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
         <v>34</v>
@@ -21902,7 +21902,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6906749</v>
+        <v>6906751</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21914,10 +21914,10 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21929,19 +21929,19 @@
         <v>50</v>
       </c>
       <c r="K241">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L241">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M241">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N241">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
         <v>2.2</v>
@@ -21950,19 +21950,19 @@
         <v>0.25</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
+        <v>1.9</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
         <v>1.85</v>
-      </c>
-      <c r="T241">
-        <v>2.25</v>
-      </c>
-      <c r="U241">
-        <v>1.975</v>
-      </c>
-      <c r="V241">
-        <v>1.875</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21977,10 +21977,10 @@
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -21991,7 +21991,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6906751</v>
+        <v>6906749</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22003,10 +22003,10 @@
         <v>45332.41666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -22018,19 +22018,19 @@
         <v>50</v>
       </c>
       <c r="K242">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L242">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M242">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N242">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O242">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P242">
         <v>2.2</v>
@@ -22039,19 +22039,19 @@
         <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S242">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W242">
         <v>-1</v>
@@ -22066,10 +22066,10 @@
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB242">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22181,7 +22181,7 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G244" t="s">
         <v>39</v>
@@ -22273,7 +22273,7 @@
         <v>43</v>
       </c>
       <c r="G245" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -22448,7 +22448,7 @@
         <v>45338.6875</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G247" t="s">
         <v>35</v>
@@ -22718,7 +22718,7 @@
         <v>31</v>
       </c>
       <c r="G250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H250">
         <v>3</v>
@@ -22807,7 +22807,7 @@
         <v>30</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23252,7 +23252,7 @@
         <v>38</v>
       </c>
       <c r="G256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -23504,7 +23504,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7151356</v>
+        <v>6906762</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23516,76 +23516,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G259" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H259">
         <v>0</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K259">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L259">
+        <v>3.1</v>
+      </c>
+      <c r="M259">
         <v>3</v>
-      </c>
-      <c r="M259">
-        <v>3.4</v>
       </c>
       <c r="N259">
         <v>2.55</v>
       </c>
       <c r="O259">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P259">
         <v>3.1</v>
       </c>
       <c r="Q259">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
+        <v>2.125</v>
+      </c>
+      <c r="S259">
         <v>1.75</v>
       </c>
-      <c r="S259">
-        <v>2.125</v>
-      </c>
       <c r="T259">
         <v>2</v>
       </c>
       <c r="U259">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V259">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB259">
         <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23593,7 +23593,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6906762</v>
+        <v>7151356</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23605,76 +23605,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G260" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H260">
         <v>0</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K260">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L260">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M260">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N260">
         <v>2.55</v>
       </c>
       <c r="O260">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P260">
         <v>3.1</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R260">
+        <v>1.75</v>
+      </c>
+      <c r="S260">
         <v>2.125</v>
       </c>
-      <c r="S260">
-        <v>1.75</v>
-      </c>
       <c r="T260">
         <v>2</v>
       </c>
       <c r="U260">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V260">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W260">
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y260">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA260">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB260">
         <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23860,7 +23860,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6906764</v>
+        <v>6906395</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23872,76 +23872,76 @@
         <v>45346.51041666666</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K263">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L263">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M263">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N263">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O263">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P263">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q263">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
+        <v>1.975</v>
+      </c>
+      <c r="S263">
         <v>1.875</v>
       </c>
-      <c r="S263">
-        <v>1.975</v>
-      </c>
       <c r="T263">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U263">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y263">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23949,7 +23949,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6906395</v>
+        <v>6906764</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23961,76 +23961,76 @@
         <v>45346.51041666666</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G264" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264" t="s">
+        <v>50</v>
+      </c>
+      <c r="K264">
+        <v>2.7</v>
+      </c>
+      <c r="L264">
+        <v>3.2</v>
+      </c>
+      <c r="M264">
+        <v>2.6</v>
+      </c>
+      <c r="N264">
+        <v>2.75</v>
+      </c>
+      <c r="O264">
+        <v>3</v>
+      </c>
+      <c r="P264">
+        <v>2.875</v>
+      </c>
+      <c r="Q264">
         <v>0</v>
       </c>
-      <c r="I264">
-        <v>0</v>
-      </c>
-      <c r="J264" t="s">
-        <v>52</v>
-      </c>
-      <c r="K264">
-        <v>2</v>
-      </c>
-      <c r="L264">
-        <v>3.4</v>
-      </c>
-      <c r="M264">
-        <v>3.75</v>
-      </c>
-      <c r="N264">
-        <v>1.95</v>
-      </c>
-      <c r="O264">
-        <v>3.4</v>
-      </c>
-      <c r="P264">
-        <v>4</v>
-      </c>
-      <c r="Q264">
-        <v>-0.5</v>
-      </c>
       <c r="R264">
+        <v>1.875</v>
+      </c>
+      <c r="S264">
         <v>1.975</v>
       </c>
-      <c r="S264">
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
+        <v>1.8</v>
+      </c>
+      <c r="V264">
+        <v>2.05</v>
+      </c>
+      <c r="W264">
+        <v>-1</v>
+      </c>
+      <c r="X264">
+        <v>-1</v>
+      </c>
+      <c r="Y264">
         <v>1.875</v>
       </c>
-      <c r="T264">
-        <v>2.5</v>
-      </c>
-      <c r="U264">
-        <v>1.825</v>
-      </c>
-      <c r="V264">
-        <v>2.025</v>
-      </c>
-      <c r="W264">
-        <v>-1</v>
-      </c>
-      <c r="X264">
-        <v>2.4</v>
-      </c>
-      <c r="Y264">
-        <v>-1</v>
-      </c>
       <c r="Z264">
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC264">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24139,7 +24139,7 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F266" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G266" t="s">
         <v>49</v>
@@ -24317,7 +24317,7 @@
         <v>45349.59375</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G268" t="s">
         <v>29</v>
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6906770</v>
+        <v>6906768</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,76 +24940,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F275" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G275" t="s">
         <v>40</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275">
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K275">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L275">
         <v>3.1</v>
       </c>
       <c r="M275">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N275">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O275">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P275">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q275">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S275">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U275">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V275">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y275">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA275">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB275">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC275">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6906768</v>
+        <v>6906770</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,76 +25029,76 @@
         <v>45350.6875</v>
       </c>
       <c r="F276" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G276" t="s">
         <v>41</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L276">
         <v>3.1</v>
       </c>
       <c r="M276">
+        <v>4.2</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276">
         <v>3.2</v>
       </c>
-      <c r="N276">
-        <v>2.6</v>
-      </c>
-      <c r="O276">
-        <v>2.9</v>
-      </c>
       <c r="P276">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S276">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T276">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB276">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25385,7 +25385,7 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G280" t="s">
         <v>39</v>
@@ -25566,7 +25566,7 @@
         <v>37</v>
       </c>
       <c r="G282" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6906772</v>
+        <v>6905872</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,76 +25652,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F283" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G283" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K283">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L283">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M283">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N283">
         <v>2.3</v>
       </c>
       <c r="O283">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P283">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q283">
         <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S283">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T283">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V283">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X283">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA283">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC283">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25818,7 +25818,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6905872</v>
+        <v>6906772</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25830,76 +25830,76 @@
         <v>45354.51041666666</v>
       </c>
       <c r="F285" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G285" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K285">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L285">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M285">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N285">
         <v>2.3</v>
       </c>
       <c r="O285">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P285">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q285">
         <v>-0.25</v>
       </c>
       <c r="R285">
+        <v>2</v>
+      </c>
+      <c r="S285">
+        <v>1.85</v>
+      </c>
+      <c r="T285">
+        <v>1.75</v>
+      </c>
+      <c r="U285">
         <v>1.975</v>
       </c>
-      <c r="S285">
+      <c r="V285">
         <v>1.875</v>
       </c>
-      <c r="T285">
-        <v>2.5</v>
-      </c>
-      <c r="U285">
-        <v>2.05</v>
-      </c>
-      <c r="V285">
-        <v>1.8</v>
-      </c>
       <c r="W285">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB285">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25919,7 +25919,7 @@
         <v>45354.60416666666</v>
       </c>
       <c r="F286" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G286" t="s">
         <v>35</v>
@@ -26174,7 +26174,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6906780</v>
+        <v>6906777</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26186,73 +26186,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G289" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H289">
         <v>2</v>
       </c>
       <c r="I289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K289">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L289">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M289">
         <v>4.2</v>
       </c>
       <c r="N289">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O289">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P289">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q289">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S289">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T289">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V289">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA289">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC289">
         <v>-1</v>
@@ -26263,7 +26263,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6906777</v>
+        <v>6906780</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,73 +26275,73 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F290" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G290" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H290">
         <v>2</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J290" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K290">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L290">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M290">
         <v>4.2</v>
       </c>
       <c r="N290">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O290">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P290">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R290">
+        <v>1.875</v>
+      </c>
+      <c r="S290">
+        <v>1.975</v>
+      </c>
+      <c r="T290">
+        <v>2.25</v>
+      </c>
+      <c r="U290">
+        <v>2.05</v>
+      </c>
+      <c r="V290">
         <v>1.8</v>
       </c>
-      <c r="S290">
-        <v>2.05</v>
-      </c>
-      <c r="T290">
-        <v>1.75</v>
-      </c>
-      <c r="U290">
-        <v>1.825</v>
-      </c>
-      <c r="V290">
-        <v>2.025</v>
-      </c>
       <c r="W290">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z290">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB290">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26352,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6906388</v>
+        <v>6905873</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26364,76 +26364,76 @@
         <v>45360.51041666666</v>
       </c>
       <c r="F291" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G291" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291">
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K291">
+        <v>2</v>
+      </c>
+      <c r="L291">
+        <v>3.3</v>
+      </c>
+      <c r="M291">
+        <v>3.75</v>
+      </c>
+      <c r="N291">
         <v>2.05</v>
       </c>
-      <c r="L291">
-        <v>3.2</v>
-      </c>
-      <c r="M291">
-        <v>4</v>
-      </c>
-      <c r="N291">
-        <v>1.95</v>
-      </c>
       <c r="O291">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P291">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q291">
         <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S291">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T291">
         <v>2.25</v>
       </c>
       <c r="U291">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V291">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA291">
+        <v>-1</v>
+      </c>
+      <c r="AB291">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB291">
-        <v>-1</v>
-      </c>
       <c r="AC291">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26441,7 +26441,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6906781</v>
+        <v>6906388</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26453,76 +26453,76 @@
         <v>45360.51041666666</v>
       </c>
       <c r="F292" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G292" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K292">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L292">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M292">
         <v>4</v>
       </c>
       <c r="N292">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O292">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P292">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q292">
         <v>-0.5</v>
       </c>
       <c r="R292">
+        <v>1.95</v>
+      </c>
+      <c r="S292">
+        <v>1.9</v>
+      </c>
+      <c r="T292">
+        <v>2.25</v>
+      </c>
+      <c r="U292">
         <v>1.925</v>
       </c>
-      <c r="S292">
+      <c r="V292">
         <v>1.925</v>
       </c>
-      <c r="T292">
-        <v>2.5</v>
-      </c>
-      <c r="U292">
-        <v>2.05</v>
-      </c>
-      <c r="V292">
-        <v>1.8</v>
-      </c>
       <c r="W292">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z292">
+        <v>-1</v>
+      </c>
+      <c r="AA292">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB292">
+        <v>-1</v>
+      </c>
+      <c r="AC292">
         <v>0.925</v>
-      </c>
-      <c r="AA292">
-        <v>-1</v>
-      </c>
-      <c r="AB292">
-        <v>-1</v>
-      </c>
-      <c r="AC292">
-        <v>0.8</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26530,7 +26530,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6905873</v>
+        <v>6906781</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26542,58 +26542,58 @@
         <v>45360.51041666666</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G293" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" t="s">
         <v>51</v>
       </c>
       <c r="K293">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L293">
         <v>3.3</v>
       </c>
       <c r="M293">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N293">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O293">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P293">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q293">
         <v>-0.5</v>
       </c>
       <c r="R293">
+        <v>1.925</v>
+      </c>
+      <c r="S293">
+        <v>1.925</v>
+      </c>
+      <c r="T293">
+        <v>2.5</v>
+      </c>
+      <c r="U293">
         <v>2.05</v>
       </c>
-      <c r="S293">
+      <c r="V293">
         <v>1.8</v>
       </c>
-      <c r="T293">
-        <v>2.25</v>
-      </c>
-      <c r="U293">
-        <v>1.9</v>
-      </c>
-      <c r="V293">
-        <v>1.95</v>
-      </c>
       <c r="W293">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X293">
         <v>-1</v>
@@ -26602,16 +26602,16 @@
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA293">
         <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26812,7 +26812,7 @@
         <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H296">
         <v>2</v>
@@ -26987,7 +26987,7 @@
         <v>45367.41666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G298" t="s">
         <v>31</v>
@@ -27346,7 +27346,7 @@
         <v>42</v>
       </c>
       <c r="G302" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H302">
         <v>3</v>
@@ -27524,7 +27524,7 @@
         <v>37</v>
       </c>
       <c r="G304" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -27699,7 +27699,7 @@
         <v>45368.51041666666</v>
       </c>
       <c r="F306" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G306" t="s">
         <v>48</v>
@@ -27788,7 +27788,7 @@
         <v>45383.3125</v>
       </c>
       <c r="F307" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G307" t="s">
         <v>30</v>
@@ -28233,7 +28233,7 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G312" t="s">
         <v>47</v>
@@ -28325,7 +28325,7 @@
         <v>49</v>
       </c>
       <c r="G313" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H313">
         <v>2</v>
@@ -28503,7 +28503,7 @@
         <v>35</v>
       </c>
       <c r="G315" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7128698</v>
+        <v>7129415</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28767,40 +28767,40 @@
         <v>45388.375</v>
       </c>
       <c r="F318" t="s">
+        <v>33</v>
+      </c>
+      <c r="G318" t="s">
         <v>40</v>
       </c>
-      <c r="G318" t="s">
-        <v>34</v>
-      </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
         <v>52</v>
       </c>
       <c r="K318">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L318">
         <v>3.1</v>
       </c>
       <c r="M318">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N318">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O318">
         <v>3.2</v>
       </c>
       <c r="P318">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="Q318">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R318">
         <v>1.8</v>
@@ -28809,13 +28809,13 @@
         <v>2.05</v>
       </c>
       <c r="T318">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U318">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V318">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W318">
         <v>-1</v>
@@ -28827,16 +28827,16 @@
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA318">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB318">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28859,7 +28859,7 @@
         <v>29</v>
       </c>
       <c r="G319" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H319">
         <v>3</v>
@@ -28933,7 +28933,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7129415</v>
+        <v>7128698</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28945,40 +28945,40 @@
         <v>45388.375</v>
       </c>
       <c r="F320" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G320" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
         <v>52</v>
       </c>
       <c r="K320">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L320">
         <v>3.1</v>
       </c>
       <c r="M320">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="N320">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O320">
         <v>3.2</v>
       </c>
       <c r="P320">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q320">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R320">
         <v>1.8</v>
@@ -28987,13 +28987,13 @@
         <v>2.05</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V320">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W320">
         <v>-1</v>
@@ -29005,16 +29005,16 @@
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC320">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29479,7 +29479,7 @@
         <v>45389.46875</v>
       </c>
       <c r="F326" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G326" t="s">
         <v>38</v>
@@ -29568,7 +29568,7 @@
         <v>45394.64583333334</v>
       </c>
       <c r="F327" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G327" t="s">
         <v>43</v>
@@ -29657,10 +29657,10 @@
         <v>45395.375</v>
       </c>
       <c r="F328" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G328" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H328">
         <v>3</v>
@@ -29749,7 +29749,7 @@
         <v>37</v>
       </c>
       <c r="G329" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -30446,7 +30446,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7161536</v>
+        <v>7158905</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30458,76 +30458,76 @@
         <v>45401.64583333334</v>
       </c>
       <c r="F337" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G337" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H337">
         <v>0</v>
       </c>
       <c r="I337">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K337">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L337">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M337">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N337">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O337">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P337">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q337">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R337">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S337">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T337">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U337">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V337">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W337">
         <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y337">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA337">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB337">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30535,7 +30535,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7158905</v>
+        <v>7161536</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30547,668 +30547,76 @@
         <v>45401.64583333334</v>
       </c>
       <c r="F338" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G338" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H338">
         <v>0</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J338" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K338">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L338">
+        <v>3.2</v>
+      </c>
+      <c r="M338">
+        <v>3.2</v>
+      </c>
+      <c r="N338">
+        <v>2.45</v>
+      </c>
+      <c r="O338">
+        <v>2.8</v>
+      </c>
+      <c r="P338">
         <v>3.5</v>
       </c>
-      <c r="M338">
-        <v>2.4</v>
-      </c>
-      <c r="N338">
-        <v>3</v>
-      </c>
-      <c r="O338">
-        <v>3.4</v>
-      </c>
-      <c r="P338">
-        <v>2.25</v>
-      </c>
       <c r="Q338">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R338">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S338">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T338">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U338">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V338">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W338">
         <v>-1</v>
       </c>
       <c r="X338">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z338">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB338">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC338">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="339" spans="1:29">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="B339">
-        <v>7158904</v>
-      </c>
-      <c r="C339" t="s">
-        <v>28</v>
-      </c>
-      <c r="D339" t="s">
-        <v>28</v>
-      </c>
-      <c r="E339" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F339" t="s">
-        <v>46</v>
-      </c>
-      <c r="G339" t="s">
-        <v>41</v>
-      </c>
-      <c r="K339">
-        <v>2.875</v>
-      </c>
-      <c r="L339">
-        <v>3</v>
-      </c>
-      <c r="M339">
-        <v>2.625</v>
-      </c>
-      <c r="N339">
-        <v>2.875</v>
-      </c>
-      <c r="O339">
-        <v>3</v>
-      </c>
-      <c r="P339">
-        <v>2.625</v>
-      </c>
-      <c r="Q339">
-        <v>0</v>
-      </c>
-      <c r="R339">
-        <v>2.025</v>
-      </c>
-      <c r="S339">
-        <v>1.825</v>
-      </c>
-      <c r="T339">
-        <v>2</v>
-      </c>
-      <c r="U339">
-        <v>1.95</v>
-      </c>
-      <c r="V339">
-        <v>1.9</v>
-      </c>
-      <c r="W339">
-        <v>0</v>
-      </c>
-      <c r="X339">
-        <v>0</v>
-      </c>
-      <c r="Y339">
-        <v>0</v>
-      </c>
-      <c r="Z339">
-        <v>0</v>
-      </c>
-      <c r="AA339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:29">
-      <c r="A340" s="1">
-        <v>338</v>
-      </c>
-      <c r="B340">
-        <v>7158907</v>
-      </c>
-      <c r="C340" t="s">
-        <v>28</v>
-      </c>
-      <c r="D340" t="s">
-        <v>28</v>
-      </c>
-      <c r="E340" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F340" t="s">
-        <v>30</v>
-      </c>
-      <c r="G340" t="s">
-        <v>45</v>
-      </c>
-      <c r="K340">
-        <v>2.5</v>
-      </c>
-      <c r="L340">
-        <v>3.1</v>
-      </c>
-      <c r="M340">
-        <v>2.9</v>
-      </c>
-      <c r="N340">
-        <v>2.5</v>
-      </c>
-      <c r="O340">
-        <v>3.1</v>
-      </c>
-      <c r="P340">
-        <v>2.9</v>
-      </c>
-      <c r="Q340">
-        <v>0</v>
-      </c>
-      <c r="R340">
-        <v>1.775</v>
-      </c>
-      <c r="S340">
-        <v>2.1</v>
-      </c>
-      <c r="T340">
-        <v>2</v>
-      </c>
-      <c r="U340">
-        <v>1.8</v>
-      </c>
-      <c r="V340">
-        <v>2.05</v>
-      </c>
-      <c r="W340">
-        <v>0</v>
-      </c>
-      <c r="X340">
-        <v>0</v>
-      </c>
-      <c r="Y340">
-        <v>0</v>
-      </c>
-      <c r="Z340">
-        <v>0</v>
-      </c>
-      <c r="AA340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:29">
-      <c r="A341" s="1">
-        <v>339</v>
-      </c>
-      <c r="B341">
-        <v>7158908</v>
-      </c>
-      <c r="C341" t="s">
-        <v>28</v>
-      </c>
-      <c r="D341" t="s">
-        <v>28</v>
-      </c>
-      <c r="E341" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F341" t="s">
-        <v>40</v>
-      </c>
-      <c r="G341" t="s">
-        <v>42</v>
-      </c>
-      <c r="K341">
-        <v>3.8</v>
-      </c>
-      <c r="L341">
-        <v>3.4</v>
-      </c>
-      <c r="M341">
-        <v>1.95</v>
-      </c>
-      <c r="N341">
-        <v>4.2</v>
-      </c>
-      <c r="O341">
-        <v>3.4</v>
-      </c>
-      <c r="P341">
-        <v>1.85</v>
-      </c>
-      <c r="Q341">
-        <v>0.5</v>
-      </c>
-      <c r="R341">
-        <v>1.95</v>
-      </c>
-      <c r="S341">
-        <v>1.9</v>
-      </c>
-      <c r="T341">
-        <v>2.25</v>
-      </c>
-      <c r="U341">
-        <v>1.8</v>
-      </c>
-      <c r="V341">
-        <v>2.05</v>
-      </c>
-      <c r="W341">
-        <v>0</v>
-      </c>
-      <c r="X341">
-        <v>0</v>
-      </c>
-      <c r="Y341">
-        <v>0</v>
-      </c>
-      <c r="Z341">
-        <v>0</v>
-      </c>
-      <c r="AA341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:29">
-      <c r="A342" s="1">
-        <v>340</v>
-      </c>
-      <c r="B342">
-        <v>7161537</v>
-      </c>
-      <c r="C342" t="s">
-        <v>28</v>
-      </c>
-      <c r="D342" t="s">
-        <v>28</v>
-      </c>
-      <c r="E342" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F342" t="s">
-        <v>29</v>
-      </c>
-      <c r="G342" t="s">
-        <v>33</v>
-      </c>
-      <c r="K342">
-        <v>2.1</v>
-      </c>
-      <c r="L342">
-        <v>3.4</v>
-      </c>
-      <c r="M342">
-        <v>3.4</v>
-      </c>
-      <c r="N342">
-        <v>1.909</v>
-      </c>
-      <c r="O342">
-        <v>3.5</v>
-      </c>
-      <c r="P342">
-        <v>4</v>
-      </c>
-      <c r="Q342">
-        <v>-0.5</v>
-      </c>
-      <c r="R342">
-        <v>1.975</v>
-      </c>
-      <c r="S342">
-        <v>1.875</v>
-      </c>
-      <c r="T342">
-        <v>2.5</v>
-      </c>
-      <c r="U342">
-        <v>1.975</v>
-      </c>
-      <c r="V342">
-        <v>1.875</v>
-      </c>
-      <c r="W342">
-        <v>0</v>
-      </c>
-      <c r="X342">
-        <v>0</v>
-      </c>
-      <c r="Y342">
-        <v>0</v>
-      </c>
-      <c r="Z342">
-        <v>0</v>
-      </c>
-      <c r="AA342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:29">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343">
-        <v>7162511</v>
-      </c>
-      <c r="C343" t="s">
-        <v>28</v>
-      </c>
-      <c r="D343" t="s">
-        <v>28</v>
-      </c>
-      <c r="E343" s="2">
-        <v>45402.46875</v>
-      </c>
-      <c r="F343" t="s">
-        <v>48</v>
-      </c>
-      <c r="G343" t="s">
-        <v>38</v>
-      </c>
-      <c r="K343">
-        <v>4.333</v>
-      </c>
-      <c r="L343">
-        <v>3.75</v>
-      </c>
-      <c r="M343">
-        <v>1.75</v>
-      </c>
-      <c r="N343">
-        <v>4.75</v>
-      </c>
-      <c r="O343">
-        <v>3.8</v>
-      </c>
-      <c r="P343">
-        <v>1.7</v>
-      </c>
-      <c r="Q343">
-        <v>0.75</v>
-      </c>
-      <c r="R343">
-        <v>1.925</v>
-      </c>
-      <c r="S343">
-        <v>1.925</v>
-      </c>
-      <c r="T343">
-        <v>2.75</v>
-      </c>
-      <c r="U343">
-        <v>2.025</v>
-      </c>
-      <c r="V343">
-        <v>1.825</v>
-      </c>
-      <c r="W343">
-        <v>0</v>
-      </c>
-      <c r="X343">
-        <v>0</v>
-      </c>
-      <c r="Y343">
-        <v>0</v>
-      </c>
-      <c r="Z343">
-        <v>0</v>
-      </c>
-      <c r="AA343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:29">
-      <c r="A344" s="1">
-        <v>342</v>
-      </c>
-      <c r="B344">
-        <v>7162510</v>
-      </c>
-      <c r="C344" t="s">
-        <v>28</v>
-      </c>
-      <c r="D344" t="s">
-        <v>28</v>
-      </c>
-      <c r="E344" s="2">
-        <v>45402.46875</v>
-      </c>
-      <c r="F344" t="s">
-        <v>43</v>
-      </c>
-      <c r="G344" t="s">
-        <v>35</v>
-      </c>
-      <c r="K344">
-        <v>3</v>
-      </c>
-      <c r="L344">
-        <v>3.5</v>
-      </c>
-      <c r="M344">
-        <v>2.25</v>
-      </c>
-      <c r="N344">
-        <v>2.9</v>
-      </c>
-      <c r="O344">
-        <v>3.5</v>
-      </c>
-      <c r="P344">
-        <v>2.3</v>
-      </c>
-      <c r="Q344">
-        <v>0.25</v>
-      </c>
-      <c r="R344">
-        <v>1.8</v>
-      </c>
-      <c r="S344">
-        <v>2.05</v>
-      </c>
-      <c r="T344">
-        <v>2.5</v>
-      </c>
-      <c r="U344">
-        <v>1.875</v>
-      </c>
-      <c r="V344">
-        <v>1.975</v>
-      </c>
-      <c r="W344">
-        <v>0</v>
-      </c>
-      <c r="X344">
-        <v>0</v>
-      </c>
-      <c r="Y344">
-        <v>0</v>
-      </c>
-      <c r="Z344">
-        <v>0</v>
-      </c>
-      <c r="AA344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:29">
-      <c r="A345" s="1">
-        <v>343</v>
-      </c>
-      <c r="B345">
-        <v>7158909</v>
-      </c>
-      <c r="C345" t="s">
-        <v>28</v>
-      </c>
-      <c r="D345" t="s">
-        <v>28</v>
-      </c>
-      <c r="E345" s="2">
-        <v>45402.46875</v>
-      </c>
-      <c r="F345" t="s">
-        <v>36</v>
-      </c>
-      <c r="G345" t="s">
-        <v>37</v>
-      </c>
-      <c r="K345">
-        <v>2.5</v>
-      </c>
-      <c r="L345">
-        <v>2.8</v>
-      </c>
-      <c r="M345">
-        <v>3.2</v>
-      </c>
-      <c r="N345">
-        <v>2.625</v>
-      </c>
-      <c r="O345">
-        <v>2.8</v>
-      </c>
-      <c r="P345">
-        <v>3.1</v>
-      </c>
-      <c r="Q345">
-        <v>0</v>
-      </c>
-      <c r="R345">
-        <v>1.75</v>
-      </c>
-      <c r="S345">
-        <v>2.125</v>
-      </c>
-      <c r="T345">
-        <v>1.75</v>
-      </c>
-      <c r="U345">
-        <v>1.825</v>
-      </c>
-      <c r="V345">
-        <v>2.025</v>
-      </c>
-      <c r="W345">
-        <v>0</v>
-      </c>
-      <c r="X345">
-        <v>0</v>
-      </c>
-      <c r="Y345">
-        <v>0</v>
-      </c>
-      <c r="Z345">
-        <v>0</v>
-      </c>
-      <c r="AA345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:29">
-      <c r="A346" s="1">
-        <v>344</v>
-      </c>
-      <c r="B346">
-        <v>7219825</v>
-      </c>
-      <c r="C346" t="s">
-        <v>28</v>
-      </c>
-      <c r="D346" t="s">
-        <v>28</v>
-      </c>
-      <c r="E346" s="2">
-        <v>45402.46875</v>
-      </c>
-      <c r="F346" t="s">
-        <v>49</v>
-      </c>
-      <c r="G346" t="s">
-        <v>39</v>
-      </c>
-      <c r="K346">
-        <v>2.375</v>
-      </c>
-      <c r="L346">
-        <v>3.2</v>
-      </c>
-      <c r="M346">
-        <v>3</v>
-      </c>
-      <c r="N346">
-        <v>2.4</v>
-      </c>
-      <c r="O346">
-        <v>3.2</v>
-      </c>
-      <c r="P346">
-        <v>3.1</v>
-      </c>
-      <c r="Q346">
-        <v>-0.25</v>
-      </c>
-      <c r="R346">
-        <v>2.05</v>
-      </c>
-      <c r="S346">
-        <v>1.8</v>
-      </c>
-      <c r="T346">
-        <v>2.25</v>
-      </c>
-      <c r="U346">
-        <v>1.9</v>
-      </c>
-      <c r="V346">
-        <v>1.95</v>
-      </c>
-      <c r="W346">
-        <v>0</v>
-      </c>
-      <c r="X346">
-        <v>0</v>
-      </c>
-      <c r="Y346">
-        <v>0</v>
-      </c>
-      <c r="Z346">
-        <v>0</v>
-      </c>
-      <c r="AA346">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -100,22 +100,22 @@
     <t>7265236</t>
   </si>
   <si>
-    <t>7265239</t>
+    <t>7265237</t>
   </si>
   <si>
     <t>7265238</t>
   </si>
   <si>
+    <t>7265239</t>
+  </si>
+  <si>
     <t>7265240</t>
   </si>
   <si>
-    <t>7265242</t>
+    <t>7269060</t>
   </si>
   <si>
     <t>7265243</t>
-  </si>
-  <si>
-    <t>7269060</t>
   </si>
   <si>
     <t>7281394</t>
@@ -124,7 +124,7 @@
     <t>7286343</t>
   </si>
   <si>
-    <t>7265237</t>
+    <t>7265242</t>
   </si>
   <si>
     <t>Italy Serie B</t>
@@ -175,13 +175,13 @@
     <t>Catanzaro</t>
   </si>
   <si>
+    <t>Pisa</t>
+  </si>
+  <si>
     <t>AC Reggiana</t>
   </si>
   <si>
     <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Pisa</t>
   </si>
   <si>
     <t>Palermo</t>
@@ -1183,7 +1183,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1527,7 +1527,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2461,7 +2461,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6906635</v>
+        <v>6906634</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2473,70 +2473,70 @@
         <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
         <v>59</v>
       </c>
       <c r="J23">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="P23">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
         <v>2.25</v>
       </c>
       <c r="T23">
+        <v>2.05</v>
+      </c>
+      <c r="U23">
+        <v>1.75</v>
+      </c>
+      <c r="V23">
+        <v>-1</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
         <v>1.9</v>
       </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>-1</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>1.3</v>
-      </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA23">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB23">
         <v>-1</v>
@@ -2547,7 +2547,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6906631</v>
+        <v>6906633</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2556,49 +2556,49 @@
         <v>45167.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L24">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="M24">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O24">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T24">
         <v>1.95</v>
@@ -2607,19 +2607,19 @@
         <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>0.95</v>
@@ -2633,7 +2633,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6906634</v>
+        <v>6906635</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2642,55 +2642,55 @@
         <v>45167.64583333334</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="s">
         <v>59</v>
       </c>
       <c r="J25">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M25">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O25">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <v>2.25</v>
       </c>
       <c r="T25">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U25">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
         <v>-1</v>
@@ -2699,16 +2699,16 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB25">
         <v>-1</v>
@@ -2719,7 +2719,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6906633</v>
+        <v>6906631</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -2728,49 +2728,49 @@
         <v>45167.64583333334</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J26">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K26">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L26">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q26">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T26">
         <v>1.95</v>
@@ -2779,19 +2779,19 @@
         <v>1.9</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>0.95</v>
@@ -2977,7 +2977,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6906459</v>
+        <v>6906457</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -2986,73 +2986,73 @@
         <v>45168.64583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
         <v>3.4</v>
       </c>
-      <c r="K29">
+      <c r="L29">
+        <v>3.75</v>
+      </c>
+      <c r="M29">
+        <v>2.4</v>
+      </c>
+      <c r="N29">
         <v>3.25</v>
       </c>
-      <c r="L29">
-        <v>2.15</v>
-      </c>
-      <c r="M29">
-        <v>2.8</v>
-      </c>
-      <c r="N29">
-        <v>3.3</v>
-      </c>
       <c r="O29">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q29">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T29">
+        <v>1.825</v>
+      </c>
+      <c r="U29">
         <v>2.025</v>
       </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3063,7 +3063,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6906457</v>
+        <v>6906459</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -3072,73 +3072,73 @@
         <v>45168.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="M30">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N30">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
+        <v>2.5</v>
+      </c>
+      <c r="T30">
+        <v>2.025</v>
+      </c>
+      <c r="U30">
+        <v>1.825</v>
+      </c>
+      <c r="V30">
         <v>1.8</v>
       </c>
-      <c r="S30">
-        <v>2.25</v>
-      </c>
-      <c r="T30">
-        <v>1.825</v>
-      </c>
-      <c r="U30">
-        <v>2.025</v>
-      </c>
-      <c r="V30">
-        <v>-1</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB30">
         <v>-1</v>
@@ -3161,7 +3161,7 @@
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3247,7 +3247,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -4190,7 +4190,7 @@
         <v>45185.375</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
         <v>56</v>
@@ -4276,7 +4276,7 @@
         <v>45185.375</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
         <v>39</v>
@@ -4353,7 +4353,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7167428</v>
+        <v>7168363</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -4362,76 +4362,76 @@
         <v>45185.375</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
         <v>61</v>
       </c>
       <c r="J45">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="K45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M45">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="P45">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q45">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
         <v>2</v>
       </c>
       <c r="T45">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V45">
         <v>-1</v>
       </c>
       <c r="W45">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
+        <v>0.475</v>
+      </c>
+      <c r="Z45">
         <v>-0.5</v>
       </c>
-      <c r="Z45">
-        <v>0.5125</v>
-      </c>
       <c r="AA45">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4439,7 +4439,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7168363</v>
+        <v>7167428</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -4448,76 +4448,76 @@
         <v>45185.375</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="s">
         <v>61</v>
       </c>
       <c r="J46">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="K46">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L46">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="N46">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O46">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R46">
+        <v>2.025</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>2.025</v>
+      </c>
+      <c r="U46">
+        <v>1.825</v>
+      </c>
+      <c r="V46">
+        <v>-1</v>
+      </c>
+      <c r="W46">
         <v>1.9</v>
       </c>
-      <c r="S46">
-        <v>2</v>
-      </c>
-      <c r="T46">
-        <v>1.8</v>
-      </c>
-      <c r="U46">
-        <v>2.05</v>
-      </c>
-      <c r="V46">
-        <v>-1</v>
-      </c>
-      <c r="W46">
-        <v>2.2</v>
-      </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4534,7 +4534,7 @@
         <v>45185.46875</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
         <v>44</v>
@@ -5053,7 +5053,7 @@
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5901,7 +5901,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7151375</v>
+        <v>6906661</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
@@ -5910,76 +5910,76 @@
         <v>45195.64583333334</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J63">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="K63">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M63">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N63">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q63">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R63">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T63">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5987,7 +5987,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6906661</v>
+        <v>6906656</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
@@ -5996,49 +5996,49 @@
         <v>45195.64583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J64">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="K64">
         <v>3.25</v>
       </c>
       <c r="L64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M64">
         <v>2.4</v>
       </c>
       <c r="N64">
+        <v>3.1</v>
+      </c>
+      <c r="O64">
         <v>3.2</v>
-      </c>
-      <c r="O64">
-        <v>3</v>
       </c>
       <c r="P64">
         <v>-0.25</v>
       </c>
       <c r="Q64">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T64">
         <v>2</v>
@@ -6047,25 +6047,25 @@
         <v>1.85</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6168,10 +6168,10 @@
         <v>45195.64583333334</v>
       </c>
       <c r="E66" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" t="s">
         <v>53</v>
-      </c>
-      <c r="F66" t="s">
-        <v>55</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6906656</v>
+        <v>7151375</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -6254,76 +6254,76 @@
         <v>45195.64583333334</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J67">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N67">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S67">
         <v>2.25</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6684,7 +6684,7 @@
         <v>45199.375</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
@@ -6773,7 +6773,7 @@
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6945,7 +6945,7 @@
         <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -7544,7 +7544,7 @@
         <v>45206.375</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -7974,7 +7974,7 @@
         <v>45206.46875</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F87" t="s">
         <v>48</v>
@@ -8235,7 +8235,7 @@
         <v>58</v>
       </c>
       <c r="F90" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6906676</v>
+        <v>7151372</v>
       </c>
       <c r="C92" t="s">
         <v>37</v>
@@ -8404,76 +8404,76 @@
         <v>45220.375</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J92">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K92">
         <v>3.1</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M92">
+        <v>1.95</v>
+      </c>
+      <c r="N92">
+        <v>3.3</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
+        <v>-0.5</v>
+      </c>
+      <c r="Q92">
+        <v>1.975</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
         <v>2.25</v>
       </c>
-      <c r="N92">
-        <v>3</v>
-      </c>
-      <c r="O92">
-        <v>3.75</v>
-      </c>
-      <c r="P92">
-        <v>-0.25</v>
-      </c>
-      <c r="Q92">
-        <v>1.9</v>
-      </c>
-      <c r="R92">
-        <v>1.95</v>
-      </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
       <c r="T92">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U92">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V92">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8567,7 +8567,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7151372</v>
+        <v>6906676</v>
       </c>
       <c r="C94" t="s">
         <v>37</v>
@@ -8576,76 +8576,76 @@
         <v>45220.375</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K94">
         <v>3.1</v>
       </c>
       <c r="L94">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
+        <v>2.25</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>3.75</v>
+      </c>
+      <c r="P94">
+        <v>-0.25</v>
+      </c>
+      <c r="Q94">
+        <v>1.9</v>
+      </c>
+      <c r="R94">
         <v>1.95</v>
       </c>
-      <c r="N94">
-        <v>3.3</v>
-      </c>
-      <c r="O94">
-        <v>4.2</v>
-      </c>
-      <c r="P94">
-        <v>-0.5</v>
-      </c>
-      <c r="Q94">
+      <c r="S94">
+        <v>2</v>
+      </c>
+      <c r="T94">
         <v>1.975</v>
       </c>
-      <c r="R94">
+      <c r="U94">
         <v>1.875</v>
       </c>
-      <c r="S94">
-        <v>2.25</v>
-      </c>
-      <c r="T94">
-        <v>1.825</v>
-      </c>
-      <c r="U94">
-        <v>2.025</v>
-      </c>
       <c r="V94">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB94">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8751,7 +8751,7 @@
         <v>57</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>45221.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F99" t="s">
         <v>47</v>
@@ -9264,7 +9264,7 @@
         <v>45223.5625</v>
       </c>
       <c r="E102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F102" t="s">
         <v>57</v>
@@ -9611,7 +9611,7 @@
         <v>50</v>
       </c>
       <c r="F106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9780,7 +9780,7 @@
         <v>45227.46875</v>
       </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F108" t="s">
         <v>40</v>
@@ -10041,7 +10041,7 @@
         <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10296,7 +10296,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F114" t="s">
         <v>51</v>
@@ -10385,7 +10385,7 @@
         <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10898,7 +10898,7 @@
         <v>45235.51041666666</v>
       </c>
       <c r="E121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F121" t="s">
         <v>57</v>
@@ -11328,7 +11328,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F126" t="s">
         <v>51</v>
@@ -11417,7 +11417,7 @@
         <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11589,7 +11589,7 @@
         <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12618,10 +12618,10 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12704,7 +12704,7 @@
         <v>45255.51041666666</v>
       </c>
       <c r="E142" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F142" t="s">
         <v>38</v>
@@ -13309,7 +13309,7 @@
         <v>47</v>
       </c>
       <c r="F149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13481,7 +13481,7 @@
         <v>49</v>
       </c>
       <c r="F151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13564,7 +13564,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F152" t="s">
         <v>44</v>
@@ -14071,7 +14071,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6906707</v>
+        <v>6906708</v>
       </c>
       <c r="C158" t="s">
         <v>37</v>
@@ -14080,13 +14080,13 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14095,10 +14095,10 @@
         <v>60</v>
       </c>
       <c r="J158">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L158">
         <v>3.75</v>
@@ -14107,10 +14107,10 @@
         <v>2</v>
       </c>
       <c r="N158">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P158">
         <v>-0.5</v>
@@ -14122,13 +14122,13 @@
         <v>1.85</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T158">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U158">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
         <v>1</v>
@@ -14146,10 +14146,10 @@
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14252,7 +14252,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F160" t="s">
         <v>58</v>
@@ -14415,7 +14415,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6906708</v>
+        <v>6906707</v>
       </c>
       <c r="C162" t="s">
         <v>37</v>
@@ -14424,13 +14424,13 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14439,10 +14439,10 @@
         <v>60</v>
       </c>
       <c r="J162">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K162">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L162">
         <v>3.75</v>
@@ -14451,10 +14451,10 @@
         <v>2</v>
       </c>
       <c r="N162">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P162">
         <v>-0.5</v>
@@ -14466,13 +14466,13 @@
         <v>1.85</v>
       </c>
       <c r="S162">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V162">
         <v>1</v>
@@ -14490,10 +14490,10 @@
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14513,7 +14513,7 @@
         <v>52</v>
       </c>
       <c r="F163" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14768,7 +14768,7 @@
         <v>45270.51041666666</v>
       </c>
       <c r="E166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F166" t="s">
         <v>38</v>
@@ -15026,7 +15026,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F169" t="s">
         <v>48</v>
@@ -15103,7 +15103,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6906716</v>
+        <v>6906712</v>
       </c>
       <c r="C170" t="s">
         <v>37</v>
@@ -15112,76 +15112,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J170">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="K170">
+        <v>3.6</v>
+      </c>
+      <c r="L170">
+        <v>1.65</v>
+      </c>
+      <c r="M170">
+        <v>4.2</v>
+      </c>
+      <c r="N170">
         <v>3.5</v>
       </c>
-      <c r="L170">
-        <v>5</v>
-      </c>
-      <c r="M170">
-        <v>1.75</v>
-      </c>
-      <c r="N170">
-        <v>3.3</v>
-      </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="P170">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q170">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T170">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15189,7 +15189,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6906712</v>
+        <v>6906713</v>
       </c>
       <c r="C171" t="s">
         <v>37</v>
@@ -15198,76 +15198,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J171">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="K171">
+        <v>3</v>
+      </c>
+      <c r="L171">
+        <v>3.2</v>
+      </c>
+      <c r="M171">
+        <v>2.2</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171">
         <v>3.6</v>
       </c>
-      <c r="L171">
-        <v>1.65</v>
-      </c>
-      <c r="M171">
-        <v>4.2</v>
-      </c>
-      <c r="N171">
-        <v>3.5</v>
-      </c>
-      <c r="O171">
-        <v>1.85</v>
-      </c>
       <c r="P171">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T171">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB171">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15275,7 +15275,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6906713</v>
+        <v>6906716</v>
       </c>
       <c r="C172" t="s">
         <v>37</v>
@@ -15284,76 +15284,76 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J172">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="K172">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M172">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N172">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P172">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q172">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
         <v>2</v>
       </c>
       <c r="T172">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U172">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V172">
         <v>-1</v>
       </c>
       <c r="W172">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15373,7 +15373,7 @@
         <v>56</v>
       </c>
       <c r="F173" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -15542,7 +15542,7 @@
         <v>45276.51041666666</v>
       </c>
       <c r="E175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F175" t="s">
         <v>52</v>
@@ -16233,7 +16233,7 @@
         <v>45</v>
       </c>
       <c r="F183" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16488,10 +16488,10 @@
         <v>45283.51041666666</v>
       </c>
       <c r="E186" t="s">
+        <v>53</v>
+      </c>
+      <c r="F186" t="s">
         <v>55</v>
-      </c>
-      <c r="F186" t="s">
-        <v>54</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16574,7 +16574,7 @@
         <v>45286.35416666666</v>
       </c>
       <c r="E187" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F187" t="s">
         <v>52</v>
@@ -16746,7 +16746,7 @@
         <v>45286.45833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F189" t="s">
         <v>46</v>
@@ -17007,7 +17007,7 @@
         <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -17950,10 +17950,10 @@
         <v>45304.51041666666</v>
       </c>
       <c r="E203" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F203" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -18039,7 +18039,7 @@
         <v>40</v>
       </c>
       <c r="F204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18724,7 +18724,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F212" t="s">
         <v>51</v>
@@ -18985,7 +18985,7 @@
         <v>57</v>
       </c>
       <c r="F215" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -19068,7 +19068,7 @@
         <v>45312.51041666666</v>
       </c>
       <c r="E216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F216" t="s">
         <v>39</v>
@@ -19587,7 +19587,7 @@
         <v>51</v>
       </c>
       <c r="F222" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19673,7 +19673,7 @@
         <v>39</v>
       </c>
       <c r="F223" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -19842,7 +19842,7 @@
         <v>45318.51041666666</v>
       </c>
       <c r="E225" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F225" t="s">
         <v>58</v>
@@ -20272,7 +20272,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F230" t="s">
         <v>50</v>
@@ -20361,7 +20361,7 @@
         <v>42</v>
       </c>
       <c r="F231" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20788,7 +20788,7 @@
         <v>45326.51041666666</v>
       </c>
       <c r="E236" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F236" t="s">
         <v>45</v>
@@ -21135,7 +21135,7 @@
         <v>44</v>
       </c>
       <c r="F240" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21479,7 +21479,7 @@
         <v>52</v>
       </c>
       <c r="F244" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G244">
         <v>3</v>
@@ -21562,7 +21562,7 @@
         <v>45332.51041666666</v>
       </c>
       <c r="E245" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F245" t="s">
         <v>48</v>
@@ -21734,7 +21734,7 @@
         <v>45338.6875</v>
       </c>
       <c r="E247" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F247" t="s">
         <v>44</v>
@@ -21992,7 +21992,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E250" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F250" t="s">
         <v>43</v>
@@ -22081,7 +22081,7 @@
         <v>40</v>
       </c>
       <c r="F251" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G251">
         <v>3</v>
@@ -22769,7 +22769,7 @@
         <v>50</v>
       </c>
       <c r="F259" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         <v>38</v>
       </c>
       <c r="F261" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -23282,7 +23282,7 @@
         <v>45346.51041666666</v>
       </c>
       <c r="E265" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F265" t="s">
         <v>47</v>
@@ -23454,7 +23454,7 @@
         <v>45349.59375</v>
       </c>
       <c r="E267" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F267" t="s">
         <v>45</v>
@@ -23540,7 +23540,7 @@
         <v>45349.59375</v>
       </c>
       <c r="E268" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F268" t="s">
         <v>38</v>
@@ -24056,7 +24056,7 @@
         <v>45350.6875</v>
       </c>
       <c r="E274" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F274" t="s">
         <v>49</v>
@@ -24661,7 +24661,7 @@
         <v>46</v>
       </c>
       <c r="F281" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -24744,10 +24744,10 @@
         <v>45354.51041666666</v>
       </c>
       <c r="E282" t="s">
+        <v>55</v>
+      </c>
+      <c r="F282" t="s">
         <v>54</v>
-      </c>
-      <c r="F282" t="s">
-        <v>53</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>52</v>
       </c>
       <c r="F291" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -25604,7 +25604,7 @@
         <v>45360.51041666666</v>
       </c>
       <c r="E292" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F292" t="s">
         <v>43</v>
@@ -25951,7 +25951,7 @@
         <v>48</v>
       </c>
       <c r="F296" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G296">
         <v>2</v>
@@ -26123,7 +26123,7 @@
         <v>51</v>
       </c>
       <c r="F298" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G298">
         <v>3</v>
@@ -26550,7 +26550,7 @@
         <v>45367.51041666666</v>
       </c>
       <c r="E303" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F303" t="s">
         <v>58</v>
@@ -26808,7 +26808,7 @@
         <v>45368.51041666666</v>
       </c>
       <c r="E306" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F306" t="s">
         <v>57</v>
@@ -26971,7 +26971,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7093333</v>
+        <v>7093331</v>
       </c>
       <c r="C308" t="s">
         <v>37</v>
@@ -26980,76 +26980,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="E308" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F308" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J308">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K308">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L308">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M308">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="N308">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O308">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P308">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q308">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R308">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S308">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T308">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U308">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V308">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y308">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA308">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="309" spans="1:28">
@@ -27057,7 +27057,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7093331</v>
+        <v>7093333</v>
       </c>
       <c r="C309" t="s">
         <v>37</v>
@@ -27066,76 +27066,76 @@
         <v>45383.41666666666</v>
       </c>
       <c r="E309" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F309" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J309">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K309">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L309">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M309">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="N309">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O309">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P309">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q309">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R309">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S309">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T309">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U309">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W309">
         <v>-1</v>
       </c>
       <c r="X309">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z309">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB309">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:28">
@@ -27155,7 +27155,7 @@
         <v>47</v>
       </c>
       <c r="F310" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G310">
         <v>2</v>
@@ -27229,7 +27229,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7083241</v>
+        <v>7088815</v>
       </c>
       <c r="C311" t="s">
         <v>37</v>
@@ -27238,58 +27238,58 @@
         <v>45383.41666666666</v>
       </c>
       <c r="E311" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F311" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G311">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I311" t="s">
         <v>60</v>
       </c>
       <c r="J311">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="K311">
+        <v>3.25</v>
+      </c>
+      <c r="L311">
+        <v>2.9</v>
+      </c>
+      <c r="M311">
+        <v>2.25</v>
+      </c>
+      <c r="N311">
+        <v>3.3</v>
+      </c>
+      <c r="O311">
         <v>3.4</v>
       </c>
-      <c r="L311">
-        <v>4.75</v>
-      </c>
-      <c r="M311">
-        <v>1.65</v>
-      </c>
-      <c r="N311">
-        <v>3.4</v>
-      </c>
-      <c r="O311">
-        <v>6.5</v>
-      </c>
       <c r="P311">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q311">
+        <v>1.975</v>
+      </c>
+      <c r="R311">
         <v>1.875</v>
       </c>
-      <c r="R311">
+      <c r="S311">
+        <v>2.5</v>
+      </c>
+      <c r="T311">
+        <v>1.875</v>
+      </c>
+      <c r="U311">
         <v>1.975</v>
       </c>
-      <c r="S311">
-        <v>2</v>
-      </c>
-      <c r="T311">
-        <v>1.925</v>
-      </c>
-      <c r="U311">
-        <v>1.925</v>
-      </c>
       <c r="V311">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="W311">
         <v>-1</v>
@@ -27298,16 +27298,16 @@
         <v>-1</v>
       </c>
       <c r="Y311">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z311">
+        <v>-1</v>
+      </c>
+      <c r="AA311">
         <v>0.875</v>
       </c>
-      <c r="Z311">
-        <v>-1</v>
-      </c>
-      <c r="AA311">
-        <v>0</v>
-      </c>
       <c r="AB311">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:28">
@@ -27315,7 +27315,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7088815</v>
+        <v>7083241</v>
       </c>
       <c r="C312" t="s">
         <v>37</v>
@@ -27324,58 +27324,58 @@
         <v>45383.41666666666</v>
       </c>
       <c r="E312" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F312" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G312">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H312">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="s">
         <v>60</v>
       </c>
       <c r="J312">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="K312">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L312">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="M312">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="N312">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O312">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P312">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q312">
+        <v>1.875</v>
+      </c>
+      <c r="R312">
         <v>1.975</v>
       </c>
-      <c r="R312">
-        <v>1.875</v>
-      </c>
       <c r="S312">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T312">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U312">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V312">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -27384,16 +27384,16 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:28">
@@ -28187,7 +28187,7 @@
         <v>38</v>
       </c>
       <c r="F322" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G322">
         <v>3</v>
@@ -28356,7 +28356,7 @@
         <v>45388.46875</v>
       </c>
       <c r="E324" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F324" t="s">
         <v>46</v>
@@ -28528,7 +28528,7 @@
         <v>45389.46875</v>
       </c>
       <c r="E326" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F326" t="s">
         <v>47</v>
@@ -28700,7 +28700,7 @@
         <v>45395.375</v>
       </c>
       <c r="E328" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F328" t="s">
         <v>50</v>
@@ -28789,7 +28789,7 @@
         <v>46</v>
       </c>
       <c r="F329" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G329">
         <v>0</v>
@@ -29207,7 +29207,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7083243</v>
+        <v>7141356</v>
       </c>
       <c r="C334" t="s">
         <v>37</v>
@@ -29216,76 +29216,76 @@
         <v>45395.46875</v>
       </c>
       <c r="E334" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F334" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G334">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J334">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="K334">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L334">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M334">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N334">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O334">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="P334">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q334">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R334">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S334">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T334">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U334">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V334">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA334">
         <v>-1</v>
       </c>
       <c r="AB334">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -29293,7 +29293,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7141356</v>
+        <v>7083243</v>
       </c>
       <c r="C335" t="s">
         <v>37</v>
@@ -29302,76 +29302,76 @@
         <v>45395.46875</v>
       </c>
       <c r="E335" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F335" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G335">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J335">
+        <v>2.8</v>
+      </c>
+      <c r="K335">
+        <v>2.875</v>
+      </c>
+      <c r="L335">
+        <v>2.7</v>
+      </c>
+      <c r="M335">
+        <v>3.3</v>
+      </c>
+      <c r="N335">
         <v>3.1</v>
       </c>
-      <c r="K335">
-        <v>3</v>
-      </c>
-      <c r="L335">
-        <v>2.4</v>
-      </c>
-      <c r="M335">
-        <v>2.2</v>
-      </c>
-      <c r="N335">
-        <v>3.4</v>
-      </c>
       <c r="O335">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="P335">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q335">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R335">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S335">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T335">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U335">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V335">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W335">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z335">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -29560,7 +29560,7 @@
         <v>45401.64583333334</v>
       </c>
       <c r="E338" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F338" t="s">
         <v>42</v>
@@ -29735,7 +29735,7 @@
         <v>39</v>
       </c>
       <c r="F340" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G340">
         <v>1</v>
@@ -29818,7 +29818,7 @@
         <v>45402.375</v>
       </c>
       <c r="E341" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F341" t="s">
         <v>49</v>
@@ -30325,7 +30325,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7222658</v>
+        <v>7219826</v>
       </c>
       <c r="C347" t="s">
         <v>37</v>
@@ -30334,76 +30334,76 @@
         <v>45408.64583333334</v>
       </c>
       <c r="E347" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F347" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G347">
         <v>2</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J347">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="K347">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L347">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M347">
         <v>2.1</v>
       </c>
       <c r="N347">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O347">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P347">
         <v>-0.25</v>
       </c>
       <c r="Q347">
+        <v>1.875</v>
+      </c>
+      <c r="R347">
+        <v>1.975</v>
+      </c>
+      <c r="S347">
+        <v>2.75</v>
+      </c>
+      <c r="T347">
         <v>1.825</v>
       </c>
-      <c r="R347">
+      <c r="U347">
         <v>2.025</v>
       </c>
-      <c r="S347">
-        <v>2.5</v>
-      </c>
-      <c r="T347">
-        <v>2</v>
-      </c>
-      <c r="U347">
-        <v>1.85</v>
-      </c>
       <c r="V347">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W347">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
+        <v>0.875</v>
+      </c>
+      <c r="Z347">
+        <v>-1</v>
+      </c>
+      <c r="AA347">
+        <v>0.4125</v>
+      </c>
+      <c r="AB347">
         <v>-0.5</v>
-      </c>
-      <c r="Z347">
-        <v>0.5125</v>
-      </c>
-      <c r="AA347">
-        <v>1</v>
-      </c>
-      <c r="AB347">
-        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:28">
@@ -30411,7 +30411,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7219826</v>
+        <v>7222658</v>
       </c>
       <c r="C348" t="s">
         <v>37</v>
@@ -30420,76 +30420,76 @@
         <v>45408.64583333334</v>
       </c>
       <c r="E348" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F348" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G348">
         <v>2</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J348">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="K348">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L348">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M348">
         <v>2.1</v>
       </c>
       <c r="N348">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O348">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P348">
         <v>-0.25</v>
       </c>
       <c r="Q348">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R348">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S348">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T348">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U348">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V348">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W348">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X348">
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA348">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB348">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:28">
@@ -30497,7 +30497,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>7222657</v>
+        <v>7222660</v>
       </c>
       <c r="C349" t="s">
         <v>37</v>
@@ -30506,76 +30506,76 @@
         <v>45409.375</v>
       </c>
       <c r="E349" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F349" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G349">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H349">
         <v>0</v>
       </c>
       <c r="I349" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J349">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="K349">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L349">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M349">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="N349">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O349">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="P349">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q349">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R349">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S349">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T349">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U349">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V349">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W349">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X349">
         <v>-1</v>
       </c>
       <c r="Y349">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z349">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA349">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB349">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="350" spans="1:28">
@@ -30583,7 +30583,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7222660</v>
+        <v>7222655</v>
       </c>
       <c r="C350" t="s">
         <v>37</v>
@@ -30592,49 +30592,49 @@
         <v>45409.375</v>
       </c>
       <c r="E350" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F350" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H350">
         <v>0</v>
       </c>
       <c r="I350" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J350">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K350">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L350">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="M350">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N350">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O350">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="P350">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q350">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R350">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S350">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T350">
         <v>2.025</v>
@@ -30643,19 +30643,19 @@
         <v>1.825</v>
       </c>
       <c r="V350">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W350">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z350">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
         <v>-1</v>
@@ -30669,7 +30669,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7222655</v>
+        <v>7222659</v>
       </c>
       <c r="C351" t="s">
         <v>37</v>
@@ -30678,76 +30678,76 @@
         <v>45409.375</v>
       </c>
       <c r="E351" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F351" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J351">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K351">
+        <v>3.1</v>
+      </c>
+      <c r="L351">
+        <v>3.1</v>
+      </c>
+      <c r="M351">
+        <v>3</v>
+      </c>
+      <c r="N351">
         <v>3.2</v>
       </c>
-      <c r="L351">
-        <v>4.4</v>
-      </c>
-      <c r="M351">
-        <v>1.95</v>
-      </c>
-      <c r="N351">
-        <v>3.3</v>
-      </c>
       <c r="O351">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="P351">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q351">
+        <v>2.1</v>
+      </c>
+      <c r="R351">
+        <v>1.775</v>
+      </c>
+      <c r="S351">
+        <v>2.25</v>
+      </c>
+      <c r="T351">
         <v>1.925</v>
       </c>
-      <c r="R351">
+      <c r="U351">
         <v>1.925</v>
       </c>
-      <c r="S351">
-        <v>2</v>
-      </c>
-      <c r="T351">
-        <v>2.025</v>
-      </c>
-      <c r="U351">
-        <v>1.825</v>
-      </c>
       <c r="V351">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W351">
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y351">
+        <v>-1</v>
+      </c>
+      <c r="Z351">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA351">
+        <v>-1</v>
+      </c>
+      <c r="AB351">
         <v>0.925</v>
-      </c>
-      <c r="Z351">
-        <v>-1</v>
-      </c>
-      <c r="AA351">
-        <v>-1</v>
-      </c>
-      <c r="AB351">
-        <v>0.825</v>
       </c>
     </row>
     <row r="352" spans="1:28">
@@ -30755,7 +30755,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7222659</v>
+        <v>7222657</v>
       </c>
       <c r="C352" t="s">
         <v>37</v>
@@ -30764,76 +30764,76 @@
         <v>45409.375</v>
       </c>
       <c r="E352" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F352" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G352">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J352">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="K352">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="L352">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="M352">
+        <v>1.3</v>
+      </c>
+      <c r="N352">
+        <v>5.5</v>
+      </c>
+      <c r="O352">
+        <v>9</v>
+      </c>
+      <c r="P352">
+        <v>-1.5</v>
+      </c>
+      <c r="Q352">
+        <v>1.925</v>
+      </c>
+      <c r="R352">
+        <v>1.925</v>
+      </c>
+      <c r="S352">
         <v>3</v>
       </c>
-      <c r="N352">
-        <v>3.2</v>
-      </c>
-      <c r="O352">
-        <v>2.5</v>
-      </c>
-      <c r="P352">
-        <v>0</v>
-      </c>
-      <c r="Q352">
-        <v>2.1</v>
-      </c>
-      <c r="R352">
-        <v>1.775</v>
-      </c>
-      <c r="S352">
-        <v>2.25</v>
-      </c>
       <c r="T352">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U352">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V352">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z352">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB352">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:28">
@@ -30841,7 +30841,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7227246</v>
+        <v>7222654</v>
       </c>
       <c r="C353" t="s">
         <v>37</v>
@@ -30850,76 +30850,76 @@
         <v>45409.46875</v>
       </c>
       <c r="E353" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F353" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H353">
         <v>1</v>
       </c>
       <c r="I353" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J353">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="K353">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L353">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M353">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N353">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O353">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="P353">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q353">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R353">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S353">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T353">
+        <v>1.825</v>
+      </c>
+      <c r="U353">
         <v>2.025</v>
       </c>
-      <c r="U353">
-        <v>1.825</v>
-      </c>
       <c r="V353">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W353">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB353">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -30927,7 +30927,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7222653</v>
+        <v>7222656</v>
       </c>
       <c r="C354" t="s">
         <v>37</v>
@@ -30936,31 +30936,31 @@
         <v>45409.46875</v>
       </c>
       <c r="E354" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F354" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G354">
         <v>1</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J354">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K354">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L354">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M354">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N354">
         <v>3.5</v>
@@ -30972,40 +30972,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q354">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R354">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S354">
         <v>2.5</v>
       </c>
       <c r="T354">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U354">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V354">
         <v>-1</v>
       </c>
       <c r="W354">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X354">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y354">
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA354">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB354">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:28">
@@ -31013,7 +31013,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7222656</v>
+        <v>7227246</v>
       </c>
       <c r="C355" t="s">
         <v>37</v>
@@ -31022,46 +31022,46 @@
         <v>45409.46875</v>
       </c>
       <c r="E355" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F355" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G355">
         <v>1</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J355">
+        <v>2.8</v>
+      </c>
+      <c r="K355">
+        <v>3.25</v>
+      </c>
+      <c r="L355">
+        <v>2.5</v>
+      </c>
+      <c r="M355">
+        <v>2.75</v>
+      </c>
+      <c r="N355">
+        <v>3.3</v>
+      </c>
+      <c r="O355">
+        <v>2.55</v>
+      </c>
+      <c r="P355">
+        <v>0</v>
+      </c>
+      <c r="Q355">
+        <v>2</v>
+      </c>
+      <c r="R355">
         <v>1.85</v>
-      </c>
-      <c r="K355">
-        <v>3.4</v>
-      </c>
-      <c r="L355">
-        <v>4.4</v>
-      </c>
-      <c r="M355">
-        <v>1.909</v>
-      </c>
-      <c r="N355">
-        <v>3.5</v>
-      </c>
-      <c r="O355">
-        <v>4</v>
-      </c>
-      <c r="P355">
-        <v>-0.5</v>
-      </c>
-      <c r="Q355">
-        <v>1.925</v>
-      </c>
-      <c r="R355">
-        <v>1.925</v>
       </c>
       <c r="S355">
         <v>2.5</v>
@@ -31076,22 +31076,22 @@
         <v>-1</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X355">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z355">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA355">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="356" spans="1:28">
@@ -31099,7 +31099,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7222654</v>
+        <v>7222653</v>
       </c>
       <c r="C356" t="s">
         <v>37</v>
@@ -31108,76 +31108,76 @@
         <v>45409.46875</v>
       </c>
       <c r="E356" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F356" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356" t="s">
+        <v>61</v>
+      </c>
+      <c r="J356">
+        <v>1.8</v>
+      </c>
+      <c r="K356">
+        <v>3.5</v>
+      </c>
+      <c r="L356">
+        <v>4.5</v>
+      </c>
+      <c r="M356">
+        <v>1.95</v>
+      </c>
+      <c r="N356">
+        <v>3.5</v>
+      </c>
+      <c r="O356">
         <v>4</v>
       </c>
-      <c r="H356">
-        <v>1</v>
-      </c>
-      <c r="I356" t="s">
-        <v>60</v>
-      </c>
-      <c r="J356">
-        <v>2.25</v>
-      </c>
-      <c r="K356">
-        <v>3</v>
-      </c>
-      <c r="L356">
-        <v>3.5</v>
-      </c>
-      <c r="M356">
-        <v>2.25</v>
-      </c>
-      <c r="N356">
-        <v>3.1</v>
-      </c>
-      <c r="O356">
-        <v>3.6</v>
-      </c>
       <c r="P356">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q356">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R356">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S356">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T356">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U356">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V356">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W356">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X356">
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA356">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="357" spans="1:28">
@@ -31259,46 +31259,46 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E358" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F358" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J358">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="K358">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L358">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M358">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="N358">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O358">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P358">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q358">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R358">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S358">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T358">
+        <v>1.875</v>
+      </c>
+      <c r="U358">
         <v>1.975</v>
-      </c>
-      <c r="U358">
-        <v>1.875</v>
       </c>
       <c r="V358">
         <v>0</v>
@@ -31324,7 +31324,7 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E359" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F359" t="s">
         <v>45</v>
@@ -31351,10 +31351,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q359">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R359">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S359">
         <v>2</v>
@@ -31389,25 +31389,25 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E360" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F360" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J360">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="K360">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L360">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M360">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="N360">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O360">
         <v>7</v>
@@ -31416,19 +31416,19 @@
         <v>-1.25</v>
       </c>
       <c r="Q360">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R360">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T360">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U360">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V360">
         <v>0</v>
@@ -31454,46 +31454,46 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E361" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F361" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J361">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="K361">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L361">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="M361">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="N361">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O361">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="P361">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q361">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R361">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S361">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T361">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U361">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V361">
         <v>0</v>
@@ -31519,46 +31519,46 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E362" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F362" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J362">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="K362">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L362">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M362">
         <v>2.625</v>
       </c>
       <c r="N362">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O362">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P362">
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R362">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S362">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T362">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U362">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V362">
         <v>0</v>
@@ -31584,46 +31584,46 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E363" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F363" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J363">
+        <v>2.5</v>
+      </c>
+      <c r="K363">
+        <v>3.4</v>
+      </c>
+      <c r="L363">
+        <v>2.75</v>
+      </c>
+      <c r="M363">
         <v>2.7</v>
       </c>
-      <c r="K363">
-        <v>3</v>
-      </c>
-      <c r="L363">
-        <v>2.8</v>
-      </c>
-      <c r="M363">
-        <v>2.4</v>
-      </c>
       <c r="N363">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O363">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="P363">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q363">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R363">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S363">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T363">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U363">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V363">
         <v>0</v>
@@ -31652,7 +31652,7 @@
         <v>48</v>
       </c>
       <c r="F364" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J364">
         <v>1.909</v>
@@ -31667,7 +31667,7 @@
         <v>1.85</v>
       </c>
       <c r="N364">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O364">
         <v>4.333</v>
@@ -31729,10 +31729,10 @@
         <v>2.55</v>
       </c>
       <c r="M365">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N365">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O365">
         <v>2.55</v>
@@ -31741,19 +31741,19 @@
         <v>0</v>
       </c>
       <c r="Q365">
+        <v>1.9</v>
+      </c>
+      <c r="R365">
         <v>1.95</v>
-      </c>
-      <c r="R365">
-        <v>1.9</v>
       </c>
       <c r="S365">
         <v>2.75</v>
       </c>
       <c r="T365">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U365">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V365">
         <v>0</v>
@@ -31779,46 +31779,46 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E366" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F366" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J366">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="K366">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L366">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M366">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N366">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O366">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P366">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q366">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R366">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S366">
         <v>2.25</v>
       </c>
       <c r="T366">
+        <v>1.975</v>
+      </c>
+      <c r="U366">
         <v>1.875</v>
-      </c>
-      <c r="U366">
-        <v>1.975</v>
       </c>
       <c r="V366">
         <v>0</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -97,22 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7286345</t>
+    <t>7309340</t>
+  </si>
+  <si>
+    <t>7309341</t>
+  </si>
+  <si>
+    <t>7309342</t>
   </si>
   <si>
     <t>7310531</t>
   </si>
   <si>
-    <t>7309342</t>
-  </si>
-  <si>
-    <t>7309341</t>
-  </si>
-  <si>
-    <t>7309340</t>
+    <t>7286345</t>
   </si>
   <si>
     <t>7286344</t>
+  </si>
+  <si>
+    <t>7280956</t>
   </si>
   <si>
     <t>7280955</t>
@@ -122,9 +125,6 @@
   </si>
   <si>
     <t>7280953</t>
-  </si>
-  <si>
-    <t>7280956</t>
   </si>
   <si>
     <t>Italy Serie B</t>
@@ -32914,46 +32914,46 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E377" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F377" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J377">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="K377">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L377">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="M377">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="N377">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O377">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="P377">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q377">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R377">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S377">
         <v>2.5</v>
       </c>
       <c r="T377">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U377">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V377">
         <v>0</v>
@@ -32979,46 +32979,46 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E378" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F378" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J378">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="K378">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L378">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="M378">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N378">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O378">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="P378">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q378">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R378">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S378">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T378">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U378">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V378">
         <v>0</v>
@@ -33059,22 +33059,22 @@
         <v>2.8</v>
       </c>
       <c r="M379">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N379">
         <v>3.2</v>
       </c>
       <c r="O379">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="P379">
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R379">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S379">
         <v>2.5</v>
@@ -33109,46 +33109,46 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E380" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F380" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J380">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="K380">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L380">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="M380">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N380">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O380">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="P380">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q380">
+        <v>1.875</v>
+      </c>
+      <c r="R380">
         <v>1.975</v>
       </c>
-      <c r="R380">
-        <v>1.875</v>
-      </c>
       <c r="S380">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T380">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U380">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V380">
         <v>0</v>
@@ -33174,31 +33174,31 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E381" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F381" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J381">
+        <v>1.6</v>
+      </c>
+      <c r="K381">
         <v>3.8</v>
       </c>
-      <c r="K381">
-        <v>3.5</v>
-      </c>
       <c r="L381">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="M381">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="N381">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O381">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="P381">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q381">
         <v>2.05</v>
@@ -33210,10 +33210,10 @@
         <v>2.5</v>
       </c>
       <c r="T381">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U381">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V381">
         <v>0</v>
@@ -33254,22 +33254,22 @@
         <v>2.45</v>
       </c>
       <c r="M382">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N382">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O382">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P382">
         <v>0.25</v>
       </c>
       <c r="Q382">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R382">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S382">
         <v>2.75</v>
@@ -33304,46 +33304,46 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E383" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F383" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J383">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="K383">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L383">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="M383">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N383">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O383">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="P383">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q383">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R383">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S383">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T383">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U383">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V383">
         <v>0</v>
@@ -33369,46 +33369,46 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E384" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F384" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J384">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="K384">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L384">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="M384">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="N384">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O384">
-        <v>8.5</v>
+        <v>1.666</v>
       </c>
       <c r="P384">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q384">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R384">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S384">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T384">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U384">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V384">
         <v>0</v>
@@ -33434,46 +33434,46 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E385" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F385" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J385">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="K385">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L385">
+        <v>8</v>
+      </c>
+      <c r="M385">
+        <v>1.333</v>
+      </c>
+      <c r="N385">
         <v>5</v>
       </c>
-      <c r="M385">
-        <v>1.666</v>
-      </c>
-      <c r="N385">
-        <v>3.75</v>
-      </c>
       <c r="O385">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P385">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q385">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R385">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S385">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T385">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U385">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V385">
         <v>0</v>
@@ -33499,46 +33499,46 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E386" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F386" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J386">
+        <v>1.666</v>
+      </c>
+      <c r="K386">
+        <v>3.75</v>
+      </c>
+      <c r="L386">
+        <v>5</v>
+      </c>
+      <c r="M386">
+        <v>1.65</v>
+      </c>
+      <c r="N386">
+        <v>3.75</v>
+      </c>
+      <c r="O386">
+        <v>5.25</v>
+      </c>
+      <c r="P386">
+        <v>-0.75</v>
+      </c>
+      <c r="Q386">
+        <v>1.85</v>
+      </c>
+      <c r="R386">
+        <v>2</v>
+      </c>
+      <c r="S386">
         <v>2.25</v>
       </c>
-      <c r="K386">
-        <v>3.4</v>
-      </c>
-      <c r="L386">
-        <v>3.1</v>
-      </c>
-      <c r="M386">
-        <v>2.2</v>
-      </c>
-      <c r="N386">
-        <v>3.4</v>
-      </c>
-      <c r="O386">
-        <v>3.1</v>
-      </c>
-      <c r="P386">
-        <v>-0.25</v>
-      </c>
-      <c r="Q386">
-        <v>1.925</v>
-      </c>
-      <c r="R386">
-        <v>1.925</v>
-      </c>
-      <c r="S386">
-        <v>2.5</v>
-      </c>
       <c r="T386">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U386">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V386">
         <v>0</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -2440,7 +2440,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6906633</v>
+        <v>6906631</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -2449,49 +2449,49 @@
         <v>45167.64583333334</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J23">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N23">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q23">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>1.95</v>
@@ -2500,19 +2500,19 @@
         <v>1.9</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>0.95</v>
@@ -2526,7 +2526,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6906631</v>
+        <v>6906633</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -2535,49 +2535,49 @@
         <v>45167.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L24">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="M24">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O24">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T24">
         <v>1.95</v>
@@ -2586,19 +2586,19 @@
         <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>0.95</v>
@@ -2784,7 +2784,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6906632</v>
+        <v>6906457</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -2793,34 +2793,34 @@
         <v>45168.64583333334</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O27">
         <v>3.1</v>
@@ -2829,40 +2829,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q27">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T27">
+        <v>1.825</v>
+      </c>
+      <c r="U27">
         <v>2.025</v>
       </c>
-      <c r="U27">
-        <v>1.825</v>
-      </c>
       <c r="V27">
         <v>-1</v>
       </c>
       <c r="W27">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2870,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6906457</v>
+        <v>6906459</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -2879,73 +2879,73 @@
         <v>45168.64583333334</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="M28">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N28">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R28">
+        <v>1.875</v>
+      </c>
+      <c r="S28">
+        <v>2.5</v>
+      </c>
+      <c r="T28">
+        <v>2.025</v>
+      </c>
+      <c r="U28">
+        <v>1.825</v>
+      </c>
+      <c r="V28">
         <v>1.8</v>
       </c>
-      <c r="S28">
-        <v>2.25</v>
-      </c>
-      <c r="T28">
-        <v>1.825</v>
-      </c>
-      <c r="U28">
-        <v>2.025</v>
-      </c>
-      <c r="V28">
-        <v>-1</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -2956,7 +2956,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6906636</v>
+        <v>6906632</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -2965,76 +2965,76 @@
         <v>45168.64583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J29">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N29">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O29">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q29">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="R29">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
         <v>-1</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X29">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z29">
-        <v>1.1</v>
+        <v>0.375</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3042,7 +3042,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6906459</v>
+        <v>6906636</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -3051,76 +3051,76 @@
         <v>45168.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K30">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L30">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
         <v>3.3</v>
       </c>
       <c r="O30">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q30">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S30">
         <v>2.5</v>
       </c>
       <c r="T30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3214,7 +3214,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6906639</v>
+        <v>6906637</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -3223,76 +3223,76 @@
         <v>45171.5625</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="K32">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N32">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
         <v>2.25</v>
       </c>
       <c r="T32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W32">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3300,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6906637</v>
+        <v>6906639</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
@@ -3309,76 +3309,76 @@
         <v>45171.5625</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J33">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="M33">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P33">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
         <v>2.25</v>
       </c>
       <c r="T33">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -4074,7 +4074,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7168363</v>
+        <v>7167429</v>
       </c>
       <c r="C42" t="s">
         <v>30</v>
@@ -4083,10 +4083,10 @@
         <v>45185.375</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4098,55 +4098,55 @@
         <v>54</v>
       </c>
       <c r="J42">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="K42">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L42">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N42">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O42">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="P42">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q42">
+        <v>1.9</v>
+      </c>
+      <c r="R42">
         <v>1.95</v>
       </c>
-      <c r="R42">
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>1.975</v>
+      </c>
+      <c r="U42">
+        <v>1.875</v>
+      </c>
+      <c r="V42">
+        <v>-1</v>
+      </c>
+      <c r="W42">
         <v>1.9</v>
       </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="T42">
-        <v>1.8</v>
-      </c>
-      <c r="U42">
-        <v>2.05</v>
-      </c>
-      <c r="V42">
-        <v>-1</v>
-      </c>
-      <c r="W42">
-        <v>2.2</v>
-      </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
+        <v>-0.5</v>
+      </c>
+      <c r="Z42">
         <v>0.475</v>
-      </c>
-      <c r="Z42">
-        <v>-0.5</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7167429</v>
+        <v>7168363</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
@@ -4427,10 +4427,10 @@
         <v>45185.375</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4442,55 +4442,55 @@
         <v>54</v>
       </c>
       <c r="J46">
+        <v>3.3</v>
+      </c>
+      <c r="K46">
+        <v>3.2</v>
+      </c>
+      <c r="L46">
         <v>2.1</v>
       </c>
-      <c r="K46">
-        <v>3.1</v>
-      </c>
-      <c r="L46">
-        <v>3.4</v>
-      </c>
       <c r="M46">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N46">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O46">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="P46">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q46">
+        <v>1.95</v>
+      </c>
+      <c r="R46">
         <v>1.9</v>
       </c>
-      <c r="R46">
-        <v>1.95</v>
-      </c>
       <c r="S46">
         <v>2</v>
       </c>
       <c r="T46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V46">
         <v>-1</v>
       </c>
       <c r="W46">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
+        <v>0.475</v>
+      </c>
+      <c r="Z46">
         <v>-0.5</v>
-      </c>
-      <c r="Z46">
-        <v>0.475</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -4934,7 +4934,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6906651</v>
+        <v>6906652</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
@@ -4943,40 +4943,40 @@
         <v>45192.375</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J52">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="K52">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L52">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M52">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="P52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>2.1</v>
@@ -4985,22 +4985,22 @@
         <v>1.775</v>
       </c>
       <c r="S52">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
         <v>-1</v>
       </c>
       <c r="W52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y52">
         <v>-1</v>
@@ -5009,10 +5009,10 @@
         <v>0.7749999999999999</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5106,7 +5106,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6906652</v>
+        <v>6906651</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
@@ -5115,40 +5115,40 @@
         <v>45192.375</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J54">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="K54">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L54">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="M54">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -5157,22 +5157,22 @@
         <v>1.775</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T54">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
         <v>-1</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X54">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5181,10 +5181,10 @@
         <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5536,7 +5536,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6906452</v>
+        <v>6906450</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -5545,76 +5545,76 @@
         <v>45193.46875</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
         <v>54</v>
       </c>
       <c r="J59">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K59">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O59">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
         <v>2.25</v>
       </c>
       <c r="T59">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V59">
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA59">
         <v>-0.5</v>
       </c>
-      <c r="Z59">
-        <v>0.4625</v>
-      </c>
-      <c r="AA59">
-        <v>1.05</v>
-      </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5622,7 +5622,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6906450</v>
+        <v>6906452</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
@@ -5631,76 +5631,76 @@
         <v>45193.46875</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
         <v>54</v>
       </c>
       <c r="J60">
+        <v>2.2</v>
+      </c>
+      <c r="K60">
+        <v>3.1</v>
+      </c>
+      <c r="L60">
+        <v>3.5</v>
+      </c>
+      <c r="M60">
         <v>2.25</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>3.2</v>
       </c>
-      <c r="L60">
-        <v>3.2</v>
-      </c>
-      <c r="M60">
-        <v>1.95</v>
-      </c>
-      <c r="N60">
+      <c r="O60">
         <v>3.4</v>
       </c>
-      <c r="O60">
-        <v>4</v>
-      </c>
       <c r="P60">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
         <v>2.25</v>
       </c>
       <c r="T60">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V60">
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB60">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5880,7 +5880,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6906659</v>
+        <v>7151375</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
@@ -5889,10 +5889,10 @@
         <v>45195.64583333334</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5904,61 +5904,61 @@
         <v>54</v>
       </c>
       <c r="J63">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L63">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="N63">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P63">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q63">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S63">
         <v>2.25</v>
       </c>
       <c r="T63">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
         <v>-1</v>
       </c>
       <c r="W63">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6052,7 +6052,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7151375</v>
+        <v>6906660</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -6061,10 +6061,10 @@
         <v>45195.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6076,61 +6076,61 @@
         <v>54</v>
       </c>
       <c r="J65">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M65">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N65">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P65">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
         <v>-1</v>
       </c>
       <c r="W65">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6138,7 +6138,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6906660</v>
+        <v>6906659</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -6147,10 +6147,10 @@
         <v>45195.64583333334</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6162,61 +6162,61 @@
         <v>54</v>
       </c>
       <c r="J66">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="K66">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M66">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N66">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O66">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q66">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
         <v>-1</v>
       </c>
       <c r="W66">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6740,7 +6740,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6906666</v>
+        <v>6906664</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -6749,55 +6749,55 @@
         <v>45199.375</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73" t="s">
         <v>52</v>
       </c>
       <c r="J73">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K73">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L73">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M73">
+        <v>2.375</v>
+      </c>
+      <c r="N73">
+        <v>3.25</v>
+      </c>
+      <c r="O73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>-0.25</v>
+      </c>
+      <c r="Q73">
         <v>2.05</v>
       </c>
-      <c r="N73">
-        <v>3.1</v>
-      </c>
-      <c r="O73">
-        <v>4</v>
-      </c>
-      <c r="P73">
-        <v>-0.5</v>
-      </c>
-      <c r="Q73">
-        <v>2.025</v>
-      </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T73">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
         <v>-1</v>
@@ -6806,16 +6806,16 @@
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6826,7 +6826,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6906664</v>
+        <v>6906666</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -6835,73 +6835,73 @@
         <v>45199.375</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
         <v>52</v>
       </c>
       <c r="J74">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K74">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L74">
+        <v>4.333</v>
+      </c>
+      <c r="M74">
+        <v>2.05</v>
+      </c>
+      <c r="N74">
+        <v>3.1</v>
+      </c>
+      <c r="O74">
+        <v>4</v>
+      </c>
+      <c r="P74">
+        <v>-0.5</v>
+      </c>
+      <c r="Q74">
+        <v>2.025</v>
+      </c>
+      <c r="R74">
+        <v>1.825</v>
+      </c>
+      <c r="S74">
+        <v>2.25</v>
+      </c>
+      <c r="T74">
+        <v>2.025</v>
+      </c>
+      <c r="U74">
+        <v>1.825</v>
+      </c>
+      <c r="V74">
+        <v>-1</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
         <v>3</v>
       </c>
-      <c r="M74">
-        <v>2.375</v>
-      </c>
-      <c r="N74">
-        <v>3.25</v>
-      </c>
-      <c r="O74">
-        <v>3</v>
-      </c>
-      <c r="P74">
-        <v>-0.25</v>
-      </c>
-      <c r="Q74">
-        <v>2.05</v>
-      </c>
-      <c r="R74">
-        <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2.5</v>
-      </c>
-      <c r="T74">
-        <v>2.05</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>-1</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>2</v>
-      </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA74">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -7514,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6906443</v>
+        <v>6906669</v>
       </c>
       <c r="C82" t="s">
         <v>30</v>
@@ -7523,76 +7523,76 @@
         <v>45206.375</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J82">
+        <v>2.3</v>
+      </c>
+      <c r="K82">
+        <v>3.1</v>
+      </c>
+      <c r="L82">
+        <v>3.3</v>
+      </c>
+      <c r="M82">
+        <v>2.7</v>
+      </c>
+      <c r="N82">
+        <v>3.1</v>
+      </c>
+      <c r="O82">
+        <v>2.75</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>1.95</v>
+      </c>
+      <c r="R82">
+        <v>1.9</v>
+      </c>
+      <c r="S82">
+        <v>2.25</v>
+      </c>
+      <c r="T82">
+        <v>1.8</v>
+      </c>
+      <c r="U82">
+        <v>2.05</v>
+      </c>
+      <c r="V82">
+        <v>-1</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>1.75</v>
       </c>
-      <c r="K82">
-        <v>3.5</v>
-      </c>
-      <c r="L82">
-        <v>4.75</v>
-      </c>
-      <c r="M82">
-        <v>1.85</v>
-      </c>
-      <c r="N82">
-        <v>3.6</v>
-      </c>
-      <c r="O82">
-        <v>4.2</v>
-      </c>
-      <c r="P82">
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA82">
         <v>-0.5</v>
       </c>
-      <c r="Q82">
-        <v>1.85</v>
-      </c>
-      <c r="R82">
-        <v>2</v>
-      </c>
-      <c r="S82">
-        <v>2.5</v>
-      </c>
-      <c r="T82">
-        <v>2</v>
-      </c>
-      <c r="U82">
-        <v>1.85</v>
-      </c>
-      <c r="V82">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>1</v>
-      </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7600,7 +7600,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6906669</v>
+        <v>6906443</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
@@ -7609,76 +7609,76 @@
         <v>45206.375</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J83">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M83">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N83">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O83">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q83">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -9148,7 +9148,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7269061</v>
+        <v>7269062</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -9157,55 +9157,55 @@
         <v>45223.5625</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="s">
         <v>52</v>
       </c>
       <c r="J101">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L101">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="M101">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="N101">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="O101">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="P101">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
         <v>-1</v>
@@ -9214,19 +9214,19 @@
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>4.25</v>
+        <v>1.8</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9234,7 +9234,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7269062</v>
+        <v>7269061</v>
       </c>
       <c r="C102" t="s">
         <v>30</v>
@@ -9243,55 +9243,55 @@
         <v>45223.5625</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
         <v>52</v>
       </c>
       <c r="J102">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="K102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L102">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="M102">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="N102">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="O102">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q102">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
         <v>-1</v>
@@ -9300,19 +9300,19 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>1.8</v>
+        <v>4.25</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -10180,7 +10180,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6905860</v>
+        <v>7151370</v>
       </c>
       <c r="C113" t="s">
         <v>30</v>
@@ -10189,76 +10189,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J113">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K113">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L113">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N113">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O113">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
         <v>-0.25</v>
       </c>
       <c r="Q113">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W113">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z113">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10266,7 +10266,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6906435</v>
+        <v>6905860</v>
       </c>
       <c r="C114" t="s">
         <v>30</v>
@@ -10275,76 +10275,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J114">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K114">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M114">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N114">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P114">
         <v>-0.25</v>
       </c>
       <c r="Q114">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
         <v>2.25</v>
       </c>
       <c r="T114">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
         <v>-1</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X114">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z114">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA114">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10352,7 +10352,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6906684</v>
+        <v>6906435</v>
       </c>
       <c r="C115" t="s">
         <v>30</v>
@@ -10361,76 +10361,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J115">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K115">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
+        <v>3.3</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
-      </c>
-      <c r="O115">
-        <v>4</v>
       </c>
       <c r="P115">
         <v>-0.25</v>
       </c>
       <c r="Q115">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
+        <v>2.25</v>
+      </c>
+      <c r="T115">
+        <v>1.825</v>
+      </c>
+      <c r="U115">
+        <v>2.025</v>
+      </c>
+      <c r="V115">
+        <v>-1</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>2.1</v>
       </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
-      <c r="T115">
-        <v>1.9</v>
-      </c>
-      <c r="U115">
-        <v>1.95</v>
-      </c>
-      <c r="V115">
-        <v>1.1</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10438,7 +10438,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6906685</v>
+        <v>6906684</v>
       </c>
       <c r="C116" t="s">
         <v>30</v>
@@ -10447,76 +10447,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="K116">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M116">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N116">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q116">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W116">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10524,7 +10524,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6906688</v>
+        <v>6906685</v>
       </c>
       <c r="C117" t="s">
         <v>30</v>
@@ -10533,76 +10533,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M117">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="N117">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O117">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q117">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S117">
         <v>2.25</v>
       </c>
       <c r="T117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U117">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X117">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10610,7 +10610,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7151370</v>
+        <v>6906688</v>
       </c>
       <c r="C118" t="s">
         <v>30</v>
@@ -10619,76 +10619,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J118">
+        <v>2.5</v>
+      </c>
+      <c r="K118">
+        <v>3.1</v>
+      </c>
+      <c r="L118">
+        <v>2.875</v>
+      </c>
+      <c r="M118">
+        <v>2.75</v>
+      </c>
+      <c r="N118">
+        <v>3.2</v>
+      </c>
+      <c r="O118">
+        <v>2.7</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>1.95</v>
+      </c>
+      <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
         <v>2.25</v>
       </c>
-      <c r="K118">
-        <v>3</v>
-      </c>
-      <c r="L118">
-        <v>3.4</v>
-      </c>
-      <c r="M118">
-        <v>2.1</v>
-      </c>
-      <c r="N118">
-        <v>3.1</v>
-      </c>
-      <c r="O118">
-        <v>4.2</v>
-      </c>
-      <c r="P118">
-        <v>-0.25</v>
-      </c>
-      <c r="Q118">
-        <v>1.75</v>
-      </c>
-      <c r="R118">
+      <c r="T118">
+        <v>1.8</v>
+      </c>
+      <c r="U118">
         <v>2.05</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>1.975</v>
-      </c>
-      <c r="U118">
-        <v>1.875</v>
-      </c>
       <c r="V118">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y118">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -13448,7 +13448,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6906699</v>
+        <v>6906700</v>
       </c>
       <c r="C151" t="s">
         <v>30</v>
@@ -13457,55 +13457,55 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I151" t="s">
         <v>52</v>
       </c>
       <c r="J151">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="K151">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L151">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="M151">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="N151">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="P151">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q151">
+        <v>1.875</v>
+      </c>
+      <c r="R151">
         <v>1.975</v>
       </c>
-      <c r="R151">
-        <v>1.875</v>
-      </c>
       <c r="S151">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T151">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V151">
         <v>-1</v>
@@ -13514,19 +13514,19 @@
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.2</v>
+        <v>1.375</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13534,7 +13534,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6906700</v>
+        <v>6906699</v>
       </c>
       <c r="C152" t="s">
         <v>30</v>
@@ -13543,55 +13543,55 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E152" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152" t="s">
         <v>52</v>
       </c>
       <c r="J152">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="K152">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L152">
+        <v>3.25</v>
+      </c>
+      <c r="M152">
+        <v>2.25</v>
+      </c>
+      <c r="N152">
+        <v>3.3</v>
+      </c>
+      <c r="O152">
+        <v>3.2</v>
+      </c>
+      <c r="P152">
+        <v>-0.25</v>
+      </c>
+      <c r="Q152">
+        <v>1.975</v>
+      </c>
+      <c r="R152">
+        <v>1.875</v>
+      </c>
+      <c r="S152">
         <v>2.5</v>
       </c>
-      <c r="M152">
-        <v>3.3</v>
-      </c>
-      <c r="N152">
-        <v>3</v>
-      </c>
-      <c r="O152">
-        <v>2.375</v>
-      </c>
-      <c r="P152">
-        <v>0.25</v>
-      </c>
-      <c r="Q152">
-        <v>1.875</v>
-      </c>
-      <c r="R152">
-        <v>1.975</v>
-      </c>
-      <c r="S152">
-        <v>2</v>
-      </c>
       <c r="T152">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
         <v>-1</v>
@@ -13600,19 +13600,19 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>1.375</v>
+        <v>2.2</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB152">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13706,7 +13706,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6906425</v>
+        <v>6905862</v>
       </c>
       <c r="C154" t="s">
         <v>30</v>
@@ -13715,76 +13715,76 @@
         <v>45263.51041666666</v>
       </c>
       <c r="E154" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J154">
+        <v>2.7</v>
+      </c>
+      <c r="K154">
+        <v>3.1</v>
+      </c>
+      <c r="L154">
+        <v>2.7</v>
+      </c>
+      <c r="M154">
+        <v>3.6</v>
+      </c>
+      <c r="N154">
         <v>2.8</v>
       </c>
-      <c r="K154">
-        <v>3.2</v>
-      </c>
-      <c r="L154">
-        <v>2.5</v>
-      </c>
-      <c r="M154">
-        <v>2.75</v>
-      </c>
-      <c r="N154">
-        <v>3.1</v>
-      </c>
       <c r="O154">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="P154">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q154">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S154">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13792,7 +13792,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6905862</v>
+        <v>6906425</v>
       </c>
       <c r="C155" t="s">
         <v>30</v>
@@ -13801,76 +13801,76 @@
         <v>45263.51041666666</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J155">
+        <v>2.8</v>
+      </c>
+      <c r="K155">
+        <v>3.2</v>
+      </c>
+      <c r="L155">
+        <v>2.5</v>
+      </c>
+      <c r="M155">
+        <v>2.75</v>
+      </c>
+      <c r="N155">
+        <v>3.1</v>
+      </c>
+      <c r="O155">
         <v>2.7</v>
       </c>
-      <c r="K155">
-        <v>3.1</v>
-      </c>
-      <c r="L155">
-        <v>2.7</v>
-      </c>
-      <c r="M155">
-        <v>3.6</v>
-      </c>
-      <c r="N155">
-        <v>2.8</v>
-      </c>
-      <c r="O155">
-        <v>2.375</v>
-      </c>
       <c r="P155">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R155">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
+        <v>2.25</v>
+      </c>
+      <c r="T155">
+        <v>2</v>
+      </c>
+      <c r="U155">
+        <v>1.85</v>
+      </c>
+      <c r="V155">
         <v>1.75</v>
       </c>
-      <c r="T155">
-        <v>1.8</v>
-      </c>
-      <c r="U155">
-        <v>2.05</v>
-      </c>
-      <c r="V155">
-        <v>-1</v>
-      </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z155">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -14222,7 +14222,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6906705</v>
+        <v>6906706</v>
       </c>
       <c r="C160" t="s">
         <v>30</v>
@@ -14231,73 +14231,73 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J160">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="K160">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L160">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="M160">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N160">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O160">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R160">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T160">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14308,7 +14308,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6906706</v>
+        <v>6906705</v>
       </c>
       <c r="C161" t="s">
         <v>30</v>
@@ -14317,73 +14317,73 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J161">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="K161">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L161">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="M161">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="N161">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O161">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="P161">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q161">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T161">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -14566,7 +14566,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6905863</v>
+        <v>6906709</v>
       </c>
       <c r="C164" t="s">
         <v>30</v>
@@ -14575,73 +14575,73 @@
         <v>45270.51041666666</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J164">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K164">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L164">
+        <v>3.4</v>
+      </c>
+      <c r="M164">
+        <v>1.909</v>
+      </c>
+      <c r="N164">
         <v>3.6</v>
       </c>
-      <c r="M164">
-        <v>2.2</v>
-      </c>
-      <c r="N164">
-        <v>3.2</v>
-      </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q164">
+        <v>1.875</v>
+      </c>
+      <c r="R164">
+        <v>1.975</v>
+      </c>
+      <c r="S164">
+        <v>2.5</v>
+      </c>
+      <c r="T164">
+        <v>1.95</v>
+      </c>
+      <c r="U164">
         <v>1.9</v>
       </c>
-      <c r="R164">
-        <v>1.95</v>
-      </c>
-      <c r="S164">
-        <v>2.25</v>
-      </c>
-      <c r="T164">
-        <v>2.05</v>
-      </c>
-      <c r="U164">
-        <v>1.75</v>
-      </c>
       <c r="V164">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -14738,7 +14738,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6906709</v>
+        <v>6905863</v>
       </c>
       <c r="C166" t="s">
         <v>30</v>
@@ -14747,73 +14747,73 @@
         <v>45270.51041666666</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F166" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J166">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K166">
+        <v>3.3</v>
+      </c>
+      <c r="L166">
+        <v>3.6</v>
+      </c>
+      <c r="M166">
+        <v>2.2</v>
+      </c>
+      <c r="N166">
+        <v>3.2</v>
+      </c>
+      <c r="O166">
         <v>3.4</v>
       </c>
-      <c r="L166">
-        <v>3.4</v>
-      </c>
-      <c r="M166">
-        <v>1.909</v>
-      </c>
-      <c r="N166">
-        <v>3.6</v>
-      </c>
-      <c r="O166">
-        <v>4</v>
-      </c>
       <c r="P166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T166">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V166">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W166">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB166">
         <v>-1</v>
@@ -15684,7 +15684,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6906719</v>
+        <v>6906720</v>
       </c>
       <c r="C177" t="s">
         <v>30</v>
@@ -15693,58 +15693,58 @@
         <v>45283.41666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="s">
         <v>53</v>
       </c>
       <c r="J177">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="K177">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L177">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M177">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="N177">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O177">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q177">
+        <v>1.975</v>
+      </c>
+      <c r="R177">
         <v>1.875</v>
       </c>
-      <c r="R177">
+      <c r="S177">
+        <v>2.75</v>
+      </c>
+      <c r="T177">
         <v>1.975</v>
       </c>
-      <c r="S177">
-        <v>2.25</v>
-      </c>
-      <c r="T177">
-        <v>1.95</v>
-      </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>0.8500000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -15753,13 +15753,13 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -15770,7 +15770,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6905864</v>
+        <v>6906719</v>
       </c>
       <c r="C178" t="s">
         <v>30</v>
@@ -15779,46 +15779,46 @@
         <v>45283.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J178">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M178">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="N178">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P178">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
         <v>2.25</v>
@@ -15830,19 +15830,19 @@
         <v>1.9</v>
       </c>
       <c r="V178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W178">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z178">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
         <v>0.95</v>
@@ -15856,7 +15856,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6906720</v>
+        <v>6905864</v>
       </c>
       <c r="C179" t="s">
         <v>30</v>
@@ -15865,73 +15865,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G179">
         <v>3</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J179">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="K179">
+        <v>3.2</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>2.15</v>
+      </c>
+      <c r="N179">
+        <v>3.25</v>
+      </c>
+      <c r="O179">
         <v>3.75</v>
       </c>
-      <c r="L179">
-        <v>4.75</v>
-      </c>
-      <c r="M179">
-        <v>1.6</v>
-      </c>
-      <c r="N179">
-        <v>4.2</v>
-      </c>
-      <c r="O179">
-        <v>5.5</v>
-      </c>
       <c r="P179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q179">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA179">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB179">
         <v>-1</v>
@@ -15942,7 +15942,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6906417</v>
+        <v>6906718</v>
       </c>
       <c r="C180" t="s">
         <v>30</v>
@@ -15951,73 +15951,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J180">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="K180">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L180">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N180">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O180">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q180">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T180">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V180">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W180">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z180">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB180">
         <v>-1</v>
@@ -16028,7 +16028,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6906718</v>
+        <v>6906417</v>
       </c>
       <c r="C181" t="s">
         <v>30</v>
@@ -16037,73 +16037,73 @@
         <v>45283.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G181">
+        <v>2</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181" t="s">
+        <v>54</v>
+      </c>
+      <c r="J181">
+        <v>1.533</v>
+      </c>
+      <c r="K181">
         <v>4</v>
       </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-      <c r="I181" t="s">
-        <v>53</v>
-      </c>
-      <c r="J181">
-        <v>2.4</v>
-      </c>
-      <c r="K181">
-        <v>3.1</v>
-      </c>
       <c r="L181">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M181">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N181">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O181">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q181">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U181">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA181">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
         <v>-1</v>
@@ -16716,7 +16716,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6905865</v>
+        <v>6906727</v>
       </c>
       <c r="C189" t="s">
         <v>30</v>
@@ -16725,76 +16725,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J189">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="K189">
+        <v>3.25</v>
+      </c>
+      <c r="L189">
         <v>3.1</v>
       </c>
-      <c r="L189">
-        <v>2.6</v>
-      </c>
       <c r="M189">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N189">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O189">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q189">
+        <v>1.925</v>
+      </c>
+      <c r="R189">
+        <v>1.925</v>
+      </c>
+      <c r="S189">
+        <v>2.25</v>
+      </c>
+      <c r="T189">
+        <v>1.875</v>
+      </c>
+      <c r="U189">
         <v>1.975</v>
       </c>
-      <c r="R189">
-        <v>1.875</v>
-      </c>
-      <c r="S189">
-        <v>2</v>
-      </c>
-      <c r="T189">
-        <v>1.85</v>
-      </c>
-      <c r="U189">
-        <v>2</v>
-      </c>
       <c r="V189">
         <v>-1</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X189">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA189">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -17060,7 +17060,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6906727</v>
+        <v>7151363</v>
       </c>
       <c r="C193" t="s">
         <v>30</v>
@@ -17069,76 +17069,76 @@
         <v>45286.45833333334</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F193" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J193">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="K193">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L193">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="M193">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N193">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P193">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q193">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S193">
         <v>2.25</v>
       </c>
       <c r="T193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
         <v>-1</v>
       </c>
       <c r="W193">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.4625</v>
+        <v>1.1</v>
       </c>
       <c r="AA193">
         <v>-0.5</v>
       </c>
       <c r="AB193">
-        <v>0.4875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17146,7 +17146,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7151363</v>
+        <v>6905865</v>
       </c>
       <c r="C194" t="s">
         <v>30</v>
@@ -17155,13 +17155,13 @@
         <v>45286.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17170,40 +17170,40 @@
         <v>52</v>
       </c>
       <c r="J194">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K194">
         <v>3.1</v>
       </c>
       <c r="L194">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="M194">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N194">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O194">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P194">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q194">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R194">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T194">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U194">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V194">
         <v>-1</v>
@@ -17212,19 +17212,19 @@
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB194">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17490,7 +17490,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6906729</v>
+        <v>6905866</v>
       </c>
       <c r="C198" t="s">
         <v>30</v>
@@ -17499,13 +17499,13 @@
         <v>45304.41666666666</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F198" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -17514,43 +17514,43 @@
         <v>53</v>
       </c>
       <c r="J198">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K198">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M198">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N198">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P198">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q198">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
         <v>2.25</v>
       </c>
       <c r="T198">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V198">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W198">
         <v>-1</v>
@@ -17559,16 +17559,16 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17576,7 +17576,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6906728</v>
+        <v>6906729</v>
       </c>
       <c r="C199" t="s">
         <v>30</v>
@@ -17585,58 +17585,58 @@
         <v>45304.41666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="s">
         <v>53</v>
       </c>
       <c r="J199">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K199">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L199">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="M199">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N199">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q199">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R199">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S199">
         <v>2.25</v>
       </c>
       <c r="T199">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -17645,16 +17645,16 @@
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17662,7 +17662,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6905866</v>
+        <v>6906728</v>
       </c>
       <c r="C200" t="s">
         <v>30</v>
@@ -17671,37 +17671,37 @@
         <v>45304.41666666666</v>
       </c>
       <c r="E200" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F200" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="s">
         <v>53</v>
       </c>
       <c r="J200">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K200">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L200">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="M200">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O200">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
         <v>-0.5</v>
@@ -17716,13 +17716,13 @@
         <v>2.25</v>
       </c>
       <c r="T200">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U200">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="W200">
         <v>-1</v>
@@ -17737,7 +17737,7 @@
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB200">
         <v>-1</v>
@@ -17748,7 +17748,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7151362</v>
+        <v>6906733</v>
       </c>
       <c r="C201" t="s">
         <v>30</v>
@@ -17757,46 +17757,46 @@
         <v>45304.41666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G201">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J201">
-        <v>2.25</v>
+        <v>1.952</v>
       </c>
       <c r="K201">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M201">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N201">
         <v>2.9</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P201">
         <v>-0.25</v>
       </c>
       <c r="Q201">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S201">
         <v>2</v>
@@ -17808,25 +17808,25 @@
         <v>1.85</v>
       </c>
       <c r="V201">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17834,7 +17834,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6906733</v>
+        <v>7151362</v>
       </c>
       <c r="C202" t="s">
         <v>30</v>
@@ -17843,46 +17843,46 @@
         <v>45304.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G202">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J202">
-        <v>1.952</v>
+        <v>2.25</v>
       </c>
       <c r="K202">
+        <v>3.1</v>
+      </c>
+      <c r="L202">
         <v>3.4</v>
       </c>
-      <c r="L202">
-        <v>3.8</v>
-      </c>
       <c r="M202">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N202">
         <v>2.9</v>
       </c>
       <c r="O202">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P202">
         <v>-0.25</v>
       </c>
       <c r="Q202">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R202">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S202">
         <v>2</v>
@@ -17894,25 +17894,25 @@
         <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y202">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -19210,7 +19210,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6906743</v>
+        <v>7151360</v>
       </c>
       <c r="C218" t="s">
         <v>30</v>
@@ -19219,10 +19219,10 @@
         <v>45318.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19234,43 +19234,43 @@
         <v>53</v>
       </c>
       <c r="J218">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="K218">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L218">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M218">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="N218">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O218">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P218">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q218">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R218">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T218">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>0.571</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W218">
         <v>-1</v>
@@ -19279,16 +19279,16 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19296,7 +19296,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7151360</v>
+        <v>6906743</v>
       </c>
       <c r="C219" t="s">
         <v>30</v>
@@ -19305,10 +19305,10 @@
         <v>45318.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19320,43 +19320,43 @@
         <v>53</v>
       </c>
       <c r="J219">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="K219">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L219">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M219">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="N219">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O219">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P219">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q219">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S219">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T219">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U219">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>0.6659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -19365,16 +19365,16 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="Z219">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -21790,7 +21790,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6906759</v>
+        <v>6906758</v>
       </c>
       <c r="C248" t="s">
         <v>30</v>
@@ -21799,76 +21799,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248" t="s">
+        <v>52</v>
+      </c>
+      <c r="J248">
+        <v>2.1</v>
+      </c>
+      <c r="K248">
+        <v>3.2</v>
+      </c>
+      <c r="L248">
+        <v>3.5</v>
+      </c>
+      <c r="M248">
+        <v>2</v>
+      </c>
+      <c r="N248">
+        <v>3.2</v>
+      </c>
+      <c r="O248">
         <v>4</v>
       </c>
-      <c r="H248">
-        <v>2</v>
-      </c>
-      <c r="I248" t="s">
-        <v>53</v>
-      </c>
-      <c r="J248">
-        <v>2.5</v>
-      </c>
-      <c r="K248">
-        <v>3.1</v>
-      </c>
-      <c r="L248">
-        <v>2.875</v>
-      </c>
-      <c r="M248">
-        <v>2.2</v>
-      </c>
-      <c r="N248">
-        <v>3.25</v>
-      </c>
-      <c r="O248">
-        <v>3.4</v>
-      </c>
       <c r="P248">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q248">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R248">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
         <v>2.25</v>
       </c>
       <c r="T248">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U248">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W248">
         <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y248">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA248">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21876,7 +21876,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6906758</v>
+        <v>6906759</v>
       </c>
       <c r="C249" t="s">
         <v>30</v>
@@ -21885,76 +21885,76 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E249" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H249">
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J249">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K249">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L249">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M249">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N249">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O249">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P249">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q249">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S249">
         <v>2.25</v>
       </c>
       <c r="T249">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U249">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V249">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W249">
         <v>-1</v>
       </c>
       <c r="X249">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z249">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB249">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -22306,7 +22306,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6905870</v>
+        <v>6906399</v>
       </c>
       <c r="C254" t="s">
         <v>30</v>
@@ -22315,73 +22315,73 @@
         <v>45339.51041666666</v>
       </c>
       <c r="E254" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J254">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="K254">
+        <v>3.2</v>
+      </c>
+      <c r="L254">
+        <v>4</v>
+      </c>
+      <c r="M254">
+        <v>1.833</v>
+      </c>
+      <c r="N254">
         <v>3.4</v>
       </c>
-      <c r="L254">
-        <v>3.25</v>
-      </c>
-      <c r="M254">
-        <v>2.3</v>
-      </c>
-      <c r="N254">
-        <v>3.5</v>
-      </c>
       <c r="O254">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q254">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R254">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S254">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T254">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U254">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V254">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA254">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB254">
         <v>-1</v>
@@ -22392,7 +22392,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6906399</v>
+        <v>6905870</v>
       </c>
       <c r="C255" t="s">
         <v>30</v>
@@ -22401,73 +22401,73 @@
         <v>45339.51041666666</v>
       </c>
       <c r="E255" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J255">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="K255">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M255">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N255">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O255">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P255">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q255">
+        <v>1.975</v>
+      </c>
+      <c r="R255">
+        <v>1.875</v>
+      </c>
+      <c r="S255">
+        <v>2.5</v>
+      </c>
+      <c r="T255">
         <v>1.85</v>
       </c>
-      <c r="R255">
-        <v>2</v>
-      </c>
-      <c r="S255">
-        <v>2</v>
-      </c>
-      <c r="T255">
-        <v>1.9</v>
-      </c>
       <c r="U255">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V255">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W255">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z255">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB255">
         <v>-1</v>
@@ -23596,7 +23596,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6906394</v>
+        <v>6906393</v>
       </c>
       <c r="C269" t="s">
         <v>30</v>
@@ -23605,76 +23605,76 @@
         <v>45349.6875</v>
       </c>
       <c r="E269" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F269" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I269" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J269">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K269">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="M269">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N269">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O269">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="P269">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q269">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R269">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S269">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T269">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U269">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V269">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y269">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA269">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB269">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:28">
@@ -23768,7 +23768,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6906392</v>
+        <v>6906767</v>
       </c>
       <c r="C271" t="s">
         <v>30</v>
@@ -23777,76 +23777,76 @@
         <v>45349.6875</v>
       </c>
       <c r="E271" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G271">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J271">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="K271">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L271">
-        <v>2.35</v>
+        <v>5.5</v>
       </c>
       <c r="M271">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="N271">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O271">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="P271">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q271">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R271">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S271">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T271">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U271">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V271">
         <v>-1</v>
       </c>
       <c r="W271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X271">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA271">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="272" spans="1:28">
@@ -23854,7 +23854,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6906767</v>
+        <v>6906392</v>
       </c>
       <c r="C272" t="s">
         <v>30</v>
@@ -23863,76 +23863,76 @@
         <v>45349.6875</v>
       </c>
       <c r="E272" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F272" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G272">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J272">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="K272">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L272">
-        <v>5.5</v>
+        <v>2.35</v>
       </c>
       <c r="M272">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="N272">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O272">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P272">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q272">
+        <v>1.925</v>
+      </c>
+      <c r="R272">
+        <v>1.925</v>
+      </c>
+      <c r="S272">
+        <v>2.25</v>
+      </c>
+      <c r="T272">
+        <v>2</v>
+      </c>
+      <c r="U272">
         <v>1.85</v>
       </c>
-      <c r="R272">
-        <v>2</v>
-      </c>
-      <c r="S272">
-        <v>2.5</v>
-      </c>
-      <c r="T272">
-        <v>1.825</v>
-      </c>
-      <c r="U272">
-        <v>2.025</v>
-      </c>
       <c r="V272">
         <v>-1</v>
       </c>
       <c r="W272">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB272">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:28">
@@ -23940,7 +23940,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6906393</v>
+        <v>6906394</v>
       </c>
       <c r="C273" t="s">
         <v>30</v>
@@ -23949,76 +23949,76 @@
         <v>45349.6875</v>
       </c>
       <c r="E273" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F273" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J273">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="K273">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L273">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="M273">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="N273">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O273">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="P273">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q273">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R273">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S273">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T273">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U273">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V273">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W273">
         <v>-1</v>
       </c>
       <c r="X273">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z273">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24026,7 +24026,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6906768</v>
+        <v>6906770</v>
       </c>
       <c r="C274" t="s">
         <v>30</v>
@@ -24035,76 +24035,76 @@
         <v>45350.6875</v>
       </c>
       <c r="E274" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F274" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H274">
         <v>2</v>
       </c>
       <c r="I274" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J274">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K274">
         <v>3.1</v>
       </c>
       <c r="L274">
+        <v>4.2</v>
+      </c>
+      <c r="M274">
+        <v>2</v>
+      </c>
+      <c r="N274">
         <v>3.2</v>
       </c>
-      <c r="M274">
-        <v>2.6</v>
-      </c>
-      <c r="N274">
-        <v>2.9</v>
-      </c>
       <c r="O274">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P274">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q274">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="R274">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S274">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T274">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U274">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V274">
         <v>-1</v>
       </c>
       <c r="W274">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X274">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y274">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA274">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="275" spans="1:28">
@@ -24198,7 +24198,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6906770</v>
+        <v>6906768</v>
       </c>
       <c r="C276" t="s">
         <v>30</v>
@@ -24207,76 +24207,76 @@
         <v>45350.6875</v>
       </c>
       <c r="E276" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F276" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H276">
         <v>2</v>
       </c>
       <c r="I276" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J276">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K276">
         <v>3.1</v>
       </c>
       <c r="L276">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M276">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N276">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O276">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P276">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q276">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="R276">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S276">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T276">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U276">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
         <v>-1</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X276">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z276">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA276">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB276">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:28">
@@ -26090,7 +26090,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6957999</v>
+        <v>6906782</v>
       </c>
       <c r="C298" t="s">
         <v>30</v>
@@ -26099,73 +26099,73 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E298" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F298" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G298">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J298">
+        <v>2</v>
+      </c>
+      <c r="K298">
+        <v>3.2</v>
+      </c>
+      <c r="L298">
+        <v>3.5</v>
+      </c>
+      <c r="M298">
+        <v>2.1</v>
+      </c>
+      <c r="N298">
+        <v>3</v>
+      </c>
+      <c r="O298">
         <v>4</v>
       </c>
-      <c r="K298">
-        <v>3.25</v>
-      </c>
-      <c r="L298">
-        <v>1.833</v>
-      </c>
-      <c r="M298">
-        <v>4.75</v>
-      </c>
-      <c r="N298">
-        <v>3.6</v>
-      </c>
-      <c r="O298">
-        <v>1.8</v>
-      </c>
       <c r="P298">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q298">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R298">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S298">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T298">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="U298">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V298">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z298">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AB298">
         <v>-1</v>
@@ -26176,7 +26176,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6906782</v>
+        <v>6957999</v>
       </c>
       <c r="C299" t="s">
         <v>30</v>
@@ -26185,73 +26185,73 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E299" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F299" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J299">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K299">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L299">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="M299">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N299">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O299">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="P299">
+        <v>0.75</v>
+      </c>
+      <c r="Q299">
+        <v>1.85</v>
+      </c>
+      <c r="R299">
+        <v>2</v>
+      </c>
+      <c r="S299">
+        <v>2.5</v>
+      </c>
+      <c r="T299">
+        <v>2.025</v>
+      </c>
+      <c r="U299">
+        <v>1.825</v>
+      </c>
+      <c r="V299">
+        <v>-1</v>
+      </c>
+      <c r="W299">
+        <v>-1</v>
+      </c>
+      <c r="X299">
+        <v>0.8</v>
+      </c>
+      <c r="Y299">
         <v>-0.5</v>
       </c>
-      <c r="Q299">
-        <v>2.05</v>
-      </c>
-      <c r="R299">
-        <v>1.75</v>
-      </c>
-      <c r="S299">
-        <v>2.25</v>
-      </c>
-      <c r="T299">
-        <v>2.1</v>
-      </c>
-      <c r="U299">
-        <v>1.775</v>
-      </c>
-      <c r="V299">
-        <v>1.1</v>
-      </c>
-      <c r="W299">
-        <v>-1</v>
-      </c>
-      <c r="X299">
-        <v>-1</v>
-      </c>
-      <c r="Y299">
-        <v>1.05</v>
-      </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA299">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AB299">
         <v>-1</v>
@@ -26520,7 +26520,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6960950</v>
+        <v>6906783</v>
       </c>
       <c r="C303" t="s">
         <v>30</v>
@@ -26529,34 +26529,34 @@
         <v>45367.51041666666</v>
       </c>
       <c r="E303" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F303" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G303">
         <v>0</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J303">
         <v>2.4</v>
       </c>
       <c r="K303">
+        <v>3</v>
+      </c>
+      <c r="L303">
         <v>2.9</v>
       </c>
-      <c r="L303">
-        <v>3</v>
-      </c>
       <c r="M303">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N303">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O303">
         <v>3.1</v>
@@ -26565,40 +26565,40 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R303">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S303">
         <v>2</v>
       </c>
       <c r="T303">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V303">
         <v>-1</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X303">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z303">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA303">
         <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="304" spans="1:28">
@@ -26692,7 +26692,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6906783</v>
+        <v>6960950</v>
       </c>
       <c r="C305" t="s">
         <v>30</v>
@@ -26701,34 +26701,34 @@
         <v>45367.51041666666</v>
       </c>
       <c r="E305" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F305" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G305">
         <v>0</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J305">
         <v>2.4</v>
       </c>
       <c r="K305">
+        <v>2.9</v>
+      </c>
+      <c r="L305">
         <v>3</v>
       </c>
-      <c r="L305">
-        <v>2.9</v>
-      </c>
       <c r="M305">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N305">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O305">
         <v>3.1</v>
@@ -26737,40 +26737,40 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R305">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S305">
         <v>2</v>
       </c>
       <c r="T305">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U305">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
         <v>-1</v>
       </c>
       <c r="W305">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="306" spans="1:28">
@@ -27810,7 +27810,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7077997</v>
+        <v>7097029</v>
       </c>
       <c r="C318" t="s">
         <v>30</v>
@@ -27819,76 +27819,76 @@
         <v>45388.375</v>
       </c>
       <c r="E318" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F318" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="s">
         <v>54</v>
       </c>
       <c r="J318">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="K318">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L318">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="M318">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="N318">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O318">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="P318">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q318">
+        <v>1.975</v>
+      </c>
+      <c r="R318">
+        <v>1.875</v>
+      </c>
+      <c r="S318">
+        <v>2.25</v>
+      </c>
+      <c r="T318">
         <v>2.025</v>
       </c>
-      <c r="R318">
+      <c r="U318">
         <v>1.825</v>
       </c>
-      <c r="S318">
-        <v>2.5</v>
-      </c>
-      <c r="T318">
-        <v>1.925</v>
-      </c>
-      <c r="U318">
-        <v>1.925</v>
-      </c>
       <c r="V318">
         <v>-1</v>
       </c>
       <c r="W318">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="X318">
         <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z318">
+        <v>-0.5</v>
+      </c>
+      <c r="AA318">
+        <v>-1</v>
+      </c>
+      <c r="AB318">
         <v>0.825</v>
-      </c>
-      <c r="AA318">
-        <v>-1</v>
-      </c>
-      <c r="AB318">
-        <v>0.925</v>
       </c>
     </row>
     <row r="319" spans="1:28">
@@ -27896,7 +27896,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7097029</v>
+        <v>7128698</v>
       </c>
       <c r="C319" t="s">
         <v>30</v>
@@ -27905,76 +27905,76 @@
         <v>45388.375</v>
       </c>
       <c r="E319" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="s">
         <v>54</v>
       </c>
       <c r="J319">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="K319">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L319">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="M319">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N319">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O319">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="P319">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q319">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R319">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S319">
         <v>2.25</v>
       </c>
       <c r="T319">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U319">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
         <v>-1</v>
       </c>
       <c r="W319">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="Z319">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB319">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:28">
@@ -27982,7 +27982,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7128698</v>
+        <v>7129415</v>
       </c>
       <c r="C320" t="s">
         <v>30</v>
@@ -27991,40 +27991,40 @@
         <v>45388.375</v>
       </c>
       <c r="E320" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F320" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="s">
         <v>54</v>
       </c>
       <c r="J320">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="K320">
         <v>3.1</v>
       </c>
       <c r="L320">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="M320">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N320">
         <v>3.2</v>
       </c>
       <c r="O320">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="P320">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q320">
         <v>1.8</v>
@@ -28033,13 +28033,13 @@
         <v>2.05</v>
       </c>
       <c r="S320">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T320">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V320">
         <v>-1</v>
@@ -28051,16 +28051,16 @@
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA320">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="321" spans="1:28">
@@ -28068,7 +28068,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7129415</v>
+        <v>7077997</v>
       </c>
       <c r="C321" t="s">
         <v>30</v>
@@ -28077,76 +28077,76 @@
         <v>45388.375</v>
       </c>
       <c r="E321" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F321" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I321" t="s">
         <v>54</v>
       </c>
       <c r="J321">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="K321">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L321">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="M321">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="N321">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O321">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="P321">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q321">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R321">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S321">
         <v>2.5</v>
       </c>
       <c r="T321">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U321">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V321">
         <v>-1</v>
       </c>
       <c r="W321">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA321">
         <v>-1</v>
       </c>
       <c r="AB321">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="322" spans="1:28">
@@ -28240,7 +28240,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7141358</v>
+        <v>7088816</v>
       </c>
       <c r="C323" t="s">
         <v>30</v>
@@ -28249,76 +28249,76 @@
         <v>45388.46875</v>
       </c>
       <c r="E323" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F323" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H323">
         <v>2</v>
       </c>
       <c r="I323" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J323">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K323">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L323">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M323">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N323">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O323">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P323">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q323">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R323">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S323">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T323">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U323">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V323">
         <v>-1</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X323">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z323">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA323">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB323">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:28">
@@ -28326,7 +28326,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7088816</v>
+        <v>7097549</v>
       </c>
       <c r="C324" t="s">
         <v>30</v>
@@ -28335,73 +28335,73 @@
         <v>45388.46875</v>
       </c>
       <c r="E324" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F324" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324">
         <v>2</v>
       </c>
       <c r="I324" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J324">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K324">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L324">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M324">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N324">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O324">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="P324">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q324">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R324">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S324">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T324">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U324">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V324">
         <v>-1</v>
       </c>
       <c r="W324">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X324">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y324">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
       <c r="AA324">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB324">
         <v>-1</v>
@@ -28412,7 +28412,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7097549</v>
+        <v>7141358</v>
       </c>
       <c r="C325" t="s">
         <v>30</v>
@@ -28421,13 +28421,13 @@
         <v>45388.46875</v>
       </c>
       <c r="E325" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F325" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H325">
         <v>2</v>
@@ -28436,40 +28436,40 @@
         <v>52</v>
       </c>
       <c r="J325">
+        <v>2.4</v>
+      </c>
+      <c r="K325">
+        <v>3</v>
+      </c>
+      <c r="L325">
+        <v>3.2</v>
+      </c>
+      <c r="M325">
         <v>2.7</v>
       </c>
-      <c r="K325">
-        <v>3.2</v>
-      </c>
-      <c r="L325">
-        <v>2.625</v>
-      </c>
-      <c r="M325">
-        <v>3.1</v>
-      </c>
       <c r="N325">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O325">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="P325">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q325">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R325">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S325">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T325">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U325">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V325">
         <v>-1</v>
@@ -28478,19 +28478,19 @@
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="Y325">
         <v>-1</v>
       </c>
       <c r="Z325">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA325">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:28">
@@ -33056,7 +33056,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7310531</v>
+        <v>7309340</v>
       </c>
       <c r="C379" t="s">
         <v>30</v>
@@ -33065,76 +33065,76 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E379" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F379" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G379">
+        <v>2</v>
+      </c>
+      <c r="H379">
         <v>3</v>
       </c>
-      <c r="H379">
-        <v>0</v>
-      </c>
       <c r="I379" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J379">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="K379">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L379">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="M379">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N379">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O379">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="P379">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q379">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R379">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S379">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T379">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U379">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V379">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W379">
         <v>-1</v>
       </c>
       <c r="X379">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y379">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA379">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB379">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:28">
@@ -33142,7 +33142,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7309341</v>
+        <v>7310531</v>
       </c>
       <c r="C380" t="s">
         <v>30</v>
@@ -33151,76 +33151,76 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E380" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F380" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G380">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J380">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="K380">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L380">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="M380">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N380">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O380">
+        <v>4.5</v>
+      </c>
+      <c r="P380">
+        <v>-0.75</v>
+      </c>
+      <c r="Q380">
+        <v>1.85</v>
+      </c>
+      <c r="R380">
+        <v>2</v>
+      </c>
+      <c r="S380">
+        <v>3.25</v>
+      </c>
+      <c r="T380">
         <v>2.05</v>
       </c>
-      <c r="P380">
-        <v>0.5</v>
-      </c>
-      <c r="Q380">
-        <v>1.825</v>
-      </c>
-      <c r="R380">
-        <v>2.025</v>
-      </c>
-      <c r="S380">
-        <v>3</v>
-      </c>
-      <c r="T380">
-        <v>1.875</v>
-      </c>
       <c r="U380">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V380">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W380">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z380">
         <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB380">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="381" spans="1:28">
@@ -33314,7 +33314,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7280956</v>
+        <v>7280953</v>
       </c>
       <c r="C382" t="s">
         <v>30</v>
@@ -33323,10 +33323,10 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E382" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F382" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G382">
         <v>2</v>
@@ -33338,43 +33338,43 @@
         <v>53</v>
       </c>
       <c r="J382">
+        <v>1.666</v>
+      </c>
+      <c r="K382">
+        <v>3.75</v>
+      </c>
+      <c r="L382">
+        <v>5</v>
+      </c>
+      <c r="M382">
+        <v>1.75</v>
+      </c>
+      <c r="N382">
+        <v>3.5</v>
+      </c>
+      <c r="O382">
+        <v>5</v>
+      </c>
+      <c r="P382">
+        <v>-0.75</v>
+      </c>
+      <c r="Q382">
+        <v>2</v>
+      </c>
+      <c r="R382">
+        <v>1.85</v>
+      </c>
+      <c r="S382">
         <v>2.25</v>
       </c>
-      <c r="K382">
-        <v>3.4</v>
-      </c>
-      <c r="L382">
-        <v>3.1</v>
-      </c>
-      <c r="M382">
-        <v>2.2</v>
-      </c>
-      <c r="N382">
-        <v>3.6</v>
-      </c>
-      <c r="O382">
-        <v>3</v>
-      </c>
-      <c r="P382">
-        <v>-0.25</v>
-      </c>
-      <c r="Q382">
-        <v>1.95</v>
-      </c>
-      <c r="R382">
-        <v>1.9</v>
-      </c>
-      <c r="S382">
-        <v>2.75</v>
-      </c>
       <c r="T382">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U382">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V382">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="W382">
         <v>-1</v>
@@ -33383,16 +33383,16 @@
         <v>-1</v>
       </c>
       <c r="Y382">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="Z382">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA382">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB382">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:28">
@@ -33400,7 +33400,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7280955</v>
+        <v>7280956</v>
       </c>
       <c r="C383" t="s">
         <v>30</v>
@@ -33409,76 +33409,76 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E383" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F383" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H383">
         <v>1</v>
       </c>
       <c r="I383" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J383">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="K383">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L383">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="M383">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N383">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O383">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="P383">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q383">
+        <v>1.95</v>
+      </c>
+      <c r="R383">
         <v>1.9</v>
       </c>
-      <c r="R383">
-        <v>1.95</v>
-      </c>
       <c r="S383">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T383">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U383">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V383">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W383">
         <v>-1</v>
       </c>
       <c r="X383">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
+        <v>0.95</v>
+      </c>
+      <c r="Z383">
+        <v>-1</v>
+      </c>
+      <c r="AA383">
+        <v>0.5125</v>
+      </c>
+      <c r="AB383">
         <v>-0.5</v>
-      </c>
-      <c r="Z383">
-        <v>0.475</v>
-      </c>
-      <c r="AA383">
-        <v>-1</v>
-      </c>
-      <c r="AB383">
-        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:28">
@@ -33486,7 +33486,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7309340</v>
+        <v>7280955</v>
       </c>
       <c r="C384" t="s">
         <v>30</v>
@@ -33495,55 +33495,55 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E384" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F384" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G384">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I384" t="s">
         <v>52</v>
       </c>
       <c r="J384">
+        <v>4</v>
+      </c>
+      <c r="K384">
         <v>3.8</v>
       </c>
-      <c r="K384">
-        <v>3.5</v>
-      </c>
       <c r="L384">
+        <v>1.8</v>
+      </c>
+      <c r="M384">
+        <v>4</v>
+      </c>
+      <c r="N384">
+        <v>4.2</v>
+      </c>
+      <c r="O384">
+        <v>1.727</v>
+      </c>
+      <c r="P384">
+        <v>0.75</v>
+      </c>
+      <c r="Q384">
+        <v>1.9</v>
+      </c>
+      <c r="R384">
         <v>1.95</v>
       </c>
-      <c r="M384">
-        <v>3.1</v>
-      </c>
-      <c r="N384">
-        <v>3.3</v>
-      </c>
-      <c r="O384">
-        <v>2.3</v>
-      </c>
-      <c r="P384">
-        <v>0.25</v>
-      </c>
-      <c r="Q384">
-        <v>1.825</v>
-      </c>
-      <c r="R384">
-        <v>2.025</v>
-      </c>
       <c r="S384">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T384">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U384">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V384">
         <v>-1</v>
@@ -33552,19 +33552,19 @@
         <v>-1</v>
       </c>
       <c r="X384">
-        <v>1.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y384">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z384">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AA384">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB384">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:28">
@@ -33572,7 +33572,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7280953</v>
+        <v>7309341</v>
       </c>
       <c r="C385" t="s">
         <v>30</v>
@@ -33581,76 +33581,76 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E385" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F385" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G385">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H385">
         <v>1</v>
       </c>
       <c r="I385" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J385">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="K385">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L385">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="M385">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N385">
         <v>3.5</v>
       </c>
       <c r="O385">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P385">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q385">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R385">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S385">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T385">
+        <v>1.875</v>
+      </c>
+      <c r="U385">
         <v>1.975</v>
       </c>
-      <c r="U385">
-        <v>1.875</v>
-      </c>
       <c r="V385">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W385">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X385">
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z385">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA385">
+        <v>-1</v>
+      </c>
+      <c r="AB385">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB385">
-        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:28">
@@ -34198,13 +34198,13 @@
         <v>2.8</v>
       </c>
       <c r="M392">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N392">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O392">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P392">
         <v>0</v>
@@ -34216,13 +34216,13 @@
         <v>2.1</v>
       </c>
       <c r="S392">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T392">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U392">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V392">
         <v>0</v>
@@ -34263,22 +34263,22 @@
         <v>3.75</v>
       </c>
       <c r="M393">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N393">
         <v>3.3</v>
       </c>
       <c r="O393">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="P393">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q393">
+        <v>1.8</v>
+      </c>
+      <c r="R393">
         <v>2.05</v>
-      </c>
-      <c r="R393">
-        <v>1.8</v>
       </c>
       <c r="S393">
         <v>2.5</v>
@@ -34331,7 +34331,7 @@
         <v>1.666</v>
       </c>
       <c r="N394">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O394">
         <v>4.75</v>
@@ -34340,19 +34340,19 @@
         <v>-0.75</v>
       </c>
       <c r="Q394">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R394">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S394">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T394">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U394">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V394">
         <v>0</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -121,13 +121,13 @@
     <t>Cagliari</t>
   </si>
   <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
     <t>Ternana</t>
   </si>
   <si>
     <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
   </si>
   <si>
     <t>Sudtirol</t>
@@ -145,10 +145,10 @@
     <t>Como</t>
   </si>
   <si>
-    <t>AC Feralpisalo</t>
+    <t>Modena</t>
   </si>
   <si>
-    <t>Modena</t>
+    <t>AC Feralpisalo</t>
   </si>
   <si>
     <t>Catanzaro</t>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6983825</v>
+        <v>6983778</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1198,79 +1198,79 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>1.909</v>
+        <v>4.1</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q8">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="R8">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V8">
+        <v>1.95</v>
+      </c>
+      <c r="W8">
         <v>1.9</v>
       </c>
-      <c r="W8">
-        <v>1.95</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z8">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
+        <v>-1</v>
+      </c>
+      <c r="AD8">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AD8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1278,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6983777</v>
+        <v>6983825</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1290,76 +1290,76 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9">
+        <v>3.4</v>
+      </c>
+      <c r="M9">
+        <v>3.4</v>
+      </c>
+      <c r="N9">
+        <v>1.909</v>
+      </c>
+      <c r="O9">
         <v>3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9">
-        <v>2.6</v>
-      </c>
-      <c r="M9">
-        <v>2.9</v>
-      </c>
-      <c r="N9">
-        <v>2.6</v>
-      </c>
-      <c r="O9">
-        <v>2.7</v>
-      </c>
       <c r="P9">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X9">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD9">
         <v>-1</v>
@@ -1370,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6983778</v>
+        <v>6983777</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1382,79 +1382,79 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10">
+        <v>2.6</v>
+      </c>
+      <c r="M10">
+        <v>2.9</v>
+      </c>
+      <c r="N10">
+        <v>2.6</v>
+      </c>
+      <c r="O10">
+        <v>2.7</v>
+      </c>
+      <c r="P10">
+        <v>2.9</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
+        <v>2.025</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>1.825</v>
+      </c>
+      <c r="W10">
+        <v>2.025</v>
+      </c>
+      <c r="X10">
         <v>1.7</v>
       </c>
-      <c r="M10">
-        <v>3.5</v>
-      </c>
-      <c r="N10">
-        <v>4.1</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <v>3.3</v>
-      </c>
-      <c r="Q10">
-        <v>3.8</v>
-      </c>
-      <c r="R10">
-        <v>-0.5</v>
-      </c>
-      <c r="S10">
-        <v>2.025</v>
-      </c>
-      <c r="T10">
-        <v>1.825</v>
-      </c>
-      <c r="U10">
-        <v>2.5</v>
-      </c>
-      <c r="V10">
-        <v>1.95</v>
-      </c>
-      <c r="W10">
-        <v>1.9</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
       <c r="Y10">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.825</v>
       </c>
-      <c r="AC10">
-        <v>-1</v>
-      </c>
       <c r="AD10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1658,7 +1658,7 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6906627</v>
+        <v>6906628</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -2210,79 +2210,79 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L19">
-        <v>2.625</v>
+        <v>1.9</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2290,7 +2290,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6906628</v>
+        <v>6906627</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -2302,79 +2302,79 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L20">
+        <v>2.625</v>
+      </c>
+      <c r="M20">
+        <v>3.1</v>
+      </c>
+      <c r="N20">
+        <v>2.625</v>
+      </c>
+      <c r="O20">
+        <v>2.4</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>3.2</v>
+      </c>
+      <c r="R20">
+        <v>-0.25</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
+        <v>1.825</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1.95</v>
+      </c>
+      <c r="W20">
         <v>1.9</v>
       </c>
-      <c r="M20">
-        <v>3.2</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>1.833</v>
-      </c>
-      <c r="P20">
-        <v>3.5</v>
-      </c>
-      <c r="Q20">
-        <v>4.5</v>
-      </c>
-      <c r="R20">
-        <v>-0.5</v>
-      </c>
-      <c r="S20">
-        <v>1.8</v>
-      </c>
-      <c r="T20">
-        <v>2.05</v>
-      </c>
-      <c r="U20">
-        <v>2.25</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>1.975</v>
-      </c>
       <c r="X20">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2391,7 +2391,7 @@
         <v>45164.64583333334</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
@@ -2486,7 +2486,7 @@
         <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2667,10 +2667,10 @@
         <v>45167.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2762,7 +2762,7 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -3035,10 +3035,10 @@
         <v>45168.64583333334</v>
       </c>
       <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
         <v>35</v>
-      </c>
-      <c r="F28" t="s">
-        <v>37</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>45171.5625</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
         <v>48</v>
@@ -3590,7 +3590,7 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3682,7 +3682,7 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3863,7 +3863,7 @@
         <v>45172.5625</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
         <v>41</v>
@@ -3955,7 +3955,7 @@
         <v>45172.5625</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
         <v>32</v>
@@ -4323,10 +4323,10 @@
         <v>45185.375</v>
       </c>
       <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
         <v>43</v>
-      </c>
-      <c r="F42" t="s">
-        <v>44</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4507,7 +4507,7 @@
         <v>45185.375</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
         <v>38</v>
@@ -4786,7 +4786,7 @@
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4970,7 +4970,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -5154,7 +5154,7 @@
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>45192.375</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
         <v>38</v>
@@ -5427,7 +5427,7 @@
         <v>45192.375</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
         <v>48</v>
@@ -5519,7 +5519,7 @@
         <v>45192.375</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
         <v>47</v>
@@ -5611,7 +5611,7 @@
         <v>45192.375</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
         <v>51</v>
@@ -6071,10 +6071,10 @@
         <v>45195.55208333334</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6166,7 +6166,7 @@
         <v>51</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6350,7 +6350,7 @@
         <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6534,7 +6534,7 @@
         <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6991,7 +6991,7 @@
         <v>45199.375</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
         <v>50</v>
@@ -7083,7 +7083,7 @@
         <v>45199.375</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
@@ -7178,7 +7178,7 @@
         <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7359,7 +7359,7 @@
         <v>45199.46875</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
         <v>46</v>
@@ -7819,7 +7819,7 @@
         <v>45200.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
         <v>33</v>
@@ -7914,7 +7914,7 @@
         <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>45206.375</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
         <v>49</v>
@@ -8279,7 +8279,7 @@
         <v>45206.375</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
         <v>51</v>
@@ -8466,7 +8466,7 @@
         <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8650,7 +8650,7 @@
         <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8923,7 +8923,7 @@
         <v>45220.375</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
         <v>31</v>
@@ -9107,7 +9107,7 @@
         <v>45220.375</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
         <v>38</v>
@@ -9202,7 +9202,7 @@
         <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9478,7 +9478,7 @@
         <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -9754,7 +9754,7 @@
         <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9938,7 +9938,7 @@
         <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -10211,7 +10211,7 @@
         <v>45227.375</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
         <v>46</v>
@@ -10306,7 +10306,7 @@
         <v>50</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -10487,10 +10487,10 @@
         <v>45228.51041666666</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -10947,10 +10947,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -11039,7 +11039,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
         <v>40</v>
@@ -11226,7 +11226,7 @@
         <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -11499,7 +11499,7 @@
         <v>45235.51041666666</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
         <v>50</v>
@@ -12134,7 +12134,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6906689</v>
+        <v>6905861</v>
       </c>
       <c r="C127" t="s">
         <v>30</v>
@@ -12143,82 +12143,82 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L127">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="M127">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N127">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O127">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="P127">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q127">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R127">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="T127">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U127">
         <v>2.25</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W127">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X127">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD127">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12226,7 +12226,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6905861</v>
+        <v>6906689</v>
       </c>
       <c r="C128" t="s">
         <v>30</v>
@@ -12235,82 +12235,82 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L128">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="M128">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N128">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O128">
+        <v>2.4</v>
+      </c>
+      <c r="P128">
+        <v>3.3</v>
+      </c>
+      <c r="Q128">
         <v>3.1</v>
       </c>
-      <c r="P128">
-        <v>3</v>
-      </c>
-      <c r="Q128">
-        <v>2.5</v>
-      </c>
       <c r="R128">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S128">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U128">
         <v>2.25</v>
       </c>
       <c r="V128">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD128">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12327,7 +12327,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F129" t="s">
         <v>32</v>
@@ -12419,7 +12419,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
         <v>41</v>
@@ -12514,7 +12514,7 @@
         <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -12606,7 +12606,7 @@
         <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -13066,7 +13066,7 @@
         <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -13247,7 +13247,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
         <v>51</v>
@@ -13342,7 +13342,7 @@
         <v>42</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -13618,7 +13618,7 @@
         <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -13707,7 +13707,7 @@
         <v>45256.51041666666</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
         <v>49</v>
@@ -14167,7 +14167,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F149" t="s">
         <v>46</v>
@@ -14262,7 +14262,7 @@
         <v>48</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -14351,7 +14351,7 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
         <v>39</v>
@@ -14443,10 +14443,10 @@
         <v>45262.41666666666</v>
       </c>
       <c r="E152" t="s">
+        <v>37</v>
+      </c>
+      <c r="F152" t="s">
         <v>36</v>
-      </c>
-      <c r="F152" t="s">
-        <v>35</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -14903,10 +14903,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -14995,7 +14995,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
         <v>40</v>
@@ -15366,7 +15366,7 @@
         <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -15734,7 +15734,7 @@
         <v>42</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -16191,7 +16191,7 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
         <v>39</v>
@@ -16283,10 +16283,10 @@
         <v>45276.41666666666</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -16467,7 +16467,7 @@
         <v>45276.51041666666</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
         <v>33</v>
@@ -16654,7 +16654,7 @@
         <v>51</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -16838,7 +16838,7 @@
         <v>33</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>3</v>
@@ -16927,10 +16927,10 @@
         <v>45283.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G179">
         <v>4</v>
@@ -17390,7 +17390,7 @@
         <v>32</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -17574,7 +17574,7 @@
         <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -17755,7 +17755,7 @@
         <v>45286.45833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F188" t="s">
         <v>48</v>
@@ -17847,7 +17847,7 @@
         <v>45286.45833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F189" t="s">
         <v>42</v>
@@ -18031,7 +18031,7 @@
         <v>45286.45833333334</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F191" t="s">
         <v>40</v>
@@ -18126,7 +18126,7 @@
         <v>50</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -18402,7 +18402,7 @@
         <v>49</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -18770,7 +18770,7 @@
         <v>32</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -18862,7 +18862,7 @@
         <v>38</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -19043,7 +19043,7 @@
         <v>45304.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F202" t="s">
         <v>31</v>
@@ -19319,10 +19319,10 @@
         <v>45305.51041666666</v>
       </c>
       <c r="E205" t="s">
+        <v>35</v>
+      </c>
+      <c r="F205" t="s">
         <v>37</v>
-      </c>
-      <c r="F205" t="s">
-        <v>36</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19595,7 +19595,7 @@
         <v>45311.41666666666</v>
       </c>
       <c r="E208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F208" t="s">
         <v>45</v>
@@ -19690,7 +19690,7 @@
         <v>50</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -19770,7 +19770,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6906738</v>
+        <v>6905867</v>
       </c>
       <c r="C210" t="s">
         <v>30</v>
@@ -19779,79 +19779,79 @@
         <v>45311.41666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G210">
+        <v>2</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>2</v>
+      </c>
+      <c r="K210" t="s">
+        <v>54</v>
+      </c>
+      <c r="L210">
+        <v>2.8</v>
+      </c>
+      <c r="M210">
         <v>3</v>
       </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
-      </c>
-      <c r="J210">
-        <v>1</v>
-      </c>
-      <c r="K210" t="s">
-        <v>53</v>
-      </c>
-      <c r="L210">
-        <v>2.75</v>
-      </c>
-      <c r="M210">
-        <v>3.1</v>
-      </c>
       <c r="N210">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="O210">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P210">
         <v>3.1</v>
       </c>
       <c r="Q210">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="R210">
         <v>0</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T210">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W210">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="X210">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z210">
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC210">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD210">
         <v>-1</v>
@@ -19862,7 +19862,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6905867</v>
+        <v>6906738</v>
       </c>
       <c r="C211" t="s">
         <v>30</v>
@@ -19871,79 +19871,79 @@
         <v>45311.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L211">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N211">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="O211">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P211">
         <v>3.1</v>
       </c>
       <c r="Q211">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="R211">
         <v>0</v>
       </c>
       <c r="S211">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T211">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W211">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y211">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD211">
         <v>-1</v>
@@ -20055,7 +20055,7 @@
         <v>45311.51041666666</v>
       </c>
       <c r="E213" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F213" t="s">
         <v>40</v>
@@ -20242,7 +20242,7 @@
         <v>49</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G215">
         <v>4</v>
@@ -20607,7 +20607,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F219" t="s">
         <v>33</v>
@@ -20702,7 +20702,7 @@
         <v>38</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -20791,7 +20791,7 @@
         <v>45318.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F221" t="s">
         <v>31</v>
@@ -20886,7 +20886,7 @@
         <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -20975,7 +20975,7 @@
         <v>45318.51041666666</v>
       </c>
       <c r="E223" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F223" t="s">
         <v>51</v>
@@ -21622,7 +21622,7 @@
         <v>46</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -21803,7 +21803,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F232" t="s">
         <v>48</v>
@@ -21895,7 +21895,7 @@
         <v>45325.51041666666</v>
       </c>
       <c r="E233" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F233" t="s">
         <v>42</v>
@@ -21990,7 +21990,7 @@
         <v>51</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -22082,7 +22082,7 @@
         <v>41</v>
       </c>
       <c r="F235" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -22346,7 +22346,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6906753</v>
+        <v>6906751</v>
       </c>
       <c r="C238" t="s">
         <v>30</v>
@@ -22355,61 +22355,61 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E238" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K238" t="s">
         <v>52</v>
       </c>
       <c r="L238">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
+        <v>3.25</v>
+      </c>
+      <c r="N238">
+        <v>2.15</v>
+      </c>
+      <c r="O238">
+        <v>3.4</v>
+      </c>
+      <c r="P238">
         <v>3.2</v>
       </c>
-      <c r="N238">
+      <c r="Q238">
         <v>2.2</v>
       </c>
-      <c r="O238">
-        <v>3.1</v>
-      </c>
-      <c r="P238">
-        <v>3</v>
-      </c>
-      <c r="Q238">
-        <v>2.55</v>
-      </c>
       <c r="R238">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S238">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="T238">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -22418,16 +22418,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD238">
         <v>-1</v>
@@ -22438,7 +22438,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6906752</v>
+        <v>6906753</v>
       </c>
       <c r="C239" t="s">
         <v>30</v>
@@ -22447,82 +22447,82 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239">
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L239">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
         <v>3.2</v>
       </c>
       <c r="N239">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O239">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
         <v>3</v>
       </c>
       <c r="Q239">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="R239">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S239">
+        <v>2.125</v>
+      </c>
+      <c r="T239">
+        <v>1.75</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
+      <c r="V239">
+        <v>1.975</v>
+      </c>
+      <c r="W239">
         <v>1.875</v>
       </c>
-      <c r="T239">
-        <v>1.975</v>
-      </c>
-      <c r="U239">
-        <v>2</v>
-      </c>
-      <c r="V239">
-        <v>2</v>
-      </c>
-      <c r="W239">
-        <v>1.85</v>
-      </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.4875</v>
+        <v>0.75</v>
       </c>
       <c r="AC239">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD239">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22539,7 +22539,7 @@
         <v>45332.41666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F240" t="s">
         <v>46</v>
@@ -22714,7 +22714,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6906751</v>
+        <v>6906752</v>
       </c>
       <c r="C242" t="s">
         <v>30</v>
@@ -22726,52 +22726,52 @@
         <v>43</v>
       </c>
       <c r="F242" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G242">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L242">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="M242">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N242">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="O242">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="P242">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q242">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="R242">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S242">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T242">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U242">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V242">
         <v>2</v>
@@ -22783,22 +22783,22 @@
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z242">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB242">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD242">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -23091,7 +23091,7 @@
         <v>45333.51041666666</v>
       </c>
       <c r="E246" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
         <v>50</v>
@@ -23186,7 +23186,7 @@
         <v>47</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>32</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -23370,7 +23370,7 @@
         <v>51</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -23554,7 +23554,7 @@
         <v>46</v>
       </c>
       <c r="F251" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -23726,7 +23726,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7151357</v>
+        <v>6905870</v>
       </c>
       <c r="C253" t="s">
         <v>30</v>
@@ -23735,82 +23735,82 @@
         <v>45339.51041666666</v>
       </c>
       <c r="E253" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F253" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253">
         <v>0</v>
       </c>
       <c r="K253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L253">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M253">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N253">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="O253">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P253">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R253">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S253">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T253">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U253">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V253">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W253">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X253">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y253">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB253">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC253">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD253">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:30">
@@ -23818,7 +23818,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6905870</v>
+        <v>6906399</v>
       </c>
       <c r="C254" t="s">
         <v>30</v>
@@ -23827,79 +23827,79 @@
         <v>45339.51041666666</v>
       </c>
       <c r="E254" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254">
         <v>1</v>
       </c>
       <c r="J254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L254">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="M254">
+        <v>3.2</v>
+      </c>
+      <c r="N254">
+        <v>4</v>
+      </c>
+      <c r="O254">
+        <v>1.833</v>
+      </c>
+      <c r="P254">
         <v>3.4</v>
       </c>
-      <c r="N254">
-        <v>3.25</v>
-      </c>
-      <c r="O254">
-        <v>2.3</v>
-      </c>
-      <c r="P254">
-        <v>3.5</v>
-      </c>
       <c r="Q254">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R254">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S254">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T254">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U254">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V254">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W254">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X254">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z254">
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC254">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD254">
         <v>-1</v>
@@ -23910,7 +23910,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6906399</v>
+        <v>7151357</v>
       </c>
       <c r="C255" t="s">
         <v>30</v>
@@ -23919,67 +23919,67 @@
         <v>45339.51041666666</v>
       </c>
       <c r="E255" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K255" t="s">
         <v>54</v>
       </c>
       <c r="L255">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M255">
         <v>3.2</v>
       </c>
       <c r="N255">
+        <v>3.8</v>
+      </c>
+      <c r="O255">
+        <v>2.1</v>
+      </c>
+      <c r="P255">
+        <v>3.2</v>
+      </c>
+      <c r="Q255">
         <v>4</v>
-      </c>
-      <c r="O255">
-        <v>1.833</v>
-      </c>
-      <c r="P255">
-        <v>3.4</v>
-      </c>
-      <c r="Q255">
-        <v>4.5</v>
       </c>
       <c r="R255">
         <v>-0.5</v>
       </c>
       <c r="S255">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T255">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U255">
         <v>2</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W255">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Z255">
         <v>-1</v>
@@ -23988,13 +23988,13 @@
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC255">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD255">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -24014,7 +24014,7 @@
         <v>40</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -24103,7 +24103,7 @@
         <v>45345.6875</v>
       </c>
       <c r="E257" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F257" t="s">
         <v>41</v>
@@ -24195,7 +24195,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E258" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F258" t="s">
         <v>49</v>
@@ -24287,7 +24287,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F259" t="s">
         <v>47</v>
@@ -24839,7 +24839,7 @@
         <v>45346.51041666666</v>
       </c>
       <c r="E265" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F265" t="s">
         <v>51</v>
@@ -24931,7 +24931,7 @@
         <v>45347.51041666666</v>
       </c>
       <c r="E266" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F266" t="s">
         <v>50</v>
@@ -25198,7 +25198,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6906392</v>
+        <v>6906393</v>
       </c>
       <c r="C269" t="s">
         <v>30</v>
@@ -25207,61 +25207,61 @@
         <v>45349.6875</v>
       </c>
       <c r="E269" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K269" t="s">
         <v>52</v>
       </c>
       <c r="L269">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M269">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N269">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="O269">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P269">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q269">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="R269">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S269">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T269">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U269">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W269">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X269">
         <v>-1</v>
@@ -25270,16 +25270,16 @@
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC269">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD269">
         <v>-1</v>
@@ -25302,7 +25302,7 @@
         <v>49</v>
       </c>
       <c r="F270" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -25394,7 +25394,7 @@
         <v>33</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -25566,7 +25566,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6906393</v>
+        <v>6906392</v>
       </c>
       <c r="C273" t="s">
         <v>30</v>
@@ -25575,61 +25575,61 @@
         <v>45349.6875</v>
       </c>
       <c r="E273" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F273" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K273" t="s">
         <v>52</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M273">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N273">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="O273">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P273">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q273">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="R273">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S273">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T273">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U273">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V273">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W273">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -25638,16 +25638,16 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="AA273">
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC273">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD273">
         <v>-1</v>
@@ -25762,7 +25762,7 @@
         <v>50</v>
       </c>
       <c r="F275" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>48</v>
       </c>
       <c r="F276" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G276">
         <v>2</v>
@@ -26127,7 +26127,7 @@
         <v>45353.41666666666</v>
       </c>
       <c r="E279" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F279" t="s">
         <v>33</v>
@@ -26495,7 +26495,7 @@
         <v>45354.51041666666</v>
       </c>
       <c r="E283" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F283" t="s">
         <v>45</v>
@@ -26679,7 +26679,7 @@
         <v>45354.51041666666</v>
       </c>
       <c r="E285" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F285" t="s">
         <v>41</v>
@@ -26771,10 +26771,10 @@
         <v>45354.60416666666</v>
       </c>
       <c r="E286" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F286" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E289" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F289" t="s">
         <v>39</v>
@@ -27139,10 +27139,10 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E290" t="s">
+        <v>43</v>
+      </c>
+      <c r="F290" t="s">
         <v>44</v>
-      </c>
-      <c r="F290" t="s">
-        <v>43</v>
       </c>
       <c r="G290">
         <v>2</v>
@@ -27234,7 +27234,7 @@
         <v>48</v>
       </c>
       <c r="F291" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -27415,7 +27415,7 @@
         <v>45360.51041666666</v>
       </c>
       <c r="E293" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F293" t="s">
         <v>42</v>
@@ -27866,7 +27866,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7069944</v>
+        <v>7151352</v>
       </c>
       <c r="C298" t="s">
         <v>30</v>
@@ -27875,82 +27875,82 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E298" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F298" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K298" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L298">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M298">
         <v>3</v>
       </c>
       <c r="N298">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O298">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="P298">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q298">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="R298">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S298">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T298">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="U298">
         <v>2</v>
       </c>
       <c r="V298">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W298">
+        <v>1.975</v>
+      </c>
+      <c r="X298">
+        <v>-1</v>
+      </c>
+      <c r="Y298">
         <v>1.9</v>
       </c>
-      <c r="X298">
-        <v>3.2</v>
-      </c>
-      <c r="Y298">
-        <v>-1</v>
-      </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC298">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD298">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:30">
@@ -27958,7 +27958,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6957999</v>
+        <v>7069944</v>
       </c>
       <c r="C299" t="s">
         <v>30</v>
@@ -27967,79 +27967,79 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E299" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F299" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K299" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M299">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N299">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O299">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P299">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q299">
+        <v>2.05</v>
+      </c>
+      <c r="R299">
+        <v>0.5</v>
+      </c>
+      <c r="S299">
         <v>1.8</v>
       </c>
-      <c r="R299">
-        <v>0.75</v>
-      </c>
-      <c r="S299">
-        <v>1.85</v>
-      </c>
       <c r="T299">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U299">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V299">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W299">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
+        <v>-1</v>
+      </c>
+      <c r="AA299">
         <v>0.8</v>
       </c>
-      <c r="AA299">
-        <v>-0.5</v>
-      </c>
       <c r="AB299">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AD299">
         <v>-1</v>
@@ -28050,7 +28050,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7151352</v>
+        <v>6957999</v>
       </c>
       <c r="C300" t="s">
         <v>30</v>
@@ -28059,16 +28059,16 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E300" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F300" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G300">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -28077,64 +28077,64 @@
         <v>1</v>
       </c>
       <c r="K300" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L300">
+        <v>4</v>
+      </c>
+      <c r="M300">
+        <v>3.25</v>
+      </c>
+      <c r="N300">
+        <v>1.833</v>
+      </c>
+      <c r="O300">
+        <v>4.75</v>
+      </c>
+      <c r="P300">
+        <v>3.6</v>
+      </c>
+      <c r="Q300">
+        <v>1.8</v>
+      </c>
+      <c r="R300">
+        <v>0.75</v>
+      </c>
+      <c r="S300">
+        <v>1.85</v>
+      </c>
+      <c r="T300">
+        <v>2</v>
+      </c>
+      <c r="U300">
         <v>2.5</v>
       </c>
-      <c r="M300">
-        <v>3</v>
-      </c>
-      <c r="N300">
-        <v>2.8</v>
-      </c>
-      <c r="O300">
-        <v>2.6</v>
-      </c>
-      <c r="P300">
-        <v>2.9</v>
-      </c>
-      <c r="Q300">
-        <v>3.1</v>
-      </c>
-      <c r="R300">
-        <v>0</v>
-      </c>
-      <c r="S300">
-        <v>1.75</v>
-      </c>
-      <c r="T300">
-        <v>2.125</v>
-      </c>
-      <c r="U300">
-        <v>2</v>
-      </c>
       <c r="V300">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W300">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA300">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB300">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC300">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AD300">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:30">
@@ -28243,10 +28243,10 @@
         <v>45367.41666666666</v>
       </c>
       <c r="E302" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G302">
         <v>1</v>
@@ -28522,7 +28522,7 @@
         <v>39</v>
       </c>
       <c r="F305" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -28703,7 +28703,7 @@
         <v>45383.3125</v>
       </c>
       <c r="E307" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F307" t="s">
         <v>32</v>
@@ -28786,7 +28786,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7093331</v>
+        <v>7088815</v>
       </c>
       <c r="C308" t="s">
         <v>30</v>
@@ -28795,16 +28795,16 @@
         <v>45383.41666666666</v>
       </c>
       <c r="E308" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F308" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -28813,64 +28813,64 @@
         <v>2</v>
       </c>
       <c r="K308" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L308">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="M308">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N308">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O308">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="P308">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q308">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="R308">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S308">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T308">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U308">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V308">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W308">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB308">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD308">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:30">
@@ -28878,7 +28878,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7088815</v>
+        <v>7083241</v>
       </c>
       <c r="C309" t="s">
         <v>30</v>
@@ -28887,64 +28887,64 @@
         <v>45383.41666666666</v>
       </c>
       <c r="E309" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F309" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G309">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H309">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K309" t="s">
         <v>53</v>
       </c>
       <c r="L309">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="M309">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N309">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O309">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="P309">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q309">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="R309">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S309">
+        <v>1.875</v>
+      </c>
+      <c r="T309">
         <v>1.975</v>
       </c>
-      <c r="T309">
-        <v>1.875</v>
-      </c>
       <c r="U309">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V309">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W309">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X309">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y309">
         <v>-1</v>
@@ -28953,16 +28953,16 @@
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD309">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -28970,7 +28970,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7083241</v>
+        <v>7093331</v>
       </c>
       <c r="C310" t="s">
         <v>30</v>
@@ -28979,82 +28979,82 @@
         <v>45383.41666666666</v>
       </c>
       <c r="E310" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K310" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L310">
         <v>1.8</v>
       </c>
       <c r="M310">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N310">
+        <v>4.5</v>
+      </c>
+      <c r="O310">
+        <v>1.6</v>
+      </c>
+      <c r="P310">
+        <v>4</v>
+      </c>
+      <c r="Q310">
+        <v>5.75</v>
+      </c>
+      <c r="R310">
+        <v>-1</v>
+      </c>
+      <c r="S310">
+        <v>2.025</v>
+      </c>
+      <c r="T310">
+        <v>1.825</v>
+      </c>
+      <c r="U310">
+        <v>2.75</v>
+      </c>
+      <c r="V310">
+        <v>1.825</v>
+      </c>
+      <c r="W310">
+        <v>2.025</v>
+      </c>
+      <c r="X310">
+        <v>-1</v>
+      </c>
+      <c r="Y310">
+        <v>-1</v>
+      </c>
+      <c r="Z310">
         <v>4.75</v>
       </c>
-      <c r="O310">
-        <v>1.65</v>
-      </c>
-      <c r="P310">
-        <v>3.4</v>
-      </c>
-      <c r="Q310">
-        <v>6.5</v>
-      </c>
-      <c r="R310">
-        <v>-0.75</v>
-      </c>
-      <c r="S310">
-        <v>1.875</v>
-      </c>
-      <c r="T310">
-        <v>1.975</v>
-      </c>
-      <c r="U310">
-        <v>2</v>
-      </c>
-      <c r="V310">
-        <v>1.925</v>
-      </c>
-      <c r="W310">
-        <v>1.925</v>
-      </c>
-      <c r="X310">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Y310">
-        <v>-1</v>
-      </c>
-      <c r="Z310">
-        <v>-1</v>
-      </c>
       <c r="AA310">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC310">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD310">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="311" spans="1:30">
@@ -29154,7 +29154,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7151351</v>
+        <v>7097548</v>
       </c>
       <c r="C312" t="s">
         <v>30</v>
@@ -29163,19 +29163,19 @@
         <v>45383.41666666666</v>
       </c>
       <c r="E312" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F312" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J312">
         <v>1</v>
@@ -29184,40 +29184,40 @@
         <v>52</v>
       </c>
       <c r="L312">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="M312">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N312">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="O312">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="P312">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q312">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="R312">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S312">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T312">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U312">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V312">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W312">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="X312">
         <v>-1</v>
@@ -29226,16 +29226,16 @@
         <v>-1</v>
       </c>
       <c r="Z312">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="AA312">
         <v>-1</v>
       </c>
       <c r="AB312">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC312">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AD312">
         <v>-1</v>
@@ -29246,7 +29246,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7097548</v>
+        <v>7151351</v>
       </c>
       <c r="C313" t="s">
         <v>30</v>
@@ -29255,19 +29255,19 @@
         <v>45383.41666666666</v>
       </c>
       <c r="E313" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F313" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J313">
         <v>1</v>
@@ -29276,40 +29276,40 @@
         <v>52</v>
       </c>
       <c r="L313">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="M313">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N313">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O313">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="P313">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q313">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="R313">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S313">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T313">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U313">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V313">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W313">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="X313">
         <v>-1</v>
@@ -29318,16 +29318,16 @@
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="AA313">
         <v>-1</v>
       </c>
       <c r="AB313">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC313">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD313">
         <v>-1</v>
@@ -29439,10 +29439,10 @@
         <v>45383.54166666666</v>
       </c>
       <c r="E315" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F315" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -29534,7 +29534,7 @@
         <v>41</v>
       </c>
       <c r="F316" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G316">
         <v>4</v>
@@ -29626,7 +29626,7 @@
         <v>32</v>
       </c>
       <c r="F317" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -29706,7 +29706,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7077997</v>
+        <v>7151350</v>
       </c>
       <c r="C318" t="s">
         <v>30</v>
@@ -29715,13 +29715,13 @@
         <v>45388.375</v>
       </c>
       <c r="E318" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F318" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -29730,67 +29730,67 @@
         <v>1</v>
       </c>
       <c r="J318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K318" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L318">
+        <v>2.625</v>
+      </c>
+      <c r="M318">
+        <v>3.25</v>
+      </c>
+      <c r="N318">
+        <v>2.7</v>
+      </c>
+      <c r="O318">
+        <v>2.7</v>
+      </c>
+      <c r="P318">
+        <v>3</v>
+      </c>
+      <c r="Q318">
+        <v>2.9</v>
+      </c>
+      <c r="R318">
+        <v>0</v>
+      </c>
+      <c r="S318">
+        <v>1.875</v>
+      </c>
+      <c r="T318">
+        <v>1.975</v>
+      </c>
+      <c r="U318">
+        <v>2.25</v>
+      </c>
+      <c r="V318">
+        <v>2.05</v>
+      </c>
+      <c r="W318">
+        <v>1.8</v>
+      </c>
+      <c r="X318">
         <v>1.7</v>
       </c>
-      <c r="M318">
-        <v>3.75</v>
-      </c>
-      <c r="N318">
-        <v>4.75</v>
-      </c>
-      <c r="O318">
-        <v>1.6</v>
-      </c>
-      <c r="P318">
-        <v>4</v>
-      </c>
-      <c r="Q318">
-        <v>6</v>
-      </c>
-      <c r="R318">
-        <v>-1</v>
-      </c>
-      <c r="S318">
-        <v>2.025</v>
-      </c>
-      <c r="T318">
-        <v>1.825</v>
-      </c>
-      <c r="U318">
-        <v>2.5</v>
-      </c>
-      <c r="V318">
-        <v>1.925</v>
-      </c>
-      <c r="W318">
-        <v>1.925</v>
-      </c>
-      <c r="X318">
-        <v>-1</v>
-      </c>
       <c r="Y318">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB318">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AD318">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:30">
@@ -29899,10 +29899,10 @@
         <v>45388.375</v>
       </c>
       <c r="E320" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F320" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G320">
         <v>2</v>
@@ -29982,7 +29982,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7151350</v>
+        <v>7077997</v>
       </c>
       <c r="C321" t="s">
         <v>30</v>
@@ -29991,82 +29991,82 @@
         <v>45388.375</v>
       </c>
       <c r="E321" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F321" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>1</v>
+      </c>
+      <c r="K321" t="s">
+        <v>54</v>
+      </c>
+      <c r="L321">
+        <v>1.7</v>
+      </c>
+      <c r="M321">
+        <v>3.75</v>
+      </c>
+      <c r="N321">
+        <v>4.75</v>
+      </c>
+      <c r="O321">
+        <v>1.6</v>
+      </c>
+      <c r="P321">
+        <v>4</v>
+      </c>
+      <c r="Q321">
+        <v>6</v>
+      </c>
+      <c r="R321">
+        <v>-1</v>
+      </c>
+      <c r="S321">
+        <v>2.025</v>
+      </c>
+      <c r="T321">
+        <v>1.825</v>
+      </c>
+      <c r="U321">
+        <v>2.5</v>
+      </c>
+      <c r="V321">
+        <v>1.925</v>
+      </c>
+      <c r="W321">
+        <v>1.925</v>
+      </c>
+      <c r="X321">
+        <v>-1</v>
+      </c>
+      <c r="Y321">
         <v>3</v>
       </c>
-      <c r="H321">
-        <v>1</v>
-      </c>
-      <c r="I321">
-        <v>1</v>
-      </c>
-      <c r="J321">
-        <v>0</v>
-      </c>
-      <c r="K321" t="s">
-        <v>53</v>
-      </c>
-      <c r="L321">
-        <v>2.625</v>
-      </c>
-      <c r="M321">
-        <v>3.25</v>
-      </c>
-      <c r="N321">
-        <v>2.7</v>
-      </c>
-      <c r="O321">
-        <v>2.7</v>
-      </c>
-      <c r="P321">
-        <v>3</v>
-      </c>
-      <c r="Q321">
-        <v>2.9</v>
-      </c>
-      <c r="R321">
-        <v>0</v>
-      </c>
-      <c r="S321">
-        <v>1.875</v>
-      </c>
-      <c r="T321">
-        <v>1.975</v>
-      </c>
-      <c r="U321">
-        <v>2.25</v>
-      </c>
-      <c r="V321">
-        <v>2.05</v>
-      </c>
-      <c r="W321">
-        <v>1.8</v>
-      </c>
-      <c r="X321">
-        <v>1.7</v>
-      </c>
-      <c r="Y321">
-        <v>-1</v>
-      </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC321">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AD321">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="322" spans="1:30">
@@ -30083,10 +30083,10 @@
         <v>45388.375</v>
       </c>
       <c r="E322" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F322" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G322">
         <v>0</v>
@@ -30543,7 +30543,7 @@
         <v>45394.64583333334</v>
       </c>
       <c r="E327" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F327" t="s">
         <v>45</v>
@@ -30638,7 +30638,7 @@
         <v>48</v>
       </c>
       <c r="F328" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G328">
         <v>3</v>
@@ -30718,7 +30718,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7141355</v>
+        <v>7147824</v>
       </c>
       <c r="C329" t="s">
         <v>30</v>
@@ -30727,82 +30727,82 @@
         <v>45395.375</v>
       </c>
       <c r="E329" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F329" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K329" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L329">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="M329">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N329">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="O329">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="P329">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q329">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="R329">
+        <v>-1.25</v>
+      </c>
+      <c r="S329">
+        <v>1.9</v>
+      </c>
+      <c r="T329">
+        <v>1.95</v>
+      </c>
+      <c r="U329">
+        <v>3.25</v>
+      </c>
+      <c r="V329">
+        <v>1.925</v>
+      </c>
+      <c r="W329">
+        <v>1.925</v>
+      </c>
+      <c r="X329">
+        <v>-1</v>
+      </c>
+      <c r="Y329">
+        <v>-1</v>
+      </c>
+      <c r="Z329">
+        <v>6</v>
+      </c>
+      <c r="AA329">
+        <v>-1</v>
+      </c>
+      <c r="AB329">
+        <v>0.95</v>
+      </c>
+      <c r="AC329">
         <v>-0.5</v>
       </c>
-      <c r="S329">
-        <v>2.05</v>
-      </c>
-      <c r="T329">
-        <v>1.8</v>
-      </c>
-      <c r="U329">
-        <v>2</v>
-      </c>
-      <c r="V329">
-        <v>2</v>
-      </c>
-      <c r="W329">
-        <v>1.85</v>
-      </c>
-      <c r="X329">
-        <v>-1</v>
-      </c>
-      <c r="Y329">
-        <v>2</v>
-      </c>
-      <c r="Z329">
-        <v>-1</v>
-      </c>
-      <c r="AA329">
-        <v>-1</v>
-      </c>
-      <c r="AB329">
-        <v>0.8</v>
-      </c>
-      <c r="AC329">
-        <v>-1</v>
-      </c>
       <c r="AD329">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="330" spans="1:30">
@@ -30810,7 +30810,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7147824</v>
+        <v>7141355</v>
       </c>
       <c r="C330" t="s">
         <v>30</v>
@@ -30819,82 +30819,82 @@
         <v>45395.375</v>
       </c>
       <c r="E330" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F330" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K330" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L330">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="M330">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N330">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="O330">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="P330">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q330">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="R330">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S330">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T330">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U330">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="V330">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W330">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X330">
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z330">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD330">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:30">
@@ -31187,7 +31187,7 @@
         <v>45395.46875</v>
       </c>
       <c r="E334" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F334" t="s">
         <v>49</v>
@@ -31454,7 +31454,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7161536</v>
+        <v>7158905</v>
       </c>
       <c r="C337" t="s">
         <v>30</v>
@@ -31463,82 +31463,82 @@
         <v>45401.64583333334</v>
       </c>
       <c r="E337" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F337" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G337">
         <v>0</v>
       </c>
       <c r="H337">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I337">
         <v>0</v>
       </c>
       <c r="J337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K337" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L337">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="M337">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N337">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O337">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P337">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q337">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="R337">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S337">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T337">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U337">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V337">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W337">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z337">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB337">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC337">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AD337">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="338" spans="1:30">
@@ -31546,7 +31546,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7158905</v>
+        <v>7161536</v>
       </c>
       <c r="C338" t="s">
         <v>30</v>
@@ -31555,82 +31555,82 @@
         <v>45401.64583333334</v>
       </c>
       <c r="E338" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F338" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G338">
         <v>0</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I338">
         <v>0</v>
       </c>
       <c r="J338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K338" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L338">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="M338">
+        <v>3.2</v>
+      </c>
+      <c r="N338">
+        <v>3.2</v>
+      </c>
+      <c r="O338">
+        <v>2.45</v>
+      </c>
+      <c r="P338">
+        <v>2.8</v>
+      </c>
+      <c r="Q338">
         <v>3.5</v>
       </c>
-      <c r="N338">
-        <v>2.4</v>
-      </c>
-      <c r="O338">
-        <v>3</v>
-      </c>
-      <c r="P338">
-        <v>3.4</v>
-      </c>
-      <c r="Q338">
-        <v>2.25</v>
-      </c>
       <c r="R338">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S338">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T338">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U338">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V338">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W338">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X338">
         <v>-1</v>
       </c>
       <c r="Y338">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z338">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA338">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AD338">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:30">
@@ -31650,7 +31650,7 @@
         <v>31</v>
       </c>
       <c r="F339" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G339">
         <v>0</v>
@@ -31742,7 +31742,7 @@
         <v>47</v>
       </c>
       <c r="F340" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G340">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>45402.375</v>
       </c>
       <c r="E341" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F341" t="s">
         <v>42</v>
@@ -32202,7 +32202,7 @@
         <v>45</v>
       </c>
       <c r="F345" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G345">
         <v>0</v>
@@ -32478,7 +32478,7 @@
         <v>40</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G348">
         <v>2</v>
@@ -32567,7 +32567,7 @@
         <v>45409.375</v>
       </c>
       <c r="E349" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F349" t="s">
         <v>47</v>
@@ -32659,7 +32659,7 @@
         <v>45409.375</v>
       </c>
       <c r="E350" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F350" t="s">
         <v>38</v>
@@ -32938,7 +32938,7 @@
         <v>39</v>
       </c>
       <c r="F353" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -33119,7 +33119,7 @@
         <v>45409.46875</v>
       </c>
       <c r="E355" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F355" t="s">
         <v>32</v>
@@ -33303,7 +33303,7 @@
         <v>45413.3125</v>
       </c>
       <c r="E357" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F357" t="s">
         <v>48</v>
@@ -33490,7 +33490,7 @@
         <v>47</v>
       </c>
       <c r="F359" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G359">
         <v>0</v>
@@ -33662,7 +33662,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7251270</v>
+        <v>7256191</v>
       </c>
       <c r="C361" t="s">
         <v>30</v>
@@ -33671,79 +33671,79 @@
         <v>45413.41666666666</v>
       </c>
       <c r="E361" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F361" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G361">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K361" t="s">
         <v>53</v>
       </c>
       <c r="L361">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M361">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N361">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="O361">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="P361">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q361">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R361">
+        <v>-0.75</v>
+      </c>
+      <c r="S361">
+        <v>1.8</v>
+      </c>
+      <c r="T361">
+        <v>2.05</v>
+      </c>
+      <c r="U361">
+        <v>2.5</v>
+      </c>
+      <c r="V361">
+        <v>1.9</v>
+      </c>
+      <c r="W361">
+        <v>1.95</v>
+      </c>
+      <c r="X361">
+        <v>0.615</v>
+      </c>
+      <c r="Y361">
+        <v>-1</v>
+      </c>
+      <c r="Z361">
+        <v>-1</v>
+      </c>
+      <c r="AA361">
+        <v>0.4</v>
+      </c>
+      <c r="AB361">
         <v>-0.5</v>
       </c>
-      <c r="S361">
-        <v>1.95</v>
-      </c>
-      <c r="T361">
-        <v>1.9</v>
-      </c>
-      <c r="U361">
-        <v>2.25</v>
-      </c>
-      <c r="V361">
-        <v>2.025</v>
-      </c>
-      <c r="W361">
-        <v>1.825</v>
-      </c>
-      <c r="X361">
-        <v>0.909</v>
-      </c>
-      <c r="Y361">
-        <v>-1</v>
-      </c>
-      <c r="Z361">
-        <v>-1</v>
-      </c>
-      <c r="AA361">
-        <v>0.95</v>
-      </c>
-      <c r="AB361">
-        <v>-1</v>
-      </c>
       <c r="AC361">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD361">
         <v>-1</v>
@@ -33754,7 +33754,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7256191</v>
+        <v>7251270</v>
       </c>
       <c r="C362" t="s">
         <v>30</v>
@@ -33763,64 +33763,64 @@
         <v>45413.41666666666</v>
       </c>
       <c r="E362" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F362" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K362" t="s">
         <v>53</v>
       </c>
       <c r="L362">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M362">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N362">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="O362">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="P362">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q362">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R362">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S362">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T362">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U362">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V362">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W362">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X362">
-        <v>0.615</v>
+        <v>0.909</v>
       </c>
       <c r="Y362">
         <v>-1</v>
@@ -33829,13 +33829,13 @@
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB362">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AD362">
         <v>-1</v>
@@ -33938,7 +33938,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7251269</v>
+        <v>7251268</v>
       </c>
       <c r="C364" t="s">
         <v>30</v>
@@ -33947,16 +33947,16 @@
         <v>45413.54166666666</v>
       </c>
       <c r="E364" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F364" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364">
         <v>0</v>
@@ -33965,64 +33965,64 @@
         <v>0</v>
       </c>
       <c r="K364" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L364">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="M364">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N364">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O364">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P364">
+        <v>3.8</v>
+      </c>
+      <c r="Q364">
+        <v>1.7</v>
+      </c>
+      <c r="R364">
+        <v>0.75</v>
+      </c>
+      <c r="S364">
+        <v>1.925</v>
+      </c>
+      <c r="T364">
+        <v>1.925</v>
+      </c>
+      <c r="U364">
         <v>2.75</v>
       </c>
-      <c r="Q364">
-        <v>2.5</v>
-      </c>
-      <c r="R364">
-        <v>0.25</v>
-      </c>
-      <c r="S364">
-        <v>1.75</v>
-      </c>
-      <c r="T364">
-        <v>2.125</v>
-      </c>
-      <c r="U364">
-        <v>2</v>
-      </c>
       <c r="V364">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W364">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X364">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA364">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB364">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC364">
         <v>-1</v>
       </c>
       <c r="AD364">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="365" spans="1:30">
@@ -34030,7 +34030,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7251268</v>
+        <v>7251269</v>
       </c>
       <c r="C365" t="s">
         <v>30</v>
@@ -34039,16 +34039,16 @@
         <v>45413.54166666666</v>
       </c>
       <c r="E365" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F365" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365">
         <v>0</v>
@@ -34057,64 +34057,64 @@
         <v>0</v>
       </c>
       <c r="K365" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L365">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="M365">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N365">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O365">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P365">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q365">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="R365">
+        <v>0.25</v>
+      </c>
+      <c r="S365">
+        <v>1.75</v>
+      </c>
+      <c r="T365">
+        <v>2.125</v>
+      </c>
+      <c r="U365">
+        <v>2</v>
+      </c>
+      <c r="V365">
+        <v>1.85</v>
+      </c>
+      <c r="W365">
+        <v>2</v>
+      </c>
+      <c r="X365">
+        <v>2.4</v>
+      </c>
+      <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
+        <v>-1</v>
+      </c>
+      <c r="AA365">
         <v>0.75</v>
       </c>
-      <c r="S365">
-        <v>1.925</v>
-      </c>
-      <c r="T365">
-        <v>1.925</v>
-      </c>
-      <c r="U365">
-        <v>2.75</v>
-      </c>
-      <c r="V365">
-        <v>1.975</v>
-      </c>
-      <c r="W365">
-        <v>1.875</v>
-      </c>
-      <c r="X365">
-        <v>-1</v>
-      </c>
-      <c r="Y365">
-        <v>-1</v>
-      </c>
-      <c r="Z365">
-        <v>0.7</v>
-      </c>
-      <c r="AA365">
-        <v>-0.5</v>
-      </c>
       <c r="AB365">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC365">
         <v>-1</v>
       </c>
       <c r="AD365">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34131,7 +34131,7 @@
         <v>45413.54166666666</v>
       </c>
       <c r="E366" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F366" t="s">
         <v>31</v>
@@ -34223,7 +34223,7 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E367" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F367" t="s">
         <v>42</v>
@@ -34315,7 +34315,7 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E368" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F368" t="s">
         <v>50</v>
@@ -34407,7 +34407,7 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E369" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F369" t="s">
         <v>45</v>
@@ -34778,7 +34778,7 @@
         <v>33</v>
       </c>
       <c r="F373" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G373">
         <v>1</v>
@@ -34962,7 +34962,7 @@
         <v>40</v>
       </c>
       <c r="F375" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G375">
         <v>2</v>
@@ -35330,7 +35330,7 @@
         <v>51</v>
       </c>
       <c r="F379" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G379">
         <v>2</v>
@@ -35603,10 +35603,10 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E382" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F382" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G382">
         <v>0</v>
@@ -35698,7 +35698,7 @@
         <v>42</v>
       </c>
       <c r="F383" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G383">
         <v>1</v>
@@ -35879,7 +35879,7 @@
         <v>45422.64583333334</v>
       </c>
       <c r="E385" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F385" t="s">
         <v>39</v>
@@ -36066,7 +36066,7 @@
         <v>32</v>
       </c>
       <c r="F387" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G387">
         <v>1</v>
@@ -36434,7 +36434,7 @@
         <v>45</v>
       </c>
       <c r="F391" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G391">
         <v>2</v>
@@ -36523,7 +36523,7 @@
         <v>45435.64583333334</v>
       </c>
       <c r="E392" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F392" t="s">
         <v>32</v>
@@ -36707,7 +36707,7 @@
         <v>45437.64583333334</v>
       </c>
       <c r="E394" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F394" t="s">
         <v>45</v>
@@ -36799,7 +36799,7 @@
         <v>45442.64583333334</v>
       </c>
       <c r="E395" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F395" t="s">
         <v>40</v>

--- a/Italy Serie B/Italy Serie B.xlsx
+++ b/Italy Serie B/Italy Serie B.xlsx
@@ -163,10 +163,10 @@
     <t>Palermo</t>
   </si>
   <si>
-    <t>Spezia</t>
+    <t>Lecco</t>
   </si>
   <si>
-    <t>Lecco</t>
+    <t>Spezia</t>
   </si>
   <si>
     <t>A</t>
@@ -1471,7 +1471,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -2655,7 +2655,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6906633</v>
+        <v>6906634</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2664,10 +2664,10 @@
         <v>45167.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2676,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2688,55 +2688,55 @@
         <v>2.5</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U24">
         <v>2.25</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W24">
+        <v>1.75</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
         <v>1.9</v>
       </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>1.75</v>
-      </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AD24">
         <v>-1</v>
@@ -2747,7 +2747,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6906634</v>
+        <v>6906635</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2756,16 +2756,16 @@
         <v>45167.64583333334</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2777,40 +2777,40 @@
         <v>51</v>
       </c>
       <c r="L25">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O25">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q25">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U25">
         <v>2.25</v>
       </c>
       <c r="V25">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2819,16 +2819,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD25">
         <v>-1</v>
@@ -2839,7 +2839,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6906635</v>
+        <v>6906633</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2848,19 +2848,19 @@
         <v>45167.64583333334</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2869,41 +2869,41 @@
         <v>51</v>
       </c>
       <c r="L26">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="M26">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N26">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O26">
+        <v>2.625</v>
+      </c>
+      <c r="P26">
         <v>3.1</v>
       </c>
-      <c r="P26">
-        <v>3.25</v>
-      </c>
       <c r="Q26">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U26">
         <v>2.25</v>
       </c>
       <c r="V26">
+        <v>1.95</v>
+      </c>
+      <c r="W26">
         <v>1.9</v>
       </c>
-      <c r="W26">
-        <v>1.95</v>
-      </c>
       <c r="X26">
         <v>-1</v>
       </c>
@@ -2911,16 +2911,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD26">
         <v>-1</v>
@@ -3219,7 +3219,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3943,7 +3943,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6905854</v>
+        <v>6906456</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3955,13 +3955,13 @@
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3973,40 +3973,40 @@
         <v>51</v>
       </c>
       <c r="L38">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="O38">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
         <v>3.3</v>
       </c>
       <c r="Q38">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S38">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
         <v>2.05</v>
       </c>
       <c r="U38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V38">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -4015,7 +4015,7 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -4024,10 +4024,10 @@
         <v>1.05</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4035,7 +4035,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6906456</v>
+        <v>6905854</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4047,13 +4047,13 @@
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4065,40 +4065,40 @@
         <v>51</v>
       </c>
       <c r="L39">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="P39">
         <v>3.3</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="R39">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
         <v>2.05</v>
       </c>
       <c r="U39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4107,7 +4107,7 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -4116,10 +4116,10 @@
         <v>1.05</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4231,7 +4231,7 @@
         <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4688,7 +4688,7 @@
         <v>45185.375</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
         <v>30</v>
@@ -4863,7 +4863,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7167430</v>
+        <v>7168365</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4872,79 +4872,79 @@
         <v>45186.46875</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L48">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O48">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P48">
+        <v>3.25</v>
+      </c>
+      <c r="Q48">
         <v>3.2</v>
-      </c>
-      <c r="Q48">
-        <v>3.6</v>
       </c>
       <c r="R48">
         <v>-0.25</v>
       </c>
       <c r="S48">
+        <v>2.05</v>
+      </c>
+      <c r="T48">
+        <v>1.8</v>
+      </c>
+      <c r="U48">
+        <v>2.5</v>
+      </c>
+      <c r="V48">
+        <v>2.025</v>
+      </c>
+      <c r="W48">
         <v>1.825</v>
       </c>
-      <c r="T48">
-        <v>2.025</v>
-      </c>
-      <c r="U48">
-        <v>2.25</v>
-      </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
-      <c r="W48">
-        <v>2</v>
-      </c>
       <c r="X48">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD48">
         <v>-1</v>
@@ -4955,7 +4955,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7168365</v>
+        <v>7167430</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4964,79 +4964,79 @@
         <v>45186.46875</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L49">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="M49">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N49">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O49">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q49">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="R49">
         <v>-0.25</v>
       </c>
       <c r="S49">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V49">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD49">
         <v>-1</v>
@@ -5507,7 +5507,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6906451</v>
+        <v>6906651</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5516,22 +5516,22 @@
         <v>45192.375</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
         <v>53</v>
@@ -5540,37 +5540,37 @@
         <v>1.727</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N55">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O55">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P55">
         <v>4</v>
       </c>
       <c r="Q55">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="R55">
         <v>-1</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U55">
         <v>2.5</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5585,13 +5585,13 @@
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5599,7 +5599,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6906651</v>
+        <v>6906451</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5608,22 +5608,22 @@
         <v>45192.375</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="s">
         <v>53</v>
@@ -5632,37 +5632,37 @@
         <v>1.727</v>
       </c>
       <c r="M56">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O56">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P56">
         <v>4</v>
       </c>
       <c r="Q56">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="R56">
         <v>-1</v>
       </c>
       <c r="S56">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U56">
         <v>2.5</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5677,13 +5677,13 @@
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5700,7 +5700,7 @@
         <v>45192.46875</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s">
         <v>47</v>
@@ -6059,7 +6059,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6906657</v>
+        <v>6906447</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -6068,10 +6068,10 @@
         <v>45195.55208333334</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6089,41 +6089,41 @@
         <v>51</v>
       </c>
       <c r="L61">
+        <v>2.5</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61">
+        <v>2.45</v>
+      </c>
+      <c r="P61">
         <v>3.1</v>
       </c>
-      <c r="M61">
+      <c r="Q61">
         <v>3.1</v>
       </c>
-      <c r="N61">
-        <v>2.4</v>
-      </c>
-      <c r="O61">
-        <v>3.4</v>
-      </c>
-      <c r="P61">
-        <v>3.2</v>
-      </c>
-      <c r="Q61">
-        <v>2.2</v>
-      </c>
       <c r="R61">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T61">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U61">
         <v>2.25</v>
       </c>
       <c r="V61">
+        <v>2.025</v>
+      </c>
+      <c r="W61">
         <v>1.825</v>
       </c>
-      <c r="W61">
-        <v>2.025</v>
-      </c>
       <c r="X61">
         <v>-1</v>
       </c>
@@ -6131,16 +6131,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AD61">
         <v>-1</v>
@@ -6151,7 +6151,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6906447</v>
+        <v>6906657</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -6160,10 +6160,10 @@
         <v>45195.55208333334</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6181,41 +6181,41 @@
         <v>51</v>
       </c>
       <c r="L62">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O62">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q62">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R62">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S62">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U62">
         <v>2.25</v>
       </c>
       <c r="V62">
+        <v>1.825</v>
+      </c>
+      <c r="W62">
         <v>2.025</v>
       </c>
-      <c r="W62">
-        <v>1.825</v>
-      </c>
       <c r="X62">
         <v>-1</v>
       </c>
@@ -6223,16 +6223,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AD62">
         <v>-1</v>
@@ -6252,7 +6252,7 @@
         <v>45195.64583333334</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
         <v>30</v>
@@ -6427,7 +6427,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6906661</v>
+        <v>6906659</v>
 